--- a/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1805800</v>
+        <v>1538000</v>
       </c>
       <c r="E8" s="3">
-        <v>1372300</v>
+        <v>1168800</v>
       </c>
       <c r="F8" s="3">
-        <v>1292600</v>
+        <v>1100900</v>
       </c>
       <c r="G8" s="3">
-        <v>1230200</v>
+        <v>1047800</v>
       </c>
       <c r="H8" s="3">
-        <v>1035700</v>
+        <v>882100</v>
       </c>
       <c r="I8" s="3">
-        <v>101700</v>
+        <v>86600</v>
       </c>
       <c r="J8" s="3">
-        <v>121000</v>
+        <v>103000</v>
       </c>
       <c r="K8" s="3">
         <v>133900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1659300</v>
+        <v>1413300</v>
       </c>
       <c r="E9" s="3">
-        <v>1211300</v>
+        <v>1031700</v>
       </c>
       <c r="F9" s="3">
-        <v>1197500</v>
+        <v>1020000</v>
       </c>
       <c r="G9" s="3">
-        <v>1061100</v>
+        <v>903700</v>
       </c>
       <c r="H9" s="3">
-        <v>1028700</v>
+        <v>876200</v>
       </c>
       <c r="I9" s="3">
-        <v>93100</v>
+        <v>79300</v>
       </c>
       <c r="J9" s="3">
-        <v>121500</v>
+        <v>103500</v>
       </c>
       <c r="K9" s="3">
         <v>106000</v>
@@ -783,22 +783,22 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>146500</v>
+        <v>124800</v>
       </c>
       <c r="E10" s="3">
-        <v>161000</v>
+        <v>137200</v>
       </c>
       <c r="F10" s="3">
-        <v>95100</v>
+        <v>81000</v>
       </c>
       <c r="G10" s="3">
-        <v>169200</v>
+        <v>144100</v>
       </c>
       <c r="H10" s="3">
-        <v>7000</v>
+        <v>5900</v>
       </c>
       <c r="I10" s="3">
-        <v>8500</v>
+        <v>7300</v>
       </c>
       <c r="J10" s="3">
         <v>-500</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>9900</v>
+        <v>8500</v>
       </c>
       <c r="E12" s="3">
-        <v>9100</v>
+        <v>7700</v>
       </c>
       <c r="F12" s="3">
-        <v>16200</v>
+        <v>13800</v>
       </c>
       <c r="G12" s="3">
-        <v>12800</v>
+        <v>10900</v>
       </c>
       <c r="H12" s="3">
-        <v>17600</v>
+        <v>15000</v>
       </c>
       <c r="I12" s="3">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="J12" s="3">
-        <v>5100</v>
+        <v>4300</v>
       </c>
       <c r="K12" s="3">
         <v>4400</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>269700</v>
+        <v>229700</v>
       </c>
       <c r="E14" s="3">
-        <v>368600</v>
+        <v>313900</v>
       </c>
       <c r="F14" s="3">
-        <v>127300</v>
+        <v>108400</v>
       </c>
       <c r="G14" s="3">
-        <v>-2300</v>
+        <v>-1900</v>
       </c>
       <c r="H14" s="3">
-        <v>251400</v>
+        <v>214100</v>
       </c>
       <c r="I14" s="3">
-        <v>10700</v>
+        <v>9100</v>
       </c>
       <c r="J14" s="3">
-        <v>19400</v>
+        <v>16500</v>
       </c>
       <c r="K14" s="3">
         <v>1500</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1972100</v>
+        <v>1679700</v>
       </c>
       <c r="E17" s="3">
-        <v>1689000</v>
+        <v>1438600</v>
       </c>
       <c r="F17" s="3">
-        <v>1304800</v>
+        <v>1111300</v>
       </c>
       <c r="G17" s="3">
-        <v>1122900</v>
+        <v>956400</v>
       </c>
       <c r="H17" s="3">
-        <v>1385800</v>
+        <v>1180300</v>
       </c>
       <c r="I17" s="3">
-        <v>111400</v>
+        <v>94900</v>
       </c>
       <c r="J17" s="3">
-        <v>134600</v>
+        <v>114600</v>
       </c>
       <c r="K17" s="3">
         <v>115800</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-166300</v>
+        <v>-141700</v>
       </c>
       <c r="E18" s="3">
-        <v>-316700</v>
+        <v>-269700</v>
       </c>
       <c r="F18" s="3">
-        <v>-12200</v>
+        <v>-10400</v>
       </c>
       <c r="G18" s="3">
-        <v>107300</v>
+        <v>91400</v>
       </c>
       <c r="H18" s="3">
-        <v>-350100</v>
+        <v>-298200</v>
       </c>
       <c r="I18" s="3">
-        <v>-9700</v>
+        <v>-8300</v>
       </c>
       <c r="J18" s="3">
-        <v>-13600</v>
+        <v>-11600</v>
       </c>
       <c r="K18" s="3">
         <v>18100</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>20700</v>
+        <v>17600</v>
       </c>
       <c r="E20" s="3">
-        <v>23000</v>
+        <v>19600</v>
       </c>
       <c r="F20" s="3">
-        <v>18000</v>
+        <v>15300</v>
       </c>
       <c r="G20" s="3">
-        <v>17200</v>
+        <v>14600</v>
       </c>
       <c r="H20" s="3">
-        <v>16200</v>
+        <v>13800</v>
       </c>
       <c r="I20" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J20" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K20" s="3">
         <v>300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>128800</v>
+        <v>109200</v>
       </c>
       <c r="E21" s="3">
-        <v>-119700</v>
+        <v>-102200</v>
       </c>
       <c r="F21" s="3">
-        <v>176300</v>
+        <v>149900</v>
       </c>
       <c r="G21" s="3">
-        <v>271400</v>
+        <v>230900</v>
       </c>
       <c r="H21" s="3">
-        <v>-166500</v>
+        <v>-142100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="3">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="K21" s="3">
         <v>36000</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>38600</v>
+        <v>32900</v>
       </c>
       <c r="E22" s="3">
-        <v>22100</v>
+        <v>18900</v>
       </c>
       <c r="F22" s="3">
+        <v>13400</v>
+      </c>
+      <c r="G22" s="3">
         <v>15700</v>
       </c>
-      <c r="G22" s="3">
-        <v>18400</v>
-      </c>
       <c r="H22" s="3">
-        <v>17700</v>
+        <v>15100</v>
       </c>
       <c r="I22" s="3">
+        <v>600</v>
+      </c>
+      <c r="J22" s="3">
         <v>700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>800</v>
       </c>
       <c r="K22" s="3">
         <v>1300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-184300</v>
+        <v>-156900</v>
       </c>
       <c r="E23" s="3">
-        <v>-315800</v>
+        <v>-269000</v>
       </c>
       <c r="F23" s="3">
-        <v>-9900</v>
+        <v>-8500</v>
       </c>
       <c r="G23" s="3">
-        <v>106100</v>
+        <v>90400</v>
       </c>
       <c r="H23" s="3">
-        <v>-351600</v>
+        <v>-299500</v>
       </c>
       <c r="I23" s="3">
-        <v>-9700</v>
+        <v>-8300</v>
       </c>
       <c r="J23" s="3">
-        <v>-12800</v>
+        <v>-10900</v>
       </c>
       <c r="K23" s="3">
         <v>17100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-9300</v>
+        <v>-7900</v>
       </c>
       <c r="E24" s="3">
-        <v>-15700</v>
+        <v>-13400</v>
       </c>
       <c r="F24" s="3">
-        <v>-34200</v>
+        <v>-29100</v>
       </c>
       <c r="G24" s="3">
-        <v>42400</v>
+        <v>36100</v>
       </c>
       <c r="H24" s="3">
-        <v>-47200</v>
+        <v>-40200</v>
       </c>
       <c r="I24" s="3">
-        <v>-1800</v>
+        <v>-1500</v>
       </c>
       <c r="J24" s="3">
-        <v>4600</v>
+        <v>3900</v>
       </c>
       <c r="K24" s="3">
         <v>-1100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-174900</v>
+        <v>-149000</v>
       </c>
       <c r="E26" s="3">
-        <v>-300100</v>
+        <v>-255600</v>
       </c>
       <c r="F26" s="3">
-        <v>24300</v>
+        <v>20700</v>
       </c>
       <c r="G26" s="3">
-        <v>63700</v>
+        <v>54200</v>
       </c>
       <c r="H26" s="3">
-        <v>-304400</v>
+        <v>-259200</v>
       </c>
       <c r="I26" s="3">
-        <v>-7900</v>
+        <v>-6700</v>
       </c>
       <c r="J26" s="3">
-        <v>-17400</v>
+        <v>-14900</v>
       </c>
       <c r="K26" s="3">
         <v>18200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-174900</v>
+        <v>-149000</v>
       </c>
       <c r="E27" s="3">
-        <v>-300100</v>
+        <v>-255600</v>
       </c>
       <c r="F27" s="3">
-        <v>24300</v>
+        <v>20700</v>
       </c>
       <c r="G27" s="3">
-        <v>63700</v>
+        <v>54200</v>
       </c>
       <c r="H27" s="3">
-        <v>-304400</v>
+        <v>-259200</v>
       </c>
       <c r="I27" s="3">
-        <v>-7900</v>
+        <v>-6700</v>
       </c>
       <c r="J27" s="3">
-        <v>-17400</v>
+        <v>-14900</v>
       </c>
       <c r="K27" s="3">
         <v>18200</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="K29" s="3">
         <v>5100</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20700</v>
+        <v>-17600</v>
       </c>
       <c r="E32" s="3">
-        <v>-23000</v>
+        <v>-19600</v>
       </c>
       <c r="F32" s="3">
-        <v>-18000</v>
+        <v>-15300</v>
       </c>
       <c r="G32" s="3">
-        <v>-17200</v>
+        <v>-14600</v>
       </c>
       <c r="H32" s="3">
-        <v>-16200</v>
+        <v>-13800</v>
       </c>
       <c r="I32" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J32" s="3">
-        <v>-1600</v>
+        <v>-1400</v>
       </c>
       <c r="K32" s="3">
         <v>-300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-174900</v>
+        <v>-149000</v>
       </c>
       <c r="E33" s="3">
-        <v>-300100</v>
+        <v>-255600</v>
       </c>
       <c r="F33" s="3">
-        <v>24300</v>
+        <v>20700</v>
       </c>
       <c r="G33" s="3">
-        <v>63700</v>
+        <v>54200</v>
       </c>
       <c r="H33" s="3">
-        <v>-304400</v>
+        <v>-259200</v>
       </c>
       <c r="I33" s="3">
-        <v>-7900</v>
+        <v>-6700</v>
       </c>
       <c r="J33" s="3">
-        <v>-15000</v>
+        <v>-12800</v>
       </c>
       <c r="K33" s="3">
         <v>23400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-174900</v>
+        <v>-149000</v>
       </c>
       <c r="E35" s="3">
-        <v>-300100</v>
+        <v>-255600</v>
       </c>
       <c r="F35" s="3">
-        <v>24300</v>
+        <v>20700</v>
       </c>
       <c r="G35" s="3">
-        <v>63700</v>
+        <v>54200</v>
       </c>
       <c r="H35" s="3">
-        <v>-304400</v>
+        <v>-259200</v>
       </c>
       <c r="I35" s="3">
-        <v>-7900</v>
+        <v>-6700</v>
       </c>
       <c r="J35" s="3">
-        <v>-15000</v>
+        <v>-12800</v>
       </c>
       <c r="K35" s="3">
         <v>23400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>66600</v>
+        <v>56600</v>
       </c>
       <c r="E41" s="3">
-        <v>47400</v>
+        <v>40200</v>
       </c>
       <c r="F41" s="3">
-        <v>83600</v>
+        <v>71000</v>
       </c>
       <c r="G41" s="3">
-        <v>84300</v>
+        <v>71600</v>
       </c>
       <c r="H41" s="3">
-        <v>71600</v>
+        <v>60800</v>
       </c>
       <c r="I41" s="3">
-        <v>11500</v>
+        <v>9800</v>
       </c>
       <c r="J41" s="3">
-        <v>14000</v>
+        <v>11900</v>
       </c>
       <c r="K41" s="3">
         <v>14800</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>66900</v>
+        <v>56800</v>
       </c>
       <c r="E43" s="3">
-        <v>71300</v>
+        <v>60600</v>
       </c>
       <c r="F43" s="3">
-        <v>62400</v>
+        <v>53000</v>
       </c>
       <c r="G43" s="3">
-        <v>41900</v>
+        <v>35600</v>
       </c>
       <c r="H43" s="3">
-        <v>48400</v>
+        <v>41200</v>
       </c>
       <c r="I43" s="3">
-        <v>6700</v>
+        <v>5700</v>
       </c>
       <c r="J43" s="3">
-        <v>8300</v>
+        <v>7000</v>
       </c>
       <c r="K43" s="3">
         <v>21500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>132000</v>
+        <v>112100</v>
       </c>
       <c r="E44" s="3">
-        <v>118000</v>
+        <v>100300</v>
       </c>
       <c r="F44" s="3">
-        <v>75600</v>
+        <v>64300</v>
       </c>
       <c r="G44" s="3">
-        <v>78300</v>
+        <v>66500</v>
       </c>
       <c r="H44" s="3">
-        <v>86700</v>
+        <v>73700</v>
       </c>
       <c r="I44" s="3">
-        <v>9700</v>
+        <v>8300</v>
       </c>
       <c r="J44" s="3">
-        <v>9600</v>
+        <v>8200</v>
       </c>
       <c r="K44" s="3">
         <v>8300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28200</v>
+        <v>23900</v>
       </c>
       <c r="E45" s="3">
-        <v>43800</v>
+        <v>37200</v>
       </c>
       <c r="F45" s="3">
-        <v>109500</v>
+        <v>93000</v>
       </c>
       <c r="G45" s="3">
-        <v>28200</v>
+        <v>24000</v>
       </c>
       <c r="H45" s="3">
-        <v>4700</v>
+        <v>4000</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K45" s="3">
         <v>12300</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>293700</v>
+        <v>249500</v>
       </c>
       <c r="E46" s="3">
-        <v>280500</v>
+        <v>238400</v>
       </c>
       <c r="F46" s="3">
-        <v>331100</v>
+        <v>281300</v>
       </c>
       <c r="G46" s="3">
-        <v>232800</v>
+        <v>197800</v>
       </c>
       <c r="H46" s="3">
-        <v>211400</v>
+        <v>179600</v>
       </c>
       <c r="I46" s="3">
-        <v>28000</v>
+        <v>23800</v>
       </c>
       <c r="J46" s="3">
-        <v>32300</v>
+        <v>27400</v>
       </c>
       <c r="K46" s="3">
         <v>46400</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>29800</v>
+        <v>25300</v>
       </c>
       <c r="E47" s="3">
-        <v>23400</v>
+        <v>19800</v>
       </c>
       <c r="F47" s="3">
-        <v>15800</v>
+        <v>13400</v>
       </c>
       <c r="G47" s="3">
-        <v>11900</v>
+        <v>10100</v>
       </c>
       <c r="H47" s="3">
-        <v>5700</v>
+        <v>4800</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="K47" s="3">
         <v>1400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1862000</v>
+        <v>1582000</v>
       </c>
       <c r="E48" s="3">
-        <v>2080200</v>
+        <v>1767400</v>
       </c>
       <c r="F48" s="3">
-        <v>2016000</v>
+        <v>1712800</v>
       </c>
       <c r="G48" s="3">
-        <v>2007600</v>
+        <v>1705700</v>
       </c>
       <c r="H48" s="3">
-        <v>1982700</v>
+        <v>1684500</v>
       </c>
       <c r="I48" s="3">
-        <v>209100</v>
+        <v>177600</v>
       </c>
       <c r="J48" s="3">
-        <v>220600</v>
+        <v>187400</v>
       </c>
       <c r="K48" s="3">
         <v>548700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35800</v>
+        <v>30400</v>
       </c>
       <c r="E49" s="3">
-        <v>34600</v>
+        <v>29400</v>
       </c>
       <c r="F49" s="3">
-        <v>40500</v>
+        <v>34400</v>
       </c>
       <c r="G49" s="3">
-        <v>58400</v>
+        <v>49600</v>
       </c>
       <c r="H49" s="3">
-        <v>59400</v>
+        <v>50500</v>
       </c>
       <c r="I49" s="3">
-        <v>5600</v>
+        <v>4800</v>
       </c>
       <c r="J49" s="3">
-        <v>14800</v>
+        <v>12500</v>
       </c>
       <c r="K49" s="3">
         <v>18400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>243800</v>
+        <v>207100</v>
       </c>
       <c r="E52" s="3">
-        <v>233400</v>
+        <v>198300</v>
       </c>
       <c r="F52" s="3">
-        <v>205700</v>
+        <v>174800</v>
       </c>
       <c r="G52" s="3">
-        <v>174100</v>
+        <v>147900</v>
       </c>
       <c r="H52" s="3">
-        <v>165600</v>
+        <v>140700</v>
       </c>
       <c r="I52" s="3">
-        <v>15700</v>
+        <v>13300</v>
       </c>
       <c r="J52" s="3">
-        <v>15200</v>
+        <v>12900</v>
       </c>
       <c r="K52" s="3">
         <v>20200</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2465000</v>
+        <v>2094300</v>
       </c>
       <c r="E54" s="3">
-        <v>2652000</v>
+        <v>2253200</v>
       </c>
       <c r="F54" s="3">
-        <v>2609000</v>
+        <v>2216700</v>
       </c>
       <c r="G54" s="3">
-        <v>2484700</v>
+        <v>2111100</v>
       </c>
       <c r="H54" s="3">
-        <v>2424800</v>
+        <v>2060200</v>
       </c>
       <c r="I54" s="3">
-        <v>258500</v>
+        <v>219600</v>
       </c>
       <c r="J54" s="3">
-        <v>283800</v>
+        <v>241200</v>
       </c>
       <c r="K54" s="3">
         <v>360700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>51200</v>
+        <v>43500</v>
       </c>
       <c r="E57" s="3">
-        <v>39400</v>
+        <v>33500</v>
       </c>
       <c r="F57" s="3">
-        <v>35000</v>
+        <v>29700</v>
       </c>
       <c r="G57" s="3">
-        <v>23700</v>
+        <v>20100</v>
       </c>
       <c r="H57" s="3">
-        <v>35200</v>
+        <v>29900</v>
       </c>
       <c r="I57" s="3">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="J57" s="3">
-        <v>3900</v>
+        <v>3300</v>
       </c>
       <c r="K57" s="3">
         <v>2300</v>
@@ -2177,16 +2177,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6000</v>
+        <v>5100</v>
       </c>
       <c r="E58" s="3">
-        <v>46300</v>
+        <v>39300</v>
       </c>
       <c r="F58" s="3">
-        <v>123100</v>
+        <v>104600</v>
       </c>
       <c r="G58" s="3">
-        <v>20100</v>
+        <v>17100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>16</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="K58" s="3">
         <v>2600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>159800</v>
+        <v>135800</v>
       </c>
       <c r="E59" s="3">
-        <v>155800</v>
+        <v>132400</v>
       </c>
       <c r="F59" s="3">
-        <v>99900</v>
+        <v>84900</v>
       </c>
       <c r="G59" s="3">
-        <v>92500</v>
+        <v>78600</v>
       </c>
       <c r="H59" s="3">
-        <v>76200</v>
+        <v>64800</v>
       </c>
       <c r="I59" s="3">
-        <v>8600</v>
+        <v>7300</v>
       </c>
       <c r="J59" s="3">
-        <v>10300</v>
+        <v>8700</v>
       </c>
       <c r="K59" s="3">
         <v>15400</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>217000</v>
+        <v>184400</v>
       </c>
       <c r="E60" s="3">
-        <v>241500</v>
+        <v>205200</v>
       </c>
       <c r="F60" s="3">
-        <v>257900</v>
+        <v>219100</v>
       </c>
       <c r="G60" s="3">
-        <v>136300</v>
+        <v>115800</v>
       </c>
       <c r="H60" s="3">
-        <v>111500</v>
+        <v>94700</v>
       </c>
       <c r="I60" s="3">
-        <v>11700</v>
+        <v>9900</v>
       </c>
       <c r="J60" s="3">
-        <v>16000</v>
+        <v>13600</v>
       </c>
       <c r="K60" s="3">
         <v>20400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>390900</v>
+        <v>332100</v>
       </c>
       <c r="E61" s="3">
-        <v>330400</v>
+        <v>280700</v>
       </c>
       <c r="F61" s="3">
-        <v>20100</v>
+        <v>17000</v>
       </c>
       <c r="G61" s="3">
-        <v>136800</v>
+        <v>116200</v>
       </c>
       <c r="H61" s="3">
-        <v>228100</v>
+        <v>193800</v>
       </c>
       <c r="I61" s="3">
-        <v>18100</v>
+        <v>15400</v>
       </c>
       <c r="J61" s="3">
-        <v>15200</v>
+        <v>12900</v>
       </c>
       <c r="K61" s="3">
         <v>12500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>339700</v>
+        <v>288600</v>
       </c>
       <c r="E62" s="3">
-        <v>377000</v>
+        <v>320300</v>
       </c>
       <c r="F62" s="3">
-        <v>365600</v>
+        <v>310600</v>
       </c>
       <c r="G62" s="3">
-        <v>320800</v>
+        <v>272600</v>
       </c>
       <c r="H62" s="3">
-        <v>290100</v>
+        <v>246500</v>
       </c>
       <c r="I62" s="3">
-        <v>32400</v>
+        <v>27500</v>
       </c>
       <c r="J62" s="3">
-        <v>35400</v>
+        <v>30000</v>
       </c>
       <c r="K62" s="3">
         <v>43200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>947600</v>
+        <v>805100</v>
       </c>
       <c r="E66" s="3">
-        <v>948900</v>
+        <v>806200</v>
       </c>
       <c r="F66" s="3">
-        <v>643600</v>
+        <v>546800</v>
       </c>
       <c r="G66" s="3">
-        <v>593900</v>
+        <v>504600</v>
       </c>
       <c r="H66" s="3">
-        <v>629700</v>
+        <v>535000</v>
       </c>
       <c r="I66" s="3">
-        <v>62200</v>
+        <v>52800</v>
       </c>
       <c r="J66" s="3">
-        <v>66600</v>
+        <v>56600</v>
       </c>
       <c r="K66" s="3">
         <v>76100</v>
@@ -2621,22 +2621,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-632400</v>
+        <v>-537300</v>
       </c>
       <c r="E72" s="3">
-        <v>-472900</v>
+        <v>-401800</v>
       </c>
       <c r="F72" s="3">
-        <v>-188200</v>
+        <v>-159900</v>
       </c>
       <c r="G72" s="3">
-        <v>-207900</v>
+        <v>-176700</v>
       </c>
       <c r="H72" s="3">
-        <v>-293200</v>
+        <v>-249100</v>
       </c>
       <c r="I72" s="3">
-        <v>-9000</v>
+        <v>-7600</v>
       </c>
       <c r="J72" s="3">
         <v>500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1517400</v>
+        <v>1289200</v>
       </c>
       <c r="E76" s="3">
-        <v>1703100</v>
+        <v>1447000</v>
       </c>
       <c r="F76" s="3">
-        <v>1965400</v>
+        <v>1669900</v>
       </c>
       <c r="G76" s="3">
-        <v>1890800</v>
+        <v>1606500</v>
       </c>
       <c r="H76" s="3">
-        <v>1795100</v>
+        <v>1525200</v>
       </c>
       <c r="I76" s="3">
-        <v>196300</v>
+        <v>166800</v>
       </c>
       <c r="J76" s="3">
-        <v>217300</v>
+        <v>184600</v>
       </c>
       <c r="K76" s="3">
         <v>284600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-174900</v>
+        <v>-149000</v>
       </c>
       <c r="E81" s="3">
-        <v>-300100</v>
+        <v>-255600</v>
       </c>
       <c r="F81" s="3">
-        <v>24300</v>
+        <v>20700</v>
       </c>
       <c r="G81" s="3">
-        <v>63700</v>
+        <v>54200</v>
       </c>
       <c r="H81" s="3">
-        <v>-304400</v>
+        <v>-259200</v>
       </c>
       <c r="I81" s="3">
-        <v>-7900</v>
+        <v>-6700</v>
       </c>
       <c r="J81" s="3">
-        <v>-15000</v>
+        <v>-12800</v>
       </c>
       <c r="K81" s="3">
         <v>23400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>272000</v>
+        <v>231700</v>
       </c>
       <c r="E83" s="3">
-        <v>172400</v>
+        <v>146900</v>
       </c>
       <c r="F83" s="3">
-        <v>169000</v>
+        <v>144000</v>
       </c>
       <c r="G83" s="3">
-        <v>145600</v>
+        <v>124000</v>
       </c>
       <c r="H83" s="3">
-        <v>165900</v>
+        <v>141300</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J83" s="3">
-        <v>14800</v>
+        <v>12600</v>
       </c>
       <c r="K83" s="3">
         <v>17500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>314000</v>
+        <v>267400</v>
       </c>
       <c r="E89" s="3">
-        <v>260600</v>
+        <v>222000</v>
       </c>
       <c r="F89" s="3">
-        <v>255200</v>
+        <v>217400</v>
       </c>
       <c r="G89" s="3">
-        <v>302800</v>
+        <v>257900</v>
       </c>
       <c r="H89" s="3">
-        <v>134600</v>
+        <v>114600</v>
       </c>
       <c r="I89" s="3">
-        <v>14700</v>
+        <v>12500</v>
       </c>
       <c r="J89" s="3">
-        <v>22000</v>
+        <v>18700</v>
       </c>
       <c r="K89" s="3">
         <v>37400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-337800</v>
+        <v>-287800</v>
       </c>
       <c r="E91" s="3">
-        <v>-306100</v>
+        <v>-260700</v>
       </c>
       <c r="F91" s="3">
-        <v>-261000</v>
+        <v>-222300</v>
       </c>
       <c r="G91" s="3">
-        <v>-163500</v>
+        <v>-139300</v>
       </c>
       <c r="H91" s="3">
-        <v>-189400</v>
+        <v>-161300</v>
       </c>
       <c r="I91" s="3">
-        <v>-17200</v>
+        <v>-14600</v>
       </c>
       <c r="J91" s="3">
-        <v>-28800</v>
+        <v>-24500</v>
       </c>
       <c r="K91" s="3">
         <v>-28200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-321900</v>
+        <v>-274100</v>
       </c>
       <c r="E94" s="3">
-        <v>-541800</v>
+        <v>-461500</v>
       </c>
       <c r="F94" s="3">
-        <v>-227000</v>
+        <v>-193300</v>
       </c>
       <c r="G94" s="3">
-        <v>-174400</v>
+        <v>-148500</v>
       </c>
       <c r="H94" s="3">
-        <v>-195100</v>
+        <v>-166200</v>
       </c>
       <c r="I94" s="3">
-        <v>-17100</v>
+        <v>-14600</v>
       </c>
       <c r="J94" s="3">
-        <v>-19100</v>
+        <v>-16300</v>
       </c>
       <c r="K94" s="3">
         <v>-25400</v>
@@ -3301,10 +3301,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-10300</v>
+        <v>-8800</v>
       </c>
       <c r="F96" s="3">
-        <v>-29500</v>
+        <v>-25100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-3400</v>
+        <v>-2900</v>
       </c>
       <c r="K96" s="3">
         <v>-3900</v>
@@ -3430,22 +3430,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>25500</v>
+        <v>21700</v>
       </c>
       <c r="E100" s="3">
-        <v>249800</v>
+        <v>212800</v>
       </c>
       <c r="F100" s="3">
-        <v>-30200</v>
+        <v>-25700</v>
       </c>
       <c r="G100" s="3">
-        <v>-117100</v>
+        <v>-99700</v>
       </c>
       <c r="H100" s="3">
-        <v>9900</v>
+        <v>8500</v>
       </c>
       <c r="I100" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="J100" s="3">
         <v>-300</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="E101" s="3">
-        <v>-4800</v>
+        <v>-4100</v>
       </c>
       <c r="F101" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G101" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="H101" s="3">
         <v>-500</v>
       </c>
       <c r="I101" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="J101" s="3">
-        <v>-3000</v>
+        <v>-2600</v>
       </c>
       <c r="K101" s="3">
         <v>-2400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>19300</v>
+        <v>16400</v>
       </c>
       <c r="E102" s="3">
-        <v>-36200</v>
+        <v>-30900</v>
       </c>
       <c r="F102" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="G102" s="3">
-        <v>12700</v>
+        <v>10800</v>
       </c>
       <c r="H102" s="3">
-        <v>-51100</v>
+        <v>-43500</v>
       </c>
       <c r="I102" s="3">
-        <v>-2500</v>
+        <v>-2100</v>
       </c>
       <c r="J102" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="K102" s="3">
         <v>7800</v>

--- a/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1538000</v>
+        <v>1595300</v>
       </c>
       <c r="E8" s="3">
-        <v>1168800</v>
+        <v>1212400</v>
       </c>
       <c r="F8" s="3">
-        <v>1100900</v>
+        <v>1142000</v>
       </c>
       <c r="G8" s="3">
-        <v>1047800</v>
+        <v>1086800</v>
       </c>
       <c r="H8" s="3">
-        <v>882100</v>
+        <v>915000</v>
       </c>
       <c r="I8" s="3">
-        <v>86600</v>
+        <v>89800</v>
       </c>
       <c r="J8" s="3">
-        <v>103000</v>
+        <v>106900</v>
       </c>
       <c r="K8" s="3">
         <v>133900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1413300</v>
+        <v>1465900</v>
       </c>
       <c r="E9" s="3">
-        <v>1031700</v>
+        <v>1070100</v>
       </c>
       <c r="F9" s="3">
-        <v>1020000</v>
+        <v>1058000</v>
       </c>
       <c r="G9" s="3">
-        <v>903700</v>
+        <v>937400</v>
       </c>
       <c r="H9" s="3">
-        <v>876200</v>
+        <v>908800</v>
       </c>
       <c r="I9" s="3">
-        <v>79300</v>
+        <v>82300</v>
       </c>
       <c r="J9" s="3">
-        <v>103500</v>
+        <v>107400</v>
       </c>
       <c r="K9" s="3">
         <v>106000</v>
@@ -783,22 +783,22 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>124800</v>
+        <v>129400</v>
       </c>
       <c r="E10" s="3">
-        <v>137200</v>
+        <v>142300</v>
       </c>
       <c r="F10" s="3">
-        <v>81000</v>
+        <v>84000</v>
       </c>
       <c r="G10" s="3">
-        <v>144100</v>
+        <v>149400</v>
       </c>
       <c r="H10" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="I10" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="J10" s="3">
         <v>-500</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="E12" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="F12" s="3">
-        <v>13800</v>
+        <v>14300</v>
       </c>
       <c r="G12" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="H12" s="3">
-        <v>15000</v>
+        <v>15600</v>
       </c>
       <c r="I12" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J12" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="K12" s="3">
         <v>4400</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>229700</v>
+        <v>238200</v>
       </c>
       <c r="E14" s="3">
-        <v>313900</v>
+        <v>325600</v>
       </c>
       <c r="F14" s="3">
-        <v>108400</v>
+        <v>112500</v>
       </c>
       <c r="G14" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="H14" s="3">
-        <v>214100</v>
+        <v>222100</v>
       </c>
       <c r="I14" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="J14" s="3">
-        <v>16500</v>
+        <v>17100</v>
       </c>
       <c r="K14" s="3">
         <v>1500</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1679700</v>
+        <v>1742300</v>
       </c>
       <c r="E17" s="3">
-        <v>1438600</v>
+        <v>1492200</v>
       </c>
       <c r="F17" s="3">
-        <v>1111300</v>
+        <v>1152800</v>
       </c>
       <c r="G17" s="3">
-        <v>956400</v>
+        <v>992100</v>
       </c>
       <c r="H17" s="3">
-        <v>1180300</v>
+        <v>1224300</v>
       </c>
       <c r="I17" s="3">
-        <v>94900</v>
+        <v>98400</v>
       </c>
       <c r="J17" s="3">
-        <v>114600</v>
+        <v>118900</v>
       </c>
       <c r="K17" s="3">
         <v>115800</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-141700</v>
+        <v>-147000</v>
       </c>
       <c r="E18" s="3">
-        <v>-269700</v>
+        <v>-279800</v>
       </c>
       <c r="F18" s="3">
-        <v>-10400</v>
+        <v>-10800</v>
       </c>
       <c r="G18" s="3">
-        <v>91400</v>
+        <v>94800</v>
       </c>
       <c r="H18" s="3">
-        <v>-298200</v>
+        <v>-309300</v>
       </c>
       <c r="I18" s="3">
-        <v>-8300</v>
+        <v>-8600</v>
       </c>
       <c r="J18" s="3">
-        <v>-11600</v>
+        <v>-12000</v>
       </c>
       <c r="K18" s="3">
         <v>18100</v>
@@ -1056,22 +1056,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>17600</v>
+        <v>18300</v>
       </c>
       <c r="E20" s="3">
-        <v>19600</v>
+        <v>20300</v>
       </c>
       <c r="F20" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="G20" s="3">
-        <v>14600</v>
+        <v>15200</v>
       </c>
       <c r="H20" s="3">
-        <v>13800</v>
+        <v>14300</v>
       </c>
       <c r="I20" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J20" s="3">
         <v>1400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>109200</v>
+        <v>112000</v>
       </c>
       <c r="E21" s="3">
-        <v>-102200</v>
+        <v>-106900</v>
       </c>
       <c r="F21" s="3">
-        <v>149900</v>
+        <v>154700</v>
       </c>
       <c r="G21" s="3">
-        <v>230900</v>
+        <v>238800</v>
       </c>
       <c r="H21" s="3">
-        <v>-142100</v>
+        <v>-148200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K21" s="3">
         <v>36000</v>
@@ -1122,22 +1122,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>32900</v>
+        <v>34100</v>
       </c>
       <c r="E22" s="3">
-        <v>18900</v>
+        <v>19600</v>
       </c>
       <c r="F22" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="G22" s="3">
-        <v>15700</v>
+        <v>16200</v>
       </c>
       <c r="H22" s="3">
-        <v>15100</v>
+        <v>15600</v>
       </c>
       <c r="I22" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J22" s="3">
         <v>700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-156900</v>
+        <v>-162800</v>
       </c>
       <c r="E23" s="3">
-        <v>-269000</v>
+        <v>-279000</v>
       </c>
       <c r="F23" s="3">
-        <v>-8500</v>
+        <v>-8800</v>
       </c>
       <c r="G23" s="3">
-        <v>90400</v>
+        <v>93700</v>
       </c>
       <c r="H23" s="3">
-        <v>-299500</v>
+        <v>-310600</v>
       </c>
       <c r="I23" s="3">
-        <v>-8300</v>
+        <v>-8600</v>
       </c>
       <c r="J23" s="3">
-        <v>-10900</v>
+        <v>-11300</v>
       </c>
       <c r="K23" s="3">
         <v>17100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-7900</v>
+        <v>-8200</v>
       </c>
       <c r="E24" s="3">
-        <v>-13400</v>
+        <v>-13900</v>
       </c>
       <c r="F24" s="3">
-        <v>-29100</v>
+        <v>-30200</v>
       </c>
       <c r="G24" s="3">
-        <v>36100</v>
+        <v>37500</v>
       </c>
       <c r="H24" s="3">
-        <v>-40200</v>
+        <v>-41700</v>
       </c>
       <c r="I24" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J24" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="K24" s="3">
         <v>-1100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-149000</v>
+        <v>-154500</v>
       </c>
       <c r="E26" s="3">
-        <v>-255600</v>
+        <v>-265200</v>
       </c>
       <c r="F26" s="3">
-        <v>20700</v>
+        <v>21500</v>
       </c>
       <c r="G26" s="3">
-        <v>54200</v>
+        <v>56300</v>
       </c>
       <c r="H26" s="3">
-        <v>-259200</v>
+        <v>-268900</v>
       </c>
       <c r="I26" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="J26" s="3">
-        <v>-14900</v>
+        <v>-15400</v>
       </c>
       <c r="K26" s="3">
         <v>18200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-149000</v>
+        <v>-154500</v>
       </c>
       <c r="E27" s="3">
-        <v>-255600</v>
+        <v>-265200</v>
       </c>
       <c r="F27" s="3">
-        <v>20700</v>
+        <v>21500</v>
       </c>
       <c r="G27" s="3">
-        <v>54200</v>
+        <v>56300</v>
       </c>
       <c r="H27" s="3">
-        <v>-259200</v>
+        <v>-268900</v>
       </c>
       <c r="I27" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="J27" s="3">
-        <v>-14900</v>
+        <v>-15400</v>
       </c>
       <c r="K27" s="3">
         <v>18200</v>
@@ -1452,22 +1452,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17600</v>
+        <v>-18300</v>
       </c>
       <c r="E32" s="3">
-        <v>-19600</v>
+        <v>-20300</v>
       </c>
       <c r="F32" s="3">
-        <v>-15300</v>
+        <v>-15900</v>
       </c>
       <c r="G32" s="3">
-        <v>-14600</v>
+        <v>-15200</v>
       </c>
       <c r="H32" s="3">
-        <v>-13800</v>
+        <v>-14300</v>
       </c>
       <c r="I32" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J32" s="3">
         <v>-1400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-149000</v>
+        <v>-154500</v>
       </c>
       <c r="E33" s="3">
-        <v>-255600</v>
+        <v>-265200</v>
       </c>
       <c r="F33" s="3">
-        <v>20700</v>
+        <v>21500</v>
       </c>
       <c r="G33" s="3">
-        <v>54200</v>
+        <v>56300</v>
       </c>
       <c r="H33" s="3">
-        <v>-259200</v>
+        <v>-268900</v>
       </c>
       <c r="I33" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="J33" s="3">
-        <v>-12800</v>
+        <v>-13300</v>
       </c>
       <c r="K33" s="3">
         <v>23400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-149000</v>
+        <v>-154500</v>
       </c>
       <c r="E35" s="3">
-        <v>-255600</v>
+        <v>-265200</v>
       </c>
       <c r="F35" s="3">
-        <v>20700</v>
+        <v>21500</v>
       </c>
       <c r="G35" s="3">
-        <v>54200</v>
+        <v>56300</v>
       </c>
       <c r="H35" s="3">
-        <v>-259200</v>
+        <v>-268900</v>
       </c>
       <c r="I35" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="J35" s="3">
-        <v>-12800</v>
+        <v>-13300</v>
       </c>
       <c r="K35" s="3">
         <v>23400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>56600</v>
+        <v>58900</v>
       </c>
       <c r="E41" s="3">
-        <v>40200</v>
+        <v>41900</v>
       </c>
       <c r="F41" s="3">
-        <v>71000</v>
+        <v>73900</v>
       </c>
       <c r="G41" s="3">
-        <v>71600</v>
+        <v>74500</v>
       </c>
       <c r="H41" s="3">
-        <v>60800</v>
+        <v>63300</v>
       </c>
       <c r="I41" s="3">
-        <v>9800</v>
+        <v>10200</v>
       </c>
       <c r="J41" s="3">
-        <v>11900</v>
+        <v>12400</v>
       </c>
       <c r="K41" s="3">
         <v>14800</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>56800</v>
+        <v>59100</v>
       </c>
       <c r="E43" s="3">
-        <v>60600</v>
+        <v>63000</v>
       </c>
       <c r="F43" s="3">
-        <v>53000</v>
+        <v>55100</v>
       </c>
       <c r="G43" s="3">
-        <v>35600</v>
+        <v>37000</v>
       </c>
       <c r="H43" s="3">
-        <v>41200</v>
+        <v>42800</v>
       </c>
       <c r="I43" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="J43" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="K43" s="3">
         <v>21500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>112100</v>
+        <v>116600</v>
       </c>
       <c r="E44" s="3">
-        <v>100300</v>
+        <v>104300</v>
       </c>
       <c r="F44" s="3">
-        <v>64300</v>
+        <v>66800</v>
       </c>
       <c r="G44" s="3">
-        <v>66500</v>
+        <v>69200</v>
       </c>
       <c r="H44" s="3">
-        <v>73700</v>
+        <v>76600</v>
       </c>
       <c r="I44" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="J44" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="K44" s="3">
         <v>8300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23900</v>
+        <v>24900</v>
       </c>
       <c r="E45" s="3">
-        <v>37200</v>
+        <v>38700</v>
       </c>
       <c r="F45" s="3">
-        <v>93000</v>
+        <v>96700</v>
       </c>
       <c r="G45" s="3">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="H45" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>12300</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>249500</v>
+        <v>259500</v>
       </c>
       <c r="E46" s="3">
-        <v>238400</v>
+        <v>247800</v>
       </c>
       <c r="F46" s="3">
-        <v>281300</v>
+        <v>292500</v>
       </c>
       <c r="G46" s="3">
-        <v>197800</v>
+        <v>205600</v>
       </c>
       <c r="H46" s="3">
-        <v>179600</v>
+        <v>186800</v>
       </c>
       <c r="I46" s="3">
-        <v>23800</v>
+        <v>24800</v>
       </c>
       <c r="J46" s="3">
-        <v>27400</v>
+        <v>28500</v>
       </c>
       <c r="K46" s="3">
         <v>46400</v>
@@ -1850,19 +1850,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25300</v>
+        <v>26300</v>
       </c>
       <c r="E47" s="3">
-        <v>19800</v>
+        <v>20600</v>
       </c>
       <c r="F47" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="G47" s="3">
-        <v>10100</v>
+        <v>10500</v>
       </c>
       <c r="H47" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1582000</v>
+        <v>1645000</v>
       </c>
       <c r="E48" s="3">
-        <v>1767400</v>
+        <v>1837700</v>
       </c>
       <c r="F48" s="3">
-        <v>1712800</v>
+        <v>1781000</v>
       </c>
       <c r="G48" s="3">
-        <v>1705700</v>
+        <v>1773600</v>
       </c>
       <c r="H48" s="3">
-        <v>1684500</v>
+        <v>1751600</v>
       </c>
       <c r="I48" s="3">
-        <v>177600</v>
+        <v>184700</v>
       </c>
       <c r="J48" s="3">
-        <v>187400</v>
+        <v>194900</v>
       </c>
       <c r="K48" s="3">
         <v>548700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>30400</v>
+        <v>31600</v>
       </c>
       <c r="E49" s="3">
-        <v>29400</v>
+        <v>30500</v>
       </c>
       <c r="F49" s="3">
-        <v>34400</v>
+        <v>35700</v>
       </c>
       <c r="G49" s="3">
-        <v>49600</v>
+        <v>51600</v>
       </c>
       <c r="H49" s="3">
-        <v>50500</v>
+        <v>52500</v>
       </c>
       <c r="I49" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="J49" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="K49" s="3">
         <v>18400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>207100</v>
+        <v>215400</v>
       </c>
       <c r="E52" s="3">
-        <v>198300</v>
+        <v>206200</v>
       </c>
       <c r="F52" s="3">
-        <v>174800</v>
+        <v>181800</v>
       </c>
       <c r="G52" s="3">
-        <v>147900</v>
+        <v>153800</v>
       </c>
       <c r="H52" s="3">
-        <v>140700</v>
+        <v>146300</v>
       </c>
       <c r="I52" s="3">
-        <v>13300</v>
+        <v>13900</v>
       </c>
       <c r="J52" s="3">
-        <v>12900</v>
+        <v>13400</v>
       </c>
       <c r="K52" s="3">
         <v>20200</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2094300</v>
+        <v>2177700</v>
       </c>
       <c r="E54" s="3">
-        <v>2253200</v>
+        <v>2342900</v>
       </c>
       <c r="F54" s="3">
-        <v>2216700</v>
+        <v>2305000</v>
       </c>
       <c r="G54" s="3">
-        <v>2111100</v>
+        <v>2195100</v>
       </c>
       <c r="H54" s="3">
-        <v>2060200</v>
+        <v>2142200</v>
       </c>
       <c r="I54" s="3">
-        <v>219600</v>
+        <v>228300</v>
       </c>
       <c r="J54" s="3">
-        <v>241200</v>
+        <v>250800</v>
       </c>
       <c r="K54" s="3">
         <v>360700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>43500</v>
+        <v>45200</v>
       </c>
       <c r="E57" s="3">
-        <v>33500</v>
+        <v>34800</v>
       </c>
       <c r="F57" s="3">
-        <v>29700</v>
+        <v>30900</v>
       </c>
       <c r="G57" s="3">
-        <v>20100</v>
+        <v>20900</v>
       </c>
       <c r="H57" s="3">
-        <v>29900</v>
+        <v>31100</v>
       </c>
       <c r="I57" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J57" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K57" s="3">
         <v>2300</v>
@@ -2177,16 +2177,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E58" s="3">
-        <v>39300</v>
+        <v>40900</v>
       </c>
       <c r="F58" s="3">
-        <v>104600</v>
+        <v>108700</v>
       </c>
       <c r="G58" s="3">
-        <v>17100</v>
+        <v>17800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>16</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K58" s="3">
         <v>2600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>135800</v>
+        <v>141200</v>
       </c>
       <c r="E59" s="3">
-        <v>132400</v>
+        <v>137600</v>
       </c>
       <c r="F59" s="3">
-        <v>84900</v>
+        <v>88300</v>
       </c>
       <c r="G59" s="3">
-        <v>78600</v>
+        <v>81700</v>
       </c>
       <c r="H59" s="3">
-        <v>64800</v>
+        <v>67300</v>
       </c>
       <c r="I59" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="J59" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="K59" s="3">
         <v>15400</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>184400</v>
+        <v>191700</v>
       </c>
       <c r="E60" s="3">
-        <v>205200</v>
+        <v>213300</v>
       </c>
       <c r="F60" s="3">
-        <v>219100</v>
+        <v>227900</v>
       </c>
       <c r="G60" s="3">
-        <v>115800</v>
+        <v>120400</v>
       </c>
       <c r="H60" s="3">
-        <v>94700</v>
+        <v>98500</v>
       </c>
       <c r="I60" s="3">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="J60" s="3">
-        <v>13600</v>
+        <v>14200</v>
       </c>
       <c r="K60" s="3">
         <v>20400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>332100</v>
+        <v>345400</v>
       </c>
       <c r="E61" s="3">
-        <v>280700</v>
+        <v>291900</v>
       </c>
       <c r="F61" s="3">
-        <v>17000</v>
+        <v>17700</v>
       </c>
       <c r="G61" s="3">
-        <v>116200</v>
+        <v>120900</v>
       </c>
       <c r="H61" s="3">
-        <v>193800</v>
+        <v>201500</v>
       </c>
       <c r="I61" s="3">
-        <v>15400</v>
+        <v>16000</v>
       </c>
       <c r="J61" s="3">
-        <v>12900</v>
+        <v>13400</v>
       </c>
       <c r="K61" s="3">
         <v>12500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>288600</v>
+        <v>300100</v>
       </c>
       <c r="E62" s="3">
-        <v>320300</v>
+        <v>333000</v>
       </c>
       <c r="F62" s="3">
-        <v>310600</v>
+        <v>323000</v>
       </c>
       <c r="G62" s="3">
-        <v>272600</v>
+        <v>283400</v>
       </c>
       <c r="H62" s="3">
-        <v>246500</v>
+        <v>256300</v>
       </c>
       <c r="I62" s="3">
-        <v>27500</v>
+        <v>28600</v>
       </c>
       <c r="J62" s="3">
-        <v>30000</v>
+        <v>31200</v>
       </c>
       <c r="K62" s="3">
         <v>43200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>805100</v>
+        <v>837200</v>
       </c>
       <c r="E66" s="3">
-        <v>806200</v>
+        <v>838300</v>
       </c>
       <c r="F66" s="3">
-        <v>546800</v>
+        <v>568600</v>
       </c>
       <c r="G66" s="3">
-        <v>504600</v>
+        <v>524700</v>
       </c>
       <c r="H66" s="3">
-        <v>535000</v>
+        <v>556300</v>
       </c>
       <c r="I66" s="3">
-        <v>52800</v>
+        <v>55000</v>
       </c>
       <c r="J66" s="3">
-        <v>56600</v>
+        <v>58800</v>
       </c>
       <c r="K66" s="3">
         <v>76100</v>
@@ -2621,22 +2621,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-537300</v>
+        <v>-558700</v>
       </c>
       <c r="E72" s="3">
-        <v>-401800</v>
+        <v>-417800</v>
       </c>
       <c r="F72" s="3">
-        <v>-159900</v>
+        <v>-166300</v>
       </c>
       <c r="G72" s="3">
-        <v>-176700</v>
+        <v>-183700</v>
       </c>
       <c r="H72" s="3">
-        <v>-249100</v>
+        <v>-259100</v>
       </c>
       <c r="I72" s="3">
-        <v>-7600</v>
+        <v>-7900</v>
       </c>
       <c r="J72" s="3">
         <v>500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1289200</v>
+        <v>1340600</v>
       </c>
       <c r="E76" s="3">
-        <v>1447000</v>
+        <v>1504600</v>
       </c>
       <c r="F76" s="3">
-        <v>1669900</v>
+        <v>1736400</v>
       </c>
       <c r="G76" s="3">
-        <v>1606500</v>
+        <v>1670500</v>
       </c>
       <c r="H76" s="3">
-        <v>1525200</v>
+        <v>1585900</v>
       </c>
       <c r="I76" s="3">
-        <v>166800</v>
+        <v>173400</v>
       </c>
       <c r="J76" s="3">
-        <v>184600</v>
+        <v>191900</v>
       </c>
       <c r="K76" s="3">
         <v>284600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-149000</v>
+        <v>-154500</v>
       </c>
       <c r="E81" s="3">
-        <v>-255600</v>
+        <v>-265200</v>
       </c>
       <c r="F81" s="3">
-        <v>20700</v>
+        <v>21500</v>
       </c>
       <c r="G81" s="3">
-        <v>54200</v>
+        <v>56300</v>
       </c>
       <c r="H81" s="3">
-        <v>-259200</v>
+        <v>-268900</v>
       </c>
       <c r="I81" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="J81" s="3">
-        <v>-12800</v>
+        <v>-13300</v>
       </c>
       <c r="K81" s="3">
         <v>23400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>231700</v>
+        <v>240300</v>
       </c>
       <c r="E83" s="3">
-        <v>146900</v>
+        <v>152300</v>
       </c>
       <c r="F83" s="3">
-        <v>144000</v>
+        <v>149300</v>
       </c>
       <c r="G83" s="3">
-        <v>124000</v>
+        <v>128600</v>
       </c>
       <c r="H83" s="3">
-        <v>141300</v>
+        <v>146500</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J83" s="3">
-        <v>12600</v>
+        <v>13000</v>
       </c>
       <c r="K83" s="3">
         <v>17500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>267400</v>
+        <v>277400</v>
       </c>
       <c r="E89" s="3">
-        <v>222000</v>
+        <v>230200</v>
       </c>
       <c r="F89" s="3">
-        <v>217400</v>
+        <v>225500</v>
       </c>
       <c r="G89" s="3">
-        <v>257900</v>
+        <v>267500</v>
       </c>
       <c r="H89" s="3">
-        <v>114600</v>
+        <v>118900</v>
       </c>
       <c r="I89" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="J89" s="3">
-        <v>18700</v>
+        <v>19400</v>
       </c>
       <c r="K89" s="3">
         <v>37400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-287800</v>
+        <v>-298500</v>
       </c>
       <c r="E91" s="3">
-        <v>-260700</v>
+        <v>-270400</v>
       </c>
       <c r="F91" s="3">
-        <v>-222300</v>
+        <v>-230600</v>
       </c>
       <c r="G91" s="3">
-        <v>-139300</v>
+        <v>-144500</v>
       </c>
       <c r="H91" s="3">
-        <v>-161300</v>
+        <v>-167300</v>
       </c>
       <c r="I91" s="3">
-        <v>-14600</v>
+        <v>-15200</v>
       </c>
       <c r="J91" s="3">
-        <v>-24500</v>
+        <v>-25400</v>
       </c>
       <c r="K91" s="3">
         <v>-28200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-274100</v>
+        <v>-284400</v>
       </c>
       <c r="E94" s="3">
-        <v>-461500</v>
+        <v>-478700</v>
       </c>
       <c r="F94" s="3">
-        <v>-193300</v>
+        <v>-200500</v>
       </c>
       <c r="G94" s="3">
-        <v>-148500</v>
+        <v>-154100</v>
       </c>
       <c r="H94" s="3">
-        <v>-166200</v>
+        <v>-172400</v>
       </c>
       <c r="I94" s="3">
-        <v>-14600</v>
+        <v>-15100</v>
       </c>
       <c r="J94" s="3">
-        <v>-16300</v>
+        <v>-16900</v>
       </c>
       <c r="K94" s="3">
         <v>-25400</v>
@@ -3301,10 +3301,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-8800</v>
+        <v>-9100</v>
       </c>
       <c r="F96" s="3">
-        <v>-25100</v>
+        <v>-26000</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="K96" s="3">
         <v>-3900</v>
@@ -3430,19 +3430,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>21700</v>
+        <v>22500</v>
       </c>
       <c r="E100" s="3">
-        <v>212800</v>
+        <v>220700</v>
       </c>
       <c r="F100" s="3">
-        <v>-25700</v>
+        <v>-26700</v>
       </c>
       <c r="G100" s="3">
-        <v>-99700</v>
+        <v>-103400</v>
       </c>
       <c r="H100" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="I100" s="3">
         <v>900</v>
@@ -3463,16 +3463,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E101" s="3">
-        <v>-4100</v>
+        <v>-4300</v>
       </c>
       <c r="F101" s="3">
         <v>1100</v>
       </c>
       <c r="G101" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H101" s="3">
         <v>-500</v>
@@ -3481,7 +3481,7 @@
         <v>-1000</v>
       </c>
       <c r="J101" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="K101" s="3">
         <v>-2400</v>
@@ -3496,22 +3496,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>16400</v>
+        <v>17000</v>
       </c>
       <c r="E102" s="3">
-        <v>-30900</v>
+        <v>-32000</v>
       </c>
       <c r="F102" s="3">
         <v>-600</v>
       </c>
       <c r="G102" s="3">
-        <v>10800</v>
+        <v>11200</v>
       </c>
       <c r="H102" s="3">
-        <v>-43500</v>
+        <v>-45200</v>
       </c>
       <c r="I102" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J102" s="3">
         <v>-400</v>

--- a/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>HMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42551</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42185</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41820</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41455</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41090</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40724</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1595300</v>
+        <v>1917300</v>
       </c>
       <c r="E8" s="3">
-        <v>1212400</v>
+        <v>1764400</v>
       </c>
       <c r="F8" s="3">
-        <v>1142000</v>
+        <v>1340800</v>
       </c>
       <c r="G8" s="3">
-        <v>1086800</v>
+        <v>1262900</v>
       </c>
       <c r="H8" s="3">
-        <v>915000</v>
+        <v>1202000</v>
       </c>
       <c r="I8" s="3">
-        <v>89800</v>
+        <v>1011900</v>
       </c>
       <c r="J8" s="3">
+        <v>99300</v>
+      </c>
+      <c r="K8" s="3">
         <v>106900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>133900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>117500</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1465900</v>
+        <v>1695900</v>
       </c>
       <c r="E9" s="3">
-        <v>1070100</v>
+        <v>1621200</v>
       </c>
       <c r="F9" s="3">
-        <v>1058000</v>
+        <v>1183500</v>
       </c>
       <c r="G9" s="3">
-        <v>937400</v>
+        <v>1170000</v>
       </c>
       <c r="H9" s="3">
-        <v>908800</v>
+        <v>1036700</v>
       </c>
       <c r="I9" s="3">
-        <v>82300</v>
+        <v>1005100</v>
       </c>
       <c r="J9" s="3">
+        <v>91000</v>
+      </c>
+      <c r="K9" s="3">
         <v>107400</v>
-      </c>
-      <c r="K9" s="3">
-        <v>106000</v>
       </c>
       <c r="L9" s="3">
         <v>106000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3">
+        <v>106000</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>129400</v>
+        <v>221400</v>
       </c>
       <c r="E10" s="3">
-        <v>142300</v>
+        <v>143100</v>
       </c>
       <c r="F10" s="3">
-        <v>84000</v>
+        <v>157300</v>
       </c>
       <c r="G10" s="3">
-        <v>149400</v>
+        <v>92900</v>
       </c>
       <c r="H10" s="3">
-        <v>6200</v>
+        <v>165300</v>
       </c>
       <c r="I10" s="3">
-        <v>7500</v>
+        <v>6800</v>
       </c>
       <c r="J10" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K10" s="3">
         <v>-500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11500</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8800</v>
+        <v>13400</v>
       </c>
       <c r="E12" s="3">
-        <v>8000</v>
+        <v>9700</v>
       </c>
       <c r="F12" s="3">
-        <v>14300</v>
+        <v>8900</v>
       </c>
       <c r="G12" s="3">
-        <v>11300</v>
+        <v>15800</v>
       </c>
       <c r="H12" s="3">
-        <v>15600</v>
+        <v>12500</v>
       </c>
       <c r="I12" s="3">
-        <v>2600</v>
+        <v>17200</v>
       </c>
       <c r="J12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K12" s="3">
         <v>4500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3300</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>238200</v>
+        <v>7900</v>
       </c>
       <c r="E14" s="3">
-        <v>325600</v>
+        <v>267400</v>
       </c>
       <c r="F14" s="3">
-        <v>112500</v>
+        <v>362600</v>
       </c>
       <c r="G14" s="3">
-        <v>-2000</v>
+        <v>122900</v>
       </c>
       <c r="H14" s="3">
-        <v>222100</v>
+        <v>-1800</v>
       </c>
       <c r="I14" s="3">
-        <v>9500</v>
+        <v>244000</v>
       </c>
       <c r="J14" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K14" s="3">
         <v>17100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4200</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1742300</v>
+        <v>1943700</v>
       </c>
       <c r="E17" s="3">
-        <v>1492200</v>
+        <v>1930700</v>
       </c>
       <c r="F17" s="3">
-        <v>1152800</v>
+        <v>1652800</v>
       </c>
       <c r="G17" s="3">
-        <v>992100</v>
+        <v>1273400</v>
       </c>
       <c r="H17" s="3">
-        <v>1224300</v>
+        <v>1097600</v>
       </c>
       <c r="I17" s="3">
-        <v>98400</v>
+        <v>1352400</v>
       </c>
       <c r="J17" s="3">
+        <v>108800</v>
+      </c>
+      <c r="K17" s="3">
         <v>118900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>115800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>117300</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-147000</v>
+        <v>-26400</v>
       </c>
       <c r="E18" s="3">
-        <v>-279800</v>
+        <v>-166400</v>
       </c>
       <c r="F18" s="3">
-        <v>-10800</v>
+        <v>-311900</v>
       </c>
       <c r="G18" s="3">
-        <v>94800</v>
+        <v>-10500</v>
       </c>
       <c r="H18" s="3">
-        <v>-309300</v>
+        <v>104400</v>
       </c>
       <c r="I18" s="3">
-        <v>-8600</v>
+        <v>-340500</v>
       </c>
       <c r="J18" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-12000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>18300</v>
+        <v>11700</v>
       </c>
       <c r="E20" s="3">
-        <v>20300</v>
+        <v>4000</v>
       </c>
       <c r="F20" s="3">
-        <v>15900</v>
+        <v>25000</v>
       </c>
       <c r="G20" s="3">
-        <v>15200</v>
+        <v>16100</v>
       </c>
       <c r="H20" s="3">
-        <v>14300</v>
+        <v>17200</v>
       </c>
       <c r="I20" s="3">
+        <v>14200</v>
+      </c>
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6400</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>112000</v>
+        <v>216400</v>
       </c>
       <c r="E21" s="3">
-        <v>-106900</v>
+        <v>104700</v>
       </c>
       <c r="F21" s="3">
-        <v>154700</v>
+        <v>-117600</v>
       </c>
       <c r="G21" s="3">
-        <v>238800</v>
+        <v>171600</v>
       </c>
       <c r="H21" s="3">
-        <v>-148200</v>
-      </c>
-      <c r="I21" s="3" t="s">
+        <v>264600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-163300</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>36000</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34100</v>
+        <v>24300</v>
       </c>
       <c r="E22" s="3">
-        <v>19600</v>
+        <v>17600</v>
       </c>
       <c r="F22" s="3">
-        <v>13900</v>
+        <v>21600</v>
       </c>
       <c r="G22" s="3">
-        <v>16200</v>
+        <v>15300</v>
       </c>
       <c r="H22" s="3">
-        <v>15600</v>
+        <v>18000</v>
       </c>
       <c r="I22" s="3">
-        <v>700</v>
+        <v>17300</v>
       </c>
       <c r="J22" s="3">
         <v>700</v>
       </c>
       <c r="K22" s="3">
+        <v>700</v>
+      </c>
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4300</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-162800</v>
+        <v>-39000</v>
       </c>
       <c r="E23" s="3">
-        <v>-279000</v>
+        <v>-180000</v>
       </c>
       <c r="F23" s="3">
-        <v>-8800</v>
+        <v>-308600</v>
       </c>
       <c r="G23" s="3">
-        <v>93700</v>
+        <v>-9700</v>
       </c>
       <c r="H23" s="3">
-        <v>-310600</v>
+        <v>103700</v>
       </c>
       <c r="I23" s="3">
-        <v>-8600</v>
+        <v>-343500</v>
       </c>
       <c r="J23" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-11300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-8200</v>
+        <v>16700</v>
       </c>
       <c r="E24" s="3">
-        <v>-13900</v>
+        <v>-9100</v>
       </c>
       <c r="F24" s="3">
-        <v>-30200</v>
+        <v>-15300</v>
       </c>
       <c r="G24" s="3">
-        <v>37500</v>
+        <v>-33400</v>
       </c>
       <c r="H24" s="3">
-        <v>-41700</v>
+        <v>41400</v>
       </c>
       <c r="I24" s="3">
-        <v>-1600</v>
+        <v>-46200</v>
       </c>
       <c r="J24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K24" s="3">
         <v>4100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3900</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-154500</v>
+        <v>-55700</v>
       </c>
       <c r="E26" s="3">
-        <v>-265200</v>
+        <v>-170900</v>
       </c>
       <c r="F26" s="3">
-        <v>21500</v>
+        <v>-293200</v>
       </c>
       <c r="G26" s="3">
-        <v>56300</v>
+        <v>23700</v>
       </c>
       <c r="H26" s="3">
-        <v>-268900</v>
+        <v>62200</v>
       </c>
       <c r="I26" s="3">
-        <v>-7000</v>
+        <v>-297400</v>
       </c>
       <c r="J26" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-15400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-154500</v>
+        <v>-57600</v>
       </c>
       <c r="E27" s="3">
-        <v>-265200</v>
+        <v>-170900</v>
       </c>
       <c r="F27" s="3">
-        <v>21500</v>
+        <v>-293200</v>
       </c>
       <c r="G27" s="3">
-        <v>56300</v>
+        <v>23700</v>
       </c>
       <c r="H27" s="3">
-        <v>-268900</v>
+        <v>62200</v>
       </c>
       <c r="I27" s="3">
-        <v>-7000</v>
+        <v>-297400</v>
       </c>
       <c r="J27" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-15400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6200</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1367,21 +1427,24 @@
       <c r="H29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>2100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>5100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18300</v>
+        <v>-11700</v>
       </c>
       <c r="E32" s="3">
-        <v>-20300</v>
+        <v>-4000</v>
       </c>
       <c r="F32" s="3">
-        <v>-15900</v>
+        <v>-25000</v>
       </c>
       <c r="G32" s="3">
-        <v>-15200</v>
+        <v>-16100</v>
       </c>
       <c r="H32" s="3">
-        <v>-14300</v>
+        <v>-17200</v>
       </c>
       <c r="I32" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6400</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-154500</v>
+        <v>-57600</v>
       </c>
       <c r="E33" s="3">
-        <v>-265200</v>
+        <v>-170900</v>
       </c>
       <c r="F33" s="3">
-        <v>21500</v>
+        <v>-293200</v>
       </c>
       <c r="G33" s="3">
-        <v>56300</v>
+        <v>23700</v>
       </c>
       <c r="H33" s="3">
-        <v>-268900</v>
+        <v>62200</v>
       </c>
       <c r="I33" s="3">
-        <v>-7000</v>
+        <v>-297400</v>
       </c>
       <c r="J33" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-13300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6100</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-154500</v>
+        <v>-57600</v>
       </c>
       <c r="E35" s="3">
-        <v>-265200</v>
+        <v>-170900</v>
       </c>
       <c r="F35" s="3">
-        <v>21500</v>
+        <v>-293200</v>
       </c>
       <c r="G35" s="3">
-        <v>56300</v>
+        <v>23700</v>
       </c>
       <c r="H35" s="3">
-        <v>-268900</v>
+        <v>62200</v>
       </c>
       <c r="I35" s="3">
-        <v>-7000</v>
+        <v>-297400</v>
       </c>
       <c r="J35" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-13300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6100</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42551</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42185</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41820</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41455</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41090</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40724</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>58900</v>
+        <v>416800</v>
       </c>
       <c r="E41" s="3">
-        <v>41900</v>
+        <v>65100</v>
       </c>
       <c r="F41" s="3">
-        <v>73900</v>
+        <v>46300</v>
       </c>
       <c r="G41" s="3">
-        <v>74500</v>
+        <v>81700</v>
       </c>
       <c r="H41" s="3">
-        <v>63300</v>
+        <v>82300</v>
       </c>
       <c r="I41" s="3">
-        <v>10200</v>
+        <v>70000</v>
       </c>
       <c r="J41" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K41" s="3">
         <v>12400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7200</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,240 +1800,264 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>59100</v>
+        <v>80600</v>
       </c>
       <c r="E43" s="3">
-        <v>63000</v>
+        <v>65400</v>
       </c>
       <c r="F43" s="3">
-        <v>55100</v>
+        <v>69700</v>
       </c>
       <c r="G43" s="3">
-        <v>37000</v>
+        <v>61000</v>
       </c>
       <c r="H43" s="3">
-        <v>42800</v>
+        <v>41000</v>
       </c>
       <c r="I43" s="3">
-        <v>5900</v>
+        <v>47300</v>
       </c>
       <c r="J43" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K43" s="3">
         <v>7300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12300</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>116600</v>
+        <v>158700</v>
       </c>
       <c r="E44" s="3">
-        <v>104300</v>
+        <v>129000</v>
       </c>
       <c r="F44" s="3">
-        <v>66800</v>
+        <v>115300</v>
       </c>
       <c r="G44" s="3">
-        <v>69200</v>
+        <v>73900</v>
       </c>
       <c r="H44" s="3">
-        <v>76600</v>
+        <v>76500</v>
       </c>
       <c r="I44" s="3">
-        <v>8600</v>
+        <v>84700</v>
       </c>
       <c r="J44" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K44" s="3">
         <v>8500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8800</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24900</v>
+        <v>10400</v>
       </c>
       <c r="E45" s="3">
-        <v>38700</v>
+        <v>27500</v>
       </c>
       <c r="F45" s="3">
-        <v>96700</v>
+        <v>42800</v>
       </c>
       <c r="G45" s="3">
-        <v>25000</v>
+        <v>107000</v>
       </c>
       <c r="H45" s="3">
-        <v>4100</v>
+        <v>27600</v>
       </c>
       <c r="I45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3300</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>259500</v>
+        <v>666500</v>
       </c>
       <c r="E46" s="3">
-        <v>247800</v>
+        <v>287000</v>
       </c>
       <c r="F46" s="3">
-        <v>292500</v>
+        <v>274100</v>
       </c>
       <c r="G46" s="3">
-        <v>205600</v>
+        <v>323500</v>
       </c>
       <c r="H46" s="3">
-        <v>186800</v>
+        <v>227400</v>
       </c>
       <c r="I46" s="3">
-        <v>24800</v>
+        <v>206600</v>
       </c>
       <c r="J46" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K46" s="3">
         <v>28500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>46400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>31500</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26300</v>
+        <v>35000</v>
       </c>
       <c r="E47" s="3">
-        <v>20600</v>
+        <v>29100</v>
       </c>
       <c r="F47" s="3">
-        <v>13900</v>
+        <v>22800</v>
       </c>
       <c r="G47" s="3">
-        <v>10500</v>
+        <v>15400</v>
       </c>
       <c r="H47" s="3">
-        <v>5000</v>
+        <v>11600</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2100</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1645000</v>
+        <v>1913400</v>
       </c>
       <c r="E48" s="3">
-        <v>1837700</v>
+        <v>1819200</v>
       </c>
       <c r="F48" s="3">
-        <v>1781000</v>
+        <v>2032400</v>
       </c>
       <c r="G48" s="3">
-        <v>1773600</v>
+        <v>1969700</v>
       </c>
       <c r="H48" s="3">
-        <v>1751600</v>
+        <v>1961500</v>
       </c>
       <c r="I48" s="3">
-        <v>184700</v>
+        <v>1937200</v>
       </c>
       <c r="J48" s="3">
+        <v>204300</v>
+      </c>
+      <c r="K48" s="3">
         <v>194900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>548700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>326300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>31600</v>
+        <v>35100</v>
       </c>
       <c r="E49" s="3">
-        <v>30500</v>
+        <v>34900</v>
       </c>
       <c r="F49" s="3">
-        <v>35700</v>
+        <v>33800</v>
       </c>
       <c r="G49" s="3">
-        <v>51600</v>
+        <v>39500</v>
       </c>
       <c r="H49" s="3">
-        <v>52500</v>
+        <v>57000</v>
       </c>
       <c r="I49" s="3">
-        <v>5000</v>
+        <v>58000</v>
       </c>
       <c r="J49" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K49" s="3">
         <v>13000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>22700</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>215400</v>
+        <v>279900</v>
       </c>
       <c r="E52" s="3">
-        <v>206200</v>
+        <v>238200</v>
       </c>
       <c r="F52" s="3">
-        <v>181800</v>
+        <v>228000</v>
       </c>
       <c r="G52" s="3">
-        <v>153800</v>
+        <v>201000</v>
       </c>
       <c r="H52" s="3">
-        <v>146300</v>
+        <v>170100</v>
       </c>
       <c r="I52" s="3">
-        <v>13900</v>
+        <v>161800</v>
       </c>
       <c r="J52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K52" s="3">
         <v>13400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>33900</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2177700</v>
+        <v>2930000</v>
       </c>
       <c r="E54" s="3">
-        <v>2342900</v>
+        <v>2408400</v>
       </c>
       <c r="F54" s="3">
-        <v>2305000</v>
+        <v>2591100</v>
       </c>
       <c r="G54" s="3">
-        <v>2195100</v>
+        <v>2549200</v>
       </c>
       <c r="H54" s="3">
-        <v>2142200</v>
+        <v>2427700</v>
       </c>
       <c r="I54" s="3">
-        <v>228300</v>
+        <v>2369100</v>
       </c>
       <c r="J54" s="3">
+        <v>252500</v>
+      </c>
+      <c r="K54" s="3">
         <v>250800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>360700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>416400</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>45200</v>
+        <v>46300</v>
       </c>
       <c r="E57" s="3">
-        <v>34800</v>
+        <v>50000</v>
       </c>
       <c r="F57" s="3">
-        <v>30900</v>
+        <v>38500</v>
       </c>
       <c r="G57" s="3">
-        <v>20900</v>
+        <v>34200</v>
       </c>
       <c r="H57" s="3">
-        <v>31100</v>
+        <v>23100</v>
       </c>
       <c r="I57" s="3">
-        <v>2700</v>
+        <v>34400</v>
       </c>
       <c r="J57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3700</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5300</v>
+        <v>20700</v>
       </c>
       <c r="E58" s="3">
-        <v>40900</v>
+        <v>5800</v>
       </c>
       <c r="F58" s="3">
-        <v>108700</v>
+        <v>45200</v>
       </c>
       <c r="G58" s="3">
-        <v>17800</v>
-      </c>
-      <c r="H58" s="3" t="s">
+        <v>120200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>19700</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>141200</v>
+        <v>428700</v>
       </c>
       <c r="E59" s="3">
-        <v>137600</v>
+        <v>156200</v>
       </c>
       <c r="F59" s="3">
-        <v>88300</v>
+        <v>152200</v>
       </c>
       <c r="G59" s="3">
-        <v>81700</v>
+        <v>97600</v>
       </c>
       <c r="H59" s="3">
-        <v>67300</v>
+        <v>90300</v>
       </c>
       <c r="I59" s="3">
-        <v>7600</v>
+        <v>74500</v>
       </c>
       <c r="J59" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K59" s="3">
         <v>9100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14700</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>191700</v>
+        <v>495600</v>
       </c>
       <c r="E60" s="3">
-        <v>213300</v>
+        <v>212000</v>
       </c>
       <c r="F60" s="3">
-        <v>227900</v>
+        <v>236000</v>
       </c>
       <c r="G60" s="3">
-        <v>120400</v>
+        <v>252000</v>
       </c>
       <c r="H60" s="3">
-        <v>98500</v>
+        <v>133200</v>
       </c>
       <c r="I60" s="3">
-        <v>10300</v>
+        <v>108900</v>
       </c>
       <c r="J60" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K60" s="3">
         <v>14200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>345400</v>
+        <v>494600</v>
       </c>
       <c r="E61" s="3">
-        <v>291900</v>
+        <v>382000</v>
       </c>
       <c r="F61" s="3">
+        <v>322800</v>
+      </c>
+      <c r="G61" s="3">
+        <v>19600</v>
+      </c>
+      <c r="H61" s="3">
+        <v>133700</v>
+      </c>
+      <c r="I61" s="3">
+        <v>222800</v>
+      </c>
+      <c r="J61" s="3">
         <v>17700</v>
       </c>
-      <c r="G61" s="3">
-        <v>120900</v>
-      </c>
-      <c r="H61" s="3">
-        <v>201500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>16000</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12800</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300100</v>
+        <v>407300</v>
       </c>
       <c r="E62" s="3">
-        <v>333000</v>
+        <v>331900</v>
       </c>
       <c r="F62" s="3">
-        <v>323000</v>
+        <v>368300</v>
       </c>
       <c r="G62" s="3">
-        <v>283400</v>
+        <v>357200</v>
       </c>
       <c r="H62" s="3">
-        <v>256300</v>
+        <v>313400</v>
       </c>
       <c r="I62" s="3">
-        <v>28600</v>
+        <v>283500</v>
       </c>
       <c r="J62" s="3">
+        <v>31700</v>
+      </c>
+      <c r="K62" s="3">
         <v>31200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>43200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>66600</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>837200</v>
+        <v>1397800</v>
       </c>
       <c r="E66" s="3">
-        <v>838300</v>
+        <v>925800</v>
       </c>
       <c r="F66" s="3">
-        <v>568600</v>
+        <v>927100</v>
       </c>
       <c r="G66" s="3">
-        <v>524700</v>
+        <v>628900</v>
       </c>
       <c r="H66" s="3">
-        <v>556300</v>
+        <v>580300</v>
       </c>
       <c r="I66" s="3">
-        <v>55000</v>
+        <v>615200</v>
       </c>
       <c r="J66" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K66" s="3">
         <v>58800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>76100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>101300</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-558700</v>
+        <v>-662900</v>
       </c>
       <c r="E72" s="3">
-        <v>-417800</v>
+        <v>-617900</v>
       </c>
       <c r="F72" s="3">
-        <v>-166300</v>
+        <v>-462100</v>
       </c>
       <c r="G72" s="3">
-        <v>-183700</v>
+        <v>-183900</v>
       </c>
       <c r="H72" s="3">
-        <v>-259100</v>
+        <v>-203200</v>
       </c>
       <c r="I72" s="3">
-        <v>-7900</v>
+        <v>-286500</v>
       </c>
       <c r="J72" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K72" s="3">
         <v>500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>29500</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1340600</v>
+        <v>1532200</v>
       </c>
       <c r="E76" s="3">
-        <v>1504600</v>
+        <v>1482600</v>
       </c>
       <c r="F76" s="3">
-        <v>1736400</v>
+        <v>1664000</v>
       </c>
       <c r="G76" s="3">
-        <v>1670500</v>
+        <v>1920300</v>
       </c>
       <c r="H76" s="3">
-        <v>1585900</v>
+        <v>1847400</v>
       </c>
       <c r="I76" s="3">
-        <v>173400</v>
+        <v>1753900</v>
       </c>
       <c r="J76" s="3">
+        <v>191800</v>
+      </c>
+      <c r="K76" s="3">
         <v>191900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>284600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>315100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42551</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42185</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41820</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41455</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41090</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40724</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-154500</v>
+        <v>-57600</v>
       </c>
       <c r="E81" s="3">
-        <v>-265200</v>
+        <v>-170900</v>
       </c>
       <c r="F81" s="3">
-        <v>21500</v>
+        <v>-293200</v>
       </c>
       <c r="G81" s="3">
-        <v>56300</v>
+        <v>23700</v>
       </c>
       <c r="H81" s="3">
-        <v>-268900</v>
+        <v>62200</v>
       </c>
       <c r="I81" s="3">
-        <v>-7000</v>
+        <v>-297400</v>
       </c>
       <c r="J81" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-13300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6100</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>240300</v>
+        <v>230000</v>
       </c>
       <c r="E83" s="3">
-        <v>152300</v>
+        <v>265800</v>
       </c>
       <c r="F83" s="3">
-        <v>149300</v>
+        <v>168500</v>
       </c>
       <c r="G83" s="3">
-        <v>128600</v>
+        <v>165100</v>
       </c>
       <c r="H83" s="3">
-        <v>146500</v>
-      </c>
-      <c r="I83" s="3" t="s">
+        <v>142300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>162100</v>
+      </c>
+      <c r="J83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17500</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>277400</v>
+        <v>309600</v>
       </c>
       <c r="E89" s="3">
-        <v>230200</v>
+        <v>306800</v>
       </c>
       <c r="F89" s="3">
-        <v>225500</v>
+        <v>254600</v>
       </c>
       <c r="G89" s="3">
-        <v>267500</v>
+        <v>249400</v>
       </c>
       <c r="H89" s="3">
-        <v>118900</v>
+        <v>295900</v>
       </c>
       <c r="I89" s="3">
-        <v>13000</v>
+        <v>131500</v>
       </c>
       <c r="J89" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K89" s="3">
         <v>19400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>37400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>24100</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-298500</v>
+        <v>-236100</v>
       </c>
       <c r="E91" s="3">
-        <v>-270400</v>
+        <v>-330100</v>
       </c>
       <c r="F91" s="3">
-        <v>-230600</v>
+        <v>-299100</v>
       </c>
       <c r="G91" s="3">
-        <v>-144500</v>
+        <v>-255000</v>
       </c>
       <c r="H91" s="3">
-        <v>-167300</v>
+        <v>-159800</v>
       </c>
       <c r="I91" s="3">
-        <v>-15200</v>
+        <v>-185000</v>
       </c>
       <c r="J91" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-25400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31900</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-284400</v>
+        <v>-233300</v>
       </c>
       <c r="E94" s="3">
-        <v>-478700</v>
+        <v>-314500</v>
       </c>
       <c r="F94" s="3">
-        <v>-200500</v>
+        <v>-529400</v>
       </c>
       <c r="G94" s="3">
-        <v>-154100</v>
+        <v>-221800</v>
       </c>
       <c r="H94" s="3">
-        <v>-172400</v>
+        <v>-170400</v>
       </c>
       <c r="I94" s="3">
-        <v>-15100</v>
+        <v>-190600</v>
       </c>
       <c r="J94" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-16900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25400</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,22 +3524,23 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E96" s="3">
-        <v>-9100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-26000</v>
+        <v>-10100</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-28800</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3316,17 +3549,20 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2100</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>22500</v>
+        <v>282200</v>
       </c>
       <c r="E100" s="3">
-        <v>220700</v>
+        <v>24900</v>
       </c>
       <c r="F100" s="3">
-        <v>-26700</v>
+        <v>244100</v>
       </c>
       <c r="G100" s="3">
-        <v>-103400</v>
+        <v>-29500</v>
       </c>
       <c r="H100" s="3">
-        <v>8800</v>
+        <v>-114400</v>
       </c>
       <c r="I100" s="3">
-        <v>900</v>
+        <v>9700</v>
       </c>
       <c r="J100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1700</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1500</v>
+        <v>-6900</v>
       </c>
       <c r="E101" s="3">
-        <v>-4300</v>
+        <v>1600</v>
       </c>
       <c r="F101" s="3">
-        <v>1100</v>
+        <v>-4700</v>
       </c>
       <c r="G101" s="3">
         <v>1200</v>
       </c>
       <c r="H101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
-        <v>-1000</v>
-      </c>
       <c r="J101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2400</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17000</v>
+        <v>351700</v>
       </c>
       <c r="E102" s="3">
-        <v>-32000</v>
+        <v>18800</v>
       </c>
       <c r="F102" s="3">
-        <v>-600</v>
+        <v>-35400</v>
       </c>
       <c r="G102" s="3">
-        <v>11200</v>
+        <v>-700</v>
       </c>
       <c r="H102" s="3">
-        <v>-45200</v>
+        <v>12400</v>
       </c>
       <c r="I102" s="3">
-        <v>-2200</v>
+        <v>-50000</v>
       </c>
       <c r="J102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1917300</v>
+        <v>1947100</v>
       </c>
       <c r="E8" s="3">
-        <v>1764400</v>
+        <v>1791800</v>
       </c>
       <c r="F8" s="3">
-        <v>1340800</v>
+        <v>1361700</v>
       </c>
       <c r="G8" s="3">
-        <v>1262900</v>
+        <v>1282600</v>
       </c>
       <c r="H8" s="3">
-        <v>1202000</v>
+        <v>1220700</v>
       </c>
       <c r="I8" s="3">
-        <v>1011900</v>
+        <v>1027700</v>
       </c>
       <c r="J8" s="3">
-        <v>99300</v>
+        <v>100900</v>
       </c>
       <c r="K8" s="3">
         <v>106900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1695900</v>
+        <v>1722300</v>
       </c>
       <c r="E9" s="3">
-        <v>1621200</v>
+        <v>1646500</v>
       </c>
       <c r="F9" s="3">
-        <v>1183500</v>
+        <v>1201900</v>
       </c>
       <c r="G9" s="3">
-        <v>1170000</v>
+        <v>1188300</v>
       </c>
       <c r="H9" s="3">
-        <v>1036700</v>
+        <v>1052800</v>
       </c>
       <c r="I9" s="3">
-        <v>1005100</v>
+        <v>1020700</v>
       </c>
       <c r="J9" s="3">
-        <v>91000</v>
+        <v>92400</v>
       </c>
       <c r="K9" s="3">
         <v>107400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>221400</v>
+        <v>224800</v>
       </c>
       <c r="E10" s="3">
-        <v>143100</v>
+        <v>145300</v>
       </c>
       <c r="F10" s="3">
-        <v>157300</v>
+        <v>159800</v>
       </c>
       <c r="G10" s="3">
-        <v>92900</v>
+        <v>94300</v>
       </c>
       <c r="H10" s="3">
-        <v>165300</v>
+        <v>167800</v>
       </c>
       <c r="I10" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="J10" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="K10" s="3">
         <v>-500</v>
@@ -844,22 +844,22 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>13400</v>
+        <v>13600</v>
       </c>
       <c r="E12" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="F12" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="G12" s="3">
-        <v>15800</v>
+        <v>16000</v>
       </c>
       <c r="H12" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="I12" s="3">
-        <v>17200</v>
+        <v>17500</v>
       </c>
       <c r="J12" s="3">
         <v>2900</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="E14" s="3">
-        <v>267400</v>
+        <v>271500</v>
       </c>
       <c r="F14" s="3">
-        <v>362600</v>
+        <v>368300</v>
       </c>
       <c r="G14" s="3">
-        <v>122900</v>
+        <v>124800</v>
       </c>
       <c r="H14" s="3">
         <v>-1800</v>
       </c>
       <c r="I14" s="3">
-        <v>244000</v>
+        <v>247800</v>
       </c>
       <c r="J14" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="K14" s="3">
         <v>17100</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1943700</v>
+        <v>1974000</v>
       </c>
       <c r="E17" s="3">
-        <v>1930700</v>
+        <v>1960800</v>
       </c>
       <c r="F17" s="3">
-        <v>1652800</v>
+        <v>1678500</v>
       </c>
       <c r="G17" s="3">
-        <v>1273400</v>
+        <v>1293200</v>
       </c>
       <c r="H17" s="3">
-        <v>1097600</v>
+        <v>1114700</v>
       </c>
       <c r="I17" s="3">
-        <v>1352400</v>
+        <v>1373400</v>
       </c>
       <c r="J17" s="3">
-        <v>108800</v>
+        <v>110500</v>
       </c>
       <c r="K17" s="3">
         <v>118900</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-26400</v>
+        <v>-26800</v>
       </c>
       <c r="E18" s="3">
-        <v>-166400</v>
+        <v>-169000</v>
       </c>
       <c r="F18" s="3">
-        <v>-311900</v>
+        <v>-316800</v>
       </c>
       <c r="G18" s="3">
-        <v>-10500</v>
+        <v>-10700</v>
       </c>
       <c r="H18" s="3">
-        <v>104400</v>
+        <v>106000</v>
       </c>
       <c r="I18" s="3">
-        <v>-340500</v>
+        <v>-345700</v>
       </c>
       <c r="J18" s="3">
-        <v>-9500</v>
+        <v>-9700</v>
       </c>
       <c r="K18" s="3">
         <v>-12000</v>
@@ -1089,22 +1089,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="E20" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F20" s="3">
-        <v>25000</v>
+        <v>25400</v>
       </c>
       <c r="G20" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="H20" s="3">
-        <v>17200</v>
+        <v>17500</v>
       </c>
       <c r="I20" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="J20" s="3">
         <v>700</v>
@@ -1125,22 +1125,22 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>216400</v>
+        <v>219400</v>
       </c>
       <c r="E21" s="3">
-        <v>104700</v>
+        <v>105900</v>
       </c>
       <c r="F21" s="3">
-        <v>-117600</v>
+        <v>-119700</v>
       </c>
       <c r="G21" s="3">
-        <v>171600</v>
+        <v>174000</v>
       </c>
       <c r="H21" s="3">
-        <v>264600</v>
+        <v>268500</v>
       </c>
       <c r="I21" s="3">
-        <v>-163300</v>
+        <v>-166200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
@@ -1161,22 +1161,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>24300</v>
+        <v>24600</v>
       </c>
       <c r="E22" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>15600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>18200</v>
+      </c>
+      <c r="I22" s="3">
         <v>17600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>21600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>15300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>18000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>17300</v>
       </c>
       <c r="J22" s="3">
         <v>700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-39000</v>
+        <v>-39600</v>
       </c>
       <c r="E23" s="3">
-        <v>-180000</v>
+        <v>-182800</v>
       </c>
       <c r="F23" s="3">
-        <v>-308600</v>
+        <v>-313400</v>
       </c>
       <c r="G23" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>105300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-348900</v>
+      </c>
+      <c r="J23" s="3">
         <v>-9700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>103700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-343500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-9500</v>
       </c>
       <c r="K23" s="3">
         <v>-11300</v>
@@ -1233,22 +1233,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="E24" s="3">
-        <v>-9100</v>
+        <v>-9300</v>
       </c>
       <c r="F24" s="3">
-        <v>-15300</v>
+        <v>-15600</v>
       </c>
       <c r="G24" s="3">
-        <v>-33400</v>
+        <v>-34000</v>
       </c>
       <c r="H24" s="3">
-        <v>41400</v>
+        <v>42100</v>
       </c>
       <c r="I24" s="3">
-        <v>-46200</v>
+        <v>-46900</v>
       </c>
       <c r="J24" s="3">
         <v>-1800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-55700</v>
+        <v>-56600</v>
       </c>
       <c r="E26" s="3">
-        <v>-170900</v>
+        <v>-173600</v>
       </c>
       <c r="F26" s="3">
-        <v>-293200</v>
+        <v>-297800</v>
       </c>
       <c r="G26" s="3">
-        <v>23700</v>
+        <v>24100</v>
       </c>
       <c r="H26" s="3">
-        <v>62200</v>
+        <v>63200</v>
       </c>
       <c r="I26" s="3">
-        <v>-297400</v>
+        <v>-302000</v>
       </c>
       <c r="J26" s="3">
-        <v>-7700</v>
+        <v>-7900</v>
       </c>
       <c r="K26" s="3">
         <v>-15400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-57600</v>
+        <v>-58500</v>
       </c>
       <c r="E27" s="3">
-        <v>-170900</v>
+        <v>-173600</v>
       </c>
       <c r="F27" s="3">
-        <v>-293200</v>
+        <v>-297800</v>
       </c>
       <c r="G27" s="3">
-        <v>23700</v>
+        <v>24100</v>
       </c>
       <c r="H27" s="3">
-        <v>62200</v>
+        <v>63200</v>
       </c>
       <c r="I27" s="3">
-        <v>-297400</v>
+        <v>-302000</v>
       </c>
       <c r="J27" s="3">
-        <v>-7700</v>
+        <v>-7900</v>
       </c>
       <c r="K27" s="3">
         <v>-15400</v>
@@ -1521,22 +1521,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11700</v>
+        <v>-11900</v>
       </c>
       <c r="E32" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="F32" s="3">
-        <v>-25000</v>
+        <v>-25400</v>
       </c>
       <c r="G32" s="3">
-        <v>-16100</v>
+        <v>-16400</v>
       </c>
       <c r="H32" s="3">
-        <v>-17200</v>
+        <v>-17500</v>
       </c>
       <c r="I32" s="3">
-        <v>-14200</v>
+        <v>-14400</v>
       </c>
       <c r="J32" s="3">
         <v>-700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-57600</v>
+        <v>-58500</v>
       </c>
       <c r="E33" s="3">
-        <v>-170900</v>
+        <v>-173600</v>
       </c>
       <c r="F33" s="3">
-        <v>-293200</v>
+        <v>-297800</v>
       </c>
       <c r="G33" s="3">
-        <v>23700</v>
+        <v>24100</v>
       </c>
       <c r="H33" s="3">
-        <v>62200</v>
+        <v>63200</v>
       </c>
       <c r="I33" s="3">
-        <v>-297400</v>
+        <v>-302000</v>
       </c>
       <c r="J33" s="3">
-        <v>-7700</v>
+        <v>-7900</v>
       </c>
       <c r="K33" s="3">
         <v>-13300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-57600</v>
+        <v>-58500</v>
       </c>
       <c r="E35" s="3">
-        <v>-170900</v>
+        <v>-173600</v>
       </c>
       <c r="F35" s="3">
-        <v>-293200</v>
+        <v>-297800</v>
       </c>
       <c r="G35" s="3">
-        <v>23700</v>
+        <v>24100</v>
       </c>
       <c r="H35" s="3">
-        <v>62200</v>
+        <v>63200</v>
       </c>
       <c r="I35" s="3">
-        <v>-297400</v>
+        <v>-302000</v>
       </c>
       <c r="J35" s="3">
-        <v>-7700</v>
+        <v>-7900</v>
       </c>
       <c r="K35" s="3">
         <v>-13300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>416800</v>
+        <v>423200</v>
       </c>
       <c r="E41" s="3">
-        <v>65100</v>
+        <v>66100</v>
       </c>
       <c r="F41" s="3">
-        <v>46300</v>
+        <v>47000</v>
       </c>
       <c r="G41" s="3">
-        <v>81700</v>
+        <v>83000</v>
       </c>
       <c r="H41" s="3">
-        <v>82300</v>
+        <v>83600</v>
       </c>
       <c r="I41" s="3">
-        <v>70000</v>
+        <v>71000</v>
       </c>
       <c r="J41" s="3">
-        <v>11300</v>
+        <v>11500</v>
       </c>
       <c r="K41" s="3">
         <v>12400</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>80600</v>
+        <v>81800</v>
       </c>
       <c r="E43" s="3">
-        <v>65400</v>
+        <v>66400</v>
       </c>
       <c r="F43" s="3">
-        <v>69700</v>
+        <v>70800</v>
       </c>
       <c r="G43" s="3">
-        <v>61000</v>
+        <v>61900</v>
       </c>
       <c r="H43" s="3">
-        <v>41000</v>
+        <v>41600</v>
       </c>
       <c r="I43" s="3">
-        <v>47300</v>
+        <v>48100</v>
       </c>
       <c r="J43" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="K43" s="3">
         <v>7300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>158700</v>
+        <v>161200</v>
       </c>
       <c r="E44" s="3">
-        <v>129000</v>
+        <v>131000</v>
       </c>
       <c r="F44" s="3">
-        <v>115300</v>
+        <v>117100</v>
       </c>
       <c r="G44" s="3">
-        <v>73900</v>
+        <v>75000</v>
       </c>
       <c r="H44" s="3">
-        <v>76500</v>
+        <v>77700</v>
       </c>
       <c r="I44" s="3">
-        <v>84700</v>
+        <v>86000</v>
       </c>
       <c r="J44" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="K44" s="3">
         <v>8500</v>
@@ -1882,22 +1882,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="E45" s="3">
-        <v>27500</v>
+        <v>28000</v>
       </c>
       <c r="F45" s="3">
-        <v>42800</v>
+        <v>43500</v>
       </c>
       <c r="G45" s="3">
-        <v>107000</v>
+        <v>108700</v>
       </c>
       <c r="H45" s="3">
-        <v>27600</v>
+        <v>28000</v>
       </c>
       <c r="I45" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>666500</v>
+        <v>676900</v>
       </c>
       <c r="E46" s="3">
-        <v>287000</v>
+        <v>291400</v>
       </c>
       <c r="F46" s="3">
-        <v>274100</v>
+        <v>278400</v>
       </c>
       <c r="G46" s="3">
-        <v>323500</v>
+        <v>328600</v>
       </c>
       <c r="H46" s="3">
-        <v>227400</v>
+        <v>231000</v>
       </c>
       <c r="I46" s="3">
-        <v>206600</v>
+        <v>209800</v>
       </c>
       <c r="J46" s="3">
-        <v>27400</v>
+        <v>27800</v>
       </c>
       <c r="K46" s="3">
         <v>28500</v>
@@ -1954,22 +1954,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>35000</v>
+        <v>35600</v>
       </c>
       <c r="E47" s="3">
-        <v>29100</v>
+        <v>29600</v>
       </c>
       <c r="F47" s="3">
-        <v>22800</v>
+        <v>23200</v>
       </c>
       <c r="G47" s="3">
-        <v>15400</v>
+        <v>15600</v>
       </c>
       <c r="H47" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="I47" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1913400</v>
+        <v>1943200</v>
       </c>
       <c r="E48" s="3">
-        <v>1819200</v>
+        <v>1847500</v>
       </c>
       <c r="F48" s="3">
-        <v>2032400</v>
+        <v>2064000</v>
       </c>
       <c r="G48" s="3">
-        <v>1969700</v>
+        <v>2000300</v>
       </c>
       <c r="H48" s="3">
-        <v>1961500</v>
+        <v>1992000</v>
       </c>
       <c r="I48" s="3">
-        <v>1937200</v>
+        <v>1967300</v>
       </c>
       <c r="J48" s="3">
-        <v>204300</v>
+        <v>207500</v>
       </c>
       <c r="K48" s="3">
         <v>194900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35100</v>
+        <v>35700</v>
       </c>
       <c r="E49" s="3">
-        <v>34900</v>
+        <v>35500</v>
       </c>
       <c r="F49" s="3">
-        <v>33800</v>
+        <v>34300</v>
       </c>
       <c r="G49" s="3">
-        <v>39500</v>
+        <v>40100</v>
       </c>
       <c r="H49" s="3">
-        <v>57000</v>
+        <v>57900</v>
       </c>
       <c r="I49" s="3">
-        <v>58000</v>
+        <v>58900</v>
       </c>
       <c r="J49" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="K49" s="3">
         <v>13000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>279900</v>
+        <v>284300</v>
       </c>
       <c r="E52" s="3">
-        <v>238200</v>
+        <v>241900</v>
       </c>
       <c r="F52" s="3">
-        <v>228000</v>
+        <v>231600</v>
       </c>
       <c r="G52" s="3">
-        <v>201000</v>
+        <v>204100</v>
       </c>
       <c r="H52" s="3">
-        <v>170100</v>
+        <v>172800</v>
       </c>
       <c r="I52" s="3">
-        <v>161800</v>
+        <v>164300</v>
       </c>
       <c r="J52" s="3">
-        <v>15300</v>
+        <v>15600</v>
       </c>
       <c r="K52" s="3">
         <v>13400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2930000</v>
+        <v>2975600</v>
       </c>
       <c r="E54" s="3">
-        <v>2408400</v>
+        <v>2445900</v>
       </c>
       <c r="F54" s="3">
-        <v>2591100</v>
+        <v>2631400</v>
       </c>
       <c r="G54" s="3">
-        <v>2549200</v>
+        <v>2588800</v>
       </c>
       <c r="H54" s="3">
-        <v>2427700</v>
+        <v>2465500</v>
       </c>
       <c r="I54" s="3">
-        <v>2369100</v>
+        <v>2406000</v>
       </c>
       <c r="J54" s="3">
-        <v>252500</v>
+        <v>256500</v>
       </c>
       <c r="K54" s="3">
         <v>250800</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>46300</v>
+        <v>47000</v>
       </c>
       <c r="E57" s="3">
-        <v>50000</v>
+        <v>50800</v>
       </c>
       <c r="F57" s="3">
-        <v>38500</v>
+        <v>39100</v>
       </c>
       <c r="G57" s="3">
-        <v>34200</v>
+        <v>34700</v>
       </c>
       <c r="H57" s="3">
-        <v>23100</v>
+        <v>23500</v>
       </c>
       <c r="I57" s="3">
-        <v>34400</v>
+        <v>35000</v>
       </c>
       <c r="J57" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K57" s="3">
         <v>3400</v>
@@ -2310,19 +2310,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20700</v>
+        <v>21000</v>
       </c>
       <c r="E58" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="F58" s="3">
-        <v>45200</v>
+        <v>45900</v>
       </c>
       <c r="G58" s="3">
-        <v>120200</v>
+        <v>122100</v>
       </c>
       <c r="H58" s="3">
-        <v>19700</v>
+        <v>20000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>16</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>428700</v>
+        <v>435400</v>
       </c>
       <c r="E59" s="3">
-        <v>156200</v>
+        <v>158600</v>
       </c>
       <c r="F59" s="3">
-        <v>152200</v>
+        <v>154600</v>
       </c>
       <c r="G59" s="3">
-        <v>97600</v>
+        <v>99100</v>
       </c>
       <c r="H59" s="3">
-        <v>90300</v>
+        <v>91700</v>
       </c>
       <c r="I59" s="3">
-        <v>74500</v>
+        <v>75600</v>
       </c>
       <c r="J59" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="K59" s="3">
         <v>9100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>495600</v>
+        <v>503300</v>
       </c>
       <c r="E60" s="3">
-        <v>212000</v>
+        <v>215300</v>
       </c>
       <c r="F60" s="3">
-        <v>236000</v>
+        <v>239600</v>
       </c>
       <c r="G60" s="3">
-        <v>252000</v>
+        <v>255900</v>
       </c>
       <c r="H60" s="3">
-        <v>133200</v>
+        <v>135200</v>
       </c>
       <c r="I60" s="3">
-        <v>108900</v>
+        <v>110600</v>
       </c>
       <c r="J60" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="K60" s="3">
         <v>14200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>494600</v>
+        <v>502300</v>
       </c>
       <c r="E61" s="3">
-        <v>382000</v>
+        <v>387900</v>
       </c>
       <c r="F61" s="3">
-        <v>322800</v>
+        <v>327800</v>
       </c>
       <c r="G61" s="3">
-        <v>19600</v>
+        <v>19900</v>
       </c>
       <c r="H61" s="3">
-        <v>133700</v>
+        <v>135800</v>
       </c>
       <c r="I61" s="3">
-        <v>222800</v>
+        <v>226300</v>
       </c>
       <c r="J61" s="3">
-        <v>17700</v>
+        <v>18000</v>
       </c>
       <c r="K61" s="3">
         <v>13400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>407300</v>
+        <v>413700</v>
       </c>
       <c r="E62" s="3">
-        <v>331900</v>
+        <v>337000</v>
       </c>
       <c r="F62" s="3">
-        <v>368300</v>
+        <v>374000</v>
       </c>
       <c r="G62" s="3">
-        <v>357200</v>
+        <v>362800</v>
       </c>
       <c r="H62" s="3">
-        <v>313400</v>
+        <v>318300</v>
       </c>
       <c r="I62" s="3">
-        <v>283500</v>
+        <v>287900</v>
       </c>
       <c r="J62" s="3">
-        <v>31700</v>
+        <v>32200</v>
       </c>
       <c r="K62" s="3">
         <v>31200</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1397800</v>
+        <v>1419600</v>
       </c>
       <c r="E66" s="3">
-        <v>925800</v>
+        <v>940200</v>
       </c>
       <c r="F66" s="3">
-        <v>927100</v>
+        <v>941500</v>
       </c>
       <c r="G66" s="3">
-        <v>628900</v>
+        <v>638600</v>
       </c>
       <c r="H66" s="3">
-        <v>580300</v>
+        <v>589300</v>
       </c>
       <c r="I66" s="3">
-        <v>615200</v>
+        <v>624800</v>
       </c>
       <c r="J66" s="3">
-        <v>60800</v>
+        <v>61700</v>
       </c>
       <c r="K66" s="3">
         <v>58800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-662900</v>
+        <v>-673300</v>
       </c>
       <c r="E72" s="3">
-        <v>-617900</v>
+        <v>-627500</v>
       </c>
       <c r="F72" s="3">
-        <v>-462100</v>
+        <v>-469300</v>
       </c>
       <c r="G72" s="3">
-        <v>-183900</v>
+        <v>-186800</v>
       </c>
       <c r="H72" s="3">
-        <v>-203200</v>
+        <v>-206300</v>
       </c>
       <c r="I72" s="3">
-        <v>-286500</v>
+        <v>-291000</v>
       </c>
       <c r="J72" s="3">
-        <v>-8800</v>
+        <v>-8900</v>
       </c>
       <c r="K72" s="3">
         <v>500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1532200</v>
+        <v>1556000</v>
       </c>
       <c r="E76" s="3">
-        <v>1482600</v>
+        <v>1505600</v>
       </c>
       <c r="F76" s="3">
-        <v>1664000</v>
+        <v>1689900</v>
       </c>
       <c r="G76" s="3">
-        <v>1920300</v>
+        <v>1950200</v>
       </c>
       <c r="H76" s="3">
-        <v>1847400</v>
+        <v>1876200</v>
       </c>
       <c r="I76" s="3">
-        <v>1753900</v>
+        <v>1781200</v>
       </c>
       <c r="J76" s="3">
-        <v>191800</v>
+        <v>194700</v>
       </c>
       <c r="K76" s="3">
         <v>191900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-57600</v>
+        <v>-58500</v>
       </c>
       <c r="E81" s="3">
-        <v>-170900</v>
+        <v>-173600</v>
       </c>
       <c r="F81" s="3">
-        <v>-293200</v>
+        <v>-297800</v>
       </c>
       <c r="G81" s="3">
-        <v>23700</v>
+        <v>24100</v>
       </c>
       <c r="H81" s="3">
-        <v>62200</v>
+        <v>63200</v>
       </c>
       <c r="I81" s="3">
-        <v>-297400</v>
+        <v>-302000</v>
       </c>
       <c r="J81" s="3">
-        <v>-7700</v>
+        <v>-7900</v>
       </c>
       <c r="K81" s="3">
         <v>-13300</v>
@@ -3103,22 +3103,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>230000</v>
+        <v>233600</v>
       </c>
       <c r="E83" s="3">
-        <v>265800</v>
+        <v>269900</v>
       </c>
       <c r="F83" s="3">
-        <v>168500</v>
+        <v>171100</v>
       </c>
       <c r="G83" s="3">
-        <v>165100</v>
+        <v>167700</v>
       </c>
       <c r="H83" s="3">
-        <v>142300</v>
+        <v>144500</v>
       </c>
       <c r="I83" s="3">
-        <v>162100</v>
+        <v>164600</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>16</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>309600</v>
+        <v>314500</v>
       </c>
       <c r="E89" s="3">
-        <v>306800</v>
+        <v>311500</v>
       </c>
       <c r="F89" s="3">
-        <v>254600</v>
+        <v>258600</v>
       </c>
       <c r="G89" s="3">
-        <v>249400</v>
+        <v>253300</v>
       </c>
       <c r="H89" s="3">
-        <v>295900</v>
+        <v>300500</v>
       </c>
       <c r="I89" s="3">
-        <v>131500</v>
+        <v>133600</v>
       </c>
       <c r="J89" s="3">
-        <v>14400</v>
+        <v>14600</v>
       </c>
       <c r="K89" s="3">
         <v>19400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-236100</v>
+        <v>-239800</v>
       </c>
       <c r="E91" s="3">
-        <v>-330100</v>
+        <v>-335200</v>
       </c>
       <c r="F91" s="3">
-        <v>-299100</v>
+        <v>-303700</v>
       </c>
       <c r="G91" s="3">
-        <v>-255000</v>
+        <v>-259000</v>
       </c>
       <c r="H91" s="3">
-        <v>-159800</v>
+        <v>-162300</v>
       </c>
       <c r="I91" s="3">
-        <v>-185000</v>
+        <v>-187900</v>
       </c>
       <c r="J91" s="3">
-        <v>-16800</v>
+        <v>-17000</v>
       </c>
       <c r="K91" s="3">
         <v>-25400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-233300</v>
+        <v>-236900</v>
       </c>
       <c r="E94" s="3">
-        <v>-314500</v>
+        <v>-319400</v>
       </c>
       <c r="F94" s="3">
-        <v>-529400</v>
+        <v>-537600</v>
       </c>
       <c r="G94" s="3">
-        <v>-221800</v>
+        <v>-225200</v>
       </c>
       <c r="H94" s="3">
-        <v>-170400</v>
+        <v>-173000</v>
       </c>
       <c r="I94" s="3">
-        <v>-190600</v>
+        <v>-193600</v>
       </c>
       <c r="J94" s="3">
-        <v>-16700</v>
+        <v>-17000</v>
       </c>
       <c r="K94" s="3">
         <v>-16900</v>
@@ -3537,10 +3537,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-10100</v>
+        <v>-10300</v>
       </c>
       <c r="G96" s="3">
-        <v>-28800</v>
+        <v>-29200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>282200</v>
+        <v>286600</v>
       </c>
       <c r="E100" s="3">
-        <v>24900</v>
+        <v>25300</v>
       </c>
       <c r="F100" s="3">
-        <v>244100</v>
+        <v>247900</v>
       </c>
       <c r="G100" s="3">
-        <v>-29500</v>
+        <v>-30000</v>
       </c>
       <c r="H100" s="3">
-        <v>-114400</v>
+        <v>-116200</v>
       </c>
       <c r="I100" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="J100" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K100" s="3">
         <v>-300</v>
@@ -3711,16 +3711,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="E101" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F101" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="G101" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H101" s="3">
         <v>1300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>351700</v>
+        <v>357100</v>
       </c>
       <c r="E102" s="3">
-        <v>18800</v>
+        <v>19100</v>
       </c>
       <c r="F102" s="3">
-        <v>-35400</v>
+        <v>-36000</v>
       </c>
       <c r="G102" s="3">
         <v>-700</v>
       </c>
       <c r="H102" s="3">
-        <v>12400</v>
+        <v>12600</v>
       </c>
       <c r="I102" s="3">
-        <v>-50000</v>
+        <v>-50700</v>
       </c>
       <c r="J102" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="K102" s="3">
         <v>-400</v>

--- a/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1947100</v>
+        <v>2110900</v>
       </c>
       <c r="E8" s="3">
-        <v>1791800</v>
+        <v>1942500</v>
       </c>
       <c r="F8" s="3">
-        <v>1361700</v>
+        <v>1476200</v>
       </c>
       <c r="G8" s="3">
-        <v>1282600</v>
+        <v>1390500</v>
       </c>
       <c r="H8" s="3">
-        <v>1220700</v>
+        <v>1323300</v>
       </c>
       <c r="I8" s="3">
-        <v>1027700</v>
+        <v>1114100</v>
       </c>
       <c r="J8" s="3">
-        <v>100900</v>
+        <v>109400</v>
       </c>
       <c r="K8" s="3">
         <v>106900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1722300</v>
+        <v>1867200</v>
       </c>
       <c r="E9" s="3">
-        <v>1646500</v>
+        <v>1784900</v>
       </c>
       <c r="F9" s="3">
-        <v>1201900</v>
+        <v>1303000</v>
       </c>
       <c r="G9" s="3">
-        <v>1188300</v>
+        <v>1288200</v>
       </c>
       <c r="H9" s="3">
-        <v>1052800</v>
+        <v>1141400</v>
       </c>
       <c r="I9" s="3">
-        <v>1020700</v>
+        <v>1106600</v>
       </c>
       <c r="J9" s="3">
-        <v>92400</v>
+        <v>100200</v>
       </c>
       <c r="K9" s="3">
         <v>107400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>224800</v>
+        <v>243800</v>
       </c>
       <c r="E10" s="3">
-        <v>145300</v>
+        <v>157600</v>
       </c>
       <c r="F10" s="3">
-        <v>159800</v>
+        <v>173200</v>
       </c>
       <c r="G10" s="3">
-        <v>94300</v>
+        <v>102300</v>
       </c>
       <c r="H10" s="3">
-        <v>167800</v>
+        <v>182000</v>
       </c>
       <c r="I10" s="3">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="J10" s="3">
-        <v>8500</v>
+        <v>9200</v>
       </c>
       <c r="K10" s="3">
         <v>-500</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>13600</v>
+        <v>14800</v>
       </c>
       <c r="E12" s="3">
-        <v>9900</v>
+        <v>10700</v>
       </c>
       <c r="F12" s="3">
-        <v>9000</v>
+        <v>9700</v>
       </c>
       <c r="G12" s="3">
-        <v>16000</v>
+        <v>17400</v>
       </c>
       <c r="H12" s="3">
-        <v>12700</v>
+        <v>13800</v>
       </c>
       <c r="I12" s="3">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="J12" s="3">
-        <v>2900</v>
+        <v>3200</v>
       </c>
       <c r="K12" s="3">
         <v>4500</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>8100</v>
+        <v>8700</v>
       </c>
       <c r="E14" s="3">
-        <v>271500</v>
+        <v>294400</v>
       </c>
       <c r="F14" s="3">
-        <v>368300</v>
+        <v>399200</v>
       </c>
       <c r="G14" s="3">
-        <v>124800</v>
+        <v>135300</v>
       </c>
       <c r="H14" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="I14" s="3">
-        <v>247800</v>
+        <v>268700</v>
       </c>
       <c r="J14" s="3">
-        <v>10700</v>
+        <v>11500</v>
       </c>
       <c r="K14" s="3">
         <v>17100</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1974000</v>
+        <v>2140000</v>
       </c>
       <c r="E17" s="3">
-        <v>1960800</v>
+        <v>2125700</v>
       </c>
       <c r="F17" s="3">
-        <v>1678500</v>
+        <v>1819700</v>
       </c>
       <c r="G17" s="3">
-        <v>1293200</v>
+        <v>1402000</v>
       </c>
       <c r="H17" s="3">
-        <v>1114700</v>
+        <v>1208400</v>
       </c>
       <c r="I17" s="3">
-        <v>1373400</v>
+        <v>1488900</v>
       </c>
       <c r="J17" s="3">
-        <v>110500</v>
+        <v>119800</v>
       </c>
       <c r="K17" s="3">
         <v>118900</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-26800</v>
+        <v>-29100</v>
       </c>
       <c r="E18" s="3">
-        <v>-169000</v>
+        <v>-183200</v>
       </c>
       <c r="F18" s="3">
-        <v>-316800</v>
+        <v>-343400</v>
       </c>
       <c r="G18" s="3">
-        <v>-10700</v>
+        <v>-11500</v>
       </c>
       <c r="H18" s="3">
-        <v>106000</v>
+        <v>114900</v>
       </c>
       <c r="I18" s="3">
-        <v>-345700</v>
+        <v>-374800</v>
       </c>
       <c r="J18" s="3">
-        <v>-9700</v>
+        <v>-10500</v>
       </c>
       <c r="K18" s="3">
         <v>-12000</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>11900</v>
+        <v>12800</v>
       </c>
       <c r="E20" s="3">
-        <v>4100</v>
+        <v>4400</v>
       </c>
       <c r="F20" s="3">
-        <v>25400</v>
+        <v>27500</v>
       </c>
       <c r="G20" s="3">
-        <v>16400</v>
+        <v>17800</v>
       </c>
       <c r="H20" s="3">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="I20" s="3">
-        <v>14400</v>
+        <v>15700</v>
       </c>
       <c r="J20" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K20" s="3">
         <v>1400</v>
@@ -1125,22 +1125,22 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>219400</v>
+        <v>235800</v>
       </c>
       <c r="E21" s="3">
-        <v>105900</v>
+        <v>112500</v>
       </c>
       <c r="F21" s="3">
-        <v>-119700</v>
+        <v>-131300</v>
       </c>
       <c r="G21" s="3">
-        <v>174000</v>
+        <v>187200</v>
       </c>
       <c r="H21" s="3">
-        <v>268500</v>
+        <v>289800</v>
       </c>
       <c r="I21" s="3">
-        <v>-166200</v>
+        <v>-181500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>24600</v>
+        <v>26700</v>
       </c>
       <c r="E22" s="3">
-        <v>17900</v>
+        <v>19400</v>
       </c>
       <c r="F22" s="3">
-        <v>22000</v>
+        <v>23800</v>
       </c>
       <c r="G22" s="3">
-        <v>15600</v>
+        <v>16900</v>
       </c>
       <c r="H22" s="3">
-        <v>18200</v>
+        <v>19800</v>
       </c>
       <c r="I22" s="3">
-        <v>17600</v>
+        <v>19100</v>
       </c>
       <c r="J22" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K22" s="3">
         <v>700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-39600</v>
+        <v>-42900</v>
       </c>
       <c r="E23" s="3">
-        <v>-182800</v>
+        <v>-198200</v>
       </c>
       <c r="F23" s="3">
-        <v>-313400</v>
+        <v>-339800</v>
       </c>
       <c r="G23" s="3">
-        <v>-9900</v>
+        <v>-10700</v>
       </c>
       <c r="H23" s="3">
-        <v>105300</v>
+        <v>114100</v>
       </c>
       <c r="I23" s="3">
-        <v>-348900</v>
+        <v>-378200</v>
       </c>
       <c r="J23" s="3">
-        <v>-9700</v>
+        <v>-10500</v>
       </c>
       <c r="K23" s="3">
         <v>-11300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17000</v>
+        <v>18400</v>
       </c>
       <c r="E24" s="3">
-        <v>-9300</v>
+        <v>-10000</v>
       </c>
       <c r="F24" s="3">
-        <v>-15600</v>
+        <v>-16900</v>
       </c>
       <c r="G24" s="3">
-        <v>-34000</v>
+        <v>-36800</v>
       </c>
       <c r="H24" s="3">
-        <v>42100</v>
+        <v>45600</v>
       </c>
       <c r="I24" s="3">
-        <v>-46900</v>
+        <v>-50800</v>
       </c>
       <c r="J24" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="K24" s="3">
         <v>4100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-56600</v>
+        <v>-61400</v>
       </c>
       <c r="E26" s="3">
-        <v>-173600</v>
+        <v>-188200</v>
       </c>
       <c r="F26" s="3">
-        <v>-297800</v>
+        <v>-322900</v>
       </c>
       <c r="G26" s="3">
-        <v>24100</v>
+        <v>26100</v>
       </c>
       <c r="H26" s="3">
-        <v>63200</v>
+        <v>68500</v>
       </c>
       <c r="I26" s="3">
-        <v>-302000</v>
+        <v>-327400</v>
       </c>
       <c r="J26" s="3">
-        <v>-7900</v>
+        <v>-8500</v>
       </c>
       <c r="K26" s="3">
         <v>-15400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-58500</v>
+        <v>-63400</v>
       </c>
       <c r="E27" s="3">
-        <v>-173600</v>
+        <v>-188200</v>
       </c>
       <c r="F27" s="3">
-        <v>-297800</v>
+        <v>-322900</v>
       </c>
       <c r="G27" s="3">
-        <v>24100</v>
+        <v>26100</v>
       </c>
       <c r="H27" s="3">
-        <v>63200</v>
+        <v>68500</v>
       </c>
       <c r="I27" s="3">
-        <v>-302000</v>
+        <v>-327400</v>
       </c>
       <c r="J27" s="3">
-        <v>-7900</v>
+        <v>-8500</v>
       </c>
       <c r="K27" s="3">
         <v>-15400</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11900</v>
+        <v>-12800</v>
       </c>
       <c r="E32" s="3">
-        <v>-4100</v>
+        <v>-4400</v>
       </c>
       <c r="F32" s="3">
-        <v>-25400</v>
+        <v>-27500</v>
       </c>
       <c r="G32" s="3">
-        <v>-16400</v>
+        <v>-17800</v>
       </c>
       <c r="H32" s="3">
-        <v>-17500</v>
+        <v>-19000</v>
       </c>
       <c r="I32" s="3">
-        <v>-14400</v>
+        <v>-15700</v>
       </c>
       <c r="J32" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="K32" s="3">
         <v>-1400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-58500</v>
+        <v>-63400</v>
       </c>
       <c r="E33" s="3">
-        <v>-173600</v>
+        <v>-188200</v>
       </c>
       <c r="F33" s="3">
-        <v>-297800</v>
+        <v>-322900</v>
       </c>
       <c r="G33" s="3">
-        <v>24100</v>
+        <v>26100</v>
       </c>
       <c r="H33" s="3">
-        <v>63200</v>
+        <v>68500</v>
       </c>
       <c r="I33" s="3">
-        <v>-302000</v>
+        <v>-327400</v>
       </c>
       <c r="J33" s="3">
-        <v>-7900</v>
+        <v>-8500</v>
       </c>
       <c r="K33" s="3">
         <v>-13300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-58500</v>
+        <v>-63400</v>
       </c>
       <c r="E35" s="3">
-        <v>-173600</v>
+        <v>-188200</v>
       </c>
       <c r="F35" s="3">
-        <v>-297800</v>
+        <v>-322900</v>
       </c>
       <c r="G35" s="3">
-        <v>24100</v>
+        <v>26100</v>
       </c>
       <c r="H35" s="3">
-        <v>63200</v>
+        <v>68500</v>
       </c>
       <c r="I35" s="3">
-        <v>-302000</v>
+        <v>-327400</v>
       </c>
       <c r="J35" s="3">
-        <v>-7900</v>
+        <v>-8500</v>
       </c>
       <c r="K35" s="3">
         <v>-13300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>423200</v>
+        <v>458800</v>
       </c>
       <c r="E41" s="3">
-        <v>66100</v>
+        <v>71700</v>
       </c>
       <c r="F41" s="3">
-        <v>47000</v>
+        <v>51000</v>
       </c>
       <c r="G41" s="3">
-        <v>83000</v>
+        <v>89900</v>
       </c>
       <c r="H41" s="3">
-        <v>83600</v>
+        <v>90700</v>
       </c>
       <c r="I41" s="3">
-        <v>71000</v>
+        <v>77000</v>
       </c>
       <c r="J41" s="3">
-        <v>11500</v>
+        <v>12400</v>
       </c>
       <c r="K41" s="3">
         <v>12400</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>81800</v>
+        <v>88700</v>
       </c>
       <c r="E43" s="3">
-        <v>66400</v>
+        <v>72000</v>
       </c>
       <c r="F43" s="3">
-        <v>70800</v>
+        <v>76700</v>
       </c>
       <c r="G43" s="3">
-        <v>61900</v>
+        <v>67100</v>
       </c>
       <c r="H43" s="3">
-        <v>41600</v>
+        <v>45100</v>
       </c>
       <c r="I43" s="3">
-        <v>48100</v>
+        <v>52100</v>
       </c>
       <c r="J43" s="3">
-        <v>6700</v>
+        <v>7200</v>
       </c>
       <c r="K43" s="3">
         <v>7300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>161200</v>
+        <v>174700</v>
       </c>
       <c r="E44" s="3">
-        <v>131000</v>
+        <v>142000</v>
       </c>
       <c r="F44" s="3">
-        <v>117100</v>
+        <v>127000</v>
       </c>
       <c r="G44" s="3">
-        <v>75000</v>
+        <v>81300</v>
       </c>
       <c r="H44" s="3">
-        <v>77700</v>
+        <v>84200</v>
       </c>
       <c r="I44" s="3">
-        <v>86000</v>
+        <v>93300</v>
       </c>
       <c r="J44" s="3">
-        <v>9700</v>
+        <v>10500</v>
       </c>
       <c r="K44" s="3">
         <v>8500</v>
@@ -1882,22 +1882,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10600</v>
+        <v>11500</v>
       </c>
       <c r="E45" s="3">
-        <v>28000</v>
+        <v>30300</v>
       </c>
       <c r="F45" s="3">
-        <v>43500</v>
+        <v>47100</v>
       </c>
       <c r="G45" s="3">
-        <v>108700</v>
+        <v>117800</v>
       </c>
       <c r="H45" s="3">
-        <v>28000</v>
+        <v>30400</v>
       </c>
       <c r="I45" s="3">
-        <v>4700</v>
+        <v>5100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>676900</v>
+        <v>733800</v>
       </c>
       <c r="E46" s="3">
-        <v>291400</v>
+        <v>315900</v>
       </c>
       <c r="F46" s="3">
-        <v>278400</v>
+        <v>301800</v>
       </c>
       <c r="G46" s="3">
-        <v>328600</v>
+        <v>356200</v>
       </c>
       <c r="H46" s="3">
-        <v>231000</v>
+        <v>250400</v>
       </c>
       <c r="I46" s="3">
-        <v>209800</v>
+        <v>227400</v>
       </c>
       <c r="J46" s="3">
-        <v>27800</v>
+        <v>30200</v>
       </c>
       <c r="K46" s="3">
         <v>28500</v>
@@ -1954,22 +1954,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>35600</v>
+        <v>38500</v>
       </c>
       <c r="E47" s="3">
-        <v>29600</v>
+        <v>32000</v>
       </c>
       <c r="F47" s="3">
-        <v>23200</v>
+        <v>25100</v>
       </c>
       <c r="G47" s="3">
-        <v>15600</v>
+        <v>17000</v>
       </c>
       <c r="H47" s="3">
-        <v>11800</v>
+        <v>12800</v>
       </c>
       <c r="I47" s="3">
-        <v>5700</v>
+        <v>6100</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1943200</v>
+        <v>2106600</v>
       </c>
       <c r="E48" s="3">
-        <v>1847500</v>
+        <v>2002900</v>
       </c>
       <c r="F48" s="3">
-        <v>2064000</v>
+        <v>2237700</v>
       </c>
       <c r="G48" s="3">
-        <v>2000300</v>
+        <v>2168600</v>
       </c>
       <c r="H48" s="3">
-        <v>1992000</v>
+        <v>2159600</v>
       </c>
       <c r="I48" s="3">
-        <v>1967300</v>
+        <v>2132800</v>
       </c>
       <c r="J48" s="3">
-        <v>207500</v>
+        <v>224900</v>
       </c>
       <c r="K48" s="3">
         <v>194900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35700</v>
+        <v>38700</v>
       </c>
       <c r="E49" s="3">
-        <v>35500</v>
+        <v>38500</v>
       </c>
       <c r="F49" s="3">
-        <v>34300</v>
+        <v>37200</v>
       </c>
       <c r="G49" s="3">
-        <v>40100</v>
+        <v>43500</v>
       </c>
       <c r="H49" s="3">
-        <v>57900</v>
+        <v>62800</v>
       </c>
       <c r="I49" s="3">
-        <v>58900</v>
+        <v>63900</v>
       </c>
       <c r="J49" s="3">
-        <v>5600</v>
+        <v>6100</v>
       </c>
       <c r="K49" s="3">
         <v>13000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>284300</v>
+        <v>308200</v>
       </c>
       <c r="E52" s="3">
-        <v>241900</v>
+        <v>262200</v>
       </c>
       <c r="F52" s="3">
-        <v>231600</v>
+        <v>251000</v>
       </c>
       <c r="G52" s="3">
-        <v>204100</v>
+        <v>221300</v>
       </c>
       <c r="H52" s="3">
-        <v>172800</v>
+        <v>187300</v>
       </c>
       <c r="I52" s="3">
-        <v>164300</v>
+        <v>178100</v>
       </c>
       <c r="J52" s="3">
-        <v>15600</v>
+        <v>16900</v>
       </c>
       <c r="K52" s="3">
         <v>13400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2975600</v>
+        <v>3225900</v>
       </c>
       <c r="E54" s="3">
-        <v>2445900</v>
+        <v>2651600</v>
       </c>
       <c r="F54" s="3">
-        <v>2631400</v>
+        <v>2852800</v>
       </c>
       <c r="G54" s="3">
-        <v>2588800</v>
+        <v>2806600</v>
       </c>
       <c r="H54" s="3">
-        <v>2465500</v>
+        <v>2672800</v>
       </c>
       <c r="I54" s="3">
-        <v>2406000</v>
+        <v>2608400</v>
       </c>
       <c r="J54" s="3">
-        <v>256500</v>
+        <v>278000</v>
       </c>
       <c r="K54" s="3">
         <v>250800</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>47000</v>
+        <v>51000</v>
       </c>
       <c r="E57" s="3">
-        <v>50800</v>
+        <v>55100</v>
       </c>
       <c r="F57" s="3">
-        <v>39100</v>
+        <v>42400</v>
       </c>
       <c r="G57" s="3">
-        <v>34700</v>
+        <v>37600</v>
       </c>
       <c r="H57" s="3">
-        <v>23500</v>
+        <v>25500</v>
       </c>
       <c r="I57" s="3">
-        <v>35000</v>
+        <v>37900</v>
       </c>
       <c r="J57" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="K57" s="3">
         <v>3400</v>
@@ -2310,19 +2310,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21000</v>
+        <v>22700</v>
       </c>
       <c r="E58" s="3">
-        <v>5900</v>
+        <v>6400</v>
       </c>
       <c r="F58" s="3">
-        <v>45900</v>
+        <v>49800</v>
       </c>
       <c r="G58" s="3">
-        <v>122100</v>
+        <v>132400</v>
       </c>
       <c r="H58" s="3">
-        <v>20000</v>
+        <v>21700</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>16</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>435400</v>
+        <v>472000</v>
       </c>
       <c r="E59" s="3">
-        <v>158600</v>
+        <v>171900</v>
       </c>
       <c r="F59" s="3">
-        <v>154600</v>
+        <v>167600</v>
       </c>
       <c r="G59" s="3">
-        <v>99100</v>
+        <v>107500</v>
       </c>
       <c r="H59" s="3">
-        <v>91700</v>
+        <v>99500</v>
       </c>
       <c r="I59" s="3">
-        <v>75600</v>
+        <v>82000</v>
       </c>
       <c r="J59" s="3">
-        <v>8500</v>
+        <v>9200</v>
       </c>
       <c r="K59" s="3">
         <v>9100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>503300</v>
+        <v>545700</v>
       </c>
       <c r="E60" s="3">
-        <v>215300</v>
+        <v>233400</v>
       </c>
       <c r="F60" s="3">
-        <v>239600</v>
+        <v>259800</v>
       </c>
       <c r="G60" s="3">
-        <v>255900</v>
+        <v>277500</v>
       </c>
       <c r="H60" s="3">
-        <v>135200</v>
+        <v>146600</v>
       </c>
       <c r="I60" s="3">
-        <v>110600</v>
+        <v>119900</v>
       </c>
       <c r="J60" s="3">
-        <v>11600</v>
+        <v>12600</v>
       </c>
       <c r="K60" s="3">
         <v>14200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>502300</v>
+        <v>544500</v>
       </c>
       <c r="E61" s="3">
-        <v>387900</v>
+        <v>420500</v>
       </c>
       <c r="F61" s="3">
-        <v>327800</v>
+        <v>355400</v>
       </c>
       <c r="G61" s="3">
-        <v>19900</v>
+        <v>21600</v>
       </c>
       <c r="H61" s="3">
-        <v>135800</v>
+        <v>147200</v>
       </c>
       <c r="I61" s="3">
-        <v>226300</v>
+        <v>245300</v>
       </c>
       <c r="J61" s="3">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="K61" s="3">
         <v>13400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>413700</v>
+        <v>448500</v>
       </c>
       <c r="E62" s="3">
-        <v>337000</v>
+        <v>365400</v>
       </c>
       <c r="F62" s="3">
-        <v>374000</v>
+        <v>405500</v>
       </c>
       <c r="G62" s="3">
-        <v>362800</v>
+        <v>393300</v>
       </c>
       <c r="H62" s="3">
-        <v>318300</v>
+        <v>345100</v>
       </c>
       <c r="I62" s="3">
-        <v>287900</v>
+        <v>312100</v>
       </c>
       <c r="J62" s="3">
-        <v>32200</v>
+        <v>34900</v>
       </c>
       <c r="K62" s="3">
         <v>31200</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1419600</v>
+        <v>1538900</v>
       </c>
       <c r="E66" s="3">
-        <v>940200</v>
+        <v>1019300</v>
       </c>
       <c r="F66" s="3">
-        <v>941500</v>
+        <v>1020700</v>
       </c>
       <c r="G66" s="3">
-        <v>638600</v>
+        <v>692400</v>
       </c>
       <c r="H66" s="3">
-        <v>589300</v>
+        <v>638900</v>
       </c>
       <c r="I66" s="3">
-        <v>624800</v>
+        <v>677300</v>
       </c>
       <c r="J66" s="3">
-        <v>61700</v>
+        <v>66900</v>
       </c>
       <c r="K66" s="3">
         <v>58800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-673300</v>
+        <v>-729900</v>
       </c>
       <c r="E72" s="3">
-        <v>-627500</v>
+        <v>-680300</v>
       </c>
       <c r="F72" s="3">
-        <v>-469300</v>
+        <v>-508700</v>
       </c>
       <c r="G72" s="3">
-        <v>-186800</v>
+        <v>-202500</v>
       </c>
       <c r="H72" s="3">
-        <v>-206300</v>
+        <v>-223700</v>
       </c>
       <c r="I72" s="3">
-        <v>-291000</v>
+        <v>-315400</v>
       </c>
       <c r="J72" s="3">
-        <v>-8900</v>
+        <v>-9700</v>
       </c>
       <c r="K72" s="3">
         <v>500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1556000</v>
+        <v>1686900</v>
       </c>
       <c r="E76" s="3">
-        <v>1505600</v>
+        <v>1632300</v>
       </c>
       <c r="F76" s="3">
-        <v>1689900</v>
+        <v>1832100</v>
       </c>
       <c r="G76" s="3">
-        <v>1950200</v>
+        <v>2114200</v>
       </c>
       <c r="H76" s="3">
-        <v>1876200</v>
+        <v>2034000</v>
       </c>
       <c r="I76" s="3">
-        <v>1781200</v>
+        <v>1931000</v>
       </c>
       <c r="J76" s="3">
-        <v>194700</v>
+        <v>211100</v>
       </c>
       <c r="K76" s="3">
         <v>191900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-58500</v>
+        <v>-63400</v>
       </c>
       <c r="E81" s="3">
-        <v>-173600</v>
+        <v>-188200</v>
       </c>
       <c r="F81" s="3">
-        <v>-297800</v>
+        <v>-322900</v>
       </c>
       <c r="G81" s="3">
-        <v>24100</v>
+        <v>26100</v>
       </c>
       <c r="H81" s="3">
-        <v>63200</v>
+        <v>68500</v>
       </c>
       <c r="I81" s="3">
-        <v>-302000</v>
+        <v>-327400</v>
       </c>
       <c r="J81" s="3">
-        <v>-7900</v>
+        <v>-8500</v>
       </c>
       <c r="K81" s="3">
         <v>-13300</v>
@@ -3103,22 +3103,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>233600</v>
+        <v>253200</v>
       </c>
       <c r="E83" s="3">
-        <v>269900</v>
+        <v>292600</v>
       </c>
       <c r="F83" s="3">
-        <v>171100</v>
+        <v>185500</v>
       </c>
       <c r="G83" s="3">
-        <v>167700</v>
+        <v>181800</v>
       </c>
       <c r="H83" s="3">
-        <v>144500</v>
+        <v>156600</v>
       </c>
       <c r="I83" s="3">
-        <v>164600</v>
+        <v>178400</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>16</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>314500</v>
+        <v>340900</v>
       </c>
       <c r="E89" s="3">
-        <v>311500</v>
+        <v>337700</v>
       </c>
       <c r="F89" s="3">
-        <v>258600</v>
+        <v>280300</v>
       </c>
       <c r="G89" s="3">
-        <v>253300</v>
+        <v>274600</v>
       </c>
       <c r="H89" s="3">
-        <v>300500</v>
+        <v>325700</v>
       </c>
       <c r="I89" s="3">
-        <v>133600</v>
+        <v>144800</v>
       </c>
       <c r="J89" s="3">
-        <v>14600</v>
+        <v>15800</v>
       </c>
       <c r="K89" s="3">
         <v>19400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-239800</v>
+        <v>-260000</v>
       </c>
       <c r="E91" s="3">
-        <v>-335200</v>
+        <v>-363400</v>
       </c>
       <c r="F91" s="3">
-        <v>-303700</v>
+        <v>-329300</v>
       </c>
       <c r="G91" s="3">
-        <v>-259000</v>
+        <v>-280800</v>
       </c>
       <c r="H91" s="3">
-        <v>-162300</v>
+        <v>-175900</v>
       </c>
       <c r="I91" s="3">
-        <v>-187900</v>
+        <v>-203700</v>
       </c>
       <c r="J91" s="3">
-        <v>-17000</v>
+        <v>-18500</v>
       </c>
       <c r="K91" s="3">
         <v>-25400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-236900</v>
+        <v>-256800</v>
       </c>
       <c r="E94" s="3">
-        <v>-319400</v>
+        <v>-346200</v>
       </c>
       <c r="F94" s="3">
-        <v>-537600</v>
+        <v>-582900</v>
       </c>
       <c r="G94" s="3">
-        <v>-225200</v>
+        <v>-244200</v>
       </c>
       <c r="H94" s="3">
-        <v>-173000</v>
+        <v>-187600</v>
       </c>
       <c r="I94" s="3">
-        <v>-193600</v>
+        <v>-209900</v>
       </c>
       <c r="J94" s="3">
-        <v>-17000</v>
+        <v>-18400</v>
       </c>
       <c r="K94" s="3">
         <v>-16900</v>
@@ -3537,10 +3537,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-10300</v>
+        <v>-11100</v>
       </c>
       <c r="G96" s="3">
-        <v>-29200</v>
+        <v>-31700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>286600</v>
+        <v>310700</v>
       </c>
       <c r="E100" s="3">
-        <v>25300</v>
+        <v>27400</v>
       </c>
       <c r="F100" s="3">
-        <v>247900</v>
+        <v>268700</v>
       </c>
       <c r="G100" s="3">
-        <v>-30000</v>
+        <v>-32500</v>
       </c>
       <c r="H100" s="3">
-        <v>-116200</v>
+        <v>-126000</v>
       </c>
       <c r="I100" s="3">
-        <v>9900</v>
+        <v>10700</v>
       </c>
       <c r="J100" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K100" s="3">
         <v>-300</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7100</v>
+        <v>-7700</v>
       </c>
       <c r="E101" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F101" s="3">
-        <v>-4800</v>
+        <v>-5200</v>
       </c>
       <c r="G101" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H101" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I101" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J101" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="K101" s="3">
         <v>-2700</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>357100</v>
+        <v>387200</v>
       </c>
       <c r="E102" s="3">
-        <v>19100</v>
+        <v>20700</v>
       </c>
       <c r="F102" s="3">
-        <v>-36000</v>
+        <v>-39000</v>
       </c>
       <c r="G102" s="3">
         <v>-700</v>
       </c>
       <c r="H102" s="3">
-        <v>12600</v>
+        <v>13600</v>
       </c>
       <c r="I102" s="3">
-        <v>-50700</v>
+        <v>-55000</v>
       </c>
       <c r="J102" s="3">
-        <v>-2500</v>
+        <v>-2700</v>
       </c>
       <c r="K102" s="3">
         <v>-400</v>

--- a/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2110900</v>
+        <v>1923700</v>
       </c>
       <c r="E8" s="3">
-        <v>1942500</v>
+        <v>1770300</v>
       </c>
       <c r="F8" s="3">
-        <v>1476200</v>
+        <v>1345300</v>
       </c>
       <c r="G8" s="3">
-        <v>1390500</v>
+        <v>1267200</v>
       </c>
       <c r="H8" s="3">
-        <v>1323300</v>
+        <v>1206000</v>
       </c>
       <c r="I8" s="3">
-        <v>1114100</v>
+        <v>1015300</v>
       </c>
       <c r="J8" s="3">
-        <v>109400</v>
+        <v>99700</v>
       </c>
       <c r="K8" s="3">
         <v>106900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1867200</v>
+        <v>1701600</v>
       </c>
       <c r="E9" s="3">
-        <v>1784900</v>
+        <v>1626700</v>
       </c>
       <c r="F9" s="3">
-        <v>1303000</v>
+        <v>1187500</v>
       </c>
       <c r="G9" s="3">
-        <v>1288200</v>
+        <v>1174000</v>
       </c>
       <c r="H9" s="3">
-        <v>1141400</v>
+        <v>1040200</v>
       </c>
       <c r="I9" s="3">
-        <v>1106600</v>
+        <v>1008500</v>
       </c>
       <c r="J9" s="3">
-        <v>100200</v>
+        <v>91300</v>
       </c>
       <c r="K9" s="3">
         <v>107400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>243800</v>
+        <v>222100</v>
       </c>
       <c r="E10" s="3">
-        <v>157600</v>
+        <v>143600</v>
       </c>
       <c r="F10" s="3">
-        <v>173200</v>
+        <v>157900</v>
       </c>
       <c r="G10" s="3">
-        <v>102300</v>
+        <v>93200</v>
       </c>
       <c r="H10" s="3">
-        <v>182000</v>
+        <v>165800</v>
       </c>
       <c r="I10" s="3">
-        <v>7500</v>
+        <v>6800</v>
       </c>
       <c r="J10" s="3">
-        <v>9200</v>
+        <v>8400</v>
       </c>
       <c r="K10" s="3">
         <v>-500</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14800</v>
+        <v>13500</v>
       </c>
       <c r="E12" s="3">
-        <v>10700</v>
+        <v>9700</v>
       </c>
       <c r="F12" s="3">
-        <v>9700</v>
+        <v>8900</v>
       </c>
       <c r="G12" s="3">
-        <v>17400</v>
+        <v>15900</v>
       </c>
       <c r="H12" s="3">
-        <v>13800</v>
+        <v>12600</v>
       </c>
       <c r="I12" s="3">
-        <v>19000</v>
+        <v>17300</v>
       </c>
       <c r="J12" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="K12" s="3">
         <v>4500</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>8700</v>
+        <v>8000</v>
       </c>
       <c r="E14" s="3">
-        <v>294400</v>
+        <v>268300</v>
       </c>
       <c r="F14" s="3">
-        <v>399200</v>
+        <v>363800</v>
       </c>
       <c r="G14" s="3">
-        <v>135300</v>
+        <v>123300</v>
       </c>
       <c r="H14" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="I14" s="3">
-        <v>268700</v>
+        <v>244800</v>
       </c>
       <c r="J14" s="3">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="K14" s="3">
         <v>17100</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2140000</v>
+        <v>1950200</v>
       </c>
       <c r="E17" s="3">
-        <v>2125700</v>
+        <v>1937200</v>
       </c>
       <c r="F17" s="3">
-        <v>1819700</v>
+        <v>1658300</v>
       </c>
       <c r="G17" s="3">
-        <v>1402000</v>
+        <v>1277700</v>
       </c>
       <c r="H17" s="3">
-        <v>1208400</v>
+        <v>1101300</v>
       </c>
       <c r="I17" s="3">
-        <v>1488900</v>
+        <v>1356900</v>
       </c>
       <c r="J17" s="3">
-        <v>119800</v>
+        <v>109200</v>
       </c>
       <c r="K17" s="3">
         <v>118900</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-29100</v>
+        <v>-26500</v>
       </c>
       <c r="E18" s="3">
-        <v>-183200</v>
+        <v>-166900</v>
       </c>
       <c r="F18" s="3">
-        <v>-343400</v>
+        <v>-313000</v>
       </c>
       <c r="G18" s="3">
-        <v>-11500</v>
+        <v>-10500</v>
       </c>
       <c r="H18" s="3">
-        <v>114900</v>
+        <v>104700</v>
       </c>
       <c r="I18" s="3">
-        <v>-374800</v>
+        <v>-341600</v>
       </c>
       <c r="J18" s="3">
-        <v>-10500</v>
+        <v>-9500</v>
       </c>
       <c r="K18" s="3">
         <v>-12000</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>12800</v>
+        <v>11700</v>
       </c>
       <c r="E20" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="F20" s="3">
-        <v>27500</v>
+        <v>25100</v>
       </c>
       <c r="G20" s="3">
-        <v>17800</v>
+        <v>16200</v>
       </c>
       <c r="H20" s="3">
-        <v>19000</v>
+        <v>17300</v>
       </c>
       <c r="I20" s="3">
-        <v>15700</v>
+        <v>14300</v>
       </c>
       <c r="J20" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K20" s="3">
         <v>1400</v>
@@ -1125,22 +1125,22 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>235800</v>
+        <v>220000</v>
       </c>
       <c r="E21" s="3">
-        <v>112500</v>
+        <v>108400</v>
       </c>
       <c r="F21" s="3">
-        <v>-131300</v>
+        <v>-115900</v>
       </c>
       <c r="G21" s="3">
-        <v>187200</v>
+        <v>174300</v>
       </c>
       <c r="H21" s="3">
-        <v>289800</v>
+        <v>267300</v>
       </c>
       <c r="I21" s="3">
-        <v>-181500</v>
+        <v>-161800</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>26700</v>
+        <v>24300</v>
       </c>
       <c r="E22" s="3">
-        <v>19400</v>
+        <v>17700</v>
       </c>
       <c r="F22" s="3">
-        <v>23800</v>
+        <v>21700</v>
       </c>
       <c r="G22" s="3">
-        <v>16900</v>
+        <v>15400</v>
       </c>
       <c r="H22" s="3">
-        <v>19800</v>
+        <v>18000</v>
       </c>
       <c r="I22" s="3">
-        <v>19100</v>
+        <v>17400</v>
       </c>
       <c r="J22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K22" s="3">
         <v>700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-42900</v>
+        <v>-39100</v>
       </c>
       <c r="E23" s="3">
-        <v>-198200</v>
+        <v>-180600</v>
       </c>
       <c r="F23" s="3">
-        <v>-339800</v>
+        <v>-309600</v>
       </c>
       <c r="G23" s="3">
-        <v>-10700</v>
+        <v>-9700</v>
       </c>
       <c r="H23" s="3">
-        <v>114100</v>
+        <v>104000</v>
       </c>
       <c r="I23" s="3">
-        <v>-378200</v>
+        <v>-344700</v>
       </c>
       <c r="J23" s="3">
-        <v>-10500</v>
+        <v>-9500</v>
       </c>
       <c r="K23" s="3">
         <v>-11300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18400</v>
+        <v>16800</v>
       </c>
       <c r="E24" s="3">
-        <v>-10000</v>
+        <v>-9100</v>
       </c>
       <c r="F24" s="3">
-        <v>-16900</v>
+        <v>-15400</v>
       </c>
       <c r="G24" s="3">
-        <v>-36800</v>
+        <v>-33500</v>
       </c>
       <c r="H24" s="3">
-        <v>45600</v>
+        <v>41600</v>
       </c>
       <c r="I24" s="3">
-        <v>-50800</v>
+        <v>-46300</v>
       </c>
       <c r="J24" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="K24" s="3">
         <v>4100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-61400</v>
+        <v>-55900</v>
       </c>
       <c r="E26" s="3">
-        <v>-188200</v>
+        <v>-171500</v>
       </c>
       <c r="F26" s="3">
-        <v>-322900</v>
+        <v>-294200</v>
       </c>
       <c r="G26" s="3">
-        <v>26100</v>
+        <v>23800</v>
       </c>
       <c r="H26" s="3">
-        <v>68500</v>
+        <v>62400</v>
       </c>
       <c r="I26" s="3">
-        <v>-327400</v>
+        <v>-298400</v>
       </c>
       <c r="J26" s="3">
-        <v>-8500</v>
+        <v>-7800</v>
       </c>
       <c r="K26" s="3">
         <v>-15400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-63400</v>
+        <v>-57800</v>
       </c>
       <c r="E27" s="3">
-        <v>-188200</v>
+        <v>-171500</v>
       </c>
       <c r="F27" s="3">
-        <v>-322900</v>
+        <v>-294200</v>
       </c>
       <c r="G27" s="3">
-        <v>26100</v>
+        <v>23800</v>
       </c>
       <c r="H27" s="3">
-        <v>68500</v>
+        <v>62400</v>
       </c>
       <c r="I27" s="3">
-        <v>-327400</v>
+        <v>-298400</v>
       </c>
       <c r="J27" s="3">
-        <v>-8500</v>
+        <v>-7800</v>
       </c>
       <c r="K27" s="3">
         <v>-15400</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12800</v>
+        <v>-11700</v>
       </c>
       <c r="E32" s="3">
-        <v>-4400</v>
+        <v>-4000</v>
       </c>
       <c r="F32" s="3">
-        <v>-27500</v>
+        <v>-25100</v>
       </c>
       <c r="G32" s="3">
-        <v>-17800</v>
+        <v>-16200</v>
       </c>
       <c r="H32" s="3">
-        <v>-19000</v>
+        <v>-17300</v>
       </c>
       <c r="I32" s="3">
-        <v>-15700</v>
+        <v>-14300</v>
       </c>
       <c r="J32" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="K32" s="3">
         <v>-1400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-63400</v>
+        <v>-57800</v>
       </c>
       <c r="E33" s="3">
-        <v>-188200</v>
+        <v>-171500</v>
       </c>
       <c r="F33" s="3">
-        <v>-322900</v>
+        <v>-294200</v>
       </c>
       <c r="G33" s="3">
-        <v>26100</v>
+        <v>23800</v>
       </c>
       <c r="H33" s="3">
-        <v>68500</v>
+        <v>62400</v>
       </c>
       <c r="I33" s="3">
-        <v>-327400</v>
+        <v>-298400</v>
       </c>
       <c r="J33" s="3">
-        <v>-8500</v>
+        <v>-7800</v>
       </c>
       <c r="K33" s="3">
         <v>-13300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-63400</v>
+        <v>-57800</v>
       </c>
       <c r="E35" s="3">
-        <v>-188200</v>
+        <v>-171500</v>
       </c>
       <c r="F35" s="3">
-        <v>-322900</v>
+        <v>-294200</v>
       </c>
       <c r="G35" s="3">
-        <v>26100</v>
+        <v>23800</v>
       </c>
       <c r="H35" s="3">
-        <v>68500</v>
+        <v>62400</v>
       </c>
       <c r="I35" s="3">
-        <v>-327400</v>
+        <v>-298400</v>
       </c>
       <c r="J35" s="3">
-        <v>-8500</v>
+        <v>-7800</v>
       </c>
       <c r="K35" s="3">
         <v>-13300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>458800</v>
+        <v>418200</v>
       </c>
       <c r="E41" s="3">
-        <v>71700</v>
+        <v>65300</v>
       </c>
       <c r="F41" s="3">
-        <v>51000</v>
+        <v>46400</v>
       </c>
       <c r="G41" s="3">
-        <v>89900</v>
+        <v>82000</v>
       </c>
       <c r="H41" s="3">
-        <v>90700</v>
+        <v>82600</v>
       </c>
       <c r="I41" s="3">
-        <v>77000</v>
+        <v>70200</v>
       </c>
       <c r="J41" s="3">
-        <v>12400</v>
+        <v>11300</v>
       </c>
       <c r="K41" s="3">
         <v>12400</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>88700</v>
+        <v>80800</v>
       </c>
       <c r="E43" s="3">
-        <v>72000</v>
+        <v>65600</v>
       </c>
       <c r="F43" s="3">
-        <v>76700</v>
+        <v>69900</v>
       </c>
       <c r="G43" s="3">
-        <v>67100</v>
+        <v>61200</v>
       </c>
       <c r="H43" s="3">
-        <v>45100</v>
+        <v>41100</v>
       </c>
       <c r="I43" s="3">
-        <v>52100</v>
+        <v>47500</v>
       </c>
       <c r="J43" s="3">
-        <v>7200</v>
+        <v>6600</v>
       </c>
       <c r="K43" s="3">
         <v>7300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>174700</v>
+        <v>159300</v>
       </c>
       <c r="E44" s="3">
-        <v>142000</v>
+        <v>129400</v>
       </c>
       <c r="F44" s="3">
-        <v>127000</v>
+        <v>115700</v>
       </c>
       <c r="G44" s="3">
-        <v>81300</v>
+        <v>74100</v>
       </c>
       <c r="H44" s="3">
-        <v>84200</v>
+        <v>76800</v>
       </c>
       <c r="I44" s="3">
-        <v>93300</v>
+        <v>85000</v>
       </c>
       <c r="J44" s="3">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="K44" s="3">
         <v>8500</v>
@@ -1882,22 +1882,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="E45" s="3">
-        <v>30300</v>
+        <v>27600</v>
       </c>
       <c r="F45" s="3">
-        <v>47100</v>
+        <v>43000</v>
       </c>
       <c r="G45" s="3">
-        <v>117800</v>
+        <v>107400</v>
       </c>
       <c r="H45" s="3">
-        <v>30400</v>
+        <v>27700</v>
       </c>
       <c r="I45" s="3">
-        <v>5100</v>
+        <v>4600</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>733800</v>
+        <v>668700</v>
       </c>
       <c r="E46" s="3">
-        <v>315900</v>
+        <v>287900</v>
       </c>
       <c r="F46" s="3">
-        <v>301800</v>
+        <v>275000</v>
       </c>
       <c r="G46" s="3">
-        <v>356200</v>
+        <v>324600</v>
       </c>
       <c r="H46" s="3">
-        <v>250400</v>
+        <v>228200</v>
       </c>
       <c r="I46" s="3">
-        <v>227400</v>
+        <v>207300</v>
       </c>
       <c r="J46" s="3">
-        <v>30200</v>
+        <v>27500</v>
       </c>
       <c r="K46" s="3">
         <v>28500</v>
@@ -1954,22 +1954,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>38500</v>
+        <v>35100</v>
       </c>
       <c r="E47" s="3">
-        <v>32000</v>
+        <v>29200</v>
       </c>
       <c r="F47" s="3">
-        <v>25100</v>
+        <v>22900</v>
       </c>
       <c r="G47" s="3">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="H47" s="3">
-        <v>12800</v>
+        <v>11600</v>
       </c>
       <c r="I47" s="3">
-        <v>6100</v>
+        <v>5600</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2106600</v>
+        <v>1919900</v>
       </c>
       <c r="E48" s="3">
-        <v>2002900</v>
+        <v>1825300</v>
       </c>
       <c r="F48" s="3">
-        <v>2237700</v>
+        <v>2039200</v>
       </c>
       <c r="G48" s="3">
-        <v>2168600</v>
+        <v>1976300</v>
       </c>
       <c r="H48" s="3">
-        <v>2159600</v>
+        <v>1968100</v>
       </c>
       <c r="I48" s="3">
-        <v>2132800</v>
+        <v>1943700</v>
       </c>
       <c r="J48" s="3">
-        <v>224900</v>
+        <v>205000</v>
       </c>
       <c r="K48" s="3">
         <v>194900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>38700</v>
+        <v>35300</v>
       </c>
       <c r="E49" s="3">
-        <v>38500</v>
+        <v>35100</v>
       </c>
       <c r="F49" s="3">
-        <v>37200</v>
+        <v>33900</v>
       </c>
       <c r="G49" s="3">
-        <v>43500</v>
+        <v>39700</v>
       </c>
       <c r="H49" s="3">
-        <v>62800</v>
+        <v>57200</v>
       </c>
       <c r="I49" s="3">
-        <v>63900</v>
+        <v>58200</v>
       </c>
       <c r="J49" s="3">
-        <v>6100</v>
+        <v>5500</v>
       </c>
       <c r="K49" s="3">
         <v>13000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>308200</v>
+        <v>280900</v>
       </c>
       <c r="E52" s="3">
-        <v>262200</v>
+        <v>239000</v>
       </c>
       <c r="F52" s="3">
-        <v>251000</v>
+        <v>228800</v>
       </c>
       <c r="G52" s="3">
-        <v>221300</v>
+        <v>201700</v>
       </c>
       <c r="H52" s="3">
-        <v>187300</v>
+        <v>170700</v>
       </c>
       <c r="I52" s="3">
-        <v>178100</v>
+        <v>162300</v>
       </c>
       <c r="J52" s="3">
-        <v>16900</v>
+        <v>15400</v>
       </c>
       <c r="K52" s="3">
         <v>13400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3225900</v>
+        <v>2939800</v>
       </c>
       <c r="E54" s="3">
-        <v>2651600</v>
+        <v>2416500</v>
       </c>
       <c r="F54" s="3">
-        <v>2852800</v>
+        <v>2599800</v>
       </c>
       <c r="G54" s="3">
-        <v>2806600</v>
+        <v>2557700</v>
       </c>
       <c r="H54" s="3">
-        <v>2672800</v>
+        <v>2435800</v>
       </c>
       <c r="I54" s="3">
-        <v>2608400</v>
+        <v>2377100</v>
       </c>
       <c r="J54" s="3">
-        <v>278000</v>
+        <v>253400</v>
       </c>
       <c r="K54" s="3">
         <v>250800</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>51000</v>
+        <v>46400</v>
       </c>
       <c r="E57" s="3">
-        <v>55100</v>
+        <v>50200</v>
       </c>
       <c r="F57" s="3">
-        <v>42400</v>
+        <v>38600</v>
       </c>
       <c r="G57" s="3">
-        <v>37600</v>
+        <v>34300</v>
       </c>
       <c r="H57" s="3">
-        <v>25500</v>
+        <v>23200</v>
       </c>
       <c r="I57" s="3">
-        <v>37900</v>
+        <v>34500</v>
       </c>
       <c r="J57" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="K57" s="3">
         <v>3400</v>
@@ -2310,19 +2310,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22700</v>
+        <v>20700</v>
       </c>
       <c r="E58" s="3">
-        <v>6400</v>
+        <v>5900</v>
       </c>
       <c r="F58" s="3">
-        <v>49800</v>
+        <v>45400</v>
       </c>
       <c r="G58" s="3">
-        <v>132400</v>
+        <v>120600</v>
       </c>
       <c r="H58" s="3">
-        <v>21700</v>
+        <v>19700</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>16</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>472000</v>
+        <v>430100</v>
       </c>
       <c r="E59" s="3">
-        <v>171900</v>
+        <v>156700</v>
       </c>
       <c r="F59" s="3">
-        <v>167600</v>
+        <v>152700</v>
       </c>
       <c r="G59" s="3">
-        <v>107500</v>
+        <v>97900</v>
       </c>
       <c r="H59" s="3">
-        <v>99500</v>
+        <v>90600</v>
       </c>
       <c r="I59" s="3">
-        <v>82000</v>
+        <v>74700</v>
       </c>
       <c r="J59" s="3">
-        <v>9200</v>
+        <v>8400</v>
       </c>
       <c r="K59" s="3">
         <v>9100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>545700</v>
+        <v>497300</v>
       </c>
       <c r="E60" s="3">
-        <v>233400</v>
+        <v>212700</v>
       </c>
       <c r="F60" s="3">
-        <v>259800</v>
+        <v>236700</v>
       </c>
       <c r="G60" s="3">
-        <v>277500</v>
+        <v>252900</v>
       </c>
       <c r="H60" s="3">
-        <v>146600</v>
+        <v>133600</v>
       </c>
       <c r="I60" s="3">
-        <v>119900</v>
+        <v>109300</v>
       </c>
       <c r="J60" s="3">
-        <v>12600</v>
+        <v>11400</v>
       </c>
       <c r="K60" s="3">
         <v>14200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>544500</v>
+        <v>496200</v>
       </c>
       <c r="E61" s="3">
-        <v>420500</v>
+        <v>383200</v>
       </c>
       <c r="F61" s="3">
-        <v>355400</v>
+        <v>323900</v>
       </c>
       <c r="G61" s="3">
-        <v>21600</v>
+        <v>19700</v>
       </c>
       <c r="H61" s="3">
-        <v>147200</v>
+        <v>134100</v>
       </c>
       <c r="I61" s="3">
-        <v>245300</v>
+        <v>223600</v>
       </c>
       <c r="J61" s="3">
-        <v>19500</v>
+        <v>17800</v>
       </c>
       <c r="K61" s="3">
         <v>13400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>448500</v>
+        <v>408700</v>
       </c>
       <c r="E62" s="3">
-        <v>365400</v>
+        <v>333000</v>
       </c>
       <c r="F62" s="3">
-        <v>405500</v>
+        <v>369600</v>
       </c>
       <c r="G62" s="3">
-        <v>393300</v>
+        <v>358400</v>
       </c>
       <c r="H62" s="3">
-        <v>345100</v>
+        <v>314500</v>
       </c>
       <c r="I62" s="3">
-        <v>312100</v>
+        <v>284400</v>
       </c>
       <c r="J62" s="3">
-        <v>34900</v>
+        <v>31800</v>
       </c>
       <c r="K62" s="3">
         <v>31200</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1538900</v>
+        <v>1402500</v>
       </c>
       <c r="E66" s="3">
-        <v>1019300</v>
+        <v>928900</v>
       </c>
       <c r="F66" s="3">
-        <v>1020700</v>
+        <v>930200</v>
       </c>
       <c r="G66" s="3">
-        <v>692400</v>
+        <v>631000</v>
       </c>
       <c r="H66" s="3">
-        <v>638900</v>
+        <v>582200</v>
       </c>
       <c r="I66" s="3">
-        <v>677300</v>
+        <v>617300</v>
       </c>
       <c r="J66" s="3">
-        <v>66900</v>
+        <v>61000</v>
       </c>
       <c r="K66" s="3">
         <v>58800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-729900</v>
+        <v>-665200</v>
       </c>
       <c r="E72" s="3">
-        <v>-680300</v>
+        <v>-620000</v>
       </c>
       <c r="F72" s="3">
-        <v>-508700</v>
+        <v>-463600</v>
       </c>
       <c r="G72" s="3">
-        <v>-202500</v>
+        <v>-184500</v>
       </c>
       <c r="H72" s="3">
-        <v>-223700</v>
+        <v>-203900</v>
       </c>
       <c r="I72" s="3">
-        <v>-315400</v>
+        <v>-287500</v>
       </c>
       <c r="J72" s="3">
-        <v>-9700</v>
+        <v>-8800</v>
       </c>
       <c r="K72" s="3">
         <v>500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1686900</v>
+        <v>1537300</v>
       </c>
       <c r="E76" s="3">
-        <v>1632300</v>
+        <v>1487500</v>
       </c>
       <c r="F76" s="3">
-        <v>1832100</v>
+        <v>1669600</v>
       </c>
       <c r="G76" s="3">
-        <v>2114200</v>
+        <v>1926800</v>
       </c>
       <c r="H76" s="3">
-        <v>2034000</v>
+        <v>1853600</v>
       </c>
       <c r="I76" s="3">
-        <v>1931000</v>
+        <v>1759800</v>
       </c>
       <c r="J76" s="3">
-        <v>211100</v>
+        <v>192400</v>
       </c>
       <c r="K76" s="3">
         <v>191900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-63400</v>
+        <v>-57800</v>
       </c>
       <c r="E81" s="3">
-        <v>-188200</v>
+        <v>-171500</v>
       </c>
       <c r="F81" s="3">
-        <v>-322900</v>
+        <v>-294200</v>
       </c>
       <c r="G81" s="3">
-        <v>26100</v>
+        <v>23800</v>
       </c>
       <c r="H81" s="3">
-        <v>68500</v>
+        <v>62400</v>
       </c>
       <c r="I81" s="3">
-        <v>-327400</v>
+        <v>-298400</v>
       </c>
       <c r="J81" s="3">
-        <v>-8500</v>
+        <v>-7800</v>
       </c>
       <c r="K81" s="3">
         <v>-13300</v>
@@ -3103,22 +3103,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>253200</v>
+        <v>230800</v>
       </c>
       <c r="E83" s="3">
-        <v>292600</v>
+        <v>266700</v>
       </c>
       <c r="F83" s="3">
-        <v>185500</v>
+        <v>169100</v>
       </c>
       <c r="G83" s="3">
-        <v>181800</v>
+        <v>165700</v>
       </c>
       <c r="H83" s="3">
-        <v>156600</v>
+        <v>142700</v>
       </c>
       <c r="I83" s="3">
-        <v>178400</v>
+        <v>162600</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>16</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>340900</v>
+        <v>310700</v>
       </c>
       <c r="E89" s="3">
-        <v>337700</v>
+        <v>307800</v>
       </c>
       <c r="F89" s="3">
-        <v>280300</v>
+        <v>255500</v>
       </c>
       <c r="G89" s="3">
-        <v>274600</v>
+        <v>250200</v>
       </c>
       <c r="H89" s="3">
-        <v>325700</v>
+        <v>296900</v>
       </c>
       <c r="I89" s="3">
-        <v>144800</v>
+        <v>132000</v>
       </c>
       <c r="J89" s="3">
-        <v>15800</v>
+        <v>14400</v>
       </c>
       <c r="K89" s="3">
         <v>19400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-260000</v>
+        <v>-236900</v>
       </c>
       <c r="E91" s="3">
-        <v>-363400</v>
+        <v>-331200</v>
       </c>
       <c r="F91" s="3">
-        <v>-329300</v>
+        <v>-300100</v>
       </c>
       <c r="G91" s="3">
-        <v>-280800</v>
+        <v>-255900</v>
       </c>
       <c r="H91" s="3">
-        <v>-175900</v>
+        <v>-160300</v>
       </c>
       <c r="I91" s="3">
-        <v>-203700</v>
+        <v>-185600</v>
       </c>
       <c r="J91" s="3">
-        <v>-18500</v>
+        <v>-16800</v>
       </c>
       <c r="K91" s="3">
         <v>-25400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-256800</v>
+        <v>-234000</v>
       </c>
       <c r="E94" s="3">
-        <v>-346200</v>
+        <v>-315500</v>
       </c>
       <c r="F94" s="3">
-        <v>-582900</v>
+        <v>-531200</v>
       </c>
       <c r="G94" s="3">
-        <v>-244200</v>
+        <v>-222500</v>
       </c>
       <c r="H94" s="3">
-        <v>-187600</v>
+        <v>-171000</v>
       </c>
       <c r="I94" s="3">
-        <v>-209900</v>
+        <v>-191300</v>
       </c>
       <c r="J94" s="3">
-        <v>-18400</v>
+        <v>-16800</v>
       </c>
       <c r="K94" s="3">
         <v>-16900</v>
@@ -3537,10 +3537,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-11100</v>
+        <v>-10100</v>
       </c>
       <c r="G96" s="3">
-        <v>-31700</v>
+        <v>-28900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>310700</v>
+        <v>283200</v>
       </c>
       <c r="E100" s="3">
-        <v>27400</v>
+        <v>25000</v>
       </c>
       <c r="F100" s="3">
-        <v>268700</v>
+        <v>244900</v>
       </c>
       <c r="G100" s="3">
-        <v>-32500</v>
+        <v>-29600</v>
       </c>
       <c r="H100" s="3">
-        <v>-126000</v>
+        <v>-114800</v>
       </c>
       <c r="I100" s="3">
-        <v>10700</v>
+        <v>9700</v>
       </c>
       <c r="J100" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K100" s="3">
         <v>-300</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7700</v>
+        <v>-7000</v>
       </c>
       <c r="E101" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="F101" s="3">
-        <v>-5200</v>
+        <v>-4700</v>
       </c>
       <c r="G101" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="H101" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I101" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="J101" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K101" s="3">
         <v>-2700</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>387200</v>
+        <v>352800</v>
       </c>
       <c r="E102" s="3">
-        <v>20700</v>
+        <v>18900</v>
       </c>
       <c r="F102" s="3">
-        <v>-39000</v>
+        <v>-35500</v>
       </c>
       <c r="G102" s="3">
         <v>-700</v>
       </c>
       <c r="H102" s="3">
-        <v>13600</v>
+        <v>12400</v>
       </c>
       <c r="I102" s="3">
-        <v>-55000</v>
+        <v>-50100</v>
       </c>
       <c r="J102" s="3">
-        <v>-2700</v>
+        <v>-2400</v>
       </c>
       <c r="K102" s="3">
         <v>-400</v>

--- a/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>HMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42185</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41820</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41455</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41090</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40724</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1923700</v>
+        <v>2585400</v>
       </c>
       <c r="E8" s="3">
-        <v>1770300</v>
+        <v>1811700</v>
       </c>
       <c r="F8" s="3">
-        <v>1345300</v>
+        <v>1667200</v>
       </c>
       <c r="G8" s="3">
-        <v>1267200</v>
+        <v>1267000</v>
       </c>
       <c r="H8" s="3">
-        <v>1206000</v>
+        <v>1193400</v>
       </c>
       <c r="I8" s="3">
-        <v>1015300</v>
+        <v>1135800</v>
       </c>
       <c r="J8" s="3">
+        <v>956200</v>
+      </c>
+      <c r="K8" s="3">
         <v>99700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>106900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>133900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>117500</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1701600</v>
+        <v>2108300</v>
       </c>
       <c r="E9" s="3">
-        <v>1626700</v>
+        <v>1602500</v>
       </c>
       <c r="F9" s="3">
-        <v>1187500</v>
+        <v>1532000</v>
       </c>
       <c r="G9" s="3">
-        <v>1174000</v>
+        <v>1118300</v>
       </c>
       <c r="H9" s="3">
-        <v>1040200</v>
+        <v>1105600</v>
       </c>
       <c r="I9" s="3">
-        <v>1008500</v>
+        <v>979600</v>
       </c>
       <c r="J9" s="3">
+        <v>949800</v>
+      </c>
+      <c r="K9" s="3">
         <v>91300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>107400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>106000</v>
       </c>
       <c r="M9" s="3">
         <v>106000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3">
+        <v>106000</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>222100</v>
+        <v>477000</v>
       </c>
       <c r="E10" s="3">
-        <v>143600</v>
+        <v>209200</v>
       </c>
       <c r="F10" s="3">
-        <v>157900</v>
+        <v>135200</v>
       </c>
       <c r="G10" s="3">
-        <v>93200</v>
+        <v>148700</v>
       </c>
       <c r="H10" s="3">
-        <v>165800</v>
+        <v>87800</v>
       </c>
       <c r="I10" s="3">
-        <v>6800</v>
+        <v>156200</v>
       </c>
       <c r="J10" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K10" s="3">
         <v>8400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>27800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11500</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="E12" s="3">
-        <v>9700</v>
+        <v>12700</v>
       </c>
       <c r="F12" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="G12" s="3">
-        <v>15900</v>
+        <v>8400</v>
       </c>
       <c r="H12" s="3">
-        <v>12600</v>
+        <v>14900</v>
       </c>
       <c r="I12" s="3">
-        <v>17300</v>
+        <v>11800</v>
       </c>
       <c r="J12" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K12" s="3">
         <v>2900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3300</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>8000</v>
+        <v>84100</v>
       </c>
       <c r="E14" s="3">
-        <v>268300</v>
+        <v>7500</v>
       </c>
       <c r="F14" s="3">
-        <v>363800</v>
+        <v>252600</v>
       </c>
       <c r="G14" s="3">
-        <v>123300</v>
+        <v>342600</v>
       </c>
       <c r="H14" s="3">
-        <v>-1800</v>
+        <v>116200</v>
       </c>
       <c r="I14" s="3">
-        <v>244800</v>
+        <v>-1700</v>
       </c>
       <c r="J14" s="3">
+        <v>230600</v>
+      </c>
+      <c r="K14" s="3">
         <v>10500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>17100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4200</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1950200</v>
+        <v>2174700</v>
       </c>
       <c r="E17" s="3">
-        <v>1937200</v>
+        <v>1836700</v>
       </c>
       <c r="F17" s="3">
-        <v>1658300</v>
+        <v>1824400</v>
       </c>
       <c r="G17" s="3">
-        <v>1277700</v>
+        <v>1561800</v>
       </c>
       <c r="H17" s="3">
-        <v>1101300</v>
+        <v>1203300</v>
       </c>
       <c r="I17" s="3">
-        <v>1356900</v>
+        <v>1037200</v>
       </c>
       <c r="J17" s="3">
+        <v>1277900</v>
+      </c>
+      <c r="K17" s="3">
         <v>109200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>118900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>115800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>117300</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-26500</v>
+        <v>410700</v>
       </c>
       <c r="E18" s="3">
-        <v>-166900</v>
+        <v>-25000</v>
       </c>
       <c r="F18" s="3">
-        <v>-313000</v>
+        <v>-157200</v>
       </c>
       <c r="G18" s="3">
-        <v>-10500</v>
+        <v>-294800</v>
       </c>
       <c r="H18" s="3">
-        <v>104700</v>
+        <v>-9900</v>
       </c>
       <c r="I18" s="3">
-        <v>-341600</v>
+        <v>98600</v>
       </c>
       <c r="J18" s="3">
+        <v>-321700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-9500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>11700</v>
+        <v>-2500</v>
       </c>
       <c r="E20" s="3">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="F20" s="3">
-        <v>25100</v>
+        <v>3800</v>
       </c>
       <c r="G20" s="3">
-        <v>16200</v>
+        <v>23600</v>
       </c>
       <c r="H20" s="3">
-        <v>17300</v>
+        <v>15200</v>
       </c>
       <c r="I20" s="3">
-        <v>14300</v>
+        <v>16300</v>
       </c>
       <c r="J20" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6400</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>220000</v>
+        <v>645900</v>
       </c>
       <c r="E21" s="3">
-        <v>108400</v>
+        <v>201200</v>
       </c>
       <c r="F21" s="3">
-        <v>-115900</v>
+        <v>95200</v>
       </c>
       <c r="G21" s="3">
-        <v>174300</v>
+        <v>-113500</v>
       </c>
       <c r="H21" s="3">
-        <v>267300</v>
+        <v>159800</v>
       </c>
       <c r="I21" s="3">
-        <v>-161800</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>248000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-156600</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>36000</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>24300</v>
+        <v>12800</v>
       </c>
       <c r="E22" s="3">
-        <v>17700</v>
+        <v>22900</v>
       </c>
       <c r="F22" s="3">
-        <v>21700</v>
+        <v>16700</v>
       </c>
       <c r="G22" s="3">
-        <v>15400</v>
+        <v>20400</v>
       </c>
       <c r="H22" s="3">
-        <v>18000</v>
+        <v>14500</v>
       </c>
       <c r="I22" s="3">
-        <v>17400</v>
+        <v>17000</v>
       </c>
       <c r="J22" s="3">
-        <v>700</v>
+        <v>16400</v>
       </c>
       <c r="K22" s="3">
         <v>700</v>
       </c>
       <c r="L22" s="3">
+        <v>700</v>
+      </c>
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4300</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-39100</v>
+        <v>395400</v>
       </c>
       <c r="E23" s="3">
-        <v>-180600</v>
+        <v>-36900</v>
       </c>
       <c r="F23" s="3">
-        <v>-309600</v>
+        <v>-170100</v>
       </c>
       <c r="G23" s="3">
-        <v>-9700</v>
+        <v>-291600</v>
       </c>
       <c r="H23" s="3">
-        <v>104000</v>
+        <v>-9200</v>
       </c>
       <c r="I23" s="3">
-        <v>-344700</v>
+        <v>97900</v>
       </c>
       <c r="J23" s="3">
+        <v>-324600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-9500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>17100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16800</v>
+        <v>77900</v>
       </c>
       <c r="E24" s="3">
-        <v>-9100</v>
+        <v>15800</v>
       </c>
       <c r="F24" s="3">
-        <v>-15400</v>
+        <v>-8600</v>
       </c>
       <c r="G24" s="3">
-        <v>-33500</v>
+        <v>-14500</v>
       </c>
       <c r="H24" s="3">
-        <v>41600</v>
+        <v>-31600</v>
       </c>
       <c r="I24" s="3">
-        <v>-46300</v>
+        <v>39200</v>
       </c>
       <c r="J24" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3900</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-55900</v>
+        <v>317400</v>
       </c>
       <c r="E26" s="3">
-        <v>-171500</v>
+        <v>-52700</v>
       </c>
       <c r="F26" s="3">
-        <v>-294200</v>
+        <v>-161500</v>
       </c>
       <c r="G26" s="3">
-        <v>23800</v>
+        <v>-277100</v>
       </c>
       <c r="H26" s="3">
-        <v>62400</v>
+        <v>22400</v>
       </c>
       <c r="I26" s="3">
-        <v>-298400</v>
+        <v>58800</v>
       </c>
       <c r="J26" s="3">
+        <v>-281000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-57800</v>
+        <v>315100</v>
       </c>
       <c r="E27" s="3">
-        <v>-171500</v>
+        <v>-54400</v>
       </c>
       <c r="F27" s="3">
-        <v>-294200</v>
+        <v>-161500</v>
       </c>
       <c r="G27" s="3">
-        <v>23800</v>
+        <v>-277100</v>
       </c>
       <c r="H27" s="3">
-        <v>62400</v>
+        <v>22400</v>
       </c>
       <c r="I27" s="3">
-        <v>-298400</v>
+        <v>58800</v>
       </c>
       <c r="J27" s="3">
+        <v>-281000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-7800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6200</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,45 +1463,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>16</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>2100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>5100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11700</v>
+        <v>2500</v>
       </c>
       <c r="E32" s="3">
-        <v>-4000</v>
+        <v>-11000</v>
       </c>
       <c r="F32" s="3">
-        <v>-25100</v>
+        <v>-3800</v>
       </c>
       <c r="G32" s="3">
-        <v>-16200</v>
+        <v>-23600</v>
       </c>
       <c r="H32" s="3">
-        <v>-17300</v>
+        <v>-15200</v>
       </c>
       <c r="I32" s="3">
-        <v>-14300</v>
+        <v>-16300</v>
       </c>
       <c r="J32" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6400</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-57800</v>
+        <v>315100</v>
       </c>
       <c r="E33" s="3">
-        <v>-171500</v>
+        <v>-54400</v>
       </c>
       <c r="F33" s="3">
-        <v>-294200</v>
+        <v>-161500</v>
       </c>
       <c r="G33" s="3">
-        <v>23800</v>
+        <v>-277100</v>
       </c>
       <c r="H33" s="3">
-        <v>62400</v>
+        <v>22400</v>
       </c>
       <c r="I33" s="3">
-        <v>-298400</v>
+        <v>58800</v>
       </c>
       <c r="J33" s="3">
+        <v>-281000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-7800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6100</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-57800</v>
+        <v>315100</v>
       </c>
       <c r="E35" s="3">
-        <v>-171500</v>
+        <v>-54400</v>
       </c>
       <c r="F35" s="3">
-        <v>-294200</v>
+        <v>-161500</v>
       </c>
       <c r="G35" s="3">
-        <v>23800</v>
+        <v>-277100</v>
       </c>
       <c r="H35" s="3">
-        <v>62400</v>
+        <v>22400</v>
       </c>
       <c r="I35" s="3">
-        <v>-298400</v>
+        <v>58800</v>
       </c>
       <c r="J35" s="3">
+        <v>-281000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-7800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6100</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42185</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41820</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41455</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41090</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40724</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>418200</v>
+        <v>174600</v>
       </c>
       <c r="E41" s="3">
-        <v>65300</v>
+        <v>393800</v>
       </c>
       <c r="F41" s="3">
-        <v>46400</v>
+        <v>61500</v>
       </c>
       <c r="G41" s="3">
-        <v>82000</v>
+        <v>43700</v>
       </c>
       <c r="H41" s="3">
-        <v>82600</v>
+        <v>77200</v>
       </c>
       <c r="I41" s="3">
-        <v>70200</v>
+        <v>77800</v>
       </c>
       <c r="J41" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K41" s="3">
         <v>11300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7200</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1803,261 +1892,285 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>80800</v>
+        <v>94200</v>
       </c>
       <c r="E43" s="3">
-        <v>65600</v>
+        <v>76100</v>
       </c>
       <c r="F43" s="3">
-        <v>69900</v>
+        <v>61800</v>
       </c>
       <c r="G43" s="3">
-        <v>61200</v>
+        <v>65900</v>
       </c>
       <c r="H43" s="3">
-        <v>41100</v>
+        <v>57600</v>
       </c>
       <c r="I43" s="3">
-        <v>47500</v>
+        <v>38700</v>
       </c>
       <c r="J43" s="3">
+        <v>44700</v>
+      </c>
+      <c r="K43" s="3">
         <v>6600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12300</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>159300</v>
+        <v>157500</v>
       </c>
       <c r="E44" s="3">
-        <v>129400</v>
+        <v>150000</v>
       </c>
       <c r="F44" s="3">
-        <v>115700</v>
+        <v>121900</v>
       </c>
       <c r="G44" s="3">
-        <v>74100</v>
+        <v>109000</v>
       </c>
       <c r="H44" s="3">
-        <v>76800</v>
+        <v>69800</v>
       </c>
       <c r="I44" s="3">
-        <v>85000</v>
+        <v>72300</v>
       </c>
       <c r="J44" s="3">
+        <v>80000</v>
+      </c>
+      <c r="K44" s="3">
         <v>9500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8800</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10500</v>
+        <v>103400</v>
       </c>
       <c r="E45" s="3">
-        <v>27600</v>
+        <v>9900</v>
       </c>
       <c r="F45" s="3">
-        <v>43000</v>
+        <v>26000</v>
       </c>
       <c r="G45" s="3">
-        <v>107400</v>
+        <v>40500</v>
       </c>
       <c r="H45" s="3">
-        <v>27700</v>
+        <v>101100</v>
       </c>
       <c r="I45" s="3">
-        <v>4600</v>
+        <v>26100</v>
       </c>
       <c r="J45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3300</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>668700</v>
+        <v>529700</v>
       </c>
       <c r="E46" s="3">
-        <v>287900</v>
+        <v>629800</v>
       </c>
       <c r="F46" s="3">
-        <v>275000</v>
+        <v>271200</v>
       </c>
       <c r="G46" s="3">
-        <v>324600</v>
+        <v>259000</v>
       </c>
       <c r="H46" s="3">
-        <v>228200</v>
+        <v>305700</v>
       </c>
       <c r="I46" s="3">
-        <v>207300</v>
+        <v>214900</v>
       </c>
       <c r="J46" s="3">
+        <v>195200</v>
+      </c>
+      <c r="K46" s="3">
         <v>27500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>46400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>31500</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>35100</v>
+        <v>28400</v>
       </c>
       <c r="E47" s="3">
-        <v>29200</v>
+        <v>33100</v>
       </c>
       <c r="F47" s="3">
-        <v>22900</v>
+        <v>27500</v>
       </c>
       <c r="G47" s="3">
-        <v>15500</v>
+        <v>21600</v>
       </c>
       <c r="H47" s="3">
-        <v>11600</v>
+        <v>14600</v>
       </c>
       <c r="I47" s="3">
-        <v>5600</v>
+        <v>11000</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2100</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1919900</v>
+        <v>2081300</v>
       </c>
       <c r="E48" s="3">
-        <v>1825300</v>
+        <v>1808100</v>
       </c>
       <c r="F48" s="3">
-        <v>2039200</v>
+        <v>1719100</v>
       </c>
       <c r="G48" s="3">
-        <v>1976300</v>
+        <v>1920500</v>
       </c>
       <c r="H48" s="3">
-        <v>1968100</v>
+        <v>1861200</v>
       </c>
       <c r="I48" s="3">
-        <v>1943700</v>
+        <v>1853500</v>
       </c>
       <c r="J48" s="3">
+        <v>1830500</v>
+      </c>
+      <c r="K48" s="3">
         <v>205000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>194900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>548700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>326300</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35300</v>
+        <v>22600</v>
       </c>
       <c r="E49" s="3">
-        <v>35100</v>
+        <v>33200</v>
       </c>
       <c r="F49" s="3">
-        <v>33900</v>
+        <v>33000</v>
       </c>
       <c r="G49" s="3">
-        <v>39700</v>
+        <v>31900</v>
       </c>
       <c r="H49" s="3">
-        <v>57200</v>
+        <v>37400</v>
       </c>
       <c r="I49" s="3">
-        <v>58200</v>
+        <v>53900</v>
       </c>
       <c r="J49" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K49" s="3">
         <v>5500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>22700</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>280900</v>
+        <v>361300</v>
       </c>
       <c r="E52" s="3">
-        <v>239000</v>
+        <v>264500</v>
       </c>
       <c r="F52" s="3">
-        <v>228800</v>
+        <v>225100</v>
       </c>
       <c r="G52" s="3">
-        <v>201700</v>
+        <v>215500</v>
       </c>
       <c r="H52" s="3">
-        <v>170700</v>
+        <v>189900</v>
       </c>
       <c r="I52" s="3">
-        <v>162300</v>
+        <v>160800</v>
       </c>
       <c r="J52" s="3">
+        <v>152900</v>
+      </c>
+      <c r="K52" s="3">
         <v>15400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>33900</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2939800</v>
+        <v>3023300</v>
       </c>
       <c r="E54" s="3">
-        <v>2416500</v>
+        <v>2768700</v>
       </c>
       <c r="F54" s="3">
-        <v>2599800</v>
+        <v>2275800</v>
       </c>
       <c r="G54" s="3">
-        <v>2557700</v>
+        <v>2448400</v>
       </c>
       <c r="H54" s="3">
-        <v>2435800</v>
+        <v>2408800</v>
       </c>
       <c r="I54" s="3">
-        <v>2377100</v>
+        <v>2294000</v>
       </c>
       <c r="J54" s="3">
+        <v>2238700</v>
+      </c>
+      <c r="K54" s="3">
         <v>253400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>250800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>360700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>416400</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>46400</v>
+        <v>78600</v>
       </c>
       <c r="E57" s="3">
-        <v>50200</v>
+        <v>43700</v>
       </c>
       <c r="F57" s="3">
-        <v>38600</v>
+        <v>47300</v>
       </c>
       <c r="G57" s="3">
-        <v>34300</v>
+        <v>36400</v>
       </c>
       <c r="H57" s="3">
-        <v>23200</v>
+        <v>32300</v>
       </c>
       <c r="I57" s="3">
-        <v>34500</v>
+        <v>21900</v>
       </c>
       <c r="J57" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3700</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20700</v>
+        <v>30600</v>
       </c>
       <c r="E58" s="3">
-        <v>5900</v>
+        <v>19500</v>
       </c>
       <c r="F58" s="3">
-        <v>45400</v>
+        <v>5500</v>
       </c>
       <c r="G58" s="3">
-        <v>120600</v>
+        <v>42700</v>
       </c>
       <c r="H58" s="3">
-        <v>19700</v>
-      </c>
-      <c r="I58" s="3" t="s">
+        <v>113600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>18600</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3500</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>430100</v>
+        <v>234800</v>
       </c>
       <c r="E59" s="3">
-        <v>156700</v>
+        <v>405100</v>
       </c>
       <c r="F59" s="3">
-        <v>152700</v>
+        <v>147600</v>
       </c>
       <c r="G59" s="3">
-        <v>97900</v>
+        <v>143800</v>
       </c>
       <c r="H59" s="3">
-        <v>90600</v>
+        <v>92200</v>
       </c>
       <c r="I59" s="3">
-        <v>74700</v>
+        <v>85400</v>
       </c>
       <c r="J59" s="3">
+        <v>70400</v>
+      </c>
+      <c r="K59" s="3">
         <v>8400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14700</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>497300</v>
+        <v>344000</v>
       </c>
       <c r="E60" s="3">
-        <v>212700</v>
+        <v>468300</v>
       </c>
       <c r="F60" s="3">
-        <v>236700</v>
+        <v>200300</v>
       </c>
       <c r="G60" s="3">
-        <v>252900</v>
+        <v>223000</v>
       </c>
       <c r="H60" s="3">
-        <v>133600</v>
+        <v>238100</v>
       </c>
       <c r="I60" s="3">
-        <v>109300</v>
+        <v>125800</v>
       </c>
       <c r="J60" s="3">
+        <v>102900</v>
+      </c>
+      <c r="K60" s="3">
         <v>11400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21900</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>496200</v>
+        <v>193800</v>
       </c>
       <c r="E61" s="3">
-        <v>383200</v>
+        <v>467400</v>
       </c>
       <c r="F61" s="3">
-        <v>323900</v>
+        <v>360900</v>
       </c>
       <c r="G61" s="3">
-        <v>19700</v>
+        <v>305000</v>
       </c>
       <c r="H61" s="3">
-        <v>134100</v>
+        <v>18500</v>
       </c>
       <c r="I61" s="3">
-        <v>223600</v>
+        <v>126300</v>
       </c>
       <c r="J61" s="3">
+        <v>210600</v>
+      </c>
+      <c r="K61" s="3">
         <v>17800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12800</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>408700</v>
+        <v>551900</v>
       </c>
       <c r="E62" s="3">
-        <v>333000</v>
+        <v>384900</v>
       </c>
       <c r="F62" s="3">
-        <v>369600</v>
+        <v>313600</v>
       </c>
       <c r="G62" s="3">
-        <v>358400</v>
+        <v>348000</v>
       </c>
       <c r="H62" s="3">
-        <v>314500</v>
+        <v>337600</v>
       </c>
       <c r="I62" s="3">
-        <v>284400</v>
+        <v>296200</v>
       </c>
       <c r="J62" s="3">
+        <v>267900</v>
+      </c>
+      <c r="K62" s="3">
         <v>31800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>31200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>43200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>66600</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1402500</v>
+        <v>1093000</v>
       </c>
       <c r="E66" s="3">
-        <v>928900</v>
+        <v>1320800</v>
       </c>
       <c r="F66" s="3">
-        <v>930200</v>
+        <v>874900</v>
       </c>
       <c r="G66" s="3">
-        <v>631000</v>
+        <v>876000</v>
       </c>
       <c r="H66" s="3">
-        <v>582200</v>
+        <v>594200</v>
       </c>
       <c r="I66" s="3">
-        <v>617300</v>
+        <v>548300</v>
       </c>
       <c r="J66" s="3">
+        <v>581300</v>
+      </c>
+      <c r="K66" s="3">
         <v>61000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>58800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>76100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>101300</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-665200</v>
+        <v>-343600</v>
       </c>
       <c r="E72" s="3">
-        <v>-620000</v>
+        <v>-626400</v>
       </c>
       <c r="F72" s="3">
-        <v>-463600</v>
+        <v>-583900</v>
       </c>
       <c r="G72" s="3">
-        <v>-184500</v>
+        <v>-436600</v>
       </c>
       <c r="H72" s="3">
-        <v>-203900</v>
+        <v>-173800</v>
       </c>
       <c r="I72" s="3">
-        <v>-287500</v>
+        <v>-192000</v>
       </c>
       <c r="J72" s="3">
+        <v>-270700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-8800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>29500</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1537300</v>
+        <v>1930400</v>
       </c>
       <c r="E76" s="3">
-        <v>1487500</v>
+        <v>1447800</v>
       </c>
       <c r="F76" s="3">
-        <v>1669600</v>
+        <v>1400900</v>
       </c>
       <c r="G76" s="3">
-        <v>1926800</v>
+        <v>1572400</v>
       </c>
       <c r="H76" s="3">
-        <v>1853600</v>
+        <v>1814600</v>
       </c>
       <c r="I76" s="3">
-        <v>1759800</v>
+        <v>1745700</v>
       </c>
       <c r="J76" s="3">
+        <v>1657300</v>
+      </c>
+      <c r="K76" s="3">
         <v>192400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>191900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>284600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>315100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42185</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41820</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41455</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41090</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40724</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-57800</v>
+        <v>315100</v>
       </c>
       <c r="E81" s="3">
-        <v>-171500</v>
+        <v>-54400</v>
       </c>
       <c r="F81" s="3">
-        <v>-294200</v>
+        <v>-161500</v>
       </c>
       <c r="G81" s="3">
-        <v>23800</v>
+        <v>-277100</v>
       </c>
       <c r="H81" s="3">
-        <v>62400</v>
+        <v>22400</v>
       </c>
       <c r="I81" s="3">
-        <v>-298400</v>
+        <v>58800</v>
       </c>
       <c r="J81" s="3">
+        <v>-281000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-7800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6100</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>230800</v>
+        <v>240200</v>
       </c>
       <c r="E83" s="3">
-        <v>266700</v>
+        <v>217300</v>
       </c>
       <c r="F83" s="3">
-        <v>169100</v>
+        <v>251100</v>
       </c>
       <c r="G83" s="3">
-        <v>165700</v>
+        <v>159200</v>
       </c>
       <c r="H83" s="3">
-        <v>142700</v>
+        <v>156100</v>
       </c>
       <c r="I83" s="3">
-        <v>162600</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>134400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>153100</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17500</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>310700</v>
+        <v>568600</v>
       </c>
       <c r="E89" s="3">
-        <v>307800</v>
+        <v>292600</v>
       </c>
       <c r="F89" s="3">
-        <v>255500</v>
+        <v>289900</v>
       </c>
       <c r="G89" s="3">
-        <v>250200</v>
+        <v>240600</v>
       </c>
       <c r="H89" s="3">
-        <v>296900</v>
+        <v>235700</v>
       </c>
       <c r="I89" s="3">
-        <v>132000</v>
+        <v>279600</v>
       </c>
       <c r="J89" s="3">
+        <v>124300</v>
+      </c>
+      <c r="K89" s="3">
         <v>14400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>19400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>37400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>24100</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-236900</v>
+        <v>-318500</v>
       </c>
       <c r="E91" s="3">
-        <v>-331200</v>
+        <v>-223100</v>
       </c>
       <c r="F91" s="3">
-        <v>-300100</v>
+        <v>-311900</v>
       </c>
       <c r="G91" s="3">
-        <v>-255900</v>
+        <v>-282600</v>
       </c>
       <c r="H91" s="3">
-        <v>-160300</v>
+        <v>-241000</v>
       </c>
       <c r="I91" s="3">
-        <v>-185600</v>
+        <v>-151000</v>
       </c>
       <c r="J91" s="3">
+        <v>-174800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-16800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-28200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31900</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-234000</v>
+        <v>-524300</v>
       </c>
       <c r="E94" s="3">
-        <v>-315500</v>
+        <v>-220400</v>
       </c>
       <c r="F94" s="3">
-        <v>-531200</v>
+        <v>-297200</v>
       </c>
       <c r="G94" s="3">
-        <v>-222500</v>
+        <v>-500200</v>
       </c>
       <c r="H94" s="3">
-        <v>-171000</v>
+        <v>-209600</v>
       </c>
       <c r="I94" s="3">
-        <v>-191300</v>
+        <v>-161000</v>
       </c>
       <c r="J94" s="3">
+        <v>-180200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-16800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25400</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,25 +3757,26 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-200</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
-        <v>-10100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-28900</v>
+        <v>-9500</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-27200</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3552,17 +3785,20 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-3000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2100</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>283200</v>
+        <v>-266300</v>
       </c>
       <c r="E100" s="3">
-        <v>25000</v>
+        <v>266700</v>
       </c>
       <c r="F100" s="3">
-        <v>244900</v>
+        <v>23500</v>
       </c>
       <c r="G100" s="3">
-        <v>-29600</v>
+        <v>230600</v>
       </c>
       <c r="H100" s="3">
-        <v>-114800</v>
+        <v>-27900</v>
       </c>
       <c r="I100" s="3">
-        <v>9700</v>
+        <v>-108100</v>
       </c>
       <c r="J100" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1700</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7000</v>
+        <v>2800</v>
       </c>
       <c r="E101" s="3">
-        <v>1600</v>
+        <v>-6600</v>
       </c>
       <c r="F101" s="3">
-        <v>-4700</v>
+        <v>1500</v>
       </c>
       <c r="G101" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
-        <v>1300</v>
-      </c>
       <c r="I101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2400</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>352800</v>
+        <v>-219200</v>
       </c>
       <c r="E102" s="3">
-        <v>18900</v>
+        <v>332300</v>
       </c>
       <c r="F102" s="3">
-        <v>-35500</v>
+        <v>17800</v>
       </c>
       <c r="G102" s="3">
-        <v>-700</v>
+        <v>-33500</v>
       </c>
       <c r="H102" s="3">
-        <v>12400</v>
+        <v>-600</v>
       </c>
       <c r="I102" s="3">
-        <v>-50100</v>
+        <v>11700</v>
       </c>
       <c r="J102" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2585400</v>
+        <v>2770700</v>
       </c>
       <c r="E8" s="3">
-        <v>1811700</v>
+        <v>1941600</v>
       </c>
       <c r="F8" s="3">
-        <v>1667200</v>
+        <v>1786700</v>
       </c>
       <c r="G8" s="3">
-        <v>1267000</v>
+        <v>1357800</v>
       </c>
       <c r="H8" s="3">
-        <v>1193400</v>
+        <v>1278900</v>
       </c>
       <c r="I8" s="3">
-        <v>1135800</v>
+        <v>1217200</v>
       </c>
       <c r="J8" s="3">
-        <v>956200</v>
+        <v>1024700</v>
       </c>
       <c r="K8" s="3">
         <v>99700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2108300</v>
+        <v>2259500</v>
       </c>
       <c r="E9" s="3">
-        <v>1602500</v>
+        <v>1717400</v>
       </c>
       <c r="F9" s="3">
-        <v>1532000</v>
+        <v>1641800</v>
       </c>
       <c r="G9" s="3">
-        <v>1118300</v>
+        <v>1198500</v>
       </c>
       <c r="H9" s="3">
-        <v>1105600</v>
+        <v>1184900</v>
       </c>
       <c r="I9" s="3">
-        <v>979600</v>
+        <v>1049800</v>
       </c>
       <c r="J9" s="3">
-        <v>949800</v>
+        <v>1017800</v>
       </c>
       <c r="K9" s="3">
         <v>91300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>477000</v>
+        <v>511200</v>
       </c>
       <c r="E10" s="3">
-        <v>209200</v>
+        <v>224200</v>
       </c>
       <c r="F10" s="3">
-        <v>135200</v>
+        <v>144900</v>
       </c>
       <c r="G10" s="3">
-        <v>148700</v>
+        <v>159300</v>
       </c>
       <c r="H10" s="3">
-        <v>87800</v>
+        <v>94100</v>
       </c>
       <c r="I10" s="3">
-        <v>156200</v>
+        <v>167400</v>
       </c>
       <c r="J10" s="3">
-        <v>6400</v>
+        <v>6900</v>
       </c>
       <c r="K10" s="3">
         <v>8400</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11000</v>
+        <v>11800</v>
       </c>
       <c r="E12" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I12" s="3">
         <v>12700</v>
       </c>
-      <c r="F12" s="3">
-        <v>9200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8400</v>
-      </c>
-      <c r="H12" s="3">
-        <v>14900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>11800</v>
-      </c>
       <c r="J12" s="3">
-        <v>16300</v>
+        <v>17500</v>
       </c>
       <c r="K12" s="3">
         <v>2900</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>84100</v>
+        <v>90100</v>
       </c>
       <c r="E14" s="3">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="F14" s="3">
-        <v>252600</v>
+        <v>270700</v>
       </c>
       <c r="G14" s="3">
-        <v>342600</v>
+        <v>367200</v>
       </c>
       <c r="H14" s="3">
-        <v>116200</v>
+        <v>124500</v>
       </c>
       <c r="I14" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="J14" s="3">
-        <v>230600</v>
+        <v>247100</v>
       </c>
       <c r="K14" s="3">
         <v>10500</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2174700</v>
+        <v>2330600</v>
       </c>
       <c r="E17" s="3">
-        <v>1836700</v>
+        <v>1968300</v>
       </c>
       <c r="F17" s="3">
-        <v>1824400</v>
+        <v>1955200</v>
       </c>
       <c r="G17" s="3">
-        <v>1561800</v>
+        <v>1673700</v>
       </c>
       <c r="H17" s="3">
-        <v>1203300</v>
+        <v>1289600</v>
       </c>
       <c r="I17" s="3">
-        <v>1037200</v>
+        <v>1111500</v>
       </c>
       <c r="J17" s="3">
-        <v>1277900</v>
+        <v>1369500</v>
       </c>
       <c r="K17" s="3">
         <v>109200</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>410700</v>
+        <v>440100</v>
       </c>
       <c r="E18" s="3">
-        <v>-25000</v>
+        <v>-26800</v>
       </c>
       <c r="F18" s="3">
-        <v>-157200</v>
+        <v>-168500</v>
       </c>
       <c r="G18" s="3">
-        <v>-294800</v>
+        <v>-315900</v>
       </c>
       <c r="H18" s="3">
-        <v>-9900</v>
+        <v>-10600</v>
       </c>
       <c r="I18" s="3">
-        <v>98600</v>
+        <v>105700</v>
       </c>
       <c r="J18" s="3">
-        <v>-321700</v>
+        <v>-344800</v>
       </c>
       <c r="K18" s="3">
         <v>-9500</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-2500</v>
+        <v>-2700</v>
       </c>
       <c r="E20" s="3">
-        <v>11000</v>
+        <v>11800</v>
       </c>
       <c r="F20" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="G20" s="3">
-        <v>23600</v>
+        <v>25300</v>
       </c>
       <c r="H20" s="3">
-        <v>15200</v>
+        <v>16300</v>
       </c>
       <c r="I20" s="3">
-        <v>16300</v>
+        <v>17500</v>
       </c>
       <c r="J20" s="3">
-        <v>13400</v>
+        <v>14400</v>
       </c>
       <c r="K20" s="3">
         <v>700</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>645900</v>
+        <v>695800</v>
       </c>
       <c r="E21" s="3">
-        <v>201200</v>
+        <v>218900</v>
       </c>
       <c r="F21" s="3">
-        <v>95200</v>
+        <v>105800</v>
       </c>
       <c r="G21" s="3">
-        <v>-113500</v>
+        <v>-119300</v>
       </c>
       <c r="H21" s="3">
-        <v>159800</v>
+        <v>173600</v>
       </c>
       <c r="I21" s="3">
-        <v>248000</v>
+        <v>267800</v>
       </c>
       <c r="J21" s="3">
-        <v>-156600</v>
+        <v>-165600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12800</v>
+        <v>13700</v>
       </c>
       <c r="E22" s="3">
-        <v>22900</v>
+        <v>24600</v>
       </c>
       <c r="F22" s="3">
-        <v>16700</v>
+        <v>17900</v>
       </c>
       <c r="G22" s="3">
-        <v>20400</v>
+        <v>21900</v>
       </c>
       <c r="H22" s="3">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="I22" s="3">
-        <v>17000</v>
+        <v>18200</v>
       </c>
       <c r="J22" s="3">
-        <v>16400</v>
+        <v>17500</v>
       </c>
       <c r="K22" s="3">
         <v>700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>395400</v>
+        <v>423700</v>
       </c>
       <c r="E23" s="3">
-        <v>-36900</v>
+        <v>-39500</v>
       </c>
       <c r="F23" s="3">
-        <v>-170100</v>
+        <v>-182300</v>
       </c>
       <c r="G23" s="3">
-        <v>-291600</v>
+        <v>-312500</v>
       </c>
       <c r="H23" s="3">
-        <v>-9200</v>
+        <v>-9800</v>
       </c>
       <c r="I23" s="3">
-        <v>97900</v>
+        <v>105000</v>
       </c>
       <c r="J23" s="3">
-        <v>-324600</v>
+        <v>-347900</v>
       </c>
       <c r="K23" s="3">
         <v>-9500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>77900</v>
+        <v>83500</v>
       </c>
       <c r="E24" s="3">
-        <v>15800</v>
+        <v>16900</v>
       </c>
       <c r="F24" s="3">
-        <v>-8600</v>
+        <v>-9200</v>
       </c>
       <c r="G24" s="3">
-        <v>-14500</v>
+        <v>-15500</v>
       </c>
       <c r="H24" s="3">
-        <v>-31600</v>
+        <v>-33900</v>
       </c>
       <c r="I24" s="3">
-        <v>39200</v>
+        <v>42000</v>
       </c>
       <c r="J24" s="3">
-        <v>-43600</v>
+        <v>-46700</v>
       </c>
       <c r="K24" s="3">
         <v>-1800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>317400</v>
+        <v>340200</v>
       </c>
       <c r="E26" s="3">
-        <v>-52700</v>
+        <v>-56400</v>
       </c>
       <c r="F26" s="3">
-        <v>-161500</v>
+        <v>-173100</v>
       </c>
       <c r="G26" s="3">
-        <v>-277100</v>
+        <v>-297000</v>
       </c>
       <c r="H26" s="3">
-        <v>22400</v>
+        <v>24000</v>
       </c>
       <c r="I26" s="3">
-        <v>58800</v>
+        <v>63000</v>
       </c>
       <c r="J26" s="3">
-        <v>-281000</v>
+        <v>-301100</v>
       </c>
       <c r="K26" s="3">
         <v>-7800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>315100</v>
+        <v>337700</v>
       </c>
       <c r="E27" s="3">
-        <v>-54400</v>
+        <v>-58300</v>
       </c>
       <c r="F27" s="3">
-        <v>-161500</v>
+        <v>-173100</v>
       </c>
       <c r="G27" s="3">
-        <v>-277100</v>
+        <v>-297000</v>
       </c>
       <c r="H27" s="3">
-        <v>22400</v>
+        <v>24000</v>
       </c>
       <c r="I27" s="3">
-        <v>58800</v>
+        <v>63000</v>
       </c>
       <c r="J27" s="3">
-        <v>-281000</v>
+        <v>-301100</v>
       </c>
       <c r="K27" s="3">
         <v>-7800</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="E32" s="3">
-        <v>-11000</v>
+        <v>-11800</v>
       </c>
       <c r="F32" s="3">
-        <v>-3800</v>
+        <v>-4000</v>
       </c>
       <c r="G32" s="3">
-        <v>-23600</v>
+        <v>-25300</v>
       </c>
       <c r="H32" s="3">
-        <v>-15200</v>
+        <v>-16300</v>
       </c>
       <c r="I32" s="3">
-        <v>-16300</v>
+        <v>-17500</v>
       </c>
       <c r="J32" s="3">
-        <v>-13400</v>
+        <v>-14400</v>
       </c>
       <c r="K32" s="3">
         <v>-700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>315100</v>
+        <v>337700</v>
       </c>
       <c r="E33" s="3">
-        <v>-54400</v>
+        <v>-58300</v>
       </c>
       <c r="F33" s="3">
-        <v>-161500</v>
+        <v>-173100</v>
       </c>
       <c r="G33" s="3">
-        <v>-277100</v>
+        <v>-297000</v>
       </c>
       <c r="H33" s="3">
-        <v>22400</v>
+        <v>24000</v>
       </c>
       <c r="I33" s="3">
-        <v>58800</v>
+        <v>63000</v>
       </c>
       <c r="J33" s="3">
-        <v>-281000</v>
+        <v>-301100</v>
       </c>
       <c r="K33" s="3">
         <v>-7800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>315100</v>
+        <v>337700</v>
       </c>
       <c r="E35" s="3">
-        <v>-54400</v>
+        <v>-58300</v>
       </c>
       <c r="F35" s="3">
-        <v>-161500</v>
+        <v>-173100</v>
       </c>
       <c r="G35" s="3">
-        <v>-277100</v>
+        <v>-297000</v>
       </c>
       <c r="H35" s="3">
-        <v>22400</v>
+        <v>24000</v>
       </c>
       <c r="I35" s="3">
-        <v>58800</v>
+        <v>63000</v>
       </c>
       <c r="J35" s="3">
-        <v>-281000</v>
+        <v>-301100</v>
       </c>
       <c r="K35" s="3">
         <v>-7800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>174600</v>
+        <v>187200</v>
       </c>
       <c r="E41" s="3">
-        <v>393800</v>
+        <v>422000</v>
       </c>
       <c r="F41" s="3">
-        <v>61500</v>
+        <v>65900</v>
       </c>
       <c r="G41" s="3">
-        <v>43700</v>
+        <v>46900</v>
       </c>
       <c r="H41" s="3">
-        <v>77200</v>
+        <v>82700</v>
       </c>
       <c r="I41" s="3">
-        <v>77800</v>
+        <v>83400</v>
       </c>
       <c r="J41" s="3">
-        <v>66100</v>
+        <v>70800</v>
       </c>
       <c r="K41" s="3">
         <v>11300</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>94200</v>
+        <v>101000</v>
       </c>
       <c r="E43" s="3">
-        <v>76100</v>
+        <v>81600</v>
       </c>
       <c r="F43" s="3">
-        <v>61800</v>
+        <v>66200</v>
       </c>
       <c r="G43" s="3">
-        <v>65900</v>
+        <v>70600</v>
       </c>
       <c r="H43" s="3">
-        <v>57600</v>
+        <v>61700</v>
       </c>
       <c r="I43" s="3">
-        <v>38700</v>
+        <v>41500</v>
       </c>
       <c r="J43" s="3">
-        <v>44700</v>
+        <v>47900</v>
       </c>
       <c r="K43" s="3">
         <v>6600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>157500</v>
+        <v>168800</v>
       </c>
       <c r="E44" s="3">
-        <v>150000</v>
+        <v>160700</v>
       </c>
       <c r="F44" s="3">
-        <v>121900</v>
+        <v>130600</v>
       </c>
       <c r="G44" s="3">
-        <v>109000</v>
+        <v>116800</v>
       </c>
       <c r="H44" s="3">
-        <v>69800</v>
+        <v>74800</v>
       </c>
       <c r="I44" s="3">
-        <v>72300</v>
+        <v>77500</v>
       </c>
       <c r="J44" s="3">
-        <v>80000</v>
+        <v>85800</v>
       </c>
       <c r="K44" s="3">
         <v>9500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>103400</v>
+        <v>110800</v>
       </c>
       <c r="E45" s="3">
-        <v>9900</v>
+        <v>10600</v>
       </c>
       <c r="F45" s="3">
-        <v>26000</v>
+        <v>27900</v>
       </c>
       <c r="G45" s="3">
-        <v>40500</v>
+        <v>43400</v>
       </c>
       <c r="H45" s="3">
-        <v>101100</v>
+        <v>108300</v>
       </c>
       <c r="I45" s="3">
-        <v>26100</v>
+        <v>28000</v>
       </c>
       <c r="J45" s="3">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>529700</v>
+        <v>567700</v>
       </c>
       <c r="E46" s="3">
-        <v>629800</v>
+        <v>674900</v>
       </c>
       <c r="F46" s="3">
-        <v>271200</v>
+        <v>290600</v>
       </c>
       <c r="G46" s="3">
-        <v>259000</v>
+        <v>277600</v>
       </c>
       <c r="H46" s="3">
-        <v>305700</v>
+        <v>327600</v>
       </c>
       <c r="I46" s="3">
-        <v>214900</v>
+        <v>230300</v>
       </c>
       <c r="J46" s="3">
-        <v>195200</v>
+        <v>209200</v>
       </c>
       <c r="K46" s="3">
         <v>27500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28400</v>
+        <v>30400</v>
       </c>
       <c r="E47" s="3">
-        <v>33100</v>
+        <v>35500</v>
       </c>
       <c r="F47" s="3">
-        <v>27500</v>
+        <v>29500</v>
       </c>
       <c r="G47" s="3">
-        <v>21600</v>
+        <v>23100</v>
       </c>
       <c r="H47" s="3">
-        <v>14600</v>
+        <v>15600</v>
       </c>
       <c r="I47" s="3">
-        <v>11000</v>
+        <v>11800</v>
       </c>
       <c r="J47" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2081300</v>
+        <v>2230500</v>
       </c>
       <c r="E48" s="3">
-        <v>1808100</v>
+        <v>1937700</v>
       </c>
       <c r="F48" s="3">
-        <v>1719100</v>
+        <v>1842300</v>
       </c>
       <c r="G48" s="3">
-        <v>1920500</v>
+        <v>2058200</v>
       </c>
       <c r="H48" s="3">
-        <v>1861200</v>
+        <v>1994600</v>
       </c>
       <c r="I48" s="3">
-        <v>1853500</v>
+        <v>1986300</v>
       </c>
       <c r="J48" s="3">
-        <v>1830500</v>
+        <v>1961700</v>
       </c>
       <c r="K48" s="3">
         <v>205000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22600</v>
+        <v>24200</v>
       </c>
       <c r="E49" s="3">
-        <v>33200</v>
+        <v>35600</v>
       </c>
       <c r="F49" s="3">
-        <v>33000</v>
+        <v>35400</v>
       </c>
       <c r="G49" s="3">
-        <v>31900</v>
+        <v>34200</v>
       </c>
       <c r="H49" s="3">
-        <v>37400</v>
+        <v>40000</v>
       </c>
       <c r="I49" s="3">
-        <v>53900</v>
+        <v>57800</v>
       </c>
       <c r="J49" s="3">
-        <v>54800</v>
+        <v>58800</v>
       </c>
       <c r="K49" s="3">
         <v>5500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>361300</v>
+        <v>387200</v>
       </c>
       <c r="E52" s="3">
-        <v>264500</v>
+        <v>283500</v>
       </c>
       <c r="F52" s="3">
-        <v>225100</v>
+        <v>241200</v>
       </c>
       <c r="G52" s="3">
-        <v>215500</v>
+        <v>230900</v>
       </c>
       <c r="H52" s="3">
-        <v>189900</v>
+        <v>203600</v>
       </c>
       <c r="I52" s="3">
-        <v>160800</v>
+        <v>172300</v>
       </c>
       <c r="J52" s="3">
-        <v>152900</v>
+        <v>163900</v>
       </c>
       <c r="K52" s="3">
         <v>15400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3023300</v>
+        <v>3240000</v>
       </c>
       <c r="E54" s="3">
-        <v>2768700</v>
+        <v>2967100</v>
       </c>
       <c r="F54" s="3">
-        <v>2275800</v>
+        <v>2438900</v>
       </c>
       <c r="G54" s="3">
-        <v>2448400</v>
+        <v>2623900</v>
       </c>
       <c r="H54" s="3">
-        <v>2408800</v>
+        <v>2581400</v>
       </c>
       <c r="I54" s="3">
-        <v>2294000</v>
+        <v>2458400</v>
       </c>
       <c r="J54" s="3">
-        <v>2238700</v>
+        <v>2399100</v>
       </c>
       <c r="K54" s="3">
         <v>253400</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>78600</v>
+        <v>84200</v>
       </c>
       <c r="E57" s="3">
-        <v>43700</v>
+        <v>46900</v>
       </c>
       <c r="F57" s="3">
-        <v>47300</v>
+        <v>50700</v>
       </c>
       <c r="G57" s="3">
-        <v>36400</v>
+        <v>39000</v>
       </c>
       <c r="H57" s="3">
-        <v>32300</v>
+        <v>34600</v>
       </c>
       <c r="I57" s="3">
-        <v>21900</v>
+        <v>23400</v>
       </c>
       <c r="J57" s="3">
-        <v>32500</v>
+        <v>34900</v>
       </c>
       <c r="K57" s="3">
         <v>3000</v>
@@ -2443,22 +2443,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>30600</v>
+        <v>32800</v>
       </c>
       <c r="E58" s="3">
-        <v>19500</v>
+        <v>20900</v>
       </c>
       <c r="F58" s="3">
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="G58" s="3">
-        <v>42700</v>
+        <v>45800</v>
       </c>
       <c r="H58" s="3">
-        <v>113600</v>
+        <v>121800</v>
       </c>
       <c r="I58" s="3">
-        <v>18600</v>
+        <v>19900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>16</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>234800</v>
+        <v>251600</v>
       </c>
       <c r="E59" s="3">
-        <v>405100</v>
+        <v>434100</v>
       </c>
       <c r="F59" s="3">
-        <v>147600</v>
+        <v>158100</v>
       </c>
       <c r="G59" s="3">
-        <v>143800</v>
+        <v>154200</v>
       </c>
       <c r="H59" s="3">
-        <v>92200</v>
+        <v>98900</v>
       </c>
       <c r="I59" s="3">
-        <v>85400</v>
+        <v>91500</v>
       </c>
       <c r="J59" s="3">
-        <v>70400</v>
+        <v>75400</v>
       </c>
       <c r="K59" s="3">
         <v>8400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>344000</v>
+        <v>368700</v>
       </c>
       <c r="E60" s="3">
-        <v>468300</v>
+        <v>501900</v>
       </c>
       <c r="F60" s="3">
-        <v>200300</v>
+        <v>214700</v>
       </c>
       <c r="G60" s="3">
-        <v>223000</v>
+        <v>238900</v>
       </c>
       <c r="H60" s="3">
-        <v>238100</v>
+        <v>255200</v>
       </c>
       <c r="I60" s="3">
-        <v>125800</v>
+        <v>134800</v>
       </c>
       <c r="J60" s="3">
-        <v>102900</v>
+        <v>110300</v>
       </c>
       <c r="K60" s="3">
         <v>11400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>193800</v>
+        <v>207700</v>
       </c>
       <c r="E61" s="3">
-        <v>467400</v>
+        <v>500800</v>
       </c>
       <c r="F61" s="3">
-        <v>360900</v>
+        <v>386800</v>
       </c>
       <c r="G61" s="3">
-        <v>305000</v>
+        <v>326900</v>
       </c>
       <c r="H61" s="3">
-        <v>18500</v>
+        <v>19900</v>
       </c>
       <c r="I61" s="3">
-        <v>126300</v>
+        <v>135400</v>
       </c>
       <c r="J61" s="3">
-        <v>210600</v>
+        <v>225700</v>
       </c>
       <c r="K61" s="3">
         <v>17800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>551900</v>
+        <v>591400</v>
       </c>
       <c r="E62" s="3">
-        <v>384900</v>
+        <v>412500</v>
       </c>
       <c r="F62" s="3">
-        <v>313600</v>
+        <v>336100</v>
       </c>
       <c r="G62" s="3">
-        <v>348000</v>
+        <v>373000</v>
       </c>
       <c r="H62" s="3">
-        <v>337600</v>
+        <v>361800</v>
       </c>
       <c r="I62" s="3">
-        <v>296200</v>
+        <v>317400</v>
       </c>
       <c r="J62" s="3">
-        <v>267900</v>
+        <v>287100</v>
       </c>
       <c r="K62" s="3">
         <v>31800</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1093000</v>
+        <v>1171300</v>
       </c>
       <c r="E66" s="3">
-        <v>1320800</v>
+        <v>1415500</v>
       </c>
       <c r="F66" s="3">
-        <v>874900</v>
+        <v>937600</v>
       </c>
       <c r="G66" s="3">
-        <v>876000</v>
+        <v>938800</v>
       </c>
       <c r="H66" s="3">
-        <v>594200</v>
+        <v>636800</v>
       </c>
       <c r="I66" s="3">
-        <v>548300</v>
+        <v>587600</v>
       </c>
       <c r="J66" s="3">
-        <v>581300</v>
+        <v>623000</v>
       </c>
       <c r="K66" s="3">
         <v>61000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-343600</v>
+        <v>-368200</v>
       </c>
       <c r="E72" s="3">
-        <v>-626400</v>
+        <v>-671300</v>
       </c>
       <c r="F72" s="3">
-        <v>-583900</v>
+        <v>-625700</v>
       </c>
       <c r="G72" s="3">
-        <v>-436600</v>
+        <v>-467900</v>
       </c>
       <c r="H72" s="3">
-        <v>-173800</v>
+        <v>-186200</v>
       </c>
       <c r="I72" s="3">
-        <v>-192000</v>
+        <v>-205700</v>
       </c>
       <c r="J72" s="3">
-        <v>-270700</v>
+        <v>-290100</v>
       </c>
       <c r="K72" s="3">
         <v>-8800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1930400</v>
+        <v>2068700</v>
       </c>
       <c r="E76" s="3">
-        <v>1447800</v>
+        <v>1551600</v>
       </c>
       <c r="F76" s="3">
-        <v>1400900</v>
+        <v>1501300</v>
       </c>
       <c r="G76" s="3">
-        <v>1572400</v>
+        <v>1685100</v>
       </c>
       <c r="H76" s="3">
-        <v>1814600</v>
+        <v>1944600</v>
       </c>
       <c r="I76" s="3">
-        <v>1745700</v>
+        <v>1870800</v>
       </c>
       <c r="J76" s="3">
-        <v>1657300</v>
+        <v>1776100</v>
       </c>
       <c r="K76" s="3">
         <v>192400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>315100</v>
+        <v>337700</v>
       </c>
       <c r="E81" s="3">
-        <v>-54400</v>
+        <v>-58300</v>
       </c>
       <c r="F81" s="3">
-        <v>-161500</v>
+        <v>-173100</v>
       </c>
       <c r="G81" s="3">
-        <v>-277100</v>
+        <v>-297000</v>
       </c>
       <c r="H81" s="3">
-        <v>22400</v>
+        <v>24000</v>
       </c>
       <c r="I81" s="3">
-        <v>58800</v>
+        <v>63000</v>
       </c>
       <c r="J81" s="3">
-        <v>-281000</v>
+        <v>-301100</v>
       </c>
       <c r="K81" s="3">
         <v>-7800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>240200</v>
+        <v>257400</v>
       </c>
       <c r="E83" s="3">
-        <v>217300</v>
+        <v>232900</v>
       </c>
       <c r="F83" s="3">
-        <v>251100</v>
+        <v>269100</v>
       </c>
       <c r="G83" s="3">
-        <v>159200</v>
+        <v>170600</v>
       </c>
       <c r="H83" s="3">
-        <v>156100</v>
+        <v>167200</v>
       </c>
       <c r="I83" s="3">
-        <v>134400</v>
+        <v>144100</v>
       </c>
       <c r="J83" s="3">
-        <v>153100</v>
+        <v>164100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>16</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>568600</v>
+        <v>609400</v>
       </c>
       <c r="E89" s="3">
-        <v>292600</v>
+        <v>313600</v>
       </c>
       <c r="F89" s="3">
-        <v>289900</v>
+        <v>310600</v>
       </c>
       <c r="G89" s="3">
-        <v>240600</v>
+        <v>257900</v>
       </c>
       <c r="H89" s="3">
-        <v>235700</v>
+        <v>252500</v>
       </c>
       <c r="I89" s="3">
-        <v>279600</v>
+        <v>299600</v>
       </c>
       <c r="J89" s="3">
-        <v>124300</v>
+        <v>133200</v>
       </c>
       <c r="K89" s="3">
         <v>14400</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-318500</v>
+        <v>-341400</v>
       </c>
       <c r="E91" s="3">
-        <v>-223100</v>
+        <v>-239100</v>
       </c>
       <c r="F91" s="3">
-        <v>-311900</v>
+        <v>-334300</v>
       </c>
       <c r="G91" s="3">
-        <v>-282600</v>
+        <v>-302900</v>
       </c>
       <c r="H91" s="3">
-        <v>-241000</v>
+        <v>-258300</v>
       </c>
       <c r="I91" s="3">
-        <v>-151000</v>
+        <v>-161800</v>
       </c>
       <c r="J91" s="3">
-        <v>-174800</v>
+        <v>-187400</v>
       </c>
       <c r="K91" s="3">
         <v>-16800</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-524300</v>
+        <v>-561900</v>
       </c>
       <c r="E94" s="3">
-        <v>-220400</v>
+        <v>-236200</v>
       </c>
       <c r="F94" s="3">
-        <v>-297200</v>
+        <v>-318500</v>
       </c>
       <c r="G94" s="3">
-        <v>-500200</v>
+        <v>-536100</v>
       </c>
       <c r="H94" s="3">
-        <v>-209600</v>
+        <v>-224600</v>
       </c>
       <c r="I94" s="3">
-        <v>-161000</v>
+        <v>-172500</v>
       </c>
       <c r="J94" s="3">
-        <v>-180200</v>
+        <v>-193100</v>
       </c>
       <c r="K94" s="3">
         <v>-16800</v>
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-42400</v>
+        <v>-45400</v>
       </c>
       <c r="E96" s="3">
         <v>-200</v>
@@ -3773,10 +3773,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-9500</v>
+        <v>-10200</v>
       </c>
       <c r="H96" s="3">
-        <v>-27200</v>
+        <v>-29100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-266300</v>
+        <v>-285400</v>
       </c>
       <c r="E100" s="3">
-        <v>266700</v>
+        <v>285800</v>
       </c>
       <c r="F100" s="3">
-        <v>23500</v>
+        <v>25200</v>
       </c>
       <c r="G100" s="3">
-        <v>230600</v>
+        <v>247200</v>
       </c>
       <c r="H100" s="3">
-        <v>-27900</v>
+        <v>-29900</v>
       </c>
       <c r="I100" s="3">
-        <v>-108100</v>
+        <v>-115900</v>
       </c>
       <c r="J100" s="3">
-        <v>9200</v>
+        <v>9800</v>
       </c>
       <c r="K100" s="3">
         <v>1100</v>
@@ -3959,22 +3959,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="E101" s="3">
-        <v>-6600</v>
+        <v>-7000</v>
       </c>
       <c r="F101" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="G101" s="3">
-        <v>-4500</v>
+        <v>-4800</v>
       </c>
       <c r="H101" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I101" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J101" s="3">
         <v>-500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-219200</v>
+        <v>-234900</v>
       </c>
       <c r="E102" s="3">
-        <v>332300</v>
+        <v>356100</v>
       </c>
       <c r="F102" s="3">
-        <v>17800</v>
+        <v>19100</v>
       </c>
       <c r="G102" s="3">
-        <v>-33500</v>
+        <v>-35900</v>
       </c>
       <c r="H102" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I102" s="3">
-        <v>11700</v>
+        <v>12500</v>
       </c>
       <c r="J102" s="3">
-        <v>-47200</v>
+        <v>-50600</v>
       </c>
       <c r="K102" s="3">
         <v>-2400</v>

--- a/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2770700</v>
+        <v>2592000</v>
       </c>
       <c r="E8" s="3">
-        <v>1941600</v>
+        <v>1816400</v>
       </c>
       <c r="F8" s="3">
-        <v>1786700</v>
+        <v>1671500</v>
       </c>
       <c r="G8" s="3">
-        <v>1357800</v>
+        <v>1270300</v>
       </c>
       <c r="H8" s="3">
-        <v>1278900</v>
+        <v>1196500</v>
       </c>
       <c r="I8" s="3">
-        <v>1217200</v>
+        <v>1138700</v>
       </c>
       <c r="J8" s="3">
-        <v>1024700</v>
+        <v>958700</v>
       </c>
       <c r="K8" s="3">
         <v>99700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2259500</v>
+        <v>2113800</v>
       </c>
       <c r="E9" s="3">
-        <v>1717400</v>
+        <v>1606700</v>
       </c>
       <c r="F9" s="3">
-        <v>1641800</v>
+        <v>1535900</v>
       </c>
       <c r="G9" s="3">
-        <v>1198500</v>
+        <v>1121200</v>
       </c>
       <c r="H9" s="3">
-        <v>1184900</v>
+        <v>1108500</v>
       </c>
       <c r="I9" s="3">
-        <v>1049800</v>
+        <v>982100</v>
       </c>
       <c r="J9" s="3">
-        <v>1017800</v>
+        <v>952200</v>
       </c>
       <c r="K9" s="3">
         <v>91300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>511200</v>
+        <v>478200</v>
       </c>
       <c r="E10" s="3">
-        <v>224200</v>
+        <v>209700</v>
       </c>
       <c r="F10" s="3">
-        <v>144900</v>
+        <v>135600</v>
       </c>
       <c r="G10" s="3">
-        <v>159300</v>
+        <v>149100</v>
       </c>
       <c r="H10" s="3">
-        <v>94100</v>
+        <v>88000</v>
       </c>
       <c r="I10" s="3">
-        <v>167400</v>
+        <v>156600</v>
       </c>
       <c r="J10" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="K10" s="3">
         <v>8400</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="E12" s="3">
-        <v>13600</v>
+        <v>12700</v>
       </c>
       <c r="F12" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="G12" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="H12" s="3">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="I12" s="3">
-        <v>12700</v>
+        <v>11900</v>
       </c>
       <c r="J12" s="3">
-        <v>17500</v>
+        <v>16300</v>
       </c>
       <c r="K12" s="3">
         <v>2900</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>90100</v>
+        <v>84300</v>
       </c>
       <c r="E14" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="F14" s="3">
-        <v>270700</v>
+        <v>253300</v>
       </c>
       <c r="G14" s="3">
-        <v>367200</v>
+        <v>343500</v>
       </c>
       <c r="H14" s="3">
-        <v>124500</v>
+        <v>116500</v>
       </c>
       <c r="I14" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J14" s="3">
-        <v>247100</v>
+        <v>231200</v>
       </c>
       <c r="K14" s="3">
         <v>10500</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2330600</v>
+        <v>2180300</v>
       </c>
       <c r="E17" s="3">
-        <v>1968300</v>
+        <v>1841400</v>
       </c>
       <c r="F17" s="3">
-        <v>1955200</v>
+        <v>1829100</v>
       </c>
       <c r="G17" s="3">
-        <v>1673700</v>
+        <v>1565800</v>
       </c>
       <c r="H17" s="3">
-        <v>1289600</v>
+        <v>1206400</v>
       </c>
       <c r="I17" s="3">
-        <v>1111500</v>
+        <v>1039800</v>
       </c>
       <c r="J17" s="3">
-        <v>1369500</v>
+        <v>1281200</v>
       </c>
       <c r="K17" s="3">
         <v>109200</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>440100</v>
+        <v>411700</v>
       </c>
       <c r="E18" s="3">
-        <v>-26800</v>
+        <v>-25000</v>
       </c>
       <c r="F18" s="3">
-        <v>-168500</v>
+        <v>-157600</v>
       </c>
       <c r="G18" s="3">
-        <v>-315900</v>
+        <v>-295500</v>
       </c>
       <c r="H18" s="3">
-        <v>-10600</v>
+        <v>-9900</v>
       </c>
       <c r="I18" s="3">
-        <v>105700</v>
+        <v>98900</v>
       </c>
       <c r="J18" s="3">
-        <v>-344800</v>
+        <v>-322500</v>
       </c>
       <c r="K18" s="3">
         <v>-9500</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-2700</v>
+        <v>-2500</v>
       </c>
       <c r="E20" s="3">
-        <v>11800</v>
+        <v>11100</v>
       </c>
       <c r="F20" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="G20" s="3">
-        <v>25300</v>
+        <v>23700</v>
       </c>
       <c r="H20" s="3">
+        <v>15300</v>
+      </c>
+      <c r="I20" s="3">
         <v>16300</v>
       </c>
-      <c r="I20" s="3">
-        <v>17500</v>
-      </c>
       <c r="J20" s="3">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="K20" s="3">
         <v>700</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>695800</v>
+        <v>650200</v>
       </c>
       <c r="E21" s="3">
-        <v>218900</v>
+        <v>204100</v>
       </c>
       <c r="F21" s="3">
-        <v>105800</v>
+        <v>98200</v>
       </c>
       <c r="G21" s="3">
-        <v>-119300</v>
+        <v>-112100</v>
       </c>
       <c r="H21" s="3">
-        <v>173600</v>
+        <v>161900</v>
       </c>
       <c r="I21" s="3">
-        <v>267800</v>
+        <v>250100</v>
       </c>
       <c r="J21" s="3">
-        <v>-165600</v>
+        <v>-155400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13700</v>
+        <v>12800</v>
       </c>
       <c r="E22" s="3">
-        <v>24600</v>
+        <v>23000</v>
       </c>
       <c r="F22" s="3">
-        <v>17900</v>
+        <v>16700</v>
       </c>
       <c r="G22" s="3">
-        <v>21900</v>
+        <v>20500</v>
       </c>
       <c r="H22" s="3">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="I22" s="3">
-        <v>18200</v>
+        <v>17000</v>
       </c>
       <c r="J22" s="3">
-        <v>17500</v>
+        <v>16400</v>
       </c>
       <c r="K22" s="3">
         <v>700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>423700</v>
+        <v>396400</v>
       </c>
       <c r="E23" s="3">
-        <v>-39500</v>
+        <v>-37000</v>
       </c>
       <c r="F23" s="3">
-        <v>-182300</v>
+        <v>-170600</v>
       </c>
       <c r="G23" s="3">
-        <v>-312500</v>
+        <v>-292400</v>
       </c>
       <c r="H23" s="3">
-        <v>-9800</v>
+        <v>-9200</v>
       </c>
       <c r="I23" s="3">
-        <v>105000</v>
+        <v>98200</v>
       </c>
       <c r="J23" s="3">
-        <v>-347900</v>
+        <v>-325500</v>
       </c>
       <c r="K23" s="3">
         <v>-9500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>83500</v>
+        <v>78100</v>
       </c>
       <c r="E24" s="3">
-        <v>16900</v>
+        <v>15800</v>
       </c>
       <c r="F24" s="3">
-        <v>-9200</v>
+        <v>-8600</v>
       </c>
       <c r="G24" s="3">
-        <v>-15500</v>
+        <v>-14500</v>
       </c>
       <c r="H24" s="3">
-        <v>-33900</v>
+        <v>-31700</v>
       </c>
       <c r="I24" s="3">
-        <v>42000</v>
+        <v>39300</v>
       </c>
       <c r="J24" s="3">
-        <v>-46700</v>
+        <v>-43700</v>
       </c>
       <c r="K24" s="3">
         <v>-1800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>340200</v>
+        <v>318300</v>
       </c>
       <c r="E26" s="3">
-        <v>-56400</v>
+        <v>-52800</v>
       </c>
       <c r="F26" s="3">
-        <v>-173100</v>
+        <v>-161900</v>
       </c>
       <c r="G26" s="3">
-        <v>-297000</v>
+        <v>-277800</v>
       </c>
       <c r="H26" s="3">
-        <v>24000</v>
+        <v>22500</v>
       </c>
       <c r="I26" s="3">
-        <v>63000</v>
+        <v>58900</v>
       </c>
       <c r="J26" s="3">
-        <v>-301100</v>
+        <v>-281700</v>
       </c>
       <c r="K26" s="3">
         <v>-7800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>337700</v>
+        <v>316000</v>
       </c>
       <c r="E27" s="3">
-        <v>-58300</v>
+        <v>-54500</v>
       </c>
       <c r="F27" s="3">
-        <v>-173100</v>
+        <v>-161900</v>
       </c>
       <c r="G27" s="3">
-        <v>-297000</v>
+        <v>-277800</v>
       </c>
       <c r="H27" s="3">
-        <v>24000</v>
+        <v>22500</v>
       </c>
       <c r="I27" s="3">
-        <v>63000</v>
+        <v>58900</v>
       </c>
       <c r="J27" s="3">
-        <v>-301100</v>
+        <v>-281700</v>
       </c>
       <c r="K27" s="3">
         <v>-7800</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="E32" s="3">
-        <v>-11800</v>
+        <v>-11100</v>
       </c>
       <c r="F32" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="G32" s="3">
-        <v>-25300</v>
+        <v>-23700</v>
       </c>
       <c r="H32" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-16300</v>
       </c>
-      <c r="I32" s="3">
-        <v>-17500</v>
-      </c>
       <c r="J32" s="3">
-        <v>-14400</v>
+        <v>-13500</v>
       </c>
       <c r="K32" s="3">
         <v>-700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>337700</v>
+        <v>316000</v>
       </c>
       <c r="E33" s="3">
-        <v>-58300</v>
+        <v>-54500</v>
       </c>
       <c r="F33" s="3">
-        <v>-173100</v>
+        <v>-161900</v>
       </c>
       <c r="G33" s="3">
-        <v>-297000</v>
+        <v>-277800</v>
       </c>
       <c r="H33" s="3">
-        <v>24000</v>
+        <v>22500</v>
       </c>
       <c r="I33" s="3">
-        <v>63000</v>
+        <v>58900</v>
       </c>
       <c r="J33" s="3">
-        <v>-301100</v>
+        <v>-281700</v>
       </c>
       <c r="K33" s="3">
         <v>-7800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>337700</v>
+        <v>316000</v>
       </c>
       <c r="E35" s="3">
-        <v>-58300</v>
+        <v>-54500</v>
       </c>
       <c r="F35" s="3">
-        <v>-173100</v>
+        <v>-161900</v>
       </c>
       <c r="G35" s="3">
-        <v>-297000</v>
+        <v>-277800</v>
       </c>
       <c r="H35" s="3">
-        <v>24000</v>
+        <v>22500</v>
       </c>
       <c r="I35" s="3">
-        <v>63000</v>
+        <v>58900</v>
       </c>
       <c r="J35" s="3">
-        <v>-301100</v>
+        <v>-281700</v>
       </c>
       <c r="K35" s="3">
         <v>-7800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>187200</v>
+        <v>175100</v>
       </c>
       <c r="E41" s="3">
-        <v>422000</v>
+        <v>394800</v>
       </c>
       <c r="F41" s="3">
-        <v>65900</v>
+        <v>61700</v>
       </c>
       <c r="G41" s="3">
-        <v>46900</v>
+        <v>43800</v>
       </c>
       <c r="H41" s="3">
-        <v>82700</v>
+        <v>77400</v>
       </c>
       <c r="I41" s="3">
-        <v>83400</v>
+        <v>78000</v>
       </c>
       <c r="J41" s="3">
-        <v>70800</v>
+        <v>66300</v>
       </c>
       <c r="K41" s="3">
         <v>11300</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>101000</v>
+        <v>94500</v>
       </c>
       <c r="E43" s="3">
-        <v>81600</v>
+        <v>76300</v>
       </c>
       <c r="F43" s="3">
-        <v>66200</v>
+        <v>61900</v>
       </c>
       <c r="G43" s="3">
-        <v>70600</v>
+        <v>66000</v>
       </c>
       <c r="H43" s="3">
-        <v>61700</v>
+        <v>57800</v>
       </c>
       <c r="I43" s="3">
-        <v>41500</v>
+        <v>38800</v>
       </c>
       <c r="J43" s="3">
-        <v>47900</v>
+        <v>44800</v>
       </c>
       <c r="K43" s="3">
         <v>6600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>168800</v>
+        <v>157900</v>
       </c>
       <c r="E44" s="3">
-        <v>160700</v>
+        <v>150400</v>
       </c>
       <c r="F44" s="3">
-        <v>130600</v>
+        <v>122200</v>
       </c>
       <c r="G44" s="3">
-        <v>116800</v>
+        <v>109300</v>
       </c>
       <c r="H44" s="3">
-        <v>74800</v>
+        <v>70000</v>
       </c>
       <c r="I44" s="3">
-        <v>77500</v>
+        <v>72500</v>
       </c>
       <c r="J44" s="3">
-        <v>85800</v>
+        <v>80200</v>
       </c>
       <c r="K44" s="3">
         <v>9500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>110800</v>
+        <v>103700</v>
       </c>
       <c r="E45" s="3">
-        <v>10600</v>
+        <v>9900</v>
       </c>
       <c r="F45" s="3">
-        <v>27900</v>
+        <v>26100</v>
       </c>
       <c r="G45" s="3">
-        <v>43400</v>
+        <v>40600</v>
       </c>
       <c r="H45" s="3">
-        <v>108300</v>
+        <v>101400</v>
       </c>
       <c r="I45" s="3">
-        <v>28000</v>
+        <v>26100</v>
       </c>
       <c r="J45" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>567700</v>
+        <v>531100</v>
       </c>
       <c r="E46" s="3">
-        <v>674900</v>
+        <v>631400</v>
       </c>
       <c r="F46" s="3">
-        <v>290600</v>
+        <v>271900</v>
       </c>
       <c r="G46" s="3">
-        <v>277600</v>
+        <v>259700</v>
       </c>
       <c r="H46" s="3">
-        <v>327600</v>
+        <v>306500</v>
       </c>
       <c r="I46" s="3">
-        <v>230300</v>
+        <v>215500</v>
       </c>
       <c r="J46" s="3">
-        <v>209200</v>
+        <v>195700</v>
       </c>
       <c r="K46" s="3">
         <v>27500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>30400</v>
+        <v>28400</v>
       </c>
       <c r="E47" s="3">
-        <v>35500</v>
+        <v>33200</v>
       </c>
       <c r="F47" s="3">
-        <v>29500</v>
+        <v>27600</v>
       </c>
       <c r="G47" s="3">
-        <v>23100</v>
+        <v>21600</v>
       </c>
       <c r="H47" s="3">
-        <v>15600</v>
+        <v>14600</v>
       </c>
       <c r="I47" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="J47" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2230500</v>
+        <v>2086700</v>
       </c>
       <c r="E48" s="3">
-        <v>1937700</v>
+        <v>1812700</v>
       </c>
       <c r="F48" s="3">
-        <v>1842300</v>
+        <v>1723500</v>
       </c>
       <c r="G48" s="3">
-        <v>2058200</v>
+        <v>1925500</v>
       </c>
       <c r="H48" s="3">
-        <v>1994600</v>
+        <v>1866000</v>
       </c>
       <c r="I48" s="3">
-        <v>1986300</v>
+        <v>1858300</v>
       </c>
       <c r="J48" s="3">
-        <v>1961700</v>
+        <v>1835200</v>
       </c>
       <c r="K48" s="3">
         <v>205000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24200</v>
+        <v>22700</v>
       </c>
       <c r="E49" s="3">
-        <v>35600</v>
+        <v>33300</v>
       </c>
       <c r="F49" s="3">
-        <v>35400</v>
+        <v>33100</v>
       </c>
       <c r="G49" s="3">
-        <v>34200</v>
+        <v>32000</v>
       </c>
       <c r="H49" s="3">
-        <v>40000</v>
+        <v>37500</v>
       </c>
       <c r="I49" s="3">
-        <v>57800</v>
+        <v>54000</v>
       </c>
       <c r="J49" s="3">
-        <v>58800</v>
+        <v>55000</v>
       </c>
       <c r="K49" s="3">
         <v>5500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>387200</v>
+        <v>362200</v>
       </c>
       <c r="E52" s="3">
-        <v>283500</v>
+        <v>265200</v>
       </c>
       <c r="F52" s="3">
-        <v>241200</v>
+        <v>225600</v>
       </c>
       <c r="G52" s="3">
-        <v>230900</v>
+        <v>216000</v>
       </c>
       <c r="H52" s="3">
-        <v>203600</v>
+        <v>190400</v>
       </c>
       <c r="I52" s="3">
-        <v>172300</v>
+        <v>161200</v>
       </c>
       <c r="J52" s="3">
-        <v>163900</v>
+        <v>153300</v>
       </c>
       <c r="K52" s="3">
         <v>15400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3240000</v>
+        <v>3031200</v>
       </c>
       <c r="E54" s="3">
-        <v>2967100</v>
+        <v>2775800</v>
       </c>
       <c r="F54" s="3">
-        <v>2438900</v>
+        <v>2281700</v>
       </c>
       <c r="G54" s="3">
-        <v>2623900</v>
+        <v>2454800</v>
       </c>
       <c r="H54" s="3">
-        <v>2581400</v>
+        <v>2415000</v>
       </c>
       <c r="I54" s="3">
-        <v>2458400</v>
+        <v>2299900</v>
       </c>
       <c r="J54" s="3">
-        <v>2399100</v>
+        <v>2244500</v>
       </c>
       <c r="K54" s="3">
         <v>253400</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>84200</v>
+        <v>78800</v>
       </c>
       <c r="E57" s="3">
-        <v>46900</v>
+        <v>43800</v>
       </c>
       <c r="F57" s="3">
-        <v>50700</v>
+        <v>47400</v>
       </c>
       <c r="G57" s="3">
-        <v>39000</v>
+        <v>36500</v>
       </c>
       <c r="H57" s="3">
-        <v>34600</v>
+        <v>32400</v>
       </c>
       <c r="I57" s="3">
-        <v>23400</v>
+        <v>21900</v>
       </c>
       <c r="J57" s="3">
-        <v>34900</v>
+        <v>32600</v>
       </c>
       <c r="K57" s="3">
         <v>3000</v>
@@ -2443,22 +2443,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32800</v>
+        <v>30700</v>
       </c>
       <c r="E58" s="3">
-        <v>20900</v>
+        <v>19600</v>
       </c>
       <c r="F58" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="G58" s="3">
-        <v>45800</v>
+        <v>42900</v>
       </c>
       <c r="H58" s="3">
-        <v>121800</v>
+        <v>113900</v>
       </c>
       <c r="I58" s="3">
-        <v>19900</v>
+        <v>18600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>16</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>251600</v>
+        <v>235400</v>
       </c>
       <c r="E59" s="3">
-        <v>434100</v>
+        <v>406100</v>
       </c>
       <c r="F59" s="3">
-        <v>158100</v>
+        <v>147900</v>
       </c>
       <c r="G59" s="3">
-        <v>154200</v>
+        <v>144200</v>
       </c>
       <c r="H59" s="3">
-        <v>98900</v>
+        <v>92500</v>
       </c>
       <c r="I59" s="3">
-        <v>91500</v>
+        <v>85600</v>
       </c>
       <c r="J59" s="3">
-        <v>75400</v>
+        <v>70600</v>
       </c>
       <c r="K59" s="3">
         <v>8400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>368700</v>
+        <v>344900</v>
       </c>
       <c r="E60" s="3">
-        <v>501900</v>
+        <v>469600</v>
       </c>
       <c r="F60" s="3">
-        <v>214700</v>
+        <v>200900</v>
       </c>
       <c r="G60" s="3">
-        <v>238900</v>
+        <v>223500</v>
       </c>
       <c r="H60" s="3">
-        <v>255200</v>
+        <v>238800</v>
       </c>
       <c r="I60" s="3">
-        <v>134800</v>
+        <v>126100</v>
       </c>
       <c r="J60" s="3">
-        <v>110300</v>
+        <v>103200</v>
       </c>
       <c r="K60" s="3">
         <v>11400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>207700</v>
+        <v>194300</v>
       </c>
       <c r="E61" s="3">
-        <v>500800</v>
+        <v>468600</v>
       </c>
       <c r="F61" s="3">
-        <v>386800</v>
+        <v>361900</v>
       </c>
       <c r="G61" s="3">
-        <v>326900</v>
+        <v>305800</v>
       </c>
       <c r="H61" s="3">
-        <v>19900</v>
+        <v>18600</v>
       </c>
       <c r="I61" s="3">
-        <v>135400</v>
+        <v>126600</v>
       </c>
       <c r="J61" s="3">
-        <v>225700</v>
+        <v>211100</v>
       </c>
       <c r="K61" s="3">
         <v>17800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>591400</v>
+        <v>553300</v>
       </c>
       <c r="E62" s="3">
-        <v>412500</v>
+        <v>385900</v>
       </c>
       <c r="F62" s="3">
-        <v>336100</v>
+        <v>314400</v>
       </c>
       <c r="G62" s="3">
-        <v>373000</v>
+        <v>348900</v>
       </c>
       <c r="H62" s="3">
-        <v>361800</v>
+        <v>338400</v>
       </c>
       <c r="I62" s="3">
-        <v>317400</v>
+        <v>296900</v>
       </c>
       <c r="J62" s="3">
-        <v>287100</v>
+        <v>268600</v>
       </c>
       <c r="K62" s="3">
         <v>31800</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1171300</v>
+        <v>1095800</v>
       </c>
       <c r="E66" s="3">
-        <v>1415500</v>
+        <v>1324200</v>
       </c>
       <c r="F66" s="3">
-        <v>937600</v>
+        <v>877100</v>
       </c>
       <c r="G66" s="3">
-        <v>938800</v>
+        <v>878300</v>
       </c>
       <c r="H66" s="3">
-        <v>636800</v>
+        <v>595800</v>
       </c>
       <c r="I66" s="3">
-        <v>587600</v>
+        <v>549700</v>
       </c>
       <c r="J66" s="3">
-        <v>623000</v>
+        <v>582800</v>
       </c>
       <c r="K66" s="3">
         <v>61000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-368200</v>
+        <v>-344500</v>
       </c>
       <c r="E72" s="3">
-        <v>-671300</v>
+        <v>-628100</v>
       </c>
       <c r="F72" s="3">
-        <v>-625700</v>
+        <v>-585400</v>
       </c>
       <c r="G72" s="3">
-        <v>-467900</v>
+        <v>-437800</v>
       </c>
       <c r="H72" s="3">
-        <v>-186200</v>
+        <v>-174200</v>
       </c>
       <c r="I72" s="3">
-        <v>-205700</v>
+        <v>-192500</v>
       </c>
       <c r="J72" s="3">
-        <v>-290100</v>
+        <v>-271400</v>
       </c>
       <c r="K72" s="3">
         <v>-8800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2068700</v>
+        <v>1935300</v>
       </c>
       <c r="E76" s="3">
-        <v>1551600</v>
+        <v>1451600</v>
       </c>
       <c r="F76" s="3">
-        <v>1501300</v>
+        <v>1404600</v>
       </c>
       <c r="G76" s="3">
-        <v>1685100</v>
+        <v>1576500</v>
       </c>
       <c r="H76" s="3">
-        <v>1944600</v>
+        <v>1819300</v>
       </c>
       <c r="I76" s="3">
-        <v>1870800</v>
+        <v>1750200</v>
       </c>
       <c r="J76" s="3">
-        <v>1776100</v>
+        <v>1661600</v>
       </c>
       <c r="K76" s="3">
         <v>192400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>337700</v>
+        <v>316000</v>
       </c>
       <c r="E81" s="3">
-        <v>-58300</v>
+        <v>-54500</v>
       </c>
       <c r="F81" s="3">
-        <v>-173100</v>
+        <v>-161900</v>
       </c>
       <c r="G81" s="3">
-        <v>-297000</v>
+        <v>-277800</v>
       </c>
       <c r="H81" s="3">
-        <v>24000</v>
+        <v>22500</v>
       </c>
       <c r="I81" s="3">
-        <v>63000</v>
+        <v>58900</v>
       </c>
       <c r="J81" s="3">
-        <v>-301100</v>
+        <v>-281700</v>
       </c>
       <c r="K81" s="3">
         <v>-7800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>257400</v>
+        <v>240800</v>
       </c>
       <c r="E83" s="3">
-        <v>232900</v>
+        <v>217900</v>
       </c>
       <c r="F83" s="3">
-        <v>269100</v>
+        <v>251800</v>
       </c>
       <c r="G83" s="3">
-        <v>170600</v>
+        <v>159600</v>
       </c>
       <c r="H83" s="3">
-        <v>167200</v>
+        <v>156500</v>
       </c>
       <c r="I83" s="3">
-        <v>144100</v>
+        <v>134800</v>
       </c>
       <c r="J83" s="3">
-        <v>164100</v>
+        <v>153500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>16</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>609400</v>
+        <v>570100</v>
       </c>
       <c r="E89" s="3">
-        <v>313600</v>
+        <v>293300</v>
       </c>
       <c r="F89" s="3">
-        <v>310600</v>
+        <v>290600</v>
       </c>
       <c r="G89" s="3">
-        <v>257900</v>
+        <v>241200</v>
       </c>
       <c r="H89" s="3">
-        <v>252500</v>
+        <v>236300</v>
       </c>
       <c r="I89" s="3">
-        <v>299600</v>
+        <v>280300</v>
       </c>
       <c r="J89" s="3">
-        <v>133200</v>
+        <v>124600</v>
       </c>
       <c r="K89" s="3">
         <v>14400</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-341400</v>
+        <v>-319400</v>
       </c>
       <c r="E91" s="3">
-        <v>-239100</v>
+        <v>-223700</v>
       </c>
       <c r="F91" s="3">
-        <v>-334300</v>
+        <v>-312700</v>
       </c>
       <c r="G91" s="3">
-        <v>-302900</v>
+        <v>-283300</v>
       </c>
       <c r="H91" s="3">
-        <v>-258300</v>
+        <v>-241600</v>
       </c>
       <c r="I91" s="3">
-        <v>-161800</v>
+        <v>-151400</v>
       </c>
       <c r="J91" s="3">
-        <v>-187400</v>
+        <v>-175300</v>
       </c>
       <c r="K91" s="3">
         <v>-16800</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-561900</v>
+        <v>-525700</v>
       </c>
       <c r="E94" s="3">
-        <v>-236200</v>
+        <v>-221000</v>
       </c>
       <c r="F94" s="3">
-        <v>-318500</v>
+        <v>-297900</v>
       </c>
       <c r="G94" s="3">
-        <v>-536100</v>
+        <v>-501500</v>
       </c>
       <c r="H94" s="3">
-        <v>-224600</v>
+        <v>-210100</v>
       </c>
       <c r="I94" s="3">
-        <v>-172500</v>
+        <v>-161400</v>
       </c>
       <c r="J94" s="3">
-        <v>-193100</v>
+        <v>-180600</v>
       </c>
       <c r="K94" s="3">
         <v>-16800</v>
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-45400</v>
+        <v>-42500</v>
       </c>
       <c r="E96" s="3">
         <v>-200</v>
@@ -3773,10 +3773,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-10200</v>
+        <v>-9600</v>
       </c>
       <c r="H96" s="3">
-        <v>-29100</v>
+        <v>-27300</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-285400</v>
+        <v>-267000</v>
       </c>
       <c r="E100" s="3">
-        <v>285800</v>
+        <v>267400</v>
       </c>
       <c r="F100" s="3">
-        <v>25200</v>
+        <v>23600</v>
       </c>
       <c r="G100" s="3">
-        <v>247200</v>
+        <v>231200</v>
       </c>
       <c r="H100" s="3">
-        <v>-29900</v>
+        <v>-27900</v>
       </c>
       <c r="I100" s="3">
-        <v>-115900</v>
+        <v>-108400</v>
       </c>
       <c r="J100" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="K100" s="3">
         <v>1100</v>
@@ -3959,22 +3959,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="E101" s="3">
-        <v>-7000</v>
+        <v>-6600</v>
       </c>
       <c r="F101" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G101" s="3">
-        <v>-4800</v>
+        <v>-4500</v>
       </c>
       <c r="H101" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I101" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J101" s="3">
         <v>-500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-234900</v>
+        <v>-219700</v>
       </c>
       <c r="E102" s="3">
-        <v>356100</v>
+        <v>333200</v>
       </c>
       <c r="F102" s="3">
-        <v>19100</v>
+        <v>17800</v>
       </c>
       <c r="G102" s="3">
-        <v>-35900</v>
+        <v>-33500</v>
       </c>
       <c r="H102" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I102" s="3">
-        <v>12500</v>
+        <v>11700</v>
       </c>
       <c r="J102" s="3">
-        <v>-50600</v>
+        <v>-47300</v>
       </c>
       <c r="K102" s="3">
         <v>-2400</v>

--- a/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2592000</v>
+        <v>2490200</v>
       </c>
       <c r="E8" s="3">
-        <v>1816400</v>
+        <v>1745000</v>
       </c>
       <c r="F8" s="3">
-        <v>1671500</v>
+        <v>1605800</v>
       </c>
       <c r="G8" s="3">
-        <v>1270300</v>
+        <v>1220400</v>
       </c>
       <c r="H8" s="3">
-        <v>1196500</v>
+        <v>1149500</v>
       </c>
       <c r="I8" s="3">
-        <v>1138700</v>
+        <v>1094000</v>
       </c>
       <c r="J8" s="3">
-        <v>958700</v>
+        <v>921000</v>
       </c>
       <c r="K8" s="3">
         <v>99700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2113800</v>
+        <v>2030700</v>
       </c>
       <c r="E9" s="3">
-        <v>1606700</v>
+        <v>1543500</v>
       </c>
       <c r="F9" s="3">
-        <v>1535900</v>
+        <v>1475600</v>
       </c>
       <c r="G9" s="3">
-        <v>1121200</v>
+        <v>1077200</v>
       </c>
       <c r="H9" s="3">
-        <v>1108500</v>
+        <v>1064900</v>
       </c>
       <c r="I9" s="3">
-        <v>982100</v>
+        <v>943600</v>
       </c>
       <c r="J9" s="3">
-        <v>952200</v>
+        <v>914800</v>
       </c>
       <c r="K9" s="3">
         <v>91300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>478200</v>
+        <v>459500</v>
       </c>
       <c r="E10" s="3">
-        <v>209700</v>
+        <v>201500</v>
       </c>
       <c r="F10" s="3">
-        <v>135600</v>
+        <v>130300</v>
       </c>
       <c r="G10" s="3">
-        <v>149100</v>
+        <v>143200</v>
       </c>
       <c r="H10" s="3">
-        <v>88000</v>
+        <v>84600</v>
       </c>
       <c r="I10" s="3">
-        <v>156600</v>
+        <v>150400</v>
       </c>
       <c r="J10" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="K10" s="3">
         <v>8400</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="E12" s="3">
-        <v>12700</v>
+        <v>12200</v>
       </c>
       <c r="F12" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="G12" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="H12" s="3">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="I12" s="3">
-        <v>11900</v>
+        <v>11400</v>
       </c>
       <c r="J12" s="3">
-        <v>16300</v>
+        <v>15700</v>
       </c>
       <c r="K12" s="3">
         <v>2900</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>84300</v>
+        <v>81000</v>
       </c>
       <c r="E14" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="F14" s="3">
-        <v>253300</v>
+        <v>243300</v>
       </c>
       <c r="G14" s="3">
-        <v>343500</v>
+        <v>330000</v>
       </c>
       <c r="H14" s="3">
-        <v>116500</v>
+        <v>111900</v>
       </c>
       <c r="I14" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="J14" s="3">
-        <v>231200</v>
+        <v>222100</v>
       </c>
       <c r="K14" s="3">
         <v>10500</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2180300</v>
+        <v>2094700</v>
       </c>
       <c r="E17" s="3">
-        <v>1841400</v>
+        <v>1769100</v>
       </c>
       <c r="F17" s="3">
-        <v>1829100</v>
+        <v>1757300</v>
       </c>
       <c r="G17" s="3">
-        <v>1565800</v>
+        <v>1504300</v>
       </c>
       <c r="H17" s="3">
-        <v>1206400</v>
+        <v>1159000</v>
       </c>
       <c r="I17" s="3">
-        <v>1039800</v>
+        <v>999000</v>
       </c>
       <c r="J17" s="3">
-        <v>1281200</v>
+        <v>1230900</v>
       </c>
       <c r="K17" s="3">
         <v>109200</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>411700</v>
+        <v>395600</v>
       </c>
       <c r="E18" s="3">
-        <v>-25000</v>
+        <v>-24000</v>
       </c>
       <c r="F18" s="3">
-        <v>-157600</v>
+        <v>-151400</v>
       </c>
       <c r="G18" s="3">
-        <v>-295500</v>
+        <v>-283900</v>
       </c>
       <c r="H18" s="3">
-        <v>-9900</v>
+        <v>-9500</v>
       </c>
       <c r="I18" s="3">
-        <v>98900</v>
+        <v>95000</v>
       </c>
       <c r="J18" s="3">
-        <v>-322500</v>
+        <v>-309900</v>
       </c>
       <c r="K18" s="3">
         <v>-9500</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="E20" s="3">
-        <v>11100</v>
+        <v>10600</v>
       </c>
       <c r="F20" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="G20" s="3">
-        <v>23700</v>
+        <v>22700</v>
       </c>
       <c r="H20" s="3">
-        <v>15300</v>
+        <v>14700</v>
       </c>
       <c r="I20" s="3">
-        <v>16300</v>
+        <v>15700</v>
       </c>
       <c r="J20" s="3">
-        <v>13500</v>
+        <v>12900</v>
       </c>
       <c r="K20" s="3">
         <v>700</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>650200</v>
+        <v>622100</v>
       </c>
       <c r="E21" s="3">
-        <v>204100</v>
+        <v>193800</v>
       </c>
       <c r="F21" s="3">
-        <v>98200</v>
+        <v>91700</v>
       </c>
       <c r="G21" s="3">
-        <v>-112100</v>
+        <v>-109400</v>
       </c>
       <c r="H21" s="3">
-        <v>161900</v>
+        <v>153900</v>
       </c>
       <c r="I21" s="3">
-        <v>250100</v>
+        <v>238900</v>
       </c>
       <c r="J21" s="3">
-        <v>-155400</v>
+        <v>-150900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12800</v>
+        <v>12300</v>
       </c>
       <c r="E22" s="3">
-        <v>23000</v>
+        <v>22100</v>
       </c>
       <c r="F22" s="3">
-        <v>16700</v>
+        <v>16100</v>
       </c>
       <c r="G22" s="3">
-        <v>20500</v>
+        <v>19700</v>
       </c>
       <c r="H22" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="I22" s="3">
-        <v>17000</v>
+        <v>16300</v>
       </c>
       <c r="J22" s="3">
-        <v>16400</v>
+        <v>15800</v>
       </c>
       <c r="K22" s="3">
         <v>700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>396400</v>
+        <v>380800</v>
       </c>
       <c r="E23" s="3">
-        <v>-37000</v>
+        <v>-35500</v>
       </c>
       <c r="F23" s="3">
-        <v>-170600</v>
+        <v>-163900</v>
       </c>
       <c r="G23" s="3">
-        <v>-292400</v>
+        <v>-280900</v>
       </c>
       <c r="H23" s="3">
-        <v>-9200</v>
+        <v>-8800</v>
       </c>
       <c r="I23" s="3">
-        <v>98200</v>
+        <v>94300</v>
       </c>
       <c r="J23" s="3">
-        <v>-325500</v>
+        <v>-312700</v>
       </c>
       <c r="K23" s="3">
         <v>-9500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>78100</v>
+        <v>75100</v>
       </c>
       <c r="E24" s="3">
-        <v>15800</v>
+        <v>15200</v>
       </c>
       <c r="F24" s="3">
-        <v>-8600</v>
+        <v>-8300</v>
       </c>
       <c r="G24" s="3">
-        <v>-14500</v>
+        <v>-14000</v>
       </c>
       <c r="H24" s="3">
-        <v>-31700</v>
+        <v>-30400</v>
       </c>
       <c r="I24" s="3">
-        <v>39300</v>
+        <v>37700</v>
       </c>
       <c r="J24" s="3">
-        <v>-43700</v>
+        <v>-42000</v>
       </c>
       <c r="K24" s="3">
         <v>-1800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>318300</v>
+        <v>305700</v>
       </c>
       <c r="E26" s="3">
-        <v>-52800</v>
+        <v>-50700</v>
       </c>
       <c r="F26" s="3">
-        <v>-161900</v>
+        <v>-155600</v>
       </c>
       <c r="G26" s="3">
-        <v>-277800</v>
+        <v>-266900</v>
       </c>
       <c r="H26" s="3">
-        <v>22500</v>
+        <v>21600</v>
       </c>
       <c r="I26" s="3">
-        <v>58900</v>
+        <v>56600</v>
       </c>
       <c r="J26" s="3">
-        <v>-281700</v>
+        <v>-270700</v>
       </c>
       <c r="K26" s="3">
         <v>-7800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>316000</v>
+        <v>303500</v>
       </c>
       <c r="E27" s="3">
-        <v>-54500</v>
+        <v>-52400</v>
       </c>
       <c r="F27" s="3">
-        <v>-161900</v>
+        <v>-155600</v>
       </c>
       <c r="G27" s="3">
-        <v>-277800</v>
+        <v>-266900</v>
       </c>
       <c r="H27" s="3">
-        <v>22500</v>
+        <v>21600</v>
       </c>
       <c r="I27" s="3">
-        <v>58900</v>
+        <v>56600</v>
       </c>
       <c r="J27" s="3">
-        <v>-281700</v>
+        <v>-270700</v>
       </c>
       <c r="K27" s="3">
         <v>-7800</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E32" s="3">
-        <v>-11100</v>
+        <v>-10600</v>
       </c>
       <c r="F32" s="3">
-        <v>-3800</v>
+        <v>-3600</v>
       </c>
       <c r="G32" s="3">
-        <v>-23700</v>
+        <v>-22700</v>
       </c>
       <c r="H32" s="3">
-        <v>-15300</v>
+        <v>-14700</v>
       </c>
       <c r="I32" s="3">
-        <v>-16300</v>
+        <v>-15700</v>
       </c>
       <c r="J32" s="3">
-        <v>-13500</v>
+        <v>-12900</v>
       </c>
       <c r="K32" s="3">
         <v>-700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>316000</v>
+        <v>303500</v>
       </c>
       <c r="E33" s="3">
-        <v>-54500</v>
+        <v>-52400</v>
       </c>
       <c r="F33" s="3">
-        <v>-161900</v>
+        <v>-155600</v>
       </c>
       <c r="G33" s="3">
-        <v>-277800</v>
+        <v>-266900</v>
       </c>
       <c r="H33" s="3">
-        <v>22500</v>
+        <v>21600</v>
       </c>
       <c r="I33" s="3">
-        <v>58900</v>
+        <v>56600</v>
       </c>
       <c r="J33" s="3">
-        <v>-281700</v>
+        <v>-270700</v>
       </c>
       <c r="K33" s="3">
         <v>-7800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>316000</v>
+        <v>303500</v>
       </c>
       <c r="E35" s="3">
-        <v>-54500</v>
+        <v>-52400</v>
       </c>
       <c r="F35" s="3">
-        <v>-161900</v>
+        <v>-155600</v>
       </c>
       <c r="G35" s="3">
-        <v>-277800</v>
+        <v>-266900</v>
       </c>
       <c r="H35" s="3">
-        <v>22500</v>
+        <v>21600</v>
       </c>
       <c r="I35" s="3">
-        <v>58900</v>
+        <v>56600</v>
       </c>
       <c r="J35" s="3">
-        <v>-281700</v>
+        <v>-270700</v>
       </c>
       <c r="K35" s="3">
         <v>-7800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>175100</v>
+        <v>168200</v>
       </c>
       <c r="E41" s="3">
-        <v>394800</v>
+        <v>379300</v>
       </c>
       <c r="F41" s="3">
-        <v>61700</v>
+        <v>59300</v>
       </c>
       <c r="G41" s="3">
-        <v>43800</v>
+        <v>42100</v>
       </c>
       <c r="H41" s="3">
-        <v>77400</v>
+        <v>74300</v>
       </c>
       <c r="I41" s="3">
-        <v>78000</v>
+        <v>74900</v>
       </c>
       <c r="J41" s="3">
-        <v>66300</v>
+        <v>63700</v>
       </c>
       <c r="K41" s="3">
         <v>11300</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>94500</v>
+        <v>90800</v>
       </c>
       <c r="E43" s="3">
-        <v>76300</v>
+        <v>73300</v>
       </c>
       <c r="F43" s="3">
-        <v>61900</v>
+        <v>59500</v>
       </c>
       <c r="G43" s="3">
-        <v>66000</v>
+        <v>63400</v>
       </c>
       <c r="H43" s="3">
-        <v>57800</v>
+        <v>55500</v>
       </c>
       <c r="I43" s="3">
-        <v>38800</v>
+        <v>37300</v>
       </c>
       <c r="J43" s="3">
-        <v>44800</v>
+        <v>43100</v>
       </c>
       <c r="K43" s="3">
         <v>6600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>157900</v>
+        <v>151700</v>
       </c>
       <c r="E44" s="3">
-        <v>150400</v>
+        <v>144500</v>
       </c>
       <c r="F44" s="3">
-        <v>122200</v>
+        <v>117400</v>
       </c>
       <c r="G44" s="3">
-        <v>109300</v>
+        <v>105000</v>
       </c>
       <c r="H44" s="3">
-        <v>70000</v>
+        <v>67200</v>
       </c>
       <c r="I44" s="3">
-        <v>72500</v>
+        <v>69600</v>
       </c>
       <c r="J44" s="3">
-        <v>80200</v>
+        <v>77100</v>
       </c>
       <c r="K44" s="3">
         <v>9500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>103700</v>
+        <v>99600</v>
       </c>
       <c r="E45" s="3">
-        <v>9900</v>
+        <v>9500</v>
       </c>
       <c r="F45" s="3">
-        <v>26100</v>
+        <v>25100</v>
       </c>
       <c r="G45" s="3">
-        <v>40600</v>
+        <v>39000</v>
       </c>
       <c r="H45" s="3">
-        <v>101400</v>
+        <v>97400</v>
       </c>
       <c r="I45" s="3">
-        <v>26100</v>
+        <v>25100</v>
       </c>
       <c r="J45" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>531100</v>
+        <v>510200</v>
       </c>
       <c r="E46" s="3">
-        <v>631400</v>
+        <v>606600</v>
       </c>
       <c r="F46" s="3">
-        <v>271900</v>
+        <v>261200</v>
       </c>
       <c r="G46" s="3">
-        <v>259700</v>
+        <v>249500</v>
       </c>
       <c r="H46" s="3">
-        <v>306500</v>
+        <v>294500</v>
       </c>
       <c r="I46" s="3">
-        <v>215500</v>
+        <v>207000</v>
       </c>
       <c r="J46" s="3">
-        <v>195700</v>
+        <v>188000</v>
       </c>
       <c r="K46" s="3">
         <v>27500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28400</v>
+        <v>27300</v>
       </c>
       <c r="E47" s="3">
-        <v>33200</v>
+        <v>31900</v>
       </c>
       <c r="F47" s="3">
-        <v>27600</v>
+        <v>26500</v>
       </c>
       <c r="G47" s="3">
-        <v>21600</v>
+        <v>20800</v>
       </c>
       <c r="H47" s="3">
-        <v>14600</v>
+        <v>14000</v>
       </c>
       <c r="I47" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="J47" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2086700</v>
+        <v>2004700</v>
       </c>
       <c r="E48" s="3">
-        <v>1812700</v>
+        <v>1741500</v>
       </c>
       <c r="F48" s="3">
-        <v>1723500</v>
+        <v>1655800</v>
       </c>
       <c r="G48" s="3">
-        <v>1925500</v>
+        <v>1849800</v>
       </c>
       <c r="H48" s="3">
-        <v>1866000</v>
+        <v>1792700</v>
       </c>
       <c r="I48" s="3">
-        <v>1858300</v>
+        <v>1785300</v>
       </c>
       <c r="J48" s="3">
-        <v>1835200</v>
+        <v>1763100</v>
       </c>
       <c r="K48" s="3">
         <v>205000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22700</v>
+        <v>21800</v>
       </c>
       <c r="E49" s="3">
-        <v>33300</v>
+        <v>32000</v>
       </c>
       <c r="F49" s="3">
-        <v>33100</v>
+        <v>31800</v>
       </c>
       <c r="G49" s="3">
-        <v>32000</v>
+        <v>30700</v>
       </c>
       <c r="H49" s="3">
-        <v>37500</v>
+        <v>36000</v>
       </c>
       <c r="I49" s="3">
-        <v>54000</v>
+        <v>51900</v>
       </c>
       <c r="J49" s="3">
-        <v>55000</v>
+        <v>52800</v>
       </c>
       <c r="K49" s="3">
         <v>5500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>362200</v>
+        <v>348000</v>
       </c>
       <c r="E52" s="3">
-        <v>265200</v>
+        <v>254800</v>
       </c>
       <c r="F52" s="3">
-        <v>225600</v>
+        <v>216800</v>
       </c>
       <c r="G52" s="3">
-        <v>216000</v>
+        <v>207500</v>
       </c>
       <c r="H52" s="3">
-        <v>190400</v>
+        <v>182900</v>
       </c>
       <c r="I52" s="3">
-        <v>161200</v>
+        <v>154800</v>
       </c>
       <c r="J52" s="3">
-        <v>153300</v>
+        <v>147300</v>
       </c>
       <c r="K52" s="3">
         <v>15400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3031200</v>
+        <v>2912100</v>
       </c>
       <c r="E54" s="3">
-        <v>2775800</v>
+        <v>2666800</v>
       </c>
       <c r="F54" s="3">
-        <v>2281700</v>
+        <v>2192000</v>
       </c>
       <c r="G54" s="3">
-        <v>2454800</v>
+        <v>2358300</v>
       </c>
       <c r="H54" s="3">
-        <v>2415000</v>
+        <v>2320100</v>
       </c>
       <c r="I54" s="3">
-        <v>2299900</v>
+        <v>2209600</v>
       </c>
       <c r="J54" s="3">
-        <v>2244500</v>
+        <v>2156300</v>
       </c>
       <c r="K54" s="3">
         <v>253400</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>78800</v>
+        <v>75700</v>
       </c>
       <c r="E57" s="3">
-        <v>43800</v>
+        <v>42100</v>
       </c>
       <c r="F57" s="3">
-        <v>47400</v>
+        <v>45500</v>
       </c>
       <c r="G57" s="3">
-        <v>36500</v>
+        <v>35000</v>
       </c>
       <c r="H57" s="3">
-        <v>32400</v>
+        <v>31100</v>
       </c>
       <c r="I57" s="3">
-        <v>21900</v>
+        <v>21100</v>
       </c>
       <c r="J57" s="3">
-        <v>32600</v>
+        <v>31300</v>
       </c>
       <c r="K57" s="3">
         <v>3000</v>
@@ -2443,22 +2443,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>30700</v>
+        <v>29500</v>
       </c>
       <c r="E58" s="3">
-        <v>19600</v>
+        <v>18800</v>
       </c>
       <c r="F58" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="G58" s="3">
-        <v>42900</v>
+        <v>41200</v>
       </c>
       <c r="H58" s="3">
-        <v>113900</v>
+        <v>109400</v>
       </c>
       <c r="I58" s="3">
-        <v>18600</v>
+        <v>17900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>16</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>235400</v>
+        <v>226100</v>
       </c>
       <c r="E59" s="3">
-        <v>406100</v>
+        <v>390200</v>
       </c>
       <c r="F59" s="3">
-        <v>147900</v>
+        <v>142100</v>
       </c>
       <c r="G59" s="3">
-        <v>144200</v>
+        <v>138600</v>
       </c>
       <c r="H59" s="3">
-        <v>92500</v>
+        <v>88800</v>
       </c>
       <c r="I59" s="3">
-        <v>85600</v>
+        <v>82200</v>
       </c>
       <c r="J59" s="3">
-        <v>70600</v>
+        <v>67800</v>
       </c>
       <c r="K59" s="3">
         <v>8400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>344900</v>
+        <v>331300</v>
       </c>
       <c r="E60" s="3">
-        <v>469600</v>
+        <v>451100</v>
       </c>
       <c r="F60" s="3">
-        <v>200900</v>
+        <v>193000</v>
       </c>
       <c r="G60" s="3">
-        <v>223500</v>
+        <v>214800</v>
       </c>
       <c r="H60" s="3">
-        <v>238800</v>
+        <v>229400</v>
       </c>
       <c r="I60" s="3">
-        <v>126100</v>
+        <v>121200</v>
       </c>
       <c r="J60" s="3">
-        <v>103200</v>
+        <v>99100</v>
       </c>
       <c r="K60" s="3">
         <v>11400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>194300</v>
+        <v>186600</v>
       </c>
       <c r="E61" s="3">
-        <v>468600</v>
+        <v>450200</v>
       </c>
       <c r="F61" s="3">
-        <v>361900</v>
+        <v>347600</v>
       </c>
       <c r="G61" s="3">
-        <v>305800</v>
+        <v>293800</v>
       </c>
       <c r="H61" s="3">
-        <v>18600</v>
+        <v>17800</v>
       </c>
       <c r="I61" s="3">
-        <v>126600</v>
+        <v>121700</v>
       </c>
       <c r="J61" s="3">
-        <v>211100</v>
+        <v>202800</v>
       </c>
       <c r="K61" s="3">
         <v>17800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>553300</v>
+        <v>531500</v>
       </c>
       <c r="E62" s="3">
-        <v>385900</v>
+        <v>370700</v>
       </c>
       <c r="F62" s="3">
-        <v>314400</v>
+        <v>302000</v>
       </c>
       <c r="G62" s="3">
-        <v>348900</v>
+        <v>335200</v>
       </c>
       <c r="H62" s="3">
-        <v>338400</v>
+        <v>325100</v>
       </c>
       <c r="I62" s="3">
-        <v>296900</v>
+        <v>285300</v>
       </c>
       <c r="J62" s="3">
-        <v>268600</v>
+        <v>258000</v>
       </c>
       <c r="K62" s="3">
         <v>31800</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1095800</v>
+        <v>1052800</v>
       </c>
       <c r="E66" s="3">
-        <v>1324200</v>
+        <v>1272200</v>
       </c>
       <c r="F66" s="3">
-        <v>877100</v>
+        <v>842700</v>
       </c>
       <c r="G66" s="3">
-        <v>878300</v>
+        <v>843800</v>
       </c>
       <c r="H66" s="3">
-        <v>595800</v>
+        <v>572400</v>
       </c>
       <c r="I66" s="3">
-        <v>549700</v>
+        <v>528100</v>
       </c>
       <c r="J66" s="3">
-        <v>582800</v>
+        <v>559900</v>
       </c>
       <c r="K66" s="3">
         <v>61000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-344500</v>
+        <v>-330900</v>
       </c>
       <c r="E72" s="3">
-        <v>-628100</v>
+        <v>-603400</v>
       </c>
       <c r="F72" s="3">
-        <v>-585400</v>
+        <v>-562400</v>
       </c>
       <c r="G72" s="3">
-        <v>-437800</v>
+        <v>-420600</v>
       </c>
       <c r="H72" s="3">
-        <v>-174200</v>
+        <v>-167400</v>
       </c>
       <c r="I72" s="3">
-        <v>-192500</v>
+        <v>-184900</v>
       </c>
       <c r="J72" s="3">
-        <v>-271400</v>
+        <v>-260800</v>
       </c>
       <c r="K72" s="3">
         <v>-8800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1935300</v>
+        <v>1859300</v>
       </c>
       <c r="E76" s="3">
-        <v>1451600</v>
+        <v>1394500</v>
       </c>
       <c r="F76" s="3">
-        <v>1404600</v>
+        <v>1349400</v>
       </c>
       <c r="G76" s="3">
-        <v>1576500</v>
+        <v>1514500</v>
       </c>
       <c r="H76" s="3">
-        <v>1819300</v>
+        <v>1747800</v>
       </c>
       <c r="I76" s="3">
-        <v>1750200</v>
+        <v>1681400</v>
       </c>
       <c r="J76" s="3">
-        <v>1661600</v>
+        <v>1596400</v>
       </c>
       <c r="K76" s="3">
         <v>192400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>316000</v>
+        <v>303500</v>
       </c>
       <c r="E81" s="3">
-        <v>-54500</v>
+        <v>-52400</v>
       </c>
       <c r="F81" s="3">
-        <v>-161900</v>
+        <v>-155600</v>
       </c>
       <c r="G81" s="3">
-        <v>-277800</v>
+        <v>-266900</v>
       </c>
       <c r="H81" s="3">
-        <v>22500</v>
+        <v>21600</v>
       </c>
       <c r="I81" s="3">
-        <v>58900</v>
+        <v>56600</v>
       </c>
       <c r="J81" s="3">
-        <v>-281700</v>
+        <v>-270700</v>
       </c>
       <c r="K81" s="3">
         <v>-7800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>240800</v>
+        <v>231300</v>
       </c>
       <c r="E83" s="3">
-        <v>217900</v>
+        <v>209300</v>
       </c>
       <c r="F83" s="3">
-        <v>251800</v>
+        <v>241900</v>
       </c>
       <c r="G83" s="3">
-        <v>159600</v>
+        <v>153400</v>
       </c>
       <c r="H83" s="3">
-        <v>156500</v>
+        <v>150300</v>
       </c>
       <c r="I83" s="3">
-        <v>134800</v>
+        <v>129500</v>
       </c>
       <c r="J83" s="3">
-        <v>153500</v>
+        <v>147500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>16</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>570100</v>
+        <v>547700</v>
       </c>
       <c r="E89" s="3">
-        <v>293300</v>
+        <v>281800</v>
       </c>
       <c r="F89" s="3">
-        <v>290600</v>
+        <v>279200</v>
       </c>
       <c r="G89" s="3">
-        <v>241200</v>
+        <v>231800</v>
       </c>
       <c r="H89" s="3">
-        <v>236300</v>
+        <v>227000</v>
       </c>
       <c r="I89" s="3">
-        <v>280300</v>
+        <v>269300</v>
       </c>
       <c r="J89" s="3">
-        <v>124600</v>
+        <v>119700</v>
       </c>
       <c r="K89" s="3">
         <v>14400</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-319400</v>
+        <v>-306800</v>
       </c>
       <c r="E91" s="3">
-        <v>-223700</v>
+        <v>-214900</v>
       </c>
       <c r="F91" s="3">
-        <v>-312700</v>
+        <v>-300400</v>
       </c>
       <c r="G91" s="3">
-        <v>-283300</v>
+        <v>-272200</v>
       </c>
       <c r="H91" s="3">
-        <v>-241600</v>
+        <v>-232100</v>
       </c>
       <c r="I91" s="3">
-        <v>-151400</v>
+        <v>-145400</v>
       </c>
       <c r="J91" s="3">
-        <v>-175300</v>
+        <v>-168400</v>
       </c>
       <c r="K91" s="3">
         <v>-16800</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-525700</v>
+        <v>-505000</v>
       </c>
       <c r="E94" s="3">
-        <v>-221000</v>
+        <v>-212300</v>
       </c>
       <c r="F94" s="3">
-        <v>-297900</v>
+        <v>-286200</v>
       </c>
       <c r="G94" s="3">
-        <v>-501500</v>
+        <v>-481800</v>
       </c>
       <c r="H94" s="3">
-        <v>-210100</v>
+        <v>-201900</v>
       </c>
       <c r="I94" s="3">
-        <v>-161400</v>
+        <v>-155100</v>
       </c>
       <c r="J94" s="3">
-        <v>-180600</v>
+        <v>-173500</v>
       </c>
       <c r="K94" s="3">
         <v>-16800</v>
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-42500</v>
+        <v>-40800</v>
       </c>
       <c r="E96" s="3">
         <v>-200</v>
@@ -3773,10 +3773,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-9600</v>
+        <v>-9200</v>
       </c>
       <c r="H96" s="3">
-        <v>-27300</v>
+        <v>-26200</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-267000</v>
+        <v>-256500</v>
       </c>
       <c r="E100" s="3">
-        <v>267400</v>
+        <v>256900</v>
       </c>
       <c r="F100" s="3">
-        <v>23600</v>
+        <v>22700</v>
       </c>
       <c r="G100" s="3">
-        <v>231200</v>
+        <v>222200</v>
       </c>
       <c r="H100" s="3">
-        <v>-27900</v>
+        <v>-26900</v>
       </c>
       <c r="I100" s="3">
-        <v>-108400</v>
+        <v>-104100</v>
       </c>
       <c r="J100" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="K100" s="3">
         <v>1100</v>
@@ -3959,19 +3959,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E101" s="3">
-        <v>-6600</v>
+        <v>-6300</v>
       </c>
       <c r="F101" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G101" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="H101" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I101" s="3">
         <v>1200</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-219700</v>
+        <v>-211100</v>
       </c>
       <c r="E102" s="3">
-        <v>333200</v>
+        <v>320100</v>
       </c>
       <c r="F102" s="3">
-        <v>17800</v>
+        <v>17100</v>
       </c>
       <c r="G102" s="3">
-        <v>-33500</v>
+        <v>-32200</v>
       </c>
       <c r="H102" s="3">
         <v>-600</v>
       </c>
       <c r="I102" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="J102" s="3">
-        <v>-47300</v>
+        <v>-45500</v>
       </c>
       <c r="K102" s="3">
         <v>-2400</v>

--- a/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41820</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41455</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41090</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40724</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2490200</v>
+        <v>2455100</v>
       </c>
       <c r="E8" s="3">
-        <v>1745000</v>
+        <v>2402600</v>
       </c>
       <c r="F8" s="3">
-        <v>1605800</v>
+        <v>1683600</v>
       </c>
       <c r="G8" s="3">
-        <v>1220400</v>
+        <v>1549300</v>
       </c>
       <c r="H8" s="3">
-        <v>1149500</v>
+        <v>1177400</v>
       </c>
       <c r="I8" s="3">
-        <v>1094000</v>
+        <v>1109000</v>
       </c>
       <c r="J8" s="3">
+        <v>1055500</v>
+      </c>
+      <c r="K8" s="3">
         <v>921000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>99700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>106900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>133900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>117500</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2030700</v>
+        <v>2156700</v>
       </c>
       <c r="E9" s="3">
-        <v>1543500</v>
+        <v>1959300</v>
       </c>
       <c r="F9" s="3">
-        <v>1475600</v>
+        <v>1489200</v>
       </c>
       <c r="G9" s="3">
-        <v>1077200</v>
+        <v>1423600</v>
       </c>
       <c r="H9" s="3">
-        <v>1064900</v>
+        <v>1039300</v>
       </c>
       <c r="I9" s="3">
-        <v>943600</v>
+        <v>1027500</v>
       </c>
       <c r="J9" s="3">
+        <v>910400</v>
+      </c>
+      <c r="K9" s="3">
         <v>914800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>91300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>107400</v>
-      </c>
-      <c r="M9" s="3">
-        <v>106000</v>
       </c>
       <c r="N9" s="3">
         <v>106000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>106000</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>459500</v>
+        <v>298300</v>
       </c>
       <c r="E10" s="3">
-        <v>201500</v>
+        <v>443300</v>
       </c>
       <c r="F10" s="3">
-        <v>130300</v>
+        <v>194400</v>
       </c>
       <c r="G10" s="3">
-        <v>143200</v>
+        <v>125700</v>
       </c>
       <c r="H10" s="3">
-        <v>84600</v>
+        <v>138200</v>
       </c>
       <c r="I10" s="3">
-        <v>150400</v>
+        <v>81600</v>
       </c>
       <c r="J10" s="3">
+        <v>145100</v>
+      </c>
+      <c r="K10" s="3">
         <v>6200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>27800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11500</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10600</v>
+        <v>12300</v>
       </c>
       <c r="E12" s="3">
-        <v>12200</v>
+        <v>10200</v>
       </c>
       <c r="F12" s="3">
-        <v>8800</v>
+        <v>11800</v>
       </c>
       <c r="G12" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="H12" s="3">
-        <v>14400</v>
+        <v>7800</v>
       </c>
       <c r="I12" s="3">
-        <v>11400</v>
+        <v>13900</v>
       </c>
       <c r="J12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K12" s="3">
         <v>15700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3300</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,48 +944,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>81000</v>
+        <v>258300</v>
       </c>
       <c r="E14" s="3">
-        <v>7200</v>
+        <v>78100</v>
       </c>
       <c r="F14" s="3">
-        <v>243300</v>
+        <v>7000</v>
       </c>
       <c r="G14" s="3">
-        <v>330000</v>
+        <v>234800</v>
       </c>
       <c r="H14" s="3">
-        <v>111900</v>
+        <v>318400</v>
       </c>
       <c r="I14" s="3">
+        <v>107900</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>222100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>17100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4200</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2094700</v>
+        <v>2498500</v>
       </c>
       <c r="E17" s="3">
-        <v>1769100</v>
+        <v>2020900</v>
       </c>
       <c r="F17" s="3">
-        <v>1757300</v>
+        <v>1706800</v>
       </c>
       <c r="G17" s="3">
-        <v>1504300</v>
+        <v>1695400</v>
       </c>
       <c r="H17" s="3">
-        <v>1159000</v>
+        <v>1451300</v>
       </c>
       <c r="I17" s="3">
-        <v>999000</v>
+        <v>1118200</v>
       </c>
       <c r="J17" s="3">
+        <v>963800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1230900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>109200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>118900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>115800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>117300</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>395600</v>
+        <v>-43500</v>
       </c>
       <c r="E18" s="3">
-        <v>-24000</v>
+        <v>381600</v>
       </c>
       <c r="F18" s="3">
-        <v>-151400</v>
+        <v>-23200</v>
       </c>
       <c r="G18" s="3">
-        <v>-283900</v>
+        <v>-146100</v>
       </c>
       <c r="H18" s="3">
+        <v>-273900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>91700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-309900</v>
+      </c>
+      <c r="L18" s="3">
         <v>-9500</v>
       </c>
-      <c r="I18" s="3">
-        <v>95000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-309900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2400</v>
       </c>
-      <c r="E20" s="3">
-        <v>10600</v>
-      </c>
       <c r="F20" s="3">
-        <v>3600</v>
+        <v>10200</v>
       </c>
       <c r="G20" s="3">
-        <v>22700</v>
+        <v>3500</v>
       </c>
       <c r="H20" s="3">
-        <v>14700</v>
+        <v>21900</v>
       </c>
       <c r="I20" s="3">
-        <v>15700</v>
+        <v>14200</v>
       </c>
       <c r="J20" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K20" s="3">
         <v>12900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6400</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>622100</v>
+        <v>156600</v>
       </c>
       <c r="E21" s="3">
-        <v>193800</v>
+        <v>597700</v>
       </c>
       <c r="F21" s="3">
-        <v>91700</v>
+        <v>184700</v>
       </c>
       <c r="G21" s="3">
-        <v>-109400</v>
+        <v>85800</v>
       </c>
       <c r="H21" s="3">
-        <v>153900</v>
+        <v>-107200</v>
       </c>
       <c r="I21" s="3">
-        <v>238900</v>
+        <v>146900</v>
       </c>
       <c r="J21" s="3">
+        <v>229100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-150900</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>36000</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12300</v>
+        <v>10000</v>
       </c>
       <c r="E22" s="3">
-        <v>22100</v>
+        <v>11900</v>
       </c>
       <c r="F22" s="3">
-        <v>16100</v>
+        <v>21300</v>
       </c>
       <c r="G22" s="3">
-        <v>19700</v>
+        <v>15500</v>
       </c>
       <c r="H22" s="3">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="I22" s="3">
-        <v>16300</v>
+        <v>13500</v>
       </c>
       <c r="J22" s="3">
         <v>15800</v>
       </c>
       <c r="K22" s="3">
-        <v>700</v>
+        <v>15800</v>
       </c>
       <c r="L22" s="3">
         <v>700</v>
       </c>
       <c r="M22" s="3">
+        <v>700</v>
+      </c>
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4300</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>380800</v>
+        <v>-60900</v>
       </c>
       <c r="E23" s="3">
-        <v>-35500</v>
+        <v>367400</v>
       </c>
       <c r="F23" s="3">
-        <v>-163900</v>
+        <v>-34300</v>
       </c>
       <c r="G23" s="3">
-        <v>-280900</v>
+        <v>-158100</v>
       </c>
       <c r="H23" s="3">
-        <v>-8800</v>
+        <v>-271000</v>
       </c>
       <c r="I23" s="3">
-        <v>94300</v>
+        <v>-8500</v>
       </c>
       <c r="J23" s="3">
+        <v>91000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-312700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>17100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2300</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>75100</v>
+        <v>-2600</v>
       </c>
       <c r="E24" s="3">
-        <v>15200</v>
+        <v>72400</v>
       </c>
       <c r="F24" s="3">
-        <v>-8300</v>
+        <v>14700</v>
       </c>
       <c r="G24" s="3">
-        <v>-14000</v>
+        <v>-8000</v>
       </c>
       <c r="H24" s="3">
-        <v>-30400</v>
+        <v>-13500</v>
       </c>
       <c r="I24" s="3">
-        <v>37700</v>
+        <v>-29400</v>
       </c>
       <c r="J24" s="3">
+        <v>36400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-42000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3900</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>305700</v>
+        <v>-58300</v>
       </c>
       <c r="E26" s="3">
-        <v>-50700</v>
+        <v>295000</v>
       </c>
       <c r="F26" s="3">
-        <v>-155600</v>
+        <v>-48900</v>
       </c>
       <c r="G26" s="3">
-        <v>-266900</v>
+        <v>-150100</v>
       </c>
       <c r="H26" s="3">
-        <v>21600</v>
+        <v>-257500</v>
       </c>
       <c r="I26" s="3">
-        <v>56600</v>
+        <v>20800</v>
       </c>
       <c r="J26" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-270700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>303500</v>
+        <v>-60600</v>
       </c>
       <c r="E27" s="3">
-        <v>-52400</v>
+        <v>292900</v>
       </c>
       <c r="F27" s="3">
-        <v>-155600</v>
+        <v>-50500</v>
       </c>
       <c r="G27" s="3">
-        <v>-266900</v>
+        <v>-150100</v>
       </c>
       <c r="H27" s="3">
-        <v>21600</v>
+        <v>-257500</v>
       </c>
       <c r="I27" s="3">
-        <v>56600</v>
+        <v>20800</v>
       </c>
       <c r="J27" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-270700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6200</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1497,17 +1557,20 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>2100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>5100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E32" s="3">
         <v>2400</v>
       </c>
-      <c r="E32" s="3">
-        <v>-10600</v>
-      </c>
       <c r="F32" s="3">
-        <v>-3600</v>
+        <v>-10200</v>
       </c>
       <c r="G32" s="3">
-        <v>-22700</v>
+        <v>-3500</v>
       </c>
       <c r="H32" s="3">
-        <v>-14700</v>
+        <v>-21900</v>
       </c>
       <c r="I32" s="3">
-        <v>-15700</v>
+        <v>-14200</v>
       </c>
       <c r="J32" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-12900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6400</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>303500</v>
+        <v>-60600</v>
       </c>
       <c r="E33" s="3">
-        <v>-52400</v>
+        <v>292900</v>
       </c>
       <c r="F33" s="3">
-        <v>-155600</v>
+        <v>-50500</v>
       </c>
       <c r="G33" s="3">
-        <v>-266900</v>
+        <v>-150100</v>
       </c>
       <c r="H33" s="3">
-        <v>21600</v>
+        <v>-257500</v>
       </c>
       <c r="I33" s="3">
-        <v>56600</v>
+        <v>20800</v>
       </c>
       <c r="J33" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-270700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6100</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>303500</v>
+        <v>-60600</v>
       </c>
       <c r="E35" s="3">
-        <v>-52400</v>
+        <v>292900</v>
       </c>
       <c r="F35" s="3">
-        <v>-155600</v>
+        <v>-50500</v>
       </c>
       <c r="G35" s="3">
-        <v>-266900</v>
+        <v>-150100</v>
       </c>
       <c r="H35" s="3">
-        <v>21600</v>
+        <v>-257500</v>
       </c>
       <c r="I35" s="3">
-        <v>56600</v>
+        <v>20800</v>
       </c>
       <c r="J35" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-270700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6100</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41820</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41455</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41090</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40724</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>168200</v>
+        <v>140900</v>
       </c>
       <c r="E41" s="3">
-        <v>379300</v>
+        <v>162300</v>
       </c>
       <c r="F41" s="3">
-        <v>59300</v>
+        <v>366000</v>
       </c>
       <c r="G41" s="3">
-        <v>42100</v>
+        <v>57200</v>
       </c>
       <c r="H41" s="3">
-        <v>74300</v>
+        <v>40600</v>
       </c>
       <c r="I41" s="3">
-        <v>74900</v>
+        <v>71700</v>
       </c>
       <c r="J41" s="3">
+        <v>72300</v>
+      </c>
+      <c r="K41" s="3">
         <v>63700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7200</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1895,282 +1984,306 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>90800</v>
+        <v>87600</v>
       </c>
       <c r="E43" s="3">
-        <v>73300</v>
+        <v>87600</v>
       </c>
       <c r="F43" s="3">
-        <v>59500</v>
+        <v>70800</v>
       </c>
       <c r="G43" s="3">
-        <v>63400</v>
+        <v>57400</v>
       </c>
       <c r="H43" s="3">
-        <v>55500</v>
+        <v>61200</v>
       </c>
       <c r="I43" s="3">
-        <v>37300</v>
+        <v>53500</v>
       </c>
       <c r="J43" s="3">
+        <v>36000</v>
+      </c>
+      <c r="K43" s="3">
         <v>43100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12300</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>151700</v>
+        <v>162200</v>
       </c>
       <c r="E44" s="3">
-        <v>144500</v>
+        <v>146300</v>
       </c>
       <c r="F44" s="3">
-        <v>117400</v>
+        <v>139400</v>
       </c>
       <c r="G44" s="3">
-        <v>105000</v>
+        <v>113200</v>
       </c>
       <c r="H44" s="3">
+        <v>101300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>64900</v>
+      </c>
+      <c r="J44" s="3">
         <v>67200</v>
       </c>
-      <c r="I44" s="3">
-        <v>69600</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>77100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8800</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>99600</v>
+        <v>40600</v>
       </c>
       <c r="E45" s="3">
-        <v>9500</v>
+        <v>96100</v>
       </c>
       <c r="F45" s="3">
-        <v>25100</v>
+        <v>9200</v>
       </c>
       <c r="G45" s="3">
-        <v>39000</v>
+        <v>24200</v>
       </c>
       <c r="H45" s="3">
-        <v>97400</v>
+        <v>37600</v>
       </c>
       <c r="I45" s="3">
-        <v>25100</v>
+        <v>94000</v>
       </c>
       <c r="J45" s="3">
+        <v>24200</v>
+      </c>
+      <c r="K45" s="3">
         <v>4200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3300</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>510200</v>
+        <v>431400</v>
       </c>
       <c r="E46" s="3">
-        <v>606600</v>
+        <v>492300</v>
       </c>
       <c r="F46" s="3">
-        <v>261200</v>
+        <v>585300</v>
       </c>
       <c r="G46" s="3">
-        <v>249500</v>
+        <v>252000</v>
       </c>
       <c r="H46" s="3">
-        <v>294500</v>
+        <v>240700</v>
       </c>
       <c r="I46" s="3">
-        <v>207000</v>
+        <v>284100</v>
       </c>
       <c r="J46" s="3">
+        <v>199700</v>
+      </c>
+      <c r="K46" s="3">
         <v>188000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>31500</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>27300</v>
+        <v>28700</v>
       </c>
       <c r="E47" s="3">
-        <v>31900</v>
+        <v>26400</v>
       </c>
       <c r="F47" s="3">
-        <v>26500</v>
+        <v>30700</v>
       </c>
       <c r="G47" s="3">
-        <v>20800</v>
+        <v>25600</v>
       </c>
       <c r="H47" s="3">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="I47" s="3">
-        <v>10600</v>
+        <v>13500</v>
       </c>
       <c r="J47" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K47" s="3">
         <v>5100</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2100</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2004700</v>
+        <v>1892400</v>
       </c>
       <c r="E48" s="3">
-        <v>1741500</v>
+        <v>1934200</v>
       </c>
       <c r="F48" s="3">
-        <v>1655800</v>
+        <v>1680200</v>
       </c>
       <c r="G48" s="3">
-        <v>1849800</v>
+        <v>1597500</v>
       </c>
       <c r="H48" s="3">
-        <v>1792700</v>
+        <v>1784700</v>
       </c>
       <c r="I48" s="3">
-        <v>1785300</v>
+        <v>1729600</v>
       </c>
       <c r="J48" s="3">
+        <v>1722400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1763100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>205000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>194900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>548700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>326300</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21800</v>
+        <v>2800</v>
       </c>
       <c r="E49" s="3">
-        <v>32000</v>
+        <v>21000</v>
       </c>
       <c r="F49" s="3">
-        <v>31800</v>
+        <v>30900</v>
       </c>
       <c r="G49" s="3">
         <v>30700</v>
       </c>
       <c r="H49" s="3">
-        <v>36000</v>
+        <v>29600</v>
       </c>
       <c r="I49" s="3">
-        <v>51900</v>
+        <v>34700</v>
       </c>
       <c r="J49" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K49" s="3">
         <v>52800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>22700</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>348000</v>
+        <v>339400</v>
       </c>
       <c r="E52" s="3">
-        <v>254800</v>
+        <v>335700</v>
       </c>
       <c r="F52" s="3">
-        <v>216800</v>
+        <v>245800</v>
       </c>
       <c r="G52" s="3">
-        <v>207500</v>
+        <v>209200</v>
       </c>
       <c r="H52" s="3">
-        <v>182900</v>
+        <v>200200</v>
       </c>
       <c r="I52" s="3">
-        <v>154800</v>
+        <v>176500</v>
       </c>
       <c r="J52" s="3">
+        <v>149400</v>
+      </c>
+      <c r="K52" s="3">
         <v>147300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>33900</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2912100</v>
+        <v>2694700</v>
       </c>
       <c r="E54" s="3">
-        <v>2666800</v>
+        <v>2809600</v>
       </c>
       <c r="F54" s="3">
-        <v>2192000</v>
+        <v>2572900</v>
       </c>
       <c r="G54" s="3">
-        <v>2358300</v>
+        <v>2114900</v>
       </c>
       <c r="H54" s="3">
-        <v>2320100</v>
+        <v>2275300</v>
       </c>
       <c r="I54" s="3">
-        <v>2209600</v>
+        <v>2238500</v>
       </c>
       <c r="J54" s="3">
+        <v>2131800</v>
+      </c>
+      <c r="K54" s="3">
         <v>2156300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>253400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>250800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>360700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>416400</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>75700</v>
+        <v>72900</v>
       </c>
       <c r="E57" s="3">
-        <v>42100</v>
+        <v>73100</v>
       </c>
       <c r="F57" s="3">
-        <v>45500</v>
+        <v>40600</v>
       </c>
       <c r="G57" s="3">
-        <v>35000</v>
+        <v>43900</v>
       </c>
       <c r="H57" s="3">
-        <v>31100</v>
+        <v>33800</v>
       </c>
       <c r="I57" s="3">
-        <v>21100</v>
+        <v>30000</v>
       </c>
       <c r="J57" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K57" s="3">
         <v>31300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3700</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29500</v>
+        <v>12800</v>
       </c>
       <c r="E58" s="3">
-        <v>18800</v>
+        <v>28400</v>
       </c>
       <c r="F58" s="3">
-        <v>5300</v>
+        <v>18100</v>
       </c>
       <c r="G58" s="3">
-        <v>41200</v>
+        <v>5100</v>
       </c>
       <c r="H58" s="3">
-        <v>109400</v>
+        <v>39700</v>
       </c>
       <c r="I58" s="3">
-        <v>17900</v>
-      </c>
-      <c r="J58" s="3" t="s">
+        <v>105600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3500</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>226100</v>
+        <v>200700</v>
       </c>
       <c r="E59" s="3">
-        <v>390200</v>
+        <v>218200</v>
       </c>
       <c r="F59" s="3">
-        <v>142100</v>
+        <v>376500</v>
       </c>
       <c r="G59" s="3">
-        <v>138600</v>
+        <v>137100</v>
       </c>
       <c r="H59" s="3">
-        <v>88800</v>
+        <v>133700</v>
       </c>
       <c r="I59" s="3">
-        <v>82200</v>
+        <v>85700</v>
       </c>
       <c r="J59" s="3">
+        <v>79300</v>
+      </c>
+      <c r="K59" s="3">
         <v>67800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14700</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>331300</v>
+        <v>286400</v>
       </c>
       <c r="E60" s="3">
-        <v>451100</v>
+        <v>319700</v>
       </c>
       <c r="F60" s="3">
-        <v>193000</v>
+        <v>435200</v>
       </c>
       <c r="G60" s="3">
-        <v>214800</v>
+        <v>186200</v>
       </c>
       <c r="H60" s="3">
-        <v>229400</v>
+        <v>207200</v>
       </c>
       <c r="I60" s="3">
-        <v>121200</v>
+        <v>221300</v>
       </c>
       <c r="J60" s="3">
+        <v>116900</v>
+      </c>
+      <c r="K60" s="3">
         <v>99100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21900</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>186600</v>
+        <v>197200</v>
       </c>
       <c r="E61" s="3">
-        <v>450200</v>
+        <v>180100</v>
       </c>
       <c r="F61" s="3">
-        <v>347600</v>
+        <v>434300</v>
       </c>
       <c r="G61" s="3">
-        <v>293800</v>
+        <v>335400</v>
       </c>
       <c r="H61" s="3">
+        <v>283500</v>
+      </c>
+      <c r="I61" s="3">
+        <v>17200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>117400</v>
+      </c>
+      <c r="K61" s="3">
+        <v>202800</v>
+      </c>
+      <c r="L61" s="3">
         <v>17800</v>
       </c>
-      <c r="I61" s="3">
-        <v>121700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>202800</v>
-      </c>
-      <c r="K61" s="3">
-        <v>17800</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12800</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>531500</v>
+        <v>477300</v>
       </c>
       <c r="E62" s="3">
-        <v>370700</v>
+        <v>512800</v>
       </c>
       <c r="F62" s="3">
-        <v>302000</v>
+        <v>357700</v>
       </c>
       <c r="G62" s="3">
-        <v>335200</v>
+        <v>291400</v>
       </c>
       <c r="H62" s="3">
-        <v>325100</v>
+        <v>323400</v>
       </c>
       <c r="I62" s="3">
-        <v>285300</v>
+        <v>313700</v>
       </c>
       <c r="J62" s="3">
+        <v>275200</v>
+      </c>
+      <c r="K62" s="3">
         <v>258000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>31800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>31200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>43200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>66600</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1052800</v>
+        <v>965400</v>
       </c>
       <c r="E66" s="3">
-        <v>1272200</v>
+        <v>1015700</v>
       </c>
       <c r="F66" s="3">
-        <v>842700</v>
+        <v>1227400</v>
       </c>
       <c r="G66" s="3">
-        <v>843800</v>
+        <v>813000</v>
       </c>
       <c r="H66" s="3">
-        <v>572400</v>
+        <v>814100</v>
       </c>
       <c r="I66" s="3">
-        <v>528100</v>
+        <v>552200</v>
       </c>
       <c r="J66" s="3">
+        <v>509600</v>
+      </c>
+      <c r="K66" s="3">
         <v>559900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>61000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>58800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>76100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>101300</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-330900</v>
+        <v>-395400</v>
       </c>
       <c r="E72" s="3">
-        <v>-603400</v>
+        <v>-319300</v>
       </c>
       <c r="F72" s="3">
-        <v>-562400</v>
+        <v>-582100</v>
       </c>
       <c r="G72" s="3">
-        <v>-420600</v>
+        <v>-542600</v>
       </c>
       <c r="H72" s="3">
-        <v>-167400</v>
+        <v>-405800</v>
       </c>
       <c r="I72" s="3">
-        <v>-184900</v>
+        <v>-161500</v>
       </c>
       <c r="J72" s="3">
+        <v>-178400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-260800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>29500</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1859300</v>
+        <v>1729300</v>
       </c>
       <c r="E76" s="3">
-        <v>1394500</v>
+        <v>1793900</v>
       </c>
       <c r="F76" s="3">
-        <v>1349400</v>
+        <v>1345500</v>
       </c>
       <c r="G76" s="3">
-        <v>1514500</v>
+        <v>1301900</v>
       </c>
       <c r="H76" s="3">
-        <v>1747800</v>
+        <v>1461200</v>
       </c>
       <c r="I76" s="3">
-        <v>1681400</v>
+        <v>1686300</v>
       </c>
       <c r="J76" s="3">
+        <v>1622300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1596400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>192400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>191900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>284600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>315100</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41820</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41455</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41090</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40724</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>303500</v>
+        <v>-60600</v>
       </c>
       <c r="E81" s="3">
-        <v>-52400</v>
+        <v>292900</v>
       </c>
       <c r="F81" s="3">
-        <v>-155600</v>
+        <v>-50500</v>
       </c>
       <c r="G81" s="3">
-        <v>-266900</v>
+        <v>-150100</v>
       </c>
       <c r="H81" s="3">
-        <v>21600</v>
+        <v>-257500</v>
       </c>
       <c r="I81" s="3">
-        <v>56600</v>
+        <v>20800</v>
       </c>
       <c r="J81" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-270700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6100</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>231300</v>
+        <v>212000</v>
       </c>
       <c r="E83" s="3">
-        <v>209300</v>
+        <v>223200</v>
       </c>
       <c r="F83" s="3">
-        <v>241900</v>
+        <v>202000</v>
       </c>
       <c r="G83" s="3">
-        <v>153400</v>
+        <v>233400</v>
       </c>
       <c r="H83" s="3">
-        <v>150300</v>
+        <v>148000</v>
       </c>
       <c r="I83" s="3">
-        <v>129500</v>
+        <v>145000</v>
       </c>
       <c r="J83" s="3">
+        <v>124900</v>
+      </c>
+      <c r="K83" s="3">
         <v>147500</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17500</v>
       </c>
-      <c r="N83" s="3" t="s">
+      <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>547700</v>
+        <v>398600</v>
       </c>
       <c r="E89" s="3">
-        <v>281800</v>
+        <v>528400</v>
       </c>
       <c r="F89" s="3">
-        <v>279200</v>
+        <v>271900</v>
       </c>
       <c r="G89" s="3">
-        <v>231800</v>
+        <v>269400</v>
       </c>
       <c r="H89" s="3">
-        <v>227000</v>
+        <v>223600</v>
       </c>
       <c r="I89" s="3">
-        <v>269300</v>
+        <v>219000</v>
       </c>
       <c r="J89" s="3">
+        <v>259800</v>
+      </c>
+      <c r="K89" s="3">
         <v>119700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>19400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>37400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24100</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-306800</v>
+        <v>-357700</v>
       </c>
       <c r="E91" s="3">
-        <v>-214900</v>
+        <v>-296000</v>
       </c>
       <c r="F91" s="3">
-        <v>-300400</v>
+        <v>-207400</v>
       </c>
       <c r="G91" s="3">
-        <v>-272200</v>
+        <v>-289900</v>
       </c>
       <c r="H91" s="3">
-        <v>-232100</v>
+        <v>-262600</v>
       </c>
       <c r="I91" s="3">
-        <v>-145400</v>
+        <v>-223900</v>
       </c>
       <c r="J91" s="3">
+        <v>-140300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-168400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-28200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31900</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-505000</v>
+        <v>-356900</v>
       </c>
       <c r="E94" s="3">
-        <v>-212300</v>
+        <v>-487300</v>
       </c>
       <c r="F94" s="3">
-        <v>-286200</v>
+        <v>-204800</v>
       </c>
       <c r="G94" s="3">
-        <v>-481800</v>
+        <v>-276200</v>
       </c>
       <c r="H94" s="3">
-        <v>-201900</v>
+        <v>-464900</v>
       </c>
       <c r="I94" s="3">
-        <v>-155100</v>
+        <v>-194800</v>
       </c>
       <c r="J94" s="3">
+        <v>-149600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-173500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25400</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,28 +3990,29 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-40800</v>
+        <v>-24800</v>
       </c>
       <c r="E96" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-200</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
-        <v>-9200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-26200</v>
+        <v>-8900</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-25300</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3788,17 +4021,20 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-3000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2100</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-256500</v>
+        <v>-66300</v>
       </c>
       <c r="E100" s="3">
-        <v>256900</v>
+        <v>-247500</v>
       </c>
       <c r="F100" s="3">
-        <v>22700</v>
+        <v>247800</v>
       </c>
       <c r="G100" s="3">
-        <v>222200</v>
+        <v>21900</v>
       </c>
       <c r="H100" s="3">
-        <v>-26900</v>
+        <v>214300</v>
       </c>
       <c r="I100" s="3">
-        <v>-104100</v>
+        <v>-25900</v>
       </c>
       <c r="J100" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="K100" s="3">
         <v>8800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1700</v>
       </c>
-      <c r="N100" s="3" t="s">
+      <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="E101" s="3">
-        <v>-6300</v>
+        <v>2600</v>
       </c>
       <c r="F101" s="3">
-        <v>1500</v>
+        <v>-6100</v>
       </c>
       <c r="G101" s="3">
-        <v>-4300</v>
+        <v>1400</v>
       </c>
       <c r="H101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2400</v>
       </c>
-      <c r="N101" s="3" t="s">
+      <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-211100</v>
+        <v>-21400</v>
       </c>
       <c r="E102" s="3">
-        <v>320100</v>
+        <v>-203700</v>
       </c>
       <c r="F102" s="3">
-        <v>17100</v>
+        <v>308800</v>
       </c>
       <c r="G102" s="3">
-        <v>-32200</v>
+        <v>16500</v>
       </c>
       <c r="H102" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
-        <v>11300</v>
-      </c>
       <c r="J102" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-45500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2455100</v>
+        <v>2297300</v>
       </c>
       <c r="E8" s="3">
-        <v>2402600</v>
+        <v>2248200</v>
       </c>
       <c r="F8" s="3">
-        <v>1683600</v>
+        <v>1575400</v>
       </c>
       <c r="G8" s="3">
-        <v>1549300</v>
+        <v>1449700</v>
       </c>
       <c r="H8" s="3">
-        <v>1177400</v>
+        <v>1101700</v>
       </c>
       <c r="I8" s="3">
-        <v>1109000</v>
+        <v>1037800</v>
       </c>
       <c r="J8" s="3">
-        <v>1055500</v>
+        <v>987700</v>
       </c>
       <c r="K8" s="3">
         <v>921000</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2156700</v>
+        <v>2018100</v>
       </c>
       <c r="E9" s="3">
-        <v>1959300</v>
+        <v>1833400</v>
       </c>
       <c r="F9" s="3">
-        <v>1489200</v>
+        <v>1393500</v>
       </c>
       <c r="G9" s="3">
-        <v>1423600</v>
+        <v>1332200</v>
       </c>
       <c r="H9" s="3">
-        <v>1039300</v>
+        <v>972500</v>
       </c>
       <c r="I9" s="3">
-        <v>1027500</v>
+        <v>961400</v>
       </c>
       <c r="J9" s="3">
-        <v>910400</v>
+        <v>851800</v>
       </c>
       <c r="K9" s="3">
         <v>914800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>298300</v>
+        <v>279200</v>
       </c>
       <c r="E10" s="3">
-        <v>443300</v>
+        <v>414800</v>
       </c>
       <c r="F10" s="3">
-        <v>194400</v>
+        <v>181900</v>
       </c>
       <c r="G10" s="3">
-        <v>125700</v>
+        <v>117600</v>
       </c>
       <c r="H10" s="3">
-        <v>138200</v>
+        <v>129300</v>
       </c>
       <c r="I10" s="3">
-        <v>81600</v>
+        <v>76300</v>
       </c>
       <c r="J10" s="3">
-        <v>145100</v>
+        <v>135800</v>
       </c>
       <c r="K10" s="3">
         <v>6200</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>12300</v>
+        <v>11500</v>
       </c>
       <c r="E12" s="3">
-        <v>10200</v>
+        <v>9500</v>
       </c>
       <c r="F12" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="G12" s="3">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="H12" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="I12" s="3">
-        <v>13900</v>
+        <v>13000</v>
       </c>
       <c r="J12" s="3">
-        <v>11000</v>
+        <v>10300</v>
       </c>
       <c r="K12" s="3">
         <v>15700</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>258300</v>
+        <v>241700</v>
       </c>
       <c r="E14" s="3">
-        <v>78100</v>
+        <v>73100</v>
       </c>
       <c r="F14" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="G14" s="3">
-        <v>234800</v>
+        <v>219700</v>
       </c>
       <c r="H14" s="3">
-        <v>318400</v>
+        <v>298000</v>
       </c>
       <c r="I14" s="3">
-        <v>107900</v>
+        <v>101000</v>
       </c>
       <c r="J14" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K14" s="3">
         <v>222100</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2498500</v>
+        <v>2338000</v>
       </c>
       <c r="E17" s="3">
-        <v>2020900</v>
+        <v>1891100</v>
       </c>
       <c r="F17" s="3">
-        <v>1706800</v>
+        <v>1597100</v>
       </c>
       <c r="G17" s="3">
-        <v>1695400</v>
+        <v>1586500</v>
       </c>
       <c r="H17" s="3">
-        <v>1451300</v>
+        <v>1358100</v>
       </c>
       <c r="I17" s="3">
-        <v>1118200</v>
+        <v>1046400</v>
       </c>
       <c r="J17" s="3">
-        <v>963800</v>
+        <v>901900</v>
       </c>
       <c r="K17" s="3">
         <v>1230900</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-43500</v>
+        <v>-40700</v>
       </c>
       <c r="E18" s="3">
-        <v>381600</v>
+        <v>357100</v>
       </c>
       <c r="F18" s="3">
-        <v>-23200</v>
+        <v>-21700</v>
       </c>
       <c r="G18" s="3">
-        <v>-146100</v>
+        <v>-136700</v>
       </c>
       <c r="H18" s="3">
-        <v>-273900</v>
+        <v>-256300</v>
       </c>
       <c r="I18" s="3">
-        <v>-9200</v>
+        <v>-8600</v>
       </c>
       <c r="J18" s="3">
-        <v>91700</v>
+        <v>85800</v>
       </c>
       <c r="K18" s="3">
         <v>-309900</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-7500</v>
+        <v>-7000</v>
       </c>
       <c r="E20" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="F20" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="G20" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="H20" s="3">
-        <v>21900</v>
+        <v>20500</v>
       </c>
       <c r="I20" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J20" s="3">
         <v>14200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>15100</v>
       </c>
       <c r="K20" s="3">
         <v>12900</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>156600</v>
+        <v>150300</v>
       </c>
       <c r="E21" s="3">
-        <v>597700</v>
+        <v>563300</v>
       </c>
       <c r="F21" s="3">
-        <v>184700</v>
+        <v>176400</v>
       </c>
       <c r="G21" s="3">
-        <v>85800</v>
+        <v>84500</v>
       </c>
       <c r="H21" s="3">
-        <v>-107200</v>
+        <v>-97700</v>
       </c>
       <c r="I21" s="3">
-        <v>146900</v>
+        <v>140000</v>
       </c>
       <c r="J21" s="3">
-        <v>229100</v>
+        <v>216600</v>
       </c>
       <c r="K21" s="3">
         <v>-150900</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10000</v>
+        <v>9300</v>
       </c>
       <c r="E22" s="3">
-        <v>11900</v>
+        <v>11100</v>
       </c>
       <c r="F22" s="3">
-        <v>21300</v>
+        <v>19900</v>
       </c>
       <c r="G22" s="3">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="H22" s="3">
-        <v>19000</v>
+        <v>17800</v>
       </c>
       <c r="I22" s="3">
-        <v>13500</v>
+        <v>12600</v>
       </c>
       <c r="J22" s="3">
-        <v>15800</v>
+        <v>14800</v>
       </c>
       <c r="K22" s="3">
         <v>15800</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-60900</v>
+        <v>-57000</v>
       </c>
       <c r="E23" s="3">
-        <v>367400</v>
+        <v>343800</v>
       </c>
       <c r="F23" s="3">
-        <v>-34300</v>
+        <v>-32100</v>
       </c>
       <c r="G23" s="3">
-        <v>-158100</v>
+        <v>-147900</v>
       </c>
       <c r="H23" s="3">
-        <v>-271000</v>
+        <v>-253600</v>
       </c>
       <c r="I23" s="3">
-        <v>-8500</v>
+        <v>-8000</v>
       </c>
       <c r="J23" s="3">
-        <v>91000</v>
+        <v>85200</v>
       </c>
       <c r="K23" s="3">
         <v>-312700</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="E24" s="3">
-        <v>72400</v>
+        <v>67800</v>
       </c>
       <c r="F24" s="3">
-        <v>14700</v>
+        <v>13700</v>
       </c>
       <c r="G24" s="3">
-        <v>-8000</v>
+        <v>-7500</v>
       </c>
       <c r="H24" s="3">
-        <v>-13500</v>
+        <v>-12600</v>
       </c>
       <c r="I24" s="3">
-        <v>-29400</v>
+        <v>-27500</v>
       </c>
       <c r="J24" s="3">
-        <v>36400</v>
+        <v>34000</v>
       </c>
       <c r="K24" s="3">
         <v>-42000</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-58300</v>
+        <v>-54500</v>
       </c>
       <c r="E26" s="3">
-        <v>295000</v>
+        <v>276000</v>
       </c>
       <c r="F26" s="3">
-        <v>-48900</v>
+        <v>-45800</v>
       </c>
       <c r="G26" s="3">
-        <v>-150100</v>
+        <v>-140400</v>
       </c>
       <c r="H26" s="3">
-        <v>-257500</v>
+        <v>-241000</v>
       </c>
       <c r="I26" s="3">
-        <v>20800</v>
+        <v>19500</v>
       </c>
       <c r="J26" s="3">
-        <v>54600</v>
+        <v>51100</v>
       </c>
       <c r="K26" s="3">
         <v>-270700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-60600</v>
+        <v>-56700</v>
       </c>
       <c r="E27" s="3">
-        <v>292900</v>
+        <v>274000</v>
       </c>
       <c r="F27" s="3">
-        <v>-50500</v>
+        <v>-47300</v>
       </c>
       <c r="G27" s="3">
-        <v>-150100</v>
+        <v>-140400</v>
       </c>
       <c r="H27" s="3">
-        <v>-257500</v>
+        <v>-241000</v>
       </c>
       <c r="I27" s="3">
-        <v>20800</v>
+        <v>19500</v>
       </c>
       <c r="J27" s="3">
-        <v>54600</v>
+        <v>51100</v>
       </c>
       <c r="K27" s="3">
         <v>-270700</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="E32" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="F32" s="3">
-        <v>-10200</v>
+        <v>-9600</v>
       </c>
       <c r="G32" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="H32" s="3">
-        <v>-21900</v>
+        <v>-20500</v>
       </c>
       <c r="I32" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-14200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-15100</v>
       </c>
       <c r="K32" s="3">
         <v>-12900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-60600</v>
+        <v>-56700</v>
       </c>
       <c r="E33" s="3">
-        <v>292900</v>
+        <v>274000</v>
       </c>
       <c r="F33" s="3">
-        <v>-50500</v>
+        <v>-47300</v>
       </c>
       <c r="G33" s="3">
-        <v>-150100</v>
+        <v>-140400</v>
       </c>
       <c r="H33" s="3">
-        <v>-257500</v>
+        <v>-241000</v>
       </c>
       <c r="I33" s="3">
-        <v>20800</v>
+        <v>19500</v>
       </c>
       <c r="J33" s="3">
-        <v>54600</v>
+        <v>51100</v>
       </c>
       <c r="K33" s="3">
         <v>-270700</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-60600</v>
+        <v>-56700</v>
       </c>
       <c r="E35" s="3">
-        <v>292900</v>
+        <v>274000</v>
       </c>
       <c r="F35" s="3">
-        <v>-50500</v>
+        <v>-47300</v>
       </c>
       <c r="G35" s="3">
-        <v>-150100</v>
+        <v>-140400</v>
       </c>
       <c r="H35" s="3">
-        <v>-257500</v>
+        <v>-241000</v>
       </c>
       <c r="I35" s="3">
-        <v>20800</v>
+        <v>19500</v>
       </c>
       <c r="J35" s="3">
-        <v>54600</v>
+        <v>51100</v>
       </c>
       <c r="K35" s="3">
         <v>-270700</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>140900</v>
+        <v>131900</v>
       </c>
       <c r="E41" s="3">
-        <v>162300</v>
+        <v>151900</v>
       </c>
       <c r="F41" s="3">
-        <v>366000</v>
+        <v>342500</v>
       </c>
       <c r="G41" s="3">
-        <v>57200</v>
+        <v>53500</v>
       </c>
       <c r="H41" s="3">
-        <v>40600</v>
+        <v>38000</v>
       </c>
       <c r="I41" s="3">
-        <v>71700</v>
+        <v>67100</v>
       </c>
       <c r="J41" s="3">
-        <v>72300</v>
+        <v>67700</v>
       </c>
       <c r="K41" s="3">
         <v>63700</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>87600</v>
+        <v>82000</v>
       </c>
       <c r="E43" s="3">
-        <v>87600</v>
+        <v>81900</v>
       </c>
       <c r="F43" s="3">
-        <v>70800</v>
+        <v>66200</v>
       </c>
       <c r="G43" s="3">
-        <v>57400</v>
+        <v>53700</v>
       </c>
       <c r="H43" s="3">
-        <v>61200</v>
+        <v>57300</v>
       </c>
       <c r="I43" s="3">
-        <v>53500</v>
+        <v>50100</v>
       </c>
       <c r="J43" s="3">
-        <v>36000</v>
+        <v>33700</v>
       </c>
       <c r="K43" s="3">
         <v>43100</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>162200</v>
+        <v>151800</v>
       </c>
       <c r="E44" s="3">
-        <v>146300</v>
+        <v>136900</v>
       </c>
       <c r="F44" s="3">
-        <v>139400</v>
+        <v>130400</v>
       </c>
       <c r="G44" s="3">
-        <v>113200</v>
+        <v>106000</v>
       </c>
       <c r="H44" s="3">
-        <v>101300</v>
+        <v>94800</v>
       </c>
       <c r="I44" s="3">
-        <v>64900</v>
+        <v>60700</v>
       </c>
       <c r="J44" s="3">
-        <v>67200</v>
+        <v>62900</v>
       </c>
       <c r="K44" s="3">
         <v>77100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>40600</v>
+        <v>38000</v>
       </c>
       <c r="E45" s="3">
-        <v>96100</v>
+        <v>89900</v>
       </c>
       <c r="F45" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="G45" s="3">
-        <v>24200</v>
+        <v>22600</v>
       </c>
       <c r="H45" s="3">
-        <v>37600</v>
+        <v>35200</v>
       </c>
       <c r="I45" s="3">
-        <v>94000</v>
+        <v>87900</v>
       </c>
       <c r="J45" s="3">
-        <v>24200</v>
+        <v>22700</v>
       </c>
       <c r="K45" s="3">
         <v>4200</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>431400</v>
+        <v>403700</v>
       </c>
       <c r="E46" s="3">
-        <v>492300</v>
+        <v>460600</v>
       </c>
       <c r="F46" s="3">
-        <v>585300</v>
+        <v>547600</v>
       </c>
       <c r="G46" s="3">
-        <v>252000</v>
+        <v>235800</v>
       </c>
       <c r="H46" s="3">
-        <v>240700</v>
+        <v>225200</v>
       </c>
       <c r="I46" s="3">
-        <v>284100</v>
+        <v>265800</v>
       </c>
       <c r="J46" s="3">
-        <v>199700</v>
+        <v>186900</v>
       </c>
       <c r="K46" s="3">
         <v>188000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28700</v>
+        <v>26900</v>
       </c>
       <c r="E47" s="3">
-        <v>26400</v>
+        <v>24700</v>
       </c>
       <c r="F47" s="3">
-        <v>30700</v>
+        <v>28800</v>
       </c>
       <c r="G47" s="3">
-        <v>25600</v>
+        <v>23900</v>
       </c>
       <c r="H47" s="3">
-        <v>20000</v>
+        <v>18700</v>
       </c>
       <c r="I47" s="3">
-        <v>13500</v>
+        <v>12700</v>
       </c>
       <c r="J47" s="3">
-        <v>10200</v>
+        <v>9500</v>
       </c>
       <c r="K47" s="3">
         <v>5100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1892400</v>
+        <v>1770800</v>
       </c>
       <c r="E48" s="3">
-        <v>1934200</v>
+        <v>1809900</v>
       </c>
       <c r="F48" s="3">
-        <v>1680200</v>
+        <v>1572200</v>
       </c>
       <c r="G48" s="3">
-        <v>1597500</v>
+        <v>1494800</v>
       </c>
       <c r="H48" s="3">
-        <v>1784700</v>
+        <v>1670000</v>
       </c>
       <c r="I48" s="3">
-        <v>1729600</v>
+        <v>1618500</v>
       </c>
       <c r="J48" s="3">
-        <v>1722400</v>
+        <v>1611700</v>
       </c>
       <c r="K48" s="3">
         <v>1763100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="E49" s="3">
-        <v>21000</v>
+        <v>19700</v>
       </c>
       <c r="F49" s="3">
-        <v>30900</v>
+        <v>28900</v>
       </c>
       <c r="G49" s="3">
-        <v>30700</v>
+        <v>28700</v>
       </c>
       <c r="H49" s="3">
-        <v>29600</v>
+        <v>27700</v>
       </c>
       <c r="I49" s="3">
-        <v>34700</v>
+        <v>32500</v>
       </c>
       <c r="J49" s="3">
-        <v>50100</v>
+        <v>46900</v>
       </c>
       <c r="K49" s="3">
         <v>52800</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>339400</v>
+        <v>317600</v>
       </c>
       <c r="E52" s="3">
-        <v>335700</v>
+        <v>314200</v>
       </c>
       <c r="F52" s="3">
-        <v>245800</v>
+        <v>230000</v>
       </c>
       <c r="G52" s="3">
-        <v>209200</v>
+        <v>195700</v>
       </c>
       <c r="H52" s="3">
-        <v>200200</v>
+        <v>187400</v>
       </c>
       <c r="I52" s="3">
-        <v>176500</v>
+        <v>165200</v>
       </c>
       <c r="J52" s="3">
-        <v>149400</v>
+        <v>139800</v>
       </c>
       <c r="K52" s="3">
         <v>147300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2694700</v>
+        <v>2521500</v>
       </c>
       <c r="E54" s="3">
-        <v>2809600</v>
+        <v>2629000</v>
       </c>
       <c r="F54" s="3">
-        <v>2572900</v>
+        <v>2407600</v>
       </c>
       <c r="G54" s="3">
-        <v>2114900</v>
+        <v>1979000</v>
       </c>
       <c r="H54" s="3">
-        <v>2275300</v>
+        <v>2129100</v>
       </c>
       <c r="I54" s="3">
-        <v>2238500</v>
+        <v>2094600</v>
       </c>
       <c r="J54" s="3">
-        <v>2131800</v>
+        <v>1994800</v>
       </c>
       <c r="K54" s="3">
         <v>2156300</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>72900</v>
+        <v>68200</v>
       </c>
       <c r="E57" s="3">
-        <v>73100</v>
+        <v>68400</v>
       </c>
       <c r="F57" s="3">
-        <v>40600</v>
+        <v>38000</v>
       </c>
       <c r="G57" s="3">
-        <v>43900</v>
+        <v>41100</v>
       </c>
       <c r="H57" s="3">
-        <v>33800</v>
+        <v>31600</v>
       </c>
       <c r="I57" s="3">
-        <v>30000</v>
+        <v>28100</v>
       </c>
       <c r="J57" s="3">
-        <v>20300</v>
+        <v>19000</v>
       </c>
       <c r="K57" s="3">
         <v>31300</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="E58" s="3">
-        <v>28400</v>
+        <v>26600</v>
       </c>
       <c r="F58" s="3">
-        <v>18100</v>
+        <v>17000</v>
       </c>
       <c r="G58" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="H58" s="3">
-        <v>39700</v>
+        <v>37200</v>
       </c>
       <c r="I58" s="3">
-        <v>105600</v>
+        <v>98800</v>
       </c>
       <c r="J58" s="3">
-        <v>17300</v>
+        <v>16200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>16</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200700</v>
+        <v>187800</v>
       </c>
       <c r="E59" s="3">
-        <v>218200</v>
+        <v>204200</v>
       </c>
       <c r="F59" s="3">
-        <v>376500</v>
+        <v>352300</v>
       </c>
       <c r="G59" s="3">
-        <v>137100</v>
+        <v>128300</v>
       </c>
       <c r="H59" s="3">
-        <v>133700</v>
+        <v>125100</v>
       </c>
       <c r="I59" s="3">
-        <v>85700</v>
+        <v>80200</v>
       </c>
       <c r="J59" s="3">
-        <v>79300</v>
+        <v>74200</v>
       </c>
       <c r="K59" s="3">
         <v>67800</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>286400</v>
+        <v>268000</v>
       </c>
       <c r="E60" s="3">
-        <v>319700</v>
+        <v>299100</v>
       </c>
       <c r="F60" s="3">
-        <v>435200</v>
+        <v>407300</v>
       </c>
       <c r="G60" s="3">
-        <v>186200</v>
+        <v>174200</v>
       </c>
       <c r="H60" s="3">
-        <v>207200</v>
+        <v>193900</v>
       </c>
       <c r="I60" s="3">
-        <v>221300</v>
+        <v>207100</v>
       </c>
       <c r="J60" s="3">
-        <v>116900</v>
+        <v>109400</v>
       </c>
       <c r="K60" s="3">
         <v>99100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>197200</v>
+        <v>184500</v>
       </c>
       <c r="E61" s="3">
-        <v>180100</v>
+        <v>168500</v>
       </c>
       <c r="F61" s="3">
-        <v>434300</v>
+        <v>406400</v>
       </c>
       <c r="G61" s="3">
-        <v>335400</v>
+        <v>313800</v>
       </c>
       <c r="H61" s="3">
-        <v>283500</v>
+        <v>265300</v>
       </c>
       <c r="I61" s="3">
-        <v>17200</v>
+        <v>16100</v>
       </c>
       <c r="J61" s="3">
-        <v>117400</v>
+        <v>109800</v>
       </c>
       <c r="K61" s="3">
         <v>202800</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>477300</v>
+        <v>446600</v>
       </c>
       <c r="E62" s="3">
-        <v>512800</v>
+        <v>479900</v>
       </c>
       <c r="F62" s="3">
-        <v>357700</v>
+        <v>334700</v>
       </c>
       <c r="G62" s="3">
-        <v>291400</v>
+        <v>272700</v>
       </c>
       <c r="H62" s="3">
-        <v>323400</v>
+        <v>302600</v>
       </c>
       <c r="I62" s="3">
-        <v>313700</v>
+        <v>293500</v>
       </c>
       <c r="J62" s="3">
-        <v>275200</v>
+        <v>257600</v>
       </c>
       <c r="K62" s="3">
         <v>258000</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>965400</v>
+        <v>903300</v>
       </c>
       <c r="E66" s="3">
-        <v>1015700</v>
+        <v>950400</v>
       </c>
       <c r="F66" s="3">
-        <v>1227400</v>
+        <v>1148600</v>
       </c>
       <c r="G66" s="3">
-        <v>813000</v>
+        <v>760800</v>
       </c>
       <c r="H66" s="3">
-        <v>814100</v>
+        <v>761800</v>
       </c>
       <c r="I66" s="3">
-        <v>552200</v>
+        <v>516700</v>
       </c>
       <c r="J66" s="3">
-        <v>509600</v>
+        <v>476800</v>
       </c>
       <c r="K66" s="3">
         <v>559900</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-395400</v>
+        <v>-370000</v>
       </c>
       <c r="E72" s="3">
-        <v>-319300</v>
+        <v>-298800</v>
       </c>
       <c r="F72" s="3">
-        <v>-582100</v>
+        <v>-544700</v>
       </c>
       <c r="G72" s="3">
-        <v>-542600</v>
+        <v>-507700</v>
       </c>
       <c r="H72" s="3">
-        <v>-405800</v>
+        <v>-379700</v>
       </c>
       <c r="I72" s="3">
-        <v>-161500</v>
+        <v>-151100</v>
       </c>
       <c r="J72" s="3">
-        <v>-178400</v>
+        <v>-166900</v>
       </c>
       <c r="K72" s="3">
         <v>-260800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1729300</v>
+        <v>1618200</v>
       </c>
       <c r="E76" s="3">
-        <v>1793900</v>
+        <v>1678600</v>
       </c>
       <c r="F76" s="3">
-        <v>1345500</v>
+        <v>1259000</v>
       </c>
       <c r="G76" s="3">
-        <v>1301900</v>
+        <v>1218200</v>
       </c>
       <c r="H76" s="3">
-        <v>1461200</v>
+        <v>1367300</v>
       </c>
       <c r="I76" s="3">
-        <v>1686300</v>
+        <v>1577900</v>
       </c>
       <c r="J76" s="3">
-        <v>1622300</v>
+        <v>1518000</v>
       </c>
       <c r="K76" s="3">
         <v>1596400</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-60600</v>
+        <v>-56700</v>
       </c>
       <c r="E81" s="3">
-        <v>292900</v>
+        <v>274000</v>
       </c>
       <c r="F81" s="3">
-        <v>-50500</v>
+        <v>-47300</v>
       </c>
       <c r="G81" s="3">
-        <v>-150100</v>
+        <v>-140400</v>
       </c>
       <c r="H81" s="3">
-        <v>-257500</v>
+        <v>-241000</v>
       </c>
       <c r="I81" s="3">
-        <v>20800</v>
+        <v>19500</v>
       </c>
       <c r="J81" s="3">
-        <v>54600</v>
+        <v>51100</v>
       </c>
       <c r="K81" s="3">
         <v>-270700</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>212000</v>
+        <v>198400</v>
       </c>
       <c r="E83" s="3">
-        <v>223200</v>
+        <v>208900</v>
       </c>
       <c r="F83" s="3">
-        <v>202000</v>
+        <v>189000</v>
       </c>
       <c r="G83" s="3">
-        <v>233400</v>
+        <v>218400</v>
       </c>
       <c r="H83" s="3">
-        <v>148000</v>
+        <v>138400</v>
       </c>
       <c r="I83" s="3">
-        <v>145000</v>
+        <v>135700</v>
       </c>
       <c r="J83" s="3">
-        <v>124900</v>
+        <v>116900</v>
       </c>
       <c r="K83" s="3">
         <v>147500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>398600</v>
+        <v>373000</v>
       </c>
       <c r="E89" s="3">
-        <v>528400</v>
+        <v>494500</v>
       </c>
       <c r="F89" s="3">
-        <v>271900</v>
+        <v>254400</v>
       </c>
       <c r="G89" s="3">
-        <v>269400</v>
+        <v>252100</v>
       </c>
       <c r="H89" s="3">
-        <v>223600</v>
+        <v>209200</v>
       </c>
       <c r="I89" s="3">
-        <v>219000</v>
+        <v>204900</v>
       </c>
       <c r="J89" s="3">
-        <v>259800</v>
+        <v>243100</v>
       </c>
       <c r="K89" s="3">
         <v>119700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-357700</v>
+        <v>-334700</v>
       </c>
       <c r="E91" s="3">
-        <v>-296000</v>
+        <v>-277000</v>
       </c>
       <c r="F91" s="3">
-        <v>-207400</v>
+        <v>-194000</v>
       </c>
       <c r="G91" s="3">
-        <v>-289900</v>
+        <v>-271200</v>
       </c>
       <c r="H91" s="3">
-        <v>-262600</v>
+        <v>-245800</v>
       </c>
       <c r="I91" s="3">
-        <v>-223900</v>
+        <v>-209600</v>
       </c>
       <c r="J91" s="3">
-        <v>-140300</v>
+        <v>-131300</v>
       </c>
       <c r="K91" s="3">
         <v>-168400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-356900</v>
+        <v>-334000</v>
       </c>
       <c r="E94" s="3">
-        <v>-487300</v>
+        <v>-456000</v>
       </c>
       <c r="F94" s="3">
-        <v>-204800</v>
+        <v>-191700</v>
       </c>
       <c r="G94" s="3">
-        <v>-276200</v>
+        <v>-258400</v>
       </c>
       <c r="H94" s="3">
-        <v>-464900</v>
+        <v>-435000</v>
       </c>
       <c r="I94" s="3">
-        <v>-194800</v>
+        <v>-182200</v>
       </c>
       <c r="J94" s="3">
-        <v>-149600</v>
+        <v>-140000</v>
       </c>
       <c r="K94" s="3">
         <v>-173500</v>
@@ -3997,10 +3997,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-24800</v>
+        <v>-23200</v>
       </c>
       <c r="E96" s="3">
-        <v>-39400</v>
+        <v>-36800</v>
       </c>
       <c r="F96" s="3">
         <v>-200</v>
@@ -4009,10 +4009,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-8900</v>
+        <v>-8300</v>
       </c>
       <c r="I96" s="3">
-        <v>-25300</v>
+        <v>-23600</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-66300</v>
+        <v>-62000</v>
       </c>
       <c r="E100" s="3">
-        <v>-247500</v>
+        <v>-231600</v>
       </c>
       <c r="F100" s="3">
-        <v>247800</v>
+        <v>231900</v>
       </c>
       <c r="G100" s="3">
-        <v>21900</v>
+        <v>20500</v>
       </c>
       <c r="H100" s="3">
-        <v>214300</v>
+        <v>200600</v>
       </c>
       <c r="I100" s="3">
-        <v>-25900</v>
+        <v>-24200</v>
       </c>
       <c r="J100" s="3">
-        <v>-100500</v>
+        <v>-94000</v>
       </c>
       <c r="K100" s="3">
         <v>8800</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="E101" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F101" s="3">
-        <v>-6100</v>
+        <v>-5700</v>
       </c>
       <c r="G101" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H101" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="I101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J101" s="3">
         <v>1100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>1200</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-21400</v>
+        <v>-20000</v>
       </c>
       <c r="E102" s="3">
-        <v>-203700</v>
+        <v>-190600</v>
       </c>
       <c r="F102" s="3">
-        <v>308800</v>
+        <v>289000</v>
       </c>
       <c r="G102" s="3">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="H102" s="3">
-        <v>-31100</v>
+        <v>-29100</v>
       </c>
       <c r="I102" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="J102" s="3">
-        <v>10900</v>
+        <v>10200</v>
       </c>
       <c r="K102" s="3">
         <v>-45500</v>

--- a/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2297300</v>
+        <v>2205600</v>
       </c>
       <c r="E8" s="3">
-        <v>2248200</v>
+        <v>2158400</v>
       </c>
       <c r="F8" s="3">
-        <v>1575400</v>
+        <v>1512600</v>
       </c>
       <c r="G8" s="3">
-        <v>1449700</v>
+        <v>1391900</v>
       </c>
       <c r="H8" s="3">
-        <v>1101700</v>
+        <v>1057800</v>
       </c>
       <c r="I8" s="3">
-        <v>1037800</v>
+        <v>996300</v>
       </c>
       <c r="J8" s="3">
-        <v>987700</v>
+        <v>948200</v>
       </c>
       <c r="K8" s="3">
         <v>921000</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2018100</v>
+        <v>1937600</v>
       </c>
       <c r="E9" s="3">
-        <v>1833400</v>
+        <v>1760200</v>
       </c>
       <c r="F9" s="3">
-        <v>1393500</v>
+        <v>1337900</v>
       </c>
       <c r="G9" s="3">
-        <v>1332200</v>
+        <v>1279000</v>
       </c>
       <c r="H9" s="3">
-        <v>972500</v>
+        <v>933600</v>
       </c>
       <c r="I9" s="3">
-        <v>961400</v>
+        <v>923000</v>
       </c>
       <c r="J9" s="3">
-        <v>851800</v>
+        <v>817800</v>
       </c>
       <c r="K9" s="3">
         <v>914800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>279200</v>
+        <v>268000</v>
       </c>
       <c r="E10" s="3">
-        <v>414800</v>
+        <v>398200</v>
       </c>
       <c r="F10" s="3">
-        <v>181900</v>
+        <v>174700</v>
       </c>
       <c r="G10" s="3">
-        <v>117600</v>
+        <v>112900</v>
       </c>
       <c r="H10" s="3">
-        <v>129300</v>
+        <v>124100</v>
       </c>
       <c r="I10" s="3">
-        <v>76300</v>
+        <v>73300</v>
       </c>
       <c r="J10" s="3">
-        <v>135800</v>
+        <v>130400</v>
       </c>
       <c r="K10" s="3">
         <v>6200</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11500</v>
+        <v>11100</v>
       </c>
       <c r="E12" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="F12" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="G12" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="H12" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="I12" s="3">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="J12" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="K12" s="3">
         <v>15700</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>241700</v>
+        <v>232100</v>
       </c>
       <c r="E14" s="3">
-        <v>73100</v>
+        <v>70200</v>
       </c>
       <c r="F14" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="G14" s="3">
-        <v>219700</v>
+        <v>210900</v>
       </c>
       <c r="H14" s="3">
-        <v>298000</v>
+        <v>286100</v>
       </c>
       <c r="I14" s="3">
-        <v>101000</v>
+        <v>97000</v>
       </c>
       <c r="J14" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K14" s="3">
         <v>222100</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2338000</v>
+        <v>2244600</v>
       </c>
       <c r="E17" s="3">
-        <v>1891100</v>
+        <v>1815600</v>
       </c>
       <c r="F17" s="3">
-        <v>1597100</v>
+        <v>1533400</v>
       </c>
       <c r="G17" s="3">
-        <v>1586500</v>
+        <v>1523200</v>
       </c>
       <c r="H17" s="3">
-        <v>1358100</v>
+        <v>1303900</v>
       </c>
       <c r="I17" s="3">
-        <v>1046400</v>
+        <v>1004600</v>
       </c>
       <c r="J17" s="3">
-        <v>901900</v>
+        <v>865900</v>
       </c>
       <c r="K17" s="3">
         <v>1230900</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-40700</v>
+        <v>-39000</v>
       </c>
       <c r="E18" s="3">
-        <v>357100</v>
+        <v>342900</v>
       </c>
       <c r="F18" s="3">
-        <v>-21700</v>
+        <v>-20800</v>
       </c>
       <c r="G18" s="3">
-        <v>-136700</v>
+        <v>-131300</v>
       </c>
       <c r="H18" s="3">
-        <v>-256300</v>
+        <v>-246100</v>
       </c>
       <c r="I18" s="3">
-        <v>-8600</v>
+        <v>-8300</v>
       </c>
       <c r="J18" s="3">
-        <v>85800</v>
+        <v>82300</v>
       </c>
       <c r="K18" s="3">
         <v>-309900</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="E20" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="F20" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="G20" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H20" s="3">
-        <v>20500</v>
+        <v>19700</v>
       </c>
       <c r="I20" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="J20" s="3">
-        <v>14200</v>
+        <v>13600</v>
       </c>
       <c r="K20" s="3">
         <v>12900</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>150300</v>
+        <v>145600</v>
       </c>
       <c r="E21" s="3">
-        <v>563300</v>
+        <v>542200</v>
       </c>
       <c r="F21" s="3">
-        <v>176400</v>
+        <v>170700</v>
       </c>
       <c r="G21" s="3">
-        <v>84500</v>
+        <v>82600</v>
       </c>
       <c r="H21" s="3">
-        <v>-97700</v>
+        <v>-92800</v>
       </c>
       <c r="I21" s="3">
-        <v>140000</v>
+        <v>135400</v>
       </c>
       <c r="J21" s="3">
-        <v>216600</v>
+        <v>208700</v>
       </c>
       <c r="K21" s="3">
         <v>-150900</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="E22" s="3">
-        <v>11100</v>
+        <v>10700</v>
       </c>
       <c r="F22" s="3">
-        <v>19900</v>
+        <v>19100</v>
       </c>
       <c r="G22" s="3">
-        <v>14500</v>
+        <v>13900</v>
       </c>
       <c r="H22" s="3">
-        <v>17800</v>
+        <v>17100</v>
       </c>
       <c r="I22" s="3">
-        <v>12600</v>
+        <v>12100</v>
       </c>
       <c r="J22" s="3">
-        <v>14800</v>
+        <v>14200</v>
       </c>
       <c r="K22" s="3">
         <v>15800</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-57000</v>
+        <v>-54700</v>
       </c>
       <c r="E23" s="3">
-        <v>343800</v>
+        <v>330100</v>
       </c>
       <c r="F23" s="3">
-        <v>-32100</v>
+        <v>-30800</v>
       </c>
       <c r="G23" s="3">
-        <v>-147900</v>
+        <v>-142000</v>
       </c>
       <c r="H23" s="3">
-        <v>-253600</v>
+        <v>-243400</v>
       </c>
       <c r="I23" s="3">
-        <v>-8000</v>
+        <v>-7700</v>
       </c>
       <c r="J23" s="3">
-        <v>85200</v>
+        <v>81800</v>
       </c>
       <c r="K23" s="3">
         <v>-312700</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="E24" s="3">
-        <v>67800</v>
+        <v>65100</v>
       </c>
       <c r="F24" s="3">
-        <v>13700</v>
+        <v>13200</v>
       </c>
       <c r="G24" s="3">
-        <v>-7500</v>
+        <v>-7200</v>
       </c>
       <c r="H24" s="3">
-        <v>-12600</v>
+        <v>-12100</v>
       </c>
       <c r="I24" s="3">
-        <v>-27500</v>
+        <v>-26400</v>
       </c>
       <c r="J24" s="3">
-        <v>34000</v>
+        <v>32700</v>
       </c>
       <c r="K24" s="3">
         <v>-42000</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-54500</v>
+        <v>-52300</v>
       </c>
       <c r="E26" s="3">
-        <v>276000</v>
+        <v>265000</v>
       </c>
       <c r="F26" s="3">
-        <v>-45800</v>
+        <v>-44000</v>
       </c>
       <c r="G26" s="3">
-        <v>-140400</v>
+        <v>-134800</v>
       </c>
       <c r="H26" s="3">
-        <v>-241000</v>
+        <v>-231300</v>
       </c>
       <c r="I26" s="3">
-        <v>19500</v>
+        <v>18700</v>
       </c>
       <c r="J26" s="3">
-        <v>51100</v>
+        <v>49100</v>
       </c>
       <c r="K26" s="3">
         <v>-270700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-56700</v>
+        <v>-54400</v>
       </c>
       <c r="E27" s="3">
-        <v>274000</v>
+        <v>263100</v>
       </c>
       <c r="F27" s="3">
-        <v>-47300</v>
+        <v>-45400</v>
       </c>
       <c r="G27" s="3">
-        <v>-140400</v>
+        <v>-134800</v>
       </c>
       <c r="H27" s="3">
-        <v>-241000</v>
+        <v>-231300</v>
       </c>
       <c r="I27" s="3">
-        <v>19500</v>
+        <v>18700</v>
       </c>
       <c r="J27" s="3">
-        <v>51100</v>
+        <v>49100</v>
       </c>
       <c r="K27" s="3">
         <v>-270700</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="E32" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F32" s="3">
-        <v>-9600</v>
+        <v>-9200</v>
       </c>
       <c r="G32" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="H32" s="3">
-        <v>-20500</v>
+        <v>-19700</v>
       </c>
       <c r="I32" s="3">
-        <v>-13300</v>
+        <v>-12700</v>
       </c>
       <c r="J32" s="3">
-        <v>-14200</v>
+        <v>-13600</v>
       </c>
       <c r="K32" s="3">
         <v>-12900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-56700</v>
+        <v>-54400</v>
       </c>
       <c r="E33" s="3">
-        <v>274000</v>
+        <v>263100</v>
       </c>
       <c r="F33" s="3">
-        <v>-47300</v>
+        <v>-45400</v>
       </c>
       <c r="G33" s="3">
-        <v>-140400</v>
+        <v>-134800</v>
       </c>
       <c r="H33" s="3">
-        <v>-241000</v>
+        <v>-231300</v>
       </c>
       <c r="I33" s="3">
-        <v>19500</v>
+        <v>18700</v>
       </c>
       <c r="J33" s="3">
-        <v>51100</v>
+        <v>49100</v>
       </c>
       <c r="K33" s="3">
         <v>-270700</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-56700</v>
+        <v>-54400</v>
       </c>
       <c r="E35" s="3">
-        <v>274000</v>
+        <v>263100</v>
       </c>
       <c r="F35" s="3">
-        <v>-47300</v>
+        <v>-45400</v>
       </c>
       <c r="G35" s="3">
-        <v>-140400</v>
+        <v>-134800</v>
       </c>
       <c r="H35" s="3">
-        <v>-241000</v>
+        <v>-231300</v>
       </c>
       <c r="I35" s="3">
-        <v>19500</v>
+        <v>18700</v>
       </c>
       <c r="J35" s="3">
-        <v>51100</v>
+        <v>49100</v>
       </c>
       <c r="K35" s="3">
         <v>-270700</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>131900</v>
+        <v>126600</v>
       </c>
       <c r="E41" s="3">
-        <v>151900</v>
+        <v>145800</v>
       </c>
       <c r="F41" s="3">
-        <v>342500</v>
+        <v>328800</v>
       </c>
       <c r="G41" s="3">
-        <v>53500</v>
+        <v>51400</v>
       </c>
       <c r="H41" s="3">
-        <v>38000</v>
+        <v>36500</v>
       </c>
       <c r="I41" s="3">
-        <v>67100</v>
+        <v>64400</v>
       </c>
       <c r="J41" s="3">
-        <v>67700</v>
+        <v>65000</v>
       </c>
       <c r="K41" s="3">
         <v>63700</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>82000</v>
+        <v>78700</v>
       </c>
       <c r="E43" s="3">
-        <v>81900</v>
+        <v>78700</v>
       </c>
       <c r="F43" s="3">
-        <v>66200</v>
+        <v>63600</v>
       </c>
       <c r="G43" s="3">
-        <v>53700</v>
+        <v>51600</v>
       </c>
       <c r="H43" s="3">
-        <v>57300</v>
+        <v>55000</v>
       </c>
       <c r="I43" s="3">
-        <v>50100</v>
+        <v>48100</v>
       </c>
       <c r="J43" s="3">
-        <v>33700</v>
+        <v>32300</v>
       </c>
       <c r="K43" s="3">
         <v>43100</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>151800</v>
+        <v>145700</v>
       </c>
       <c r="E44" s="3">
-        <v>136900</v>
+        <v>131500</v>
       </c>
       <c r="F44" s="3">
-        <v>130400</v>
+        <v>125200</v>
       </c>
       <c r="G44" s="3">
-        <v>106000</v>
+        <v>101700</v>
       </c>
       <c r="H44" s="3">
-        <v>94800</v>
+        <v>91000</v>
       </c>
       <c r="I44" s="3">
-        <v>60700</v>
+        <v>58300</v>
       </c>
       <c r="J44" s="3">
-        <v>62900</v>
+        <v>60400</v>
       </c>
       <c r="K44" s="3">
         <v>77100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>38000</v>
+        <v>36500</v>
       </c>
       <c r="E45" s="3">
-        <v>89900</v>
+        <v>86300</v>
       </c>
       <c r="F45" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="G45" s="3">
-        <v>22600</v>
+        <v>21700</v>
       </c>
       <c r="H45" s="3">
-        <v>35200</v>
+        <v>33800</v>
       </c>
       <c r="I45" s="3">
-        <v>87900</v>
+        <v>84400</v>
       </c>
       <c r="J45" s="3">
-        <v>22700</v>
+        <v>21800</v>
       </c>
       <c r="K45" s="3">
         <v>4200</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>403700</v>
+        <v>387600</v>
       </c>
       <c r="E46" s="3">
-        <v>460600</v>
+        <v>442300</v>
       </c>
       <c r="F46" s="3">
-        <v>547600</v>
+        <v>525800</v>
       </c>
       <c r="G46" s="3">
-        <v>235800</v>
+        <v>226400</v>
       </c>
       <c r="H46" s="3">
-        <v>225200</v>
+        <v>216200</v>
       </c>
       <c r="I46" s="3">
-        <v>265800</v>
+        <v>255200</v>
       </c>
       <c r="J46" s="3">
-        <v>186900</v>
+        <v>179400</v>
       </c>
       <c r="K46" s="3">
         <v>188000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26900</v>
+        <v>25800</v>
       </c>
       <c r="E47" s="3">
-        <v>24700</v>
+        <v>23700</v>
       </c>
       <c r="F47" s="3">
-        <v>28800</v>
+        <v>27600</v>
       </c>
       <c r="G47" s="3">
-        <v>23900</v>
+        <v>23000</v>
       </c>
       <c r="H47" s="3">
-        <v>18700</v>
+        <v>18000</v>
       </c>
       <c r="I47" s="3">
-        <v>12700</v>
+        <v>12200</v>
       </c>
       <c r="J47" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="K47" s="3">
         <v>5100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1770800</v>
+        <v>1700100</v>
       </c>
       <c r="E48" s="3">
-        <v>1809900</v>
+        <v>1737600</v>
       </c>
       <c r="F48" s="3">
-        <v>1572200</v>
+        <v>1509500</v>
       </c>
       <c r="G48" s="3">
-        <v>1494800</v>
+        <v>1435200</v>
       </c>
       <c r="H48" s="3">
-        <v>1670000</v>
+        <v>1603400</v>
       </c>
       <c r="I48" s="3">
-        <v>1618500</v>
+        <v>1553900</v>
       </c>
       <c r="J48" s="3">
-        <v>1611700</v>
+        <v>1547400</v>
       </c>
       <c r="K48" s="3">
         <v>1763100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E49" s="3">
-        <v>19700</v>
+        <v>18900</v>
       </c>
       <c r="F49" s="3">
-        <v>28900</v>
+        <v>27700</v>
       </c>
       <c r="G49" s="3">
-        <v>28700</v>
+        <v>27600</v>
       </c>
       <c r="H49" s="3">
-        <v>27700</v>
+        <v>26600</v>
       </c>
       <c r="I49" s="3">
-        <v>32500</v>
+        <v>31200</v>
       </c>
       <c r="J49" s="3">
-        <v>46900</v>
+        <v>45000</v>
       </c>
       <c r="K49" s="3">
         <v>52800</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>317600</v>
+        <v>304900</v>
       </c>
       <c r="E52" s="3">
-        <v>314200</v>
+        <v>301600</v>
       </c>
       <c r="F52" s="3">
-        <v>230000</v>
+        <v>220800</v>
       </c>
       <c r="G52" s="3">
-        <v>195700</v>
+        <v>187900</v>
       </c>
       <c r="H52" s="3">
-        <v>187400</v>
+        <v>179900</v>
       </c>
       <c r="I52" s="3">
-        <v>165200</v>
+        <v>158600</v>
       </c>
       <c r="J52" s="3">
-        <v>139800</v>
+        <v>134200</v>
       </c>
       <c r="K52" s="3">
         <v>147300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2521500</v>
+        <v>2420900</v>
       </c>
       <c r="E54" s="3">
-        <v>2629000</v>
+        <v>2524100</v>
       </c>
       <c r="F54" s="3">
-        <v>2407600</v>
+        <v>2311500</v>
       </c>
       <c r="G54" s="3">
-        <v>1979000</v>
+        <v>1900000</v>
       </c>
       <c r="H54" s="3">
-        <v>2129100</v>
+        <v>2044100</v>
       </c>
       <c r="I54" s="3">
-        <v>2094600</v>
+        <v>2011000</v>
       </c>
       <c r="J54" s="3">
-        <v>1994800</v>
+        <v>1915200</v>
       </c>
       <c r="K54" s="3">
         <v>2156300</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>68200</v>
+        <v>65500</v>
       </c>
       <c r="E57" s="3">
-        <v>68400</v>
+        <v>65600</v>
       </c>
       <c r="F57" s="3">
-        <v>38000</v>
+        <v>36500</v>
       </c>
       <c r="G57" s="3">
-        <v>41100</v>
+        <v>39500</v>
       </c>
       <c r="H57" s="3">
-        <v>31600</v>
+        <v>30400</v>
       </c>
       <c r="I57" s="3">
-        <v>28100</v>
+        <v>26900</v>
       </c>
       <c r="J57" s="3">
-        <v>19000</v>
+        <v>18300</v>
       </c>
       <c r="K57" s="3">
         <v>31300</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="E58" s="3">
-        <v>26600</v>
+        <v>25500</v>
       </c>
       <c r="F58" s="3">
-        <v>17000</v>
+        <v>16300</v>
       </c>
       <c r="G58" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="H58" s="3">
-        <v>37200</v>
+        <v>35700</v>
       </c>
       <c r="I58" s="3">
-        <v>98800</v>
+        <v>94900</v>
       </c>
       <c r="J58" s="3">
-        <v>16200</v>
+        <v>15500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>16</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>187800</v>
+        <v>180300</v>
       </c>
       <c r="E59" s="3">
-        <v>204200</v>
+        <v>196000</v>
       </c>
       <c r="F59" s="3">
-        <v>352300</v>
+        <v>338200</v>
       </c>
       <c r="G59" s="3">
-        <v>128300</v>
+        <v>123200</v>
       </c>
       <c r="H59" s="3">
-        <v>125100</v>
+        <v>120100</v>
       </c>
       <c r="I59" s="3">
-        <v>80200</v>
+        <v>77000</v>
       </c>
       <c r="J59" s="3">
-        <v>74200</v>
+        <v>71300</v>
       </c>
       <c r="K59" s="3">
         <v>67800</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>268000</v>
+        <v>257300</v>
       </c>
       <c r="E60" s="3">
-        <v>299100</v>
+        <v>287200</v>
       </c>
       <c r="F60" s="3">
-        <v>407300</v>
+        <v>391000</v>
       </c>
       <c r="G60" s="3">
-        <v>174200</v>
+        <v>167300</v>
       </c>
       <c r="H60" s="3">
-        <v>193900</v>
+        <v>186100</v>
       </c>
       <c r="I60" s="3">
-        <v>207100</v>
+        <v>198800</v>
       </c>
       <c r="J60" s="3">
-        <v>109400</v>
+        <v>105000</v>
       </c>
       <c r="K60" s="3">
         <v>99100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>184500</v>
+        <v>177100</v>
       </c>
       <c r="E61" s="3">
-        <v>168500</v>
+        <v>161800</v>
       </c>
       <c r="F61" s="3">
-        <v>406400</v>
+        <v>390200</v>
       </c>
       <c r="G61" s="3">
-        <v>313800</v>
+        <v>301300</v>
       </c>
       <c r="H61" s="3">
-        <v>265300</v>
+        <v>254700</v>
       </c>
       <c r="I61" s="3">
-        <v>16100</v>
+        <v>15500</v>
       </c>
       <c r="J61" s="3">
-        <v>109800</v>
+        <v>105500</v>
       </c>
       <c r="K61" s="3">
         <v>202800</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>446600</v>
+        <v>428800</v>
       </c>
       <c r="E62" s="3">
-        <v>479900</v>
+        <v>460700</v>
       </c>
       <c r="F62" s="3">
-        <v>334700</v>
+        <v>321300</v>
       </c>
       <c r="G62" s="3">
-        <v>272700</v>
+        <v>261800</v>
       </c>
       <c r="H62" s="3">
-        <v>302600</v>
+        <v>290600</v>
       </c>
       <c r="I62" s="3">
-        <v>293500</v>
+        <v>281800</v>
       </c>
       <c r="J62" s="3">
-        <v>257600</v>
+        <v>247300</v>
       </c>
       <c r="K62" s="3">
         <v>258000</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>903300</v>
+        <v>867300</v>
       </c>
       <c r="E66" s="3">
-        <v>950400</v>
+        <v>912500</v>
       </c>
       <c r="F66" s="3">
-        <v>1148600</v>
+        <v>1102700</v>
       </c>
       <c r="G66" s="3">
-        <v>760800</v>
+        <v>730400</v>
       </c>
       <c r="H66" s="3">
-        <v>761800</v>
+        <v>731400</v>
       </c>
       <c r="I66" s="3">
-        <v>516700</v>
+        <v>496100</v>
       </c>
       <c r="J66" s="3">
-        <v>476800</v>
+        <v>457800</v>
       </c>
       <c r="K66" s="3">
         <v>559900</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-370000</v>
+        <v>-355300</v>
       </c>
       <c r="E72" s="3">
-        <v>-298800</v>
+        <v>-286800</v>
       </c>
       <c r="F72" s="3">
-        <v>-544700</v>
+        <v>-523000</v>
       </c>
       <c r="G72" s="3">
-        <v>-507700</v>
+        <v>-487500</v>
       </c>
       <c r="H72" s="3">
-        <v>-379700</v>
+        <v>-364500</v>
       </c>
       <c r="I72" s="3">
-        <v>-151100</v>
+        <v>-145100</v>
       </c>
       <c r="J72" s="3">
-        <v>-166900</v>
+        <v>-160300</v>
       </c>
       <c r="K72" s="3">
         <v>-260800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1618200</v>
+        <v>1553600</v>
       </c>
       <c r="E76" s="3">
-        <v>1678600</v>
+        <v>1611600</v>
       </c>
       <c r="F76" s="3">
-        <v>1259000</v>
+        <v>1208700</v>
       </c>
       <c r="G76" s="3">
-        <v>1218200</v>
+        <v>1169600</v>
       </c>
       <c r="H76" s="3">
-        <v>1367300</v>
+        <v>1312800</v>
       </c>
       <c r="I76" s="3">
-        <v>1577900</v>
+        <v>1514900</v>
       </c>
       <c r="J76" s="3">
-        <v>1518000</v>
+        <v>1457400</v>
       </c>
       <c r="K76" s="3">
         <v>1596400</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-56700</v>
+        <v>-54400</v>
       </c>
       <c r="E81" s="3">
-        <v>274000</v>
+        <v>263100</v>
       </c>
       <c r="F81" s="3">
-        <v>-47300</v>
+        <v>-45400</v>
       </c>
       <c r="G81" s="3">
-        <v>-140400</v>
+        <v>-134800</v>
       </c>
       <c r="H81" s="3">
-        <v>-241000</v>
+        <v>-231300</v>
       </c>
       <c r="I81" s="3">
-        <v>19500</v>
+        <v>18700</v>
       </c>
       <c r="J81" s="3">
-        <v>51100</v>
+        <v>49100</v>
       </c>
       <c r="K81" s="3">
         <v>-270700</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>198400</v>
+        <v>190500</v>
       </c>
       <c r="E83" s="3">
-        <v>208900</v>
+        <v>200500</v>
       </c>
       <c r="F83" s="3">
-        <v>189000</v>
+        <v>181400</v>
       </c>
       <c r="G83" s="3">
-        <v>218400</v>
+        <v>209700</v>
       </c>
       <c r="H83" s="3">
-        <v>138400</v>
+        <v>132900</v>
       </c>
       <c r="I83" s="3">
-        <v>135700</v>
+        <v>130300</v>
       </c>
       <c r="J83" s="3">
-        <v>116900</v>
+        <v>112200</v>
       </c>
       <c r="K83" s="3">
         <v>147500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>373000</v>
+        <v>358100</v>
       </c>
       <c r="E89" s="3">
-        <v>494500</v>
+        <v>474700</v>
       </c>
       <c r="F89" s="3">
-        <v>254400</v>
+        <v>244300</v>
       </c>
       <c r="G89" s="3">
-        <v>252100</v>
+        <v>242000</v>
       </c>
       <c r="H89" s="3">
-        <v>209200</v>
+        <v>200900</v>
       </c>
       <c r="I89" s="3">
-        <v>204900</v>
+        <v>196700</v>
       </c>
       <c r="J89" s="3">
-        <v>243100</v>
+        <v>233400</v>
       </c>
       <c r="K89" s="3">
         <v>119700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-334700</v>
+        <v>-321400</v>
       </c>
       <c r="E91" s="3">
-        <v>-277000</v>
+        <v>-265900</v>
       </c>
       <c r="F91" s="3">
-        <v>-194000</v>
+        <v>-186300</v>
       </c>
       <c r="G91" s="3">
-        <v>-271200</v>
+        <v>-260400</v>
       </c>
       <c r="H91" s="3">
-        <v>-245800</v>
+        <v>-235900</v>
       </c>
       <c r="I91" s="3">
-        <v>-209600</v>
+        <v>-201200</v>
       </c>
       <c r="J91" s="3">
-        <v>-131300</v>
+        <v>-126000</v>
       </c>
       <c r="K91" s="3">
         <v>-168400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-334000</v>
+        <v>-320700</v>
       </c>
       <c r="E94" s="3">
-        <v>-456000</v>
+        <v>-437800</v>
       </c>
       <c r="F94" s="3">
-        <v>-191700</v>
+        <v>-184000</v>
       </c>
       <c r="G94" s="3">
-        <v>-258400</v>
+        <v>-248100</v>
       </c>
       <c r="H94" s="3">
-        <v>-435000</v>
+        <v>-417600</v>
       </c>
       <c r="I94" s="3">
-        <v>-182200</v>
+        <v>-175000</v>
       </c>
       <c r="J94" s="3">
-        <v>-140000</v>
+        <v>-134400</v>
       </c>
       <c r="K94" s="3">
         <v>-173500</v>
@@ -3997,10 +3997,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-23200</v>
+        <v>-22200</v>
       </c>
       <c r="E96" s="3">
-        <v>-36800</v>
+        <v>-35400</v>
       </c>
       <c r="F96" s="3">
         <v>-200</v>
@@ -4009,10 +4009,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="I96" s="3">
-        <v>-23600</v>
+        <v>-22700</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-62000</v>
+        <v>-59500</v>
       </c>
       <c r="E100" s="3">
-        <v>-231600</v>
+        <v>-222300</v>
       </c>
       <c r="F100" s="3">
-        <v>231900</v>
+        <v>222700</v>
       </c>
       <c r="G100" s="3">
-        <v>20500</v>
+        <v>19700</v>
       </c>
       <c r="H100" s="3">
-        <v>200600</v>
+        <v>192600</v>
       </c>
       <c r="I100" s="3">
-        <v>-24200</v>
+        <v>-23300</v>
       </c>
       <c r="J100" s="3">
-        <v>-94000</v>
+        <v>-90300</v>
       </c>
       <c r="K100" s="3">
         <v>8800</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E101" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F101" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="G101" s="3">
         <v>1300</v>
       </c>
       <c r="H101" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="I101" s="3">
         <v>1000</v>
       </c>
       <c r="J101" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-20000</v>
+        <v>-19200</v>
       </c>
       <c r="E102" s="3">
-        <v>-190600</v>
+        <v>-183000</v>
       </c>
       <c r="F102" s="3">
-        <v>289000</v>
+        <v>277400</v>
       </c>
       <c r="G102" s="3">
-        <v>15500</v>
+        <v>14800</v>
       </c>
       <c r="H102" s="3">
-        <v>-29100</v>
+        <v>-27900</v>
       </c>
       <c r="I102" s="3">
         <v>-500</v>
       </c>
       <c r="J102" s="3">
-        <v>10200</v>
+        <v>9800</v>
       </c>
       <c r="K102" s="3">
         <v>-45500</v>

--- a/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>HMY</t>
   </si>
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2205600</v>
+        <v>2259800</v>
       </c>
       <c r="E8" s="3">
-        <v>2158400</v>
+        <v>2211400</v>
       </c>
       <c r="F8" s="3">
-        <v>1512600</v>
+        <v>1549700</v>
       </c>
       <c r="G8" s="3">
-        <v>1391900</v>
+        <v>1426100</v>
       </c>
       <c r="H8" s="3">
-        <v>1057800</v>
+        <v>1083800</v>
       </c>
       <c r="I8" s="3">
-        <v>996300</v>
+        <v>1020800</v>
       </c>
       <c r="J8" s="3">
-        <v>948200</v>
+        <v>971500</v>
       </c>
       <c r="K8" s="3">
         <v>921000</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1937600</v>
+        <v>1985200</v>
       </c>
       <c r="E9" s="3">
-        <v>1760200</v>
+        <v>1803400</v>
       </c>
       <c r="F9" s="3">
-        <v>1337900</v>
+        <v>1370700</v>
       </c>
       <c r="G9" s="3">
-        <v>1279000</v>
+        <v>1310400</v>
       </c>
       <c r="H9" s="3">
-        <v>933600</v>
+        <v>956600</v>
       </c>
       <c r="I9" s="3">
-        <v>923000</v>
+        <v>945700</v>
       </c>
       <c r="J9" s="3">
-        <v>817800</v>
+        <v>837900</v>
       </c>
       <c r="K9" s="3">
         <v>914800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>268000</v>
+        <v>274600</v>
       </c>
       <c r="E10" s="3">
-        <v>398200</v>
+        <v>408000</v>
       </c>
       <c r="F10" s="3">
-        <v>174700</v>
+        <v>178900</v>
       </c>
       <c r="G10" s="3">
-        <v>112900</v>
+        <v>115700</v>
       </c>
       <c r="H10" s="3">
-        <v>124100</v>
+        <v>127200</v>
       </c>
       <c r="I10" s="3">
-        <v>73300</v>
+        <v>75100</v>
       </c>
       <c r="J10" s="3">
-        <v>130400</v>
+        <v>133600</v>
       </c>
       <c r="K10" s="3">
         <v>6200</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="E12" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="F12" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="G12" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="H12" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="I12" s="3">
-        <v>12500</v>
+        <v>12800</v>
       </c>
       <c r="J12" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="K12" s="3">
         <v>15700</v>
@@ -954,22 +954,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>232100</v>
+        <v>237800</v>
       </c>
       <c r="E14" s="3">
-        <v>70200</v>
+        <v>71900</v>
       </c>
       <c r="F14" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="G14" s="3">
-        <v>210900</v>
+        <v>216100</v>
       </c>
       <c r="H14" s="3">
-        <v>286100</v>
+        <v>293100</v>
       </c>
       <c r="I14" s="3">
-        <v>97000</v>
+        <v>99400</v>
       </c>
       <c r="J14" s="3">
         <v>-1400</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2244600</v>
+        <v>2299800</v>
       </c>
       <c r="E17" s="3">
-        <v>1815600</v>
+        <v>1860200</v>
       </c>
       <c r="F17" s="3">
-        <v>1533400</v>
+        <v>1571000</v>
       </c>
       <c r="G17" s="3">
-        <v>1523200</v>
+        <v>1560600</v>
       </c>
       <c r="H17" s="3">
-        <v>1303900</v>
+        <v>1335900</v>
       </c>
       <c r="I17" s="3">
-        <v>1004600</v>
+        <v>1029300</v>
       </c>
       <c r="J17" s="3">
-        <v>865900</v>
+        <v>887200</v>
       </c>
       <c r="K17" s="3">
         <v>1230900</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-39000</v>
+        <v>-40000</v>
       </c>
       <c r="E18" s="3">
-        <v>342900</v>
+        <v>351300</v>
       </c>
       <c r="F18" s="3">
-        <v>-20800</v>
+        <v>-21400</v>
       </c>
       <c r="G18" s="3">
-        <v>-131300</v>
+        <v>-134500</v>
       </c>
       <c r="H18" s="3">
-        <v>-246100</v>
+        <v>-252100</v>
       </c>
       <c r="I18" s="3">
-        <v>-8300</v>
+        <v>-8500</v>
       </c>
       <c r="J18" s="3">
-        <v>82300</v>
+        <v>84400</v>
       </c>
       <c r="K18" s="3">
         <v>-309900</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-6700</v>
+        <v>-5700</v>
       </c>
       <c r="E20" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="F20" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="G20" s="3">
         <v>3200</v>
       </c>
       <c r="H20" s="3">
-        <v>19700</v>
+        <v>20200</v>
       </c>
       <c r="I20" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="J20" s="3">
-        <v>13600</v>
+        <v>13900</v>
       </c>
       <c r="K20" s="3">
         <v>12900</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>145600</v>
+        <v>159700</v>
       </c>
       <c r="E21" s="3">
-        <v>542200</v>
+        <v>535000</v>
       </c>
       <c r="F21" s="3">
-        <v>170700</v>
+        <v>202900</v>
       </c>
       <c r="G21" s="3">
-        <v>82600</v>
+        <v>4900</v>
       </c>
       <c r="H21" s="3">
-        <v>-92800</v>
+        <v>-98500</v>
       </c>
       <c r="I21" s="3">
-        <v>135400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>208700</v>
+        <v>119500</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K21" s="3">
         <v>-150900</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8900</v>
+        <v>10300</v>
       </c>
       <c r="E22" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="F22" s="3">
-        <v>19100</v>
+        <v>19600</v>
       </c>
       <c r="G22" s="3">
-        <v>13900</v>
+        <v>14300</v>
       </c>
       <c r="H22" s="3">
-        <v>17100</v>
+        <v>17500</v>
       </c>
       <c r="I22" s="3">
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="J22" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="K22" s="3">
         <v>15800</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-54700</v>
+        <v>-56100</v>
       </c>
       <c r="E23" s="3">
-        <v>330100</v>
+        <v>338200</v>
       </c>
       <c r="F23" s="3">
-        <v>-30800</v>
+        <v>-31500</v>
       </c>
       <c r="G23" s="3">
-        <v>-142000</v>
+        <v>-145500</v>
       </c>
       <c r="H23" s="3">
-        <v>-243400</v>
+        <v>-249400</v>
       </c>
       <c r="I23" s="3">
-        <v>-7700</v>
+        <v>-7800</v>
       </c>
       <c r="J23" s="3">
-        <v>81800</v>
+        <v>83800</v>
       </c>
       <c r="K23" s="3">
         <v>-312700</v>
@@ -1326,22 +1326,22 @@
         <v>-2400</v>
       </c>
       <c r="E24" s="3">
-        <v>65100</v>
+        <v>66700</v>
       </c>
       <c r="F24" s="3">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="G24" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="H24" s="3">
-        <v>-12100</v>
+        <v>-12400</v>
       </c>
       <c r="I24" s="3">
-        <v>-26400</v>
+        <v>-27000</v>
       </c>
       <c r="J24" s="3">
-        <v>32700</v>
+        <v>33500</v>
       </c>
       <c r="K24" s="3">
         <v>-42000</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-52300</v>
+        <v>-53600</v>
       </c>
       <c r="E26" s="3">
-        <v>265000</v>
+        <v>271500</v>
       </c>
       <c r="F26" s="3">
-        <v>-44000</v>
+        <v>-45000</v>
       </c>
       <c r="G26" s="3">
-        <v>-134800</v>
+        <v>-138100</v>
       </c>
       <c r="H26" s="3">
-        <v>-231300</v>
+        <v>-237000</v>
       </c>
       <c r="I26" s="3">
-        <v>18700</v>
+        <v>19200</v>
       </c>
       <c r="J26" s="3">
-        <v>49100</v>
+        <v>50300</v>
       </c>
       <c r="K26" s="3">
         <v>-270700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-54400</v>
+        <v>-55700</v>
       </c>
       <c r="E27" s="3">
-        <v>263100</v>
+        <v>269600</v>
       </c>
       <c r="F27" s="3">
-        <v>-45400</v>
+        <v>-46500</v>
       </c>
       <c r="G27" s="3">
-        <v>-134800</v>
+        <v>-138100</v>
       </c>
       <c r="H27" s="3">
-        <v>-231300</v>
+        <v>-237000</v>
       </c>
       <c r="I27" s="3">
-        <v>18700</v>
+        <v>19200</v>
       </c>
       <c r="J27" s="3">
-        <v>49100</v>
+        <v>50300</v>
       </c>
       <c r="K27" s="3">
         <v>-270700</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6700</v>
+        <v>5700</v>
       </c>
       <c r="E32" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F32" s="3">
-        <v>-9200</v>
+        <v>-9400</v>
       </c>
       <c r="G32" s="3">
         <v>-3200</v>
       </c>
       <c r="H32" s="3">
-        <v>-19700</v>
+        <v>-20200</v>
       </c>
       <c r="I32" s="3">
-        <v>-12700</v>
+        <v>-13000</v>
       </c>
       <c r="J32" s="3">
-        <v>-13600</v>
+        <v>-13900</v>
       </c>
       <c r="K32" s="3">
         <v>-12900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-54400</v>
+        <v>-55700</v>
       </c>
       <c r="E33" s="3">
-        <v>263100</v>
+        <v>269600</v>
       </c>
       <c r="F33" s="3">
-        <v>-45400</v>
+        <v>-46500</v>
       </c>
       <c r="G33" s="3">
-        <v>-134800</v>
+        <v>-138100</v>
       </c>
       <c r="H33" s="3">
-        <v>-231300</v>
+        <v>-237000</v>
       </c>
       <c r="I33" s="3">
-        <v>18700</v>
+        <v>19200</v>
       </c>
       <c r="J33" s="3">
-        <v>49100</v>
+        <v>50300</v>
       </c>
       <c r="K33" s="3">
         <v>-270700</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-54400</v>
+        <v>-55700</v>
       </c>
       <c r="E35" s="3">
-        <v>263100</v>
+        <v>269600</v>
       </c>
       <c r="F35" s="3">
-        <v>-45400</v>
+        <v>-46500</v>
       </c>
       <c r="G35" s="3">
-        <v>-134800</v>
+        <v>-138100</v>
       </c>
       <c r="H35" s="3">
-        <v>-231300</v>
+        <v>-237000</v>
       </c>
       <c r="I35" s="3">
-        <v>18700</v>
+        <v>19200</v>
       </c>
       <c r="J35" s="3">
-        <v>49100</v>
+        <v>50300</v>
       </c>
       <c r="K35" s="3">
         <v>-270700</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>126600</v>
+        <v>129700</v>
       </c>
       <c r="E41" s="3">
-        <v>145800</v>
+        <v>149400</v>
       </c>
       <c r="F41" s="3">
-        <v>328800</v>
+        <v>336900</v>
       </c>
       <c r="G41" s="3">
-        <v>51400</v>
+        <v>52600</v>
       </c>
       <c r="H41" s="3">
-        <v>36500</v>
+        <v>37400</v>
       </c>
       <c r="I41" s="3">
-        <v>64400</v>
+        <v>66000</v>
       </c>
       <c r="J41" s="3">
-        <v>65000</v>
+        <v>66600</v>
       </c>
       <c r="K41" s="3">
         <v>63700</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>78700</v>
+        <v>80700</v>
       </c>
       <c r="E43" s="3">
-        <v>78700</v>
+        <v>80600</v>
       </c>
       <c r="F43" s="3">
-        <v>63600</v>
+        <v>65100</v>
       </c>
       <c r="G43" s="3">
-        <v>51600</v>
+        <v>52800</v>
       </c>
       <c r="H43" s="3">
-        <v>55000</v>
+        <v>56300</v>
       </c>
       <c r="I43" s="3">
-        <v>48100</v>
+        <v>49300</v>
       </c>
       <c r="J43" s="3">
-        <v>32300</v>
+        <v>33100</v>
       </c>
       <c r="K43" s="3">
         <v>43100</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>145700</v>
+        <v>149300</v>
       </c>
       <c r="E44" s="3">
-        <v>131500</v>
+        <v>134700</v>
       </c>
       <c r="F44" s="3">
-        <v>125200</v>
+        <v>128300</v>
       </c>
       <c r="G44" s="3">
-        <v>101700</v>
+        <v>104200</v>
       </c>
       <c r="H44" s="3">
-        <v>91000</v>
+        <v>93200</v>
       </c>
       <c r="I44" s="3">
-        <v>58300</v>
+        <v>59700</v>
       </c>
       <c r="J44" s="3">
-        <v>60400</v>
+        <v>61800</v>
       </c>
       <c r="K44" s="3">
         <v>77100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36500</v>
+        <v>37400</v>
       </c>
       <c r="E45" s="3">
-        <v>86300</v>
+        <v>88400</v>
       </c>
       <c r="F45" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="G45" s="3">
-        <v>21700</v>
+        <v>22300</v>
       </c>
       <c r="H45" s="3">
-        <v>33800</v>
+        <v>34600</v>
       </c>
       <c r="I45" s="3">
-        <v>84400</v>
+        <v>86500</v>
       </c>
       <c r="J45" s="3">
-        <v>21800</v>
+        <v>22300</v>
       </c>
       <c r="K45" s="3">
         <v>4200</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>387600</v>
+        <v>397100</v>
       </c>
       <c r="E46" s="3">
-        <v>442300</v>
+        <v>453100</v>
       </c>
       <c r="F46" s="3">
-        <v>525800</v>
+        <v>538700</v>
       </c>
       <c r="G46" s="3">
-        <v>226400</v>
+        <v>231900</v>
       </c>
       <c r="H46" s="3">
-        <v>216200</v>
+        <v>221600</v>
       </c>
       <c r="I46" s="3">
-        <v>255200</v>
+        <v>261500</v>
       </c>
       <c r="J46" s="3">
-        <v>179400</v>
+        <v>183800</v>
       </c>
       <c r="K46" s="3">
         <v>188000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25800</v>
+        <v>26400</v>
       </c>
       <c r="E47" s="3">
-        <v>23700</v>
+        <v>24300</v>
       </c>
       <c r="F47" s="3">
-        <v>27600</v>
+        <v>28300</v>
       </c>
       <c r="G47" s="3">
-        <v>23000</v>
+        <v>23500</v>
       </c>
       <c r="H47" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="I47" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="J47" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="K47" s="3">
         <v>5100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1700100</v>
+        <v>1741900</v>
       </c>
       <c r="E48" s="3">
-        <v>1737600</v>
+        <v>1780300</v>
       </c>
       <c r="F48" s="3">
-        <v>1509500</v>
+        <v>1546600</v>
       </c>
       <c r="G48" s="3">
-        <v>1435200</v>
+        <v>1470400</v>
       </c>
       <c r="H48" s="3">
-        <v>1603400</v>
+        <v>1642700</v>
       </c>
       <c r="I48" s="3">
-        <v>1553900</v>
+        <v>1592000</v>
       </c>
       <c r="J48" s="3">
-        <v>1547400</v>
+        <v>1585400</v>
       </c>
       <c r="K48" s="3">
         <v>1763100</v>
@@ -2249,22 +2249,22 @@
         <v>2500</v>
       </c>
       <c r="E49" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="F49" s="3">
-        <v>27700</v>
+        <v>28400</v>
       </c>
       <c r="G49" s="3">
-        <v>27600</v>
+        <v>28200</v>
       </c>
       <c r="H49" s="3">
-        <v>26600</v>
+        <v>27300</v>
       </c>
       <c r="I49" s="3">
-        <v>31200</v>
+        <v>32000</v>
       </c>
       <c r="J49" s="3">
-        <v>45000</v>
+        <v>46100</v>
       </c>
       <c r="K49" s="3">
         <v>52800</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>304900</v>
+        <v>312400</v>
       </c>
       <c r="E52" s="3">
-        <v>301600</v>
+        <v>309000</v>
       </c>
       <c r="F52" s="3">
-        <v>220800</v>
+        <v>226300</v>
       </c>
       <c r="G52" s="3">
-        <v>187900</v>
+        <v>192500</v>
       </c>
       <c r="H52" s="3">
-        <v>179900</v>
+        <v>184300</v>
       </c>
       <c r="I52" s="3">
-        <v>158600</v>
+        <v>162500</v>
       </c>
       <c r="J52" s="3">
-        <v>134200</v>
+        <v>137500</v>
       </c>
       <c r="K52" s="3">
         <v>147300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2420900</v>
+        <v>2480400</v>
       </c>
       <c r="E54" s="3">
-        <v>2524100</v>
+        <v>2586100</v>
       </c>
       <c r="F54" s="3">
-        <v>2311500</v>
+        <v>2368200</v>
       </c>
       <c r="G54" s="3">
-        <v>1900000</v>
+        <v>1946600</v>
       </c>
       <c r="H54" s="3">
-        <v>2044100</v>
+        <v>2094300</v>
       </c>
       <c r="I54" s="3">
-        <v>2011000</v>
+        <v>2060400</v>
       </c>
       <c r="J54" s="3">
-        <v>1915200</v>
+        <v>1962200</v>
       </c>
       <c r="K54" s="3">
         <v>2156300</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>65500</v>
+        <v>67100</v>
       </c>
       <c r="E57" s="3">
-        <v>65600</v>
+        <v>67200</v>
       </c>
       <c r="F57" s="3">
-        <v>36500</v>
+        <v>37400</v>
       </c>
       <c r="G57" s="3">
-        <v>39500</v>
+        <v>40400</v>
       </c>
       <c r="H57" s="3">
-        <v>30400</v>
+        <v>31100</v>
       </c>
       <c r="I57" s="3">
-        <v>26900</v>
+        <v>27600</v>
       </c>
       <c r="J57" s="3">
-        <v>18300</v>
+        <v>18700</v>
       </c>
       <c r="K57" s="3">
         <v>31300</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="E58" s="3">
-        <v>25500</v>
+        <v>26200</v>
       </c>
       <c r="F58" s="3">
-        <v>16300</v>
+        <v>16700</v>
       </c>
       <c r="G58" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="H58" s="3">
-        <v>35700</v>
+        <v>36600</v>
       </c>
       <c r="I58" s="3">
-        <v>94900</v>
+        <v>97200</v>
       </c>
       <c r="J58" s="3">
-        <v>15500</v>
+        <v>15900</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>16</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>180300</v>
+        <v>184800</v>
       </c>
       <c r="E59" s="3">
-        <v>196000</v>
+        <v>200800</v>
       </c>
       <c r="F59" s="3">
-        <v>338200</v>
+        <v>346500</v>
       </c>
       <c r="G59" s="3">
-        <v>123200</v>
+        <v>126200</v>
       </c>
       <c r="H59" s="3">
-        <v>120100</v>
+        <v>123000</v>
       </c>
       <c r="I59" s="3">
-        <v>77000</v>
+        <v>78900</v>
       </c>
       <c r="J59" s="3">
-        <v>71300</v>
+        <v>73000</v>
       </c>
       <c r="K59" s="3">
         <v>67800</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>257300</v>
+        <v>263600</v>
       </c>
       <c r="E60" s="3">
-        <v>287200</v>
+        <v>294300</v>
       </c>
       <c r="F60" s="3">
-        <v>391000</v>
+        <v>400600</v>
       </c>
       <c r="G60" s="3">
-        <v>167300</v>
+        <v>171400</v>
       </c>
       <c r="H60" s="3">
-        <v>186100</v>
+        <v>190700</v>
       </c>
       <c r="I60" s="3">
-        <v>198800</v>
+        <v>203700</v>
       </c>
       <c r="J60" s="3">
-        <v>105000</v>
+        <v>107600</v>
       </c>
       <c r="K60" s="3">
         <v>99100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>177100</v>
+        <v>181500</v>
       </c>
       <c r="E61" s="3">
-        <v>161800</v>
+        <v>165800</v>
       </c>
       <c r="F61" s="3">
-        <v>390200</v>
+        <v>399800</v>
       </c>
       <c r="G61" s="3">
-        <v>301300</v>
+        <v>308700</v>
       </c>
       <c r="H61" s="3">
-        <v>254700</v>
+        <v>260900</v>
       </c>
       <c r="I61" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="J61" s="3">
-        <v>105500</v>
+        <v>108000</v>
       </c>
       <c r="K61" s="3">
         <v>202800</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>428800</v>
+        <v>439300</v>
       </c>
       <c r="E62" s="3">
-        <v>460700</v>
+        <v>472000</v>
       </c>
       <c r="F62" s="3">
-        <v>321300</v>
+        <v>329200</v>
       </c>
       <c r="G62" s="3">
-        <v>261800</v>
+        <v>268200</v>
       </c>
       <c r="H62" s="3">
-        <v>290600</v>
+        <v>297700</v>
       </c>
       <c r="I62" s="3">
-        <v>281800</v>
+        <v>288700</v>
       </c>
       <c r="J62" s="3">
-        <v>247300</v>
+        <v>253300</v>
       </c>
       <c r="K62" s="3">
         <v>258000</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>867300</v>
+        <v>888600</v>
       </c>
       <c r="E66" s="3">
-        <v>912500</v>
+        <v>934900</v>
       </c>
       <c r="F66" s="3">
-        <v>1102700</v>
+        <v>1129800</v>
       </c>
       <c r="G66" s="3">
-        <v>730400</v>
+        <v>748300</v>
       </c>
       <c r="H66" s="3">
-        <v>731400</v>
+        <v>749300</v>
       </c>
       <c r="I66" s="3">
-        <v>496100</v>
+        <v>508300</v>
       </c>
       <c r="J66" s="3">
-        <v>457800</v>
+        <v>469000</v>
       </c>
       <c r="K66" s="3">
         <v>559900</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-355300</v>
+        <v>-364000</v>
       </c>
       <c r="E72" s="3">
-        <v>-286800</v>
+        <v>-293900</v>
       </c>
       <c r="F72" s="3">
-        <v>-523000</v>
+        <v>-535800</v>
       </c>
       <c r="G72" s="3">
-        <v>-487500</v>
+        <v>-499400</v>
       </c>
       <c r="H72" s="3">
-        <v>-364500</v>
+        <v>-373500</v>
       </c>
       <c r="I72" s="3">
-        <v>-145100</v>
+        <v>-148600</v>
       </c>
       <c r="J72" s="3">
-        <v>-160300</v>
+        <v>-164200</v>
       </c>
       <c r="K72" s="3">
         <v>-260800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1553600</v>
+        <v>1591800</v>
       </c>
       <c r="E76" s="3">
-        <v>1611600</v>
+        <v>1651200</v>
       </c>
       <c r="F76" s="3">
-        <v>1208700</v>
+        <v>1238400</v>
       </c>
       <c r="G76" s="3">
-        <v>1169600</v>
+        <v>1198300</v>
       </c>
       <c r="H76" s="3">
-        <v>1312800</v>
+        <v>1345000</v>
       </c>
       <c r="I76" s="3">
-        <v>1514900</v>
+        <v>1552100</v>
       </c>
       <c r="J76" s="3">
-        <v>1457400</v>
+        <v>1493200</v>
       </c>
       <c r="K76" s="3">
         <v>1596400</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-54400</v>
+        <v>-55700</v>
       </c>
       <c r="E81" s="3">
-        <v>263100</v>
+        <v>269600</v>
       </c>
       <c r="F81" s="3">
-        <v>-45400</v>
+        <v>-46500</v>
       </c>
       <c r="G81" s="3">
-        <v>-134800</v>
+        <v>-138100</v>
       </c>
       <c r="H81" s="3">
-        <v>-231300</v>
+        <v>-237000</v>
       </c>
       <c r="I81" s="3">
-        <v>18700</v>
+        <v>19200</v>
       </c>
       <c r="J81" s="3">
-        <v>49100</v>
+        <v>50300</v>
       </c>
       <c r="K81" s="3">
         <v>-270700</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>190500</v>
+        <v>205400</v>
       </c>
       <c r="E83" s="3">
-        <v>200500</v>
+        <v>185900</v>
       </c>
       <c r="F83" s="3">
-        <v>181400</v>
+        <v>214800</v>
       </c>
       <c r="G83" s="3">
-        <v>209700</v>
+        <v>136200</v>
       </c>
       <c r="H83" s="3">
-        <v>132900</v>
+        <v>133500</v>
       </c>
       <c r="I83" s="3">
-        <v>130300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>112200</v>
+        <v>115000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K83" s="3">
         <v>147500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>358100</v>
+        <v>486400</v>
       </c>
       <c r="E89" s="3">
-        <v>474700</v>
+        <v>250300</v>
       </c>
       <c r="F89" s="3">
-        <v>244300</v>
+        <v>247900</v>
       </c>
       <c r="G89" s="3">
-        <v>242000</v>
+        <v>205800</v>
       </c>
       <c r="H89" s="3">
-        <v>200900</v>
+        <v>201600</v>
       </c>
       <c r="I89" s="3">
-        <v>196700</v>
+        <v>239100</v>
       </c>
       <c r="J89" s="3">
-        <v>233400</v>
+        <v>106300</v>
       </c>
       <c r="K89" s="3">
         <v>119700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-321400</v>
+        <v>-272500</v>
       </c>
       <c r="E91" s="3">
-        <v>-265900</v>
+        <v>-190900</v>
       </c>
       <c r="F91" s="3">
-        <v>-186300</v>
+        <v>-266800</v>
       </c>
       <c r="G91" s="3">
-        <v>-260400</v>
+        <v>-241700</v>
       </c>
       <c r="H91" s="3">
-        <v>-235900</v>
+        <v>-206100</v>
       </c>
       <c r="I91" s="3">
-        <v>-201200</v>
+        <v>-129100</v>
       </c>
       <c r="J91" s="3">
-        <v>-126000</v>
+        <v>-149500</v>
       </c>
       <c r="K91" s="3">
         <v>-168400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-320700</v>
+        <v>-448500</v>
       </c>
       <c r="E94" s="3">
-        <v>-437800</v>
+        <v>-188500</v>
       </c>
       <c r="F94" s="3">
-        <v>-184000</v>
+        <v>-254200</v>
       </c>
       <c r="G94" s="3">
-        <v>-248100</v>
+        <v>-427900</v>
       </c>
       <c r="H94" s="3">
-        <v>-417600</v>
+        <v>-179300</v>
       </c>
       <c r="I94" s="3">
-        <v>-175000</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-134400</v>
+        <v>-137700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K94" s="3">
         <v>-173500</v>
@@ -3997,22 +3997,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-22200</v>
+        <v>-36200</v>
       </c>
       <c r="E96" s="3">
-        <v>-35400</v>
+        <v>-200</v>
       </c>
       <c r="F96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-8200</v>
       </c>
       <c r="H96" s="3">
-        <v>-8000</v>
+        <v>-23300</v>
       </c>
       <c r="I96" s="3">
-        <v>-22700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-59500</v>
+        <v>-227800</v>
       </c>
       <c r="E100" s="3">
-        <v>-222300</v>
+        <v>228100</v>
       </c>
       <c r="F100" s="3">
-        <v>222700</v>
+        <v>20100</v>
       </c>
       <c r="G100" s="3">
-        <v>19700</v>
+        <v>197300</v>
       </c>
       <c r="H100" s="3">
-        <v>192600</v>
+        <v>-23800</v>
       </c>
       <c r="I100" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-90300</v>
+        <v>-92500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K100" s="3">
         <v>8800</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="E101" s="3">
-        <v>2400</v>
+        <v>-5600</v>
       </c>
       <c r="F101" s="3">
-        <v>-5500</v>
+        <v>1300</v>
       </c>
       <c r="G101" s="3">
-        <v>1300</v>
+        <v>-3800</v>
       </c>
       <c r="H101" s="3">
-        <v>-3700</v>
+        <v>1000</v>
       </c>
       <c r="I101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>1000</v>
+        <v>1100</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-19200</v>
+        <v>-187500</v>
       </c>
       <c r="E102" s="3">
-        <v>-183000</v>
+        <v>284200</v>
       </c>
       <c r="F102" s="3">
-        <v>277400</v>
+        <v>15200</v>
       </c>
       <c r="G102" s="3">
-        <v>14800</v>
+        <v>-28600</v>
       </c>
       <c r="H102" s="3">
-        <v>-27900</v>
+        <v>-500</v>
       </c>
       <c r="I102" s="3">
-        <v>-500</v>
+        <v>10000</v>
       </c>
       <c r="J102" s="3">
-        <v>9800</v>
+        <v>-40400</v>
       </c>
       <c r="K102" s="3">
         <v>-45500</v>

--- a/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HMY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>HMY</t>
   </si>
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2259800</v>
+        <v>2323300</v>
       </c>
       <c r="E8" s="3">
-        <v>2211400</v>
+        <v>2273600</v>
       </c>
       <c r="F8" s="3">
-        <v>1549700</v>
+        <v>1593300</v>
       </c>
       <c r="G8" s="3">
-        <v>1426100</v>
+        <v>1466200</v>
       </c>
       <c r="H8" s="3">
-        <v>1083800</v>
+        <v>1114200</v>
       </c>
       <c r="I8" s="3">
-        <v>1020800</v>
+        <v>1049500</v>
       </c>
       <c r="J8" s="3">
-        <v>971500</v>
+        <v>998800</v>
       </c>
       <c r="K8" s="3">
         <v>921000</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1985200</v>
+        <v>2041000</v>
       </c>
       <c r="E9" s="3">
-        <v>1803400</v>
+        <v>1854100</v>
       </c>
       <c r="F9" s="3">
-        <v>1370700</v>
+        <v>1409300</v>
       </c>
       <c r="G9" s="3">
-        <v>1310400</v>
+        <v>1347200</v>
       </c>
       <c r="H9" s="3">
-        <v>956600</v>
+        <v>983500</v>
       </c>
       <c r="I9" s="3">
-        <v>945700</v>
+        <v>972300</v>
       </c>
       <c r="J9" s="3">
-        <v>837900</v>
+        <v>861500</v>
       </c>
       <c r="K9" s="3">
         <v>914800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>274600</v>
+        <v>282300</v>
       </c>
       <c r="E10" s="3">
-        <v>408000</v>
+        <v>419500</v>
       </c>
       <c r="F10" s="3">
-        <v>178900</v>
+        <v>184000</v>
       </c>
       <c r="G10" s="3">
-        <v>115700</v>
+        <v>118900</v>
       </c>
       <c r="H10" s="3">
-        <v>127200</v>
+        <v>130800</v>
       </c>
       <c r="I10" s="3">
-        <v>75100</v>
+        <v>77200</v>
       </c>
       <c r="J10" s="3">
-        <v>133600</v>
+        <v>137300</v>
       </c>
       <c r="K10" s="3">
         <v>6200</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="E12" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="F12" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="G12" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="H12" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="I12" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="J12" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="K12" s="3">
         <v>15700</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>237800</v>
+        <v>244500</v>
       </c>
       <c r="E14" s="3">
-        <v>71900</v>
+        <v>73900</v>
       </c>
       <c r="F14" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="G14" s="3">
-        <v>216100</v>
+        <v>222200</v>
       </c>
       <c r="H14" s="3">
-        <v>293100</v>
+        <v>301300</v>
       </c>
       <c r="I14" s="3">
-        <v>99400</v>
+        <v>102200</v>
       </c>
       <c r="J14" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="K14" s="3">
         <v>222100</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2299800</v>
+        <v>2364400</v>
       </c>
       <c r="E17" s="3">
-        <v>1860200</v>
+        <v>1912500</v>
       </c>
       <c r="F17" s="3">
-        <v>1571000</v>
+        <v>1615200</v>
       </c>
       <c r="G17" s="3">
-        <v>1560600</v>
+        <v>1604400</v>
       </c>
       <c r="H17" s="3">
-        <v>1335900</v>
+        <v>1373400</v>
       </c>
       <c r="I17" s="3">
-        <v>1029300</v>
+        <v>1058200</v>
       </c>
       <c r="J17" s="3">
-        <v>887200</v>
+        <v>912100</v>
       </c>
       <c r="K17" s="3">
         <v>1230900</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-40000</v>
+        <v>-41100</v>
       </c>
       <c r="E18" s="3">
-        <v>351300</v>
+        <v>361100</v>
       </c>
       <c r="F18" s="3">
-        <v>-21400</v>
+        <v>-22000</v>
       </c>
       <c r="G18" s="3">
-        <v>-134500</v>
+        <v>-138300</v>
       </c>
       <c r="H18" s="3">
-        <v>-252100</v>
+        <v>-259200</v>
       </c>
       <c r="I18" s="3">
-        <v>-8500</v>
+        <v>-8700</v>
       </c>
       <c r="J18" s="3">
-        <v>84400</v>
+        <v>86700</v>
       </c>
       <c r="K18" s="3">
         <v>-309900</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="E20" s="3">
         <v>-2200</v>
       </c>
       <c r="F20" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="G20" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H20" s="3">
-        <v>20200</v>
+        <v>20800</v>
       </c>
       <c r="I20" s="3">
-        <v>13000</v>
+        <v>13400</v>
       </c>
       <c r="J20" s="3">
-        <v>13900</v>
+        <v>14300</v>
       </c>
       <c r="K20" s="3">
         <v>12900</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>159700</v>
+        <v>155600</v>
       </c>
       <c r="E21" s="3">
-        <v>535000</v>
+        <v>572200</v>
       </c>
       <c r="F21" s="3">
-        <v>202900</v>
+        <v>180800</v>
       </c>
       <c r="G21" s="3">
-        <v>4900</v>
+        <v>88100</v>
       </c>
       <c r="H21" s="3">
-        <v>-98500</v>
+        <v>-97100</v>
       </c>
       <c r="I21" s="3">
-        <v>119500</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
+        <v>143300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>220500</v>
       </c>
       <c r="K21" s="3">
         <v>-150900</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="E22" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="F22" s="3">
-        <v>19600</v>
+        <v>20200</v>
       </c>
       <c r="G22" s="3">
-        <v>14300</v>
+        <v>14700</v>
       </c>
       <c r="H22" s="3">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="I22" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="J22" s="3">
-        <v>14500</v>
+        <v>14900</v>
       </c>
       <c r="K22" s="3">
         <v>15800</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-56100</v>
+        <v>-57600</v>
       </c>
       <c r="E23" s="3">
-        <v>338200</v>
+        <v>347700</v>
       </c>
       <c r="F23" s="3">
-        <v>-31500</v>
+        <v>-32400</v>
       </c>
       <c r="G23" s="3">
-        <v>-145500</v>
+        <v>-149600</v>
       </c>
       <c r="H23" s="3">
-        <v>-249400</v>
+        <v>-256400</v>
       </c>
       <c r="I23" s="3">
-        <v>-7800</v>
+        <v>-8100</v>
       </c>
       <c r="J23" s="3">
-        <v>83800</v>
+        <v>86100</v>
       </c>
       <c r="K23" s="3">
         <v>-312700</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="E24" s="3">
-        <v>66700</v>
+        <v>68500</v>
       </c>
       <c r="F24" s="3">
-        <v>13500</v>
+        <v>13900</v>
       </c>
       <c r="G24" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="H24" s="3">
-        <v>-12400</v>
+        <v>-12700</v>
       </c>
       <c r="I24" s="3">
-        <v>-27000</v>
+        <v>-27800</v>
       </c>
       <c r="J24" s="3">
-        <v>33500</v>
+        <v>34400</v>
       </c>
       <c r="K24" s="3">
         <v>-42000</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-53600</v>
+        <v>-55100</v>
       </c>
       <c r="E26" s="3">
-        <v>271500</v>
+        <v>279200</v>
       </c>
       <c r="F26" s="3">
-        <v>-45000</v>
+        <v>-46300</v>
       </c>
       <c r="G26" s="3">
-        <v>-138100</v>
+        <v>-142000</v>
       </c>
       <c r="H26" s="3">
-        <v>-237000</v>
+        <v>-243700</v>
       </c>
       <c r="I26" s="3">
-        <v>19200</v>
+        <v>19700</v>
       </c>
       <c r="J26" s="3">
-        <v>50300</v>
+        <v>51700</v>
       </c>
       <c r="K26" s="3">
         <v>-270700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-55700</v>
+        <v>-57300</v>
       </c>
       <c r="E27" s="3">
-        <v>269600</v>
+        <v>277100</v>
       </c>
       <c r="F27" s="3">
-        <v>-46500</v>
+        <v>-47800</v>
       </c>
       <c r="G27" s="3">
-        <v>-138100</v>
+        <v>-142000</v>
       </c>
       <c r="H27" s="3">
-        <v>-237000</v>
+        <v>-243700</v>
       </c>
       <c r="I27" s="3">
-        <v>19200</v>
+        <v>19700</v>
       </c>
       <c r="J27" s="3">
-        <v>50300</v>
+        <v>51700</v>
       </c>
       <c r="K27" s="3">
         <v>-270700</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="E32" s="3">
         <v>2200</v>
       </c>
       <c r="F32" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="G32" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="H32" s="3">
-        <v>-20200</v>
+        <v>-20800</v>
       </c>
       <c r="I32" s="3">
-        <v>-13000</v>
+        <v>-13400</v>
       </c>
       <c r="J32" s="3">
-        <v>-13900</v>
+        <v>-14300</v>
       </c>
       <c r="K32" s="3">
         <v>-12900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-55700</v>
+        <v>-57300</v>
       </c>
       <c r="E33" s="3">
-        <v>269600</v>
+        <v>277100</v>
       </c>
       <c r="F33" s="3">
-        <v>-46500</v>
+        <v>-47800</v>
       </c>
       <c r="G33" s="3">
-        <v>-138100</v>
+        <v>-142000</v>
       </c>
       <c r="H33" s="3">
-        <v>-237000</v>
+        <v>-243700</v>
       </c>
       <c r="I33" s="3">
-        <v>19200</v>
+        <v>19700</v>
       </c>
       <c r="J33" s="3">
-        <v>50300</v>
+        <v>51700</v>
       </c>
       <c r="K33" s="3">
         <v>-270700</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-55700</v>
+        <v>-57300</v>
       </c>
       <c r="E35" s="3">
-        <v>269600</v>
+        <v>277100</v>
       </c>
       <c r="F35" s="3">
-        <v>-46500</v>
+        <v>-47800</v>
       </c>
       <c r="G35" s="3">
-        <v>-138100</v>
+        <v>-142000</v>
       </c>
       <c r="H35" s="3">
-        <v>-237000</v>
+        <v>-243700</v>
       </c>
       <c r="I35" s="3">
-        <v>19200</v>
+        <v>19700</v>
       </c>
       <c r="J35" s="3">
-        <v>50300</v>
+        <v>51700</v>
       </c>
       <c r="K35" s="3">
         <v>-270700</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>129700</v>
+        <v>133400</v>
       </c>
       <c r="E41" s="3">
-        <v>149400</v>
+        <v>153600</v>
       </c>
       <c r="F41" s="3">
-        <v>336900</v>
+        <v>346300</v>
       </c>
       <c r="G41" s="3">
-        <v>52600</v>
+        <v>54100</v>
       </c>
       <c r="H41" s="3">
-        <v>37400</v>
+        <v>38500</v>
       </c>
       <c r="I41" s="3">
-        <v>66000</v>
+        <v>67900</v>
       </c>
       <c r="J41" s="3">
-        <v>66600</v>
+        <v>68400</v>
       </c>
       <c r="K41" s="3">
         <v>63700</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>80700</v>
+        <v>82900</v>
       </c>
       <c r="E43" s="3">
-        <v>80600</v>
+        <v>82900</v>
       </c>
       <c r="F43" s="3">
-        <v>65100</v>
+        <v>67000</v>
       </c>
       <c r="G43" s="3">
-        <v>52800</v>
+        <v>54300</v>
       </c>
       <c r="H43" s="3">
-        <v>56300</v>
+        <v>57900</v>
       </c>
       <c r="I43" s="3">
-        <v>49300</v>
+        <v>50700</v>
       </c>
       <c r="J43" s="3">
-        <v>33100</v>
+        <v>34000</v>
       </c>
       <c r="K43" s="3">
         <v>43100</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>149300</v>
+        <v>153500</v>
       </c>
       <c r="E44" s="3">
-        <v>134700</v>
+        <v>138500</v>
       </c>
       <c r="F44" s="3">
-        <v>128300</v>
+        <v>131900</v>
       </c>
       <c r="G44" s="3">
-        <v>104200</v>
+        <v>107200</v>
       </c>
       <c r="H44" s="3">
-        <v>93200</v>
+        <v>95800</v>
       </c>
       <c r="I44" s="3">
-        <v>59700</v>
+        <v>61400</v>
       </c>
       <c r="J44" s="3">
-        <v>61800</v>
+        <v>63600</v>
       </c>
       <c r="K44" s="3">
         <v>77100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37400</v>
+        <v>38500</v>
       </c>
       <c r="E45" s="3">
-        <v>88400</v>
+        <v>90900</v>
       </c>
       <c r="F45" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="G45" s="3">
-        <v>22300</v>
+        <v>22900</v>
       </c>
       <c r="H45" s="3">
-        <v>34600</v>
+        <v>35600</v>
       </c>
       <c r="I45" s="3">
-        <v>86500</v>
+        <v>88900</v>
       </c>
       <c r="J45" s="3">
-        <v>22300</v>
+        <v>22900</v>
       </c>
       <c r="K45" s="3">
         <v>4200</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>397100</v>
+        <v>408300</v>
       </c>
       <c r="E46" s="3">
-        <v>453100</v>
+        <v>465900</v>
       </c>
       <c r="F46" s="3">
-        <v>538700</v>
+        <v>553800</v>
       </c>
       <c r="G46" s="3">
-        <v>231900</v>
+        <v>238500</v>
       </c>
       <c r="H46" s="3">
-        <v>221600</v>
+        <v>227800</v>
       </c>
       <c r="I46" s="3">
-        <v>261500</v>
+        <v>268900</v>
       </c>
       <c r="J46" s="3">
-        <v>183800</v>
+        <v>189000</v>
       </c>
       <c r="K46" s="3">
         <v>188000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26400</v>
+        <v>27200</v>
       </c>
       <c r="E47" s="3">
-        <v>24300</v>
+        <v>25000</v>
       </c>
       <c r="F47" s="3">
-        <v>28300</v>
+        <v>29100</v>
       </c>
       <c r="G47" s="3">
-        <v>23500</v>
+        <v>24200</v>
       </c>
       <c r="H47" s="3">
-        <v>18400</v>
+        <v>19000</v>
       </c>
       <c r="I47" s="3">
-        <v>12500</v>
+        <v>12800</v>
       </c>
       <c r="J47" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="K47" s="3">
         <v>5100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1741900</v>
+        <v>1790900</v>
       </c>
       <c r="E48" s="3">
-        <v>1780300</v>
+        <v>1830400</v>
       </c>
       <c r="F48" s="3">
-        <v>1546600</v>
+        <v>1590100</v>
       </c>
       <c r="G48" s="3">
-        <v>1470400</v>
+        <v>1511800</v>
       </c>
       <c r="H48" s="3">
-        <v>1642700</v>
+        <v>1688900</v>
       </c>
       <c r="I48" s="3">
-        <v>1592000</v>
+        <v>1636800</v>
       </c>
       <c r="J48" s="3">
-        <v>1585400</v>
+        <v>1630000</v>
       </c>
       <c r="K48" s="3">
         <v>1763100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E49" s="3">
-        <v>19300</v>
+        <v>19900</v>
       </c>
       <c r="F49" s="3">
-        <v>28400</v>
+        <v>29200</v>
       </c>
       <c r="G49" s="3">
-        <v>28200</v>
+        <v>29000</v>
       </c>
       <c r="H49" s="3">
-        <v>27300</v>
+        <v>28100</v>
       </c>
       <c r="I49" s="3">
-        <v>32000</v>
+        <v>32900</v>
       </c>
       <c r="J49" s="3">
-        <v>46100</v>
+        <v>47400</v>
       </c>
       <c r="K49" s="3">
         <v>52800</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>312400</v>
+        <v>321200</v>
       </c>
       <c r="E52" s="3">
-        <v>309000</v>
+        <v>317700</v>
       </c>
       <c r="F52" s="3">
-        <v>226300</v>
+        <v>232600</v>
       </c>
       <c r="G52" s="3">
-        <v>192500</v>
+        <v>197900</v>
       </c>
       <c r="H52" s="3">
-        <v>184300</v>
+        <v>189500</v>
       </c>
       <c r="I52" s="3">
-        <v>162500</v>
+        <v>167000</v>
       </c>
       <c r="J52" s="3">
-        <v>137500</v>
+        <v>141400</v>
       </c>
       <c r="K52" s="3">
         <v>147300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2480400</v>
+        <v>2550100</v>
       </c>
       <c r="E54" s="3">
-        <v>2586100</v>
+        <v>2658800</v>
       </c>
       <c r="F54" s="3">
-        <v>2368200</v>
+        <v>2434800</v>
       </c>
       <c r="G54" s="3">
-        <v>1946600</v>
+        <v>2001400</v>
       </c>
       <c r="H54" s="3">
-        <v>2094300</v>
+        <v>2153200</v>
       </c>
       <c r="I54" s="3">
-        <v>2060400</v>
+        <v>2118300</v>
       </c>
       <c r="J54" s="3">
-        <v>1962200</v>
+        <v>2017400</v>
       </c>
       <c r="K54" s="3">
         <v>2156300</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>67100</v>
+        <v>69000</v>
       </c>
       <c r="E57" s="3">
-        <v>67200</v>
+        <v>69100</v>
       </c>
       <c r="F57" s="3">
-        <v>37400</v>
+        <v>38500</v>
       </c>
       <c r="G57" s="3">
-        <v>40400</v>
+        <v>41600</v>
       </c>
       <c r="H57" s="3">
-        <v>31100</v>
+        <v>32000</v>
       </c>
       <c r="I57" s="3">
-        <v>27600</v>
+        <v>28400</v>
       </c>
       <c r="J57" s="3">
-        <v>18700</v>
+        <v>19200</v>
       </c>
       <c r="K57" s="3">
         <v>31300</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11800</v>
+        <v>12100</v>
       </c>
       <c r="E58" s="3">
-        <v>26200</v>
+        <v>26900</v>
       </c>
       <c r="F58" s="3">
-        <v>16700</v>
+        <v>17200</v>
       </c>
       <c r="G58" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="H58" s="3">
-        <v>36600</v>
+        <v>37600</v>
       </c>
       <c r="I58" s="3">
-        <v>97200</v>
+        <v>99900</v>
       </c>
       <c r="J58" s="3">
-        <v>15900</v>
+        <v>16300</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>16</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>184800</v>
+        <v>190000</v>
       </c>
       <c r="E59" s="3">
-        <v>200800</v>
+        <v>206500</v>
       </c>
       <c r="F59" s="3">
-        <v>346500</v>
+        <v>356200</v>
       </c>
       <c r="G59" s="3">
-        <v>126200</v>
+        <v>129800</v>
       </c>
       <c r="H59" s="3">
-        <v>123000</v>
+        <v>126500</v>
       </c>
       <c r="I59" s="3">
-        <v>78900</v>
+        <v>81100</v>
       </c>
       <c r="J59" s="3">
-        <v>73000</v>
+        <v>75100</v>
       </c>
       <c r="K59" s="3">
         <v>67800</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>263600</v>
+        <v>271000</v>
       </c>
       <c r="E60" s="3">
-        <v>294300</v>
+        <v>302500</v>
       </c>
       <c r="F60" s="3">
-        <v>400600</v>
+        <v>411900</v>
       </c>
       <c r="G60" s="3">
-        <v>171400</v>
+        <v>176200</v>
       </c>
       <c r="H60" s="3">
-        <v>190700</v>
+        <v>196100</v>
       </c>
       <c r="I60" s="3">
-        <v>203700</v>
+        <v>209400</v>
       </c>
       <c r="J60" s="3">
-        <v>107600</v>
+        <v>110600</v>
       </c>
       <c r="K60" s="3">
         <v>99100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>181500</v>
+        <v>186600</v>
       </c>
       <c r="E61" s="3">
-        <v>165800</v>
+        <v>170400</v>
       </c>
       <c r="F61" s="3">
-        <v>399800</v>
+        <v>411000</v>
       </c>
       <c r="G61" s="3">
-        <v>308700</v>
+        <v>317400</v>
       </c>
       <c r="H61" s="3">
-        <v>260900</v>
+        <v>268300</v>
       </c>
       <c r="I61" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="J61" s="3">
-        <v>108000</v>
+        <v>111100</v>
       </c>
       <c r="K61" s="3">
         <v>202800</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>439300</v>
+        <v>451700</v>
       </c>
       <c r="E62" s="3">
-        <v>472000</v>
+        <v>485300</v>
       </c>
       <c r="F62" s="3">
-        <v>329200</v>
+        <v>338500</v>
       </c>
       <c r="G62" s="3">
-        <v>268200</v>
+        <v>275800</v>
       </c>
       <c r="H62" s="3">
-        <v>297700</v>
+        <v>306100</v>
       </c>
       <c r="I62" s="3">
-        <v>288700</v>
+        <v>296900</v>
       </c>
       <c r="J62" s="3">
-        <v>253300</v>
+        <v>260500</v>
       </c>
       <c r="K62" s="3">
         <v>258000</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>888600</v>
+        <v>913600</v>
       </c>
       <c r="E66" s="3">
-        <v>934900</v>
+        <v>961200</v>
       </c>
       <c r="F66" s="3">
-        <v>1129800</v>
+        <v>1161600</v>
       </c>
       <c r="G66" s="3">
-        <v>748300</v>
+        <v>769400</v>
       </c>
       <c r="H66" s="3">
-        <v>749300</v>
+        <v>770400</v>
       </c>
       <c r="I66" s="3">
-        <v>508300</v>
+        <v>522600</v>
       </c>
       <c r="J66" s="3">
-        <v>469000</v>
+        <v>482200</v>
       </c>
       <c r="K66" s="3">
         <v>559900</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-364000</v>
+        <v>-374200</v>
       </c>
       <c r="E72" s="3">
-        <v>-293900</v>
+        <v>-302100</v>
       </c>
       <c r="F72" s="3">
-        <v>-535800</v>
+        <v>-550900</v>
       </c>
       <c r="G72" s="3">
-        <v>-499400</v>
+        <v>-513500</v>
       </c>
       <c r="H72" s="3">
-        <v>-373500</v>
+        <v>-384000</v>
       </c>
       <c r="I72" s="3">
-        <v>-148600</v>
+        <v>-152800</v>
       </c>
       <c r="J72" s="3">
-        <v>-164200</v>
+        <v>-168800</v>
       </c>
       <c r="K72" s="3">
         <v>-260800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1591800</v>
+        <v>1636500</v>
       </c>
       <c r="E76" s="3">
-        <v>1651200</v>
+        <v>1697600</v>
       </c>
       <c r="F76" s="3">
-        <v>1238400</v>
+        <v>1273300</v>
       </c>
       <c r="G76" s="3">
-        <v>1198300</v>
+        <v>1232000</v>
       </c>
       <c r="H76" s="3">
-        <v>1345000</v>
+        <v>1382800</v>
       </c>
       <c r="I76" s="3">
-        <v>1552100</v>
+        <v>1595800</v>
       </c>
       <c r="J76" s="3">
-        <v>1493200</v>
+        <v>1535200</v>
       </c>
       <c r="K76" s="3">
         <v>1596400</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-55700</v>
+        <v>-57300</v>
       </c>
       <c r="E81" s="3">
-        <v>269600</v>
+        <v>277100</v>
       </c>
       <c r="F81" s="3">
-        <v>-46500</v>
+        <v>-47800</v>
       </c>
       <c r="G81" s="3">
-        <v>-138100</v>
+        <v>-142000</v>
       </c>
       <c r="H81" s="3">
-        <v>-237000</v>
+        <v>-243700</v>
       </c>
       <c r="I81" s="3">
-        <v>19200</v>
+        <v>19700</v>
       </c>
       <c r="J81" s="3">
-        <v>50300</v>
+        <v>51700</v>
       </c>
       <c r="K81" s="3">
         <v>-270700</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>205400</v>
+        <v>200600</v>
       </c>
       <c r="E83" s="3">
-        <v>185900</v>
+        <v>211200</v>
       </c>
       <c r="F83" s="3">
-        <v>214800</v>
+        <v>191100</v>
       </c>
       <c r="G83" s="3">
-        <v>136200</v>
+        <v>220900</v>
       </c>
       <c r="H83" s="3">
-        <v>133500</v>
+        <v>140000</v>
       </c>
       <c r="I83" s="3">
-        <v>115000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
+        <v>137200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>118200</v>
       </c>
       <c r="K83" s="3">
         <v>147500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>486400</v>
+        <v>377200</v>
       </c>
       <c r="E89" s="3">
-        <v>250300</v>
+        <v>500100</v>
       </c>
       <c r="F89" s="3">
-        <v>247900</v>
+        <v>257300</v>
       </c>
       <c r="G89" s="3">
-        <v>205800</v>
+        <v>254900</v>
       </c>
       <c r="H89" s="3">
-        <v>201600</v>
+        <v>211600</v>
       </c>
       <c r="I89" s="3">
-        <v>239100</v>
+        <v>207200</v>
       </c>
       <c r="J89" s="3">
-        <v>106300</v>
+        <v>245900</v>
       </c>
       <c r="K89" s="3">
         <v>119700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-272500</v>
+        <v>-338500</v>
       </c>
       <c r="E91" s="3">
-        <v>-190900</v>
+        <v>-280100</v>
       </c>
       <c r="F91" s="3">
-        <v>-266800</v>
+        <v>-196200</v>
       </c>
       <c r="G91" s="3">
-        <v>-241700</v>
+        <v>-274300</v>
       </c>
       <c r="H91" s="3">
-        <v>-206100</v>
+        <v>-248500</v>
       </c>
       <c r="I91" s="3">
-        <v>-129100</v>
+        <v>-211900</v>
       </c>
       <c r="J91" s="3">
-        <v>-149500</v>
+        <v>-132800</v>
       </c>
       <c r="K91" s="3">
         <v>-168400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-448500</v>
+        <v>-337800</v>
       </c>
       <c r="E94" s="3">
-        <v>-188500</v>
+        <v>-461100</v>
       </c>
       <c r="F94" s="3">
-        <v>-254200</v>
+        <v>-193800</v>
       </c>
       <c r="G94" s="3">
-        <v>-427900</v>
+        <v>-261300</v>
       </c>
       <c r="H94" s="3">
-        <v>-179300</v>
+        <v>-439900</v>
       </c>
       <c r="I94" s="3">
-        <v>-137700</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
+        <v>-184300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-141600</v>
       </c>
       <c r="K94" s="3">
         <v>-173500</v>
@@ -3997,22 +3997,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-36200</v>
+        <v>-23400</v>
       </c>
       <c r="E96" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-200</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
-        <v>-8200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-23300</v>
+        <v>-8400</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-23900</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-227800</v>
+        <v>-62700</v>
       </c>
       <c r="E100" s="3">
-        <v>228100</v>
+        <v>-234200</v>
       </c>
       <c r="F100" s="3">
-        <v>20100</v>
+        <v>234500</v>
       </c>
       <c r="G100" s="3">
-        <v>197300</v>
+        <v>20700</v>
       </c>
       <c r="H100" s="3">
-        <v>-23800</v>
+        <v>202800</v>
       </c>
       <c r="I100" s="3">
-        <v>-92500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
+        <v>-24500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-95100</v>
       </c>
       <c r="K100" s="3">
         <v>8800</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2400</v>
+        <v>3100</v>
       </c>
       <c r="E101" s="3">
-        <v>-5600</v>
+        <v>2500</v>
       </c>
       <c r="F101" s="3">
-        <v>1300</v>
+        <v>-5800</v>
       </c>
       <c r="G101" s="3">
-        <v>-3800</v>
+        <v>1400</v>
       </c>
       <c r="H101" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1100</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-187500</v>
+        <v>-20200</v>
       </c>
       <c r="E102" s="3">
-        <v>284200</v>
+        <v>-192800</v>
       </c>
       <c r="F102" s="3">
-        <v>15200</v>
+        <v>292200</v>
       </c>
       <c r="G102" s="3">
-        <v>-28600</v>
+        <v>15600</v>
       </c>
       <c r="H102" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
-        <v>10000</v>
-      </c>
       <c r="J102" s="3">
-        <v>-40400</v>
+        <v>10300</v>
       </c>
       <c r="K102" s="3">
         <v>-45500</v>
